--- a/i18n/fr.xlsx
+++ b/i18n/fr.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matej\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3953E686-2162-4186-80B4-FA97ED871142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275" activeTab="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -15,21 +21,29 @@
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">Birds!$A$1:$F$262</definedName>
     <definedName name="ExternalData_2" localSheetId="1" hidden="1">Bonuses!$A$1:$G$34</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Query - birds" description="Connection to the 'birds' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Query - birds" description="Connection to the 'birds' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=birds;Extended Properties=&quot;&quot;" command="SELECT * FROM [birds]"/>
   </connection>
-  <connection id="2" keepAlive="1" name="Query - bonuses" description="Connection to the 'bonuses' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" keepAlive="1" name="Query - bonuses" description="Connection to the 'bonuses' query in the workbook." type="5" refreshedVersion="6" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=bonuses;Extended Properties=&quot;&quot;" command="SELECT * FROM [bonuses]"/>
   </connection>
 </connections>
@@ -2552,15 +2566,9 @@
     <t>Oiseaux ayant des cartes glissées sous eux</t>
   </si>
   <si>
-    <t>Les termes incluent : aigrette, aile, bec, col, croupion, épaule, face, gorge, huppe, poitrine, queue, tête, ventre, yeux.</t>
-  </si>
-  <si>
     <t>Oiseaux valant moins de 4 points</t>
   </si>
   <si>
-    <t>Pour chaque colonne avec des oiseaux ayant 3 couleurs de pouvoirs différentes (marron, blanc, rose, bleu) :</t>
-  </si>
-  <si>
     <t>Oiseaux pouvant vivre dans plusieurs habitats</t>
   </si>
   <si>
@@ -2573,52 +2581,7 @@
     <t>Oiseaux avec 1 icône [seed]. Ils peuvent aussi avoir d'autres icônes.</t>
   </si>
   <si>
-    <t>ANATOMISTE</t>
-  </si>
-  <si>
-    <t>ORNITHOLOGUE DE BASSE-COUR</t>
-  </si>
-  <si>
-    <t>2-3 OISEAUX : 3[point]; 4+ OISEAUX : 7[point]</t>
-  </si>
-  <si>
-    <t>5-6 OISEAUX : 3[point]; 7+ OISEAUX : 6[point]</t>
-  </si>
-  <si>
-    <t>COMPORTEMENTALISTE</t>
-  </si>
-  <si>
     <t>Les oiseaux sans pouvoir comptent comme blanc.</t>
-  </si>
-  <si>
-    <t>3[point] PAR COLONNE</t>
-  </si>
-  <si>
-    <t>BAGUEUR D'OISEAUX</t>
-  </si>
-  <si>
-    <t>4-5 OISEAUX : 4[point]; 6+ OISEAUX : 7[point]</t>
-  </si>
-  <si>
-    <t>COMPTEUR D'OISEAUX</t>
-  </si>
-  <si>
-    <t>2[point] PAR OISEAU</t>
-  </si>
-  <si>
-    <t>MANGEOIRE</t>
-  </si>
-  <si>
-    <t>5-7 OISEAUX : 3[point]; 8+ OISEAUX : 7[point]</t>
-  </si>
-  <si>
-    <t>DIRECTEUR D'ÉLEVAGE</t>
-  </si>
-  <si>
-    <t>1[point] PAR OISEAU</t>
-  </si>
-  <si>
-    <t>CARTOGRAPHE</t>
   </si>
   <si>
     <t>Oiseaux avec des termes géographiques dans leur nom</t>
@@ -2648,189 +2611,81 @@
     </r>
   </si>
   <si>
-    <t>Ces termes incluent : Amérique, Baltimore, Californie, Canada, Caroline, Est, Inca, Islande, Mississippi, Ouest, Prairies, Prés, Rivage, Virginie.</t>
-  </si>
-  <si>
-    <t>SCIENTIFIQUE CITOYEN</t>
-  </si>
-  <si>
-    <t>4-6 OISEAUX : 3[point]; 7+ OISEAUX : 7[point]</t>
-  </si>
-  <si>
-    <t>DIÉTÉTICIEN</t>
-  </si>
-  <si>
     <t>Oiseaux coûtant 2 nourritures</t>
   </si>
   <si>
-    <t>2-3 OISEAUX : 3[point]; 4+ OISEAUX : 6[point]</t>
-  </si>
-  <si>
-    <t>ÉCOLOGISTE</t>
-  </si>
-  <si>
     <t>Oiseaux dans votre habitat le moins peuplé</t>
   </si>
   <si>
-    <t>Les égalités comptent : si vous avez 3 oiseaux dans chaque habitat, votre habitat le moins peuplé en compte 3.</t>
-  </si>
-  <si>
-    <t>CONSTRUCTEUR D'ENCLOS</t>
-  </si>
-  <si>
     <t>Oiseaux avec un nid [ground]</t>
   </si>
   <si>
     <t>Oiseaux ayant un nid de type [ground] ou [star]</t>
   </si>
   <si>
-    <t>ÉTHOLOGUE</t>
-  </si>
-  <si>
-    <t>Dans un de vos habitats :</t>
-  </si>
-  <si>
     <t>(marron, blanc, rose, bleu) Les oiseaux sans pouvoir comptent comme blanc.</t>
   </si>
   <si>
-    <t>2[point] PAR COULEUR DE POUVOIR</t>
-  </si>
-  <si>
-    <t>FAUCONNIER</t>
-  </si>
-  <si>
     <t>Oiseaux avec un pouvoir [predator]</t>
   </si>
   <si>
-    <t>GÉRANT DE PÊCHERIE</t>
-  </si>
-  <si>
     <t>Oiseaux qui mangent [fish]</t>
   </si>
   <si>
     <t>Oiseaux avec 1 icône [fish]. Ils peuvent aussi avoir d'autres icônes.</t>
   </si>
   <si>
-    <t>2-3 OISEAUX : 3[point]; 4+ OISEAUX : 8[point]</t>
-  </si>
-  <si>
-    <t>EXPERT EN CHAÎNE ALIMENTAIRE</t>
-  </si>
-  <si>
     <t>Oiseaux qui mangent [invertebrate] uniquement</t>
   </si>
   <si>
     <t>Oiseaux avec 1 icône [invertebrate] et aucune autre icône de nourriture.</t>
   </si>
   <si>
-    <t>FORESTIER</t>
-  </si>
-  <si>
     <t>Oiseaux vivant uniquement dans [forest]</t>
   </si>
   <si>
-    <t>3-4 OISEAUX : 4[point]; 5 OISEAUX : 8[point]</t>
-  </si>
-  <si>
-    <t>HISTORIEN</t>
-  </si>
-  <si>
     <t>Oiseaux portant le nom d'une personne</t>
   </si>
   <si>
     <t>Oiseaux portant le nom d'une personne. Ces noms sont soulignés sur les cartes Oiseau.</t>
   </si>
   <si>
-    <t>SPÉCIALISTE DES GRANDS OISEAUX</t>
-  </si>
-  <si>
     <t>Oiseaux avec une envergure de plus de 65 cm</t>
   </si>
   <si>
-    <t>4-5 OISEAUX : 3[point]; 6+ OISEAUX : 6[point]</t>
-  </si>
-  <si>
-    <t>CONSTRUCTEUR DE NICHOIR</t>
-  </si>
-  <si>
     <t>Oiseaux avec un nid [cavity]</t>
   </si>
   <si>
     <t>Oiseaux ayant un nid de type [cavity] ou [star]</t>
   </si>
   <si>
-    <t>EXPERT EN OMNIVORES</t>
-  </si>
-  <si>
-    <t>OOLOGISTE</t>
-  </si>
-  <si>
     <t>Oiseaux ayant au moins 1 œuf sur eux</t>
   </si>
   <si>
-    <t>7-8 OISEAUX : 3[point]; 9+ OISEAUX : 6[point]</t>
-  </si>
-  <si>
-    <t>SPÉCIALISTE DES PASSEREAUX</t>
-  </si>
-  <si>
     <t>Oiseaux avec une envergure de 30 cm ou moins</t>
   </si>
   <si>
-    <t>PHOTOGRAPHE</t>
-  </si>
-  <si>
     <t>Oiseaux avec une couleur dans leur nom</t>
   </si>
   <si>
-    <t>Les couleurs incluent : ardoisé, azuré, blanc, bleu, bronzé, brun, cendré, gris, indigo, jaune, neigeuse, noir, orangé, rose, rosée, rouge, rouilleux, roux/rousse, rubis, vert, violacé.</t>
-  </si>
-  <si>
-    <t>CONSTRUCTEUR DE PLATEFORME</t>
-  </si>
-  <si>
     <t>Oiseaux avec un nid [platform]</t>
   </si>
   <si>
     <t>Oiseaux ayant un nid de type [platform] ou [star]</t>
   </si>
   <si>
-    <t>GARDIEN DE PRAIRIE</t>
-  </si>
-  <si>
     <t>Oiseaux vivant uniquement dans [grassland]</t>
   </si>
   <si>
-    <t>EXPERT EN RONGEURS</t>
-  </si>
-  <si>
     <t>Oiseaux qui mangent [rodent]</t>
   </si>
   <si>
-    <t>PLANIFICATEUR</t>
-  </si>
-  <si>
     <t>Cartes Oiseau en main en fin de partie</t>
   </si>
   <si>
-    <t>5-7 OISEAUX : 4[point]; 8+ OISEAUX : 7[point]</t>
-  </si>
-  <si>
-    <t>VITICULTEUR</t>
-  </si>
-  <si>
     <t>Oiseaux qui mangent [fruit]</t>
   </si>
   <si>
-    <t>SCIENTIFIQUE EN ZONE HUMIDE</t>
-  </si>
-  <si>
-    <t>3-4 OISEAUX : 3[point]; 5 OISEAUX : 7[point]</t>
-  </si>
-  <si>
-    <t>JARDINIER ANIMALIER</t>
-  </si>
-  <si>
     <t>Oiseaux avec un nid [bowl]</t>
   </si>
   <si>
@@ -2850,12 +2705,6 @@
   </si>
   <si>
     <t>ACTIVATION</t>
-  </si>
-  <si>
-    <t>[automa] AUTO PERCHEUR</t>
-  </si>
-  <si>
-    <t>[automa] MEMBRE DE LA LPO</t>
   </si>
   <si>
     <t>Oiseaux qui valent 3 ou 4 points</t>
@@ -2895,11 +2744,176 @@
   <si>
     <t>Oiseaux avec 1 icône [fruit]. Ils peuvent aussi avoir d'autres icônes.</t>
   </si>
+  <si>
+    <t>Anatomiste</t>
+  </si>
+  <si>
+    <t>Ornithologue De Basse-Cour</t>
+  </si>
+  <si>
+    <t>Comportementaliste</t>
+  </si>
+  <si>
+    <t>Bagueur D'Oiseaux</t>
+  </si>
+  <si>
+    <t>Compteur D'Oiseaux</t>
+  </si>
+  <si>
+    <t>Mangeoire</t>
+  </si>
+  <si>
+    <t>Directeur D'Élevage</t>
+  </si>
+  <si>
+    <t>Cartographe</t>
+  </si>
+  <si>
+    <t>Scientifique Citoyen</t>
+  </si>
+  <si>
+    <t>Diététicien</t>
+  </si>
+  <si>
+    <t>Écologiste</t>
+  </si>
+  <si>
+    <t>Constructeur D'Enclos</t>
+  </si>
+  <si>
+    <t>Éthologue</t>
+  </si>
+  <si>
+    <t>Fauconnier</t>
+  </si>
+  <si>
+    <t>Gérant De Pêcherie</t>
+  </si>
+  <si>
+    <t>Expert En Chaîne Alimentaire</t>
+  </si>
+  <si>
+    <t>Forestier</t>
+  </si>
+  <si>
+    <t>Historien</t>
+  </si>
+  <si>
+    <t>Spécialiste Des Grands Oiseaux</t>
+  </si>
+  <si>
+    <t>Constructeur De Nichoir</t>
+  </si>
+  <si>
+    <t>Expert En Omnivores</t>
+  </si>
+  <si>
+    <t>Oologiste</t>
+  </si>
+  <si>
+    <t>Spécialiste Des Passereaux</t>
+  </si>
+  <si>
+    <t>Photographe</t>
+  </si>
+  <si>
+    <t>Constructeur De Plateforme</t>
+  </si>
+  <si>
+    <t>Gardien De Prairie</t>
+  </si>
+  <si>
+    <t>Expert En Rongeurs</t>
+  </si>
+  <si>
+    <t>Planificateur</t>
+  </si>
+  <si>
+    <t>Viticulteur</t>
+  </si>
+  <si>
+    <t>Scientifique En Zone Humide</t>
+  </si>
+  <si>
+    <t>Jardinier Animalier</t>
+  </si>
+  <si>
+    <t>3[point] par colonne</t>
+  </si>
+  <si>
+    <t>2[point] par oiseau</t>
+  </si>
+  <si>
+    <t>1[point] par oiseau</t>
+  </si>
+  <si>
+    <t>2[point] par couleur de pouvoir</t>
+  </si>
+  <si>
+    <t>[automa] Auto Percheur</t>
+  </si>
+  <si>
+    <t>[automa] Membre De La Lpo</t>
+  </si>
+  <si>
+    <t>Les termes incluent: aigrette, aile, bec, col, croupion, épaule, face, gorge, huppe, poitrine, queue, tête, ventre, yeux.</t>
+  </si>
+  <si>
+    <t>2-3 oiseaux: 3[point]; 4+ oiseaux: 7[point]</t>
+  </si>
+  <si>
+    <t>5-6 oiseaux: 3[point]; 7+ oiseaux: 6[point]</t>
+  </si>
+  <si>
+    <t>Pour chaque colonne avec des oiseaux ayant 3 couleurs de pouvoirs différentes (marron, blanc, rose, bleu):</t>
+  </si>
+  <si>
+    <t>4-5 oiseaux: 4[point]; 6+ oiseaux: 7[point]</t>
+  </si>
+  <si>
+    <t>5-7 oiseaux: 3[point]; 8+ oiseaux: 7[point]</t>
+  </si>
+  <si>
+    <t>Ces termes incluent: Amérique, Baltimore, Californie, Canada, Caroline, Est, Inca, Islande, Mississippi, Ouest, Prairies, Prés, Rivage, Virginie.</t>
+  </si>
+  <si>
+    <t>4-6 oiseaux: 3[point]; 7+ oiseaux: 7[point]</t>
+  </si>
+  <si>
+    <t>2-3 oiseaux: 3[point]; 4+ oiseaux: 6[point]</t>
+  </si>
+  <si>
+    <t>Les égalités comptent: si vous avez 3 oiseaux dans chaque habitat, votre habitat le moins peuplé en compte 3.</t>
+  </si>
+  <si>
+    <t>Dans un de vos habitats:</t>
+  </si>
+  <si>
+    <t>2-3 oiseaux: 3[point]; 4+ oiseaux: 8[point]</t>
+  </si>
+  <si>
+    <t>3-4 oiseaux: 4[point]; 5 oiseaux: 8[point]</t>
+  </si>
+  <si>
+    <t>4-5 oiseaux: 3[point]; 6+ oiseaux: 6[point]</t>
+  </si>
+  <si>
+    <t>7-8 oiseaux: 3[point]; 9+ oiseaux: 6[point]</t>
+  </si>
+  <si>
+    <t>Les couleurs incluent: ardoisé, azuré, blanc, bleu, bronzé, brun, cendré, gris, indigo, jaune, neigeuse, noir, orangé, rose, rosée, rouge, rouilleux, roux/rousse, rubis, vert, violacé.</t>
+  </si>
+  <si>
+    <t>5-7 oiseaux: 4[point]; 8+ oiseaux: 7[point]</t>
+  </si>
+  <si>
+    <t>3-4 oiseaux: 3[point]; 5 oiseaux: 7[point]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2972,9 +2986,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3027,7 +3039,9 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3047,7 +3061,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="7">
     <queryTableFields count="6">
       <queryTableField id="1" name="id" tableColumnId="1"/>
@@ -3062,8 +3076,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="ExternalData_2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="8">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_2" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh nextId="9">
     <queryTableFields count="7">
       <queryTableField id="1" name="id" tableColumnId="1"/>
       <queryTableField id="2" name="English name" tableColumnId="2"/>
@@ -3078,42 +3092,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="birds" displayName="birds" ref="A1:F262" tableType="queryTable" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:F262"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="birds" displayName="birds" ref="A1:F262" tableType="queryTable" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:F262" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="11"/>
-    <tableColumn id="2" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="10"/>
-    <tableColumn id="3" uniqueName="3" name="Scientific name" queryTableFieldId="3" dataDxfId="9"/>
-    <tableColumn id="4" uniqueName="4" name="Common name" queryTableFieldId="4" dataDxfId="8"/>
-    <tableColumn id="5" uniqueName="5" name="Power text" queryTableFieldId="5" dataDxfId="7"/>
-    <tableColumn id="6" uniqueName="6" name="Note" queryTableFieldId="6" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Scientific name" queryTableFieldId="3" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Common name" queryTableFieldId="4" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Power text" queryTableFieldId="5" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Note" queryTableFieldId="6" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="bonuses" displayName="bonuses" ref="A1:G34" tableType="queryTable" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:G34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="bonuses" displayName="bonuses" ref="A1:G34" tableType="queryTable" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:G34" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="20"/>
-    <tableColumn id="2" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="19"/>
-    <tableColumn id="3" uniqueName="3" name="Name" queryTableFieldId="3" dataDxfId="18"/>
-    <tableColumn id="4" uniqueName="4" name="Condition" queryTableFieldId="4" dataDxfId="17"/>
-    <tableColumn id="5" uniqueName="5" name="Explanatory text" queryTableFieldId="5" dataDxfId="16"/>
-    <tableColumn id="6" uniqueName="6" name="VP" queryTableFieldId="6" dataDxfId="15"/>
-    <tableColumn id="7" uniqueName="7" name="Note" queryTableFieldId="7" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="Name" queryTableFieldId="3" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" uniqueName="4" name="Condition" queryTableFieldId="4" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" uniqueName="5" name="Explanatory text" queryTableFieldId="5" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" uniqueName="6" name="VP" queryTableFieldId="6" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" uniqueName="7" name="Note" queryTableFieldId="7" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:B6" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:B6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="A1:B6" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:B6" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="English name" dataDxfId="3"/>
-    <tableColumn id="2" name="Translated" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="English name" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Translated" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3374,31 +3388,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="26.265625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3418,7 +3432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -3438,7 +3452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -3458,7 +3472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -3478,7 +3492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -3498,7 +3512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -3518,7 +3532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -3538,7 +3552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -3558,7 +3572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -3578,7 +3592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -3598,7 +3612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -3618,7 +3632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -3638,7 +3652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -3658,7 +3672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -3678,7 +3692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -3698,7 +3712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -3718,7 +3732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -3738,7 +3752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -3758,7 +3772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -3778,7 +3792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -3798,7 +3812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -3818,7 +3832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -3838,7 +3852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -3858,7 +3872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -3878,7 +3892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -3898,7 +3912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -3918,7 +3932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -3938,7 +3952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -3958,7 +3972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -3978,7 +3992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -3998,7 +4012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -4018,7 +4032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -4038,7 +4052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -4058,7 +4072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -4078,7 +4092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -4098,7 +4112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -4118,7 +4132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -4138,7 +4152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -4158,7 +4172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -4178,7 +4192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -4198,7 +4212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -4218,7 +4232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -4238,7 +4252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -4258,7 +4272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -4278,7 +4292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -4298,7 +4312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -4318,7 +4332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -4338,7 +4352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -4358,7 +4372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -4378,7 +4392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -4398,7 +4412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -4418,7 +4432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -4438,7 +4452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -4458,7 +4472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -4478,7 +4492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -4498,7 +4512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -4518,7 +4532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -4538,7 +4552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -4558,7 +4572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -4578,7 +4592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -4598,7 +4612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -4618,7 +4632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -4638,7 +4652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -4658,7 +4672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -4678,7 +4692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -4698,7 +4712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -4718,7 +4732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -4738,7 +4752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -4758,7 +4772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -4778,7 +4792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -4798,7 +4812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -4818,7 +4832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -4838,7 +4852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -4858,7 +4872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -4878,7 +4892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -4898,7 +4912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -4918,7 +4932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -4938,7 +4952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -4958,7 +4972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -4978,7 +4992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -4998,7 +5012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -5018,7 +5032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>82</v>
       </c>
@@ -5038,7 +5052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -5058,7 +5072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -5078,7 +5092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -5098,7 +5112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -5118,7 +5132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -5138,7 +5152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>88</v>
       </c>
@@ -5158,7 +5172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>89</v>
       </c>
@@ -5178,7 +5192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>90</v>
       </c>
@@ -5198,7 +5212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>91</v>
       </c>
@@ -5218,7 +5232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>92</v>
       </c>
@@ -5238,7 +5252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
         <v>93</v>
       </c>
@@ -5258,7 +5272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>94</v>
       </c>
@@ -5278,7 +5292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>95</v>
       </c>
@@ -5298,7 +5312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>96</v>
       </c>
@@ -5318,7 +5332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>97</v>
       </c>
@@ -5338,7 +5352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>98</v>
       </c>
@@ -5358,7 +5372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>99</v>
       </c>
@@ -5378,7 +5392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -5398,7 +5412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>101</v>
       </c>
@@ -5418,7 +5432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>102</v>
       </c>
@@ -5438,7 +5452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
         <v>103</v>
       </c>
@@ -5458,7 +5472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>104</v>
       </c>
@@ -5478,7 +5492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>105</v>
       </c>
@@ -5498,7 +5512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>106</v>
       </c>
@@ -5518,7 +5532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
         <v>107</v>
       </c>
@@ -5538,7 +5552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
         <v>108</v>
       </c>
@@ -5558,7 +5572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="1">
         <v>109</v>
       </c>
@@ -5578,7 +5592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
         <v>110</v>
       </c>
@@ -5598,7 +5612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
         <v>111</v>
       </c>
@@ -5618,7 +5632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
         <v>112</v>
       </c>
@@ -5638,7 +5652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
         <v>113</v>
       </c>
@@ -5658,7 +5672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
         <v>114</v>
       </c>
@@ -5678,7 +5692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
         <v>115</v>
       </c>
@@ -5698,7 +5712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
         <v>116</v>
       </c>
@@ -5718,7 +5732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
         <v>117</v>
       </c>
@@ -5738,7 +5752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
         <v>118</v>
       </c>
@@ -5758,7 +5772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
         <v>119</v>
       </c>
@@ -5778,7 +5792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
         <v>120</v>
       </c>
@@ -5798,7 +5812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
         <v>121</v>
       </c>
@@ -5818,7 +5832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
         <v>122</v>
       </c>
@@ -5838,7 +5852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
         <v>123</v>
       </c>
@@ -5858,7 +5872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
         <v>124</v>
       </c>
@@ -5878,7 +5892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
         <v>125</v>
       </c>
@@ -5898,7 +5912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
         <v>126</v>
       </c>
@@ -5918,7 +5932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
         <v>127</v>
       </c>
@@ -5938,7 +5952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
         <v>128</v>
       </c>
@@ -5958,7 +5972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
         <v>129</v>
       </c>
@@ -5978,7 +5992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
         <v>130</v>
       </c>
@@ -5998,7 +6012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
         <v>131</v>
       </c>
@@ -6018,7 +6032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
         <v>132</v>
       </c>
@@ -6038,7 +6052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
         <v>133</v>
       </c>
@@ -6058,7 +6072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
         <v>134</v>
       </c>
@@ -6078,7 +6092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
         <v>135</v>
       </c>
@@ -6098,7 +6112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
         <v>136</v>
       </c>
@@ -6118,7 +6132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
         <v>137</v>
       </c>
@@ -6138,7 +6152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
         <v>138</v>
       </c>
@@ -6158,7 +6172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
         <v>139</v>
       </c>
@@ -6178,7 +6192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
         <v>140</v>
       </c>
@@ -6198,7 +6212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
         <v>141</v>
       </c>
@@ -6218,7 +6232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
         <v>142</v>
       </c>
@@ -6238,7 +6252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
         <v>143</v>
       </c>
@@ -6258,7 +6272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
         <v>144</v>
       </c>
@@ -6278,7 +6292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
         <v>145</v>
       </c>
@@ -6298,7 +6312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
         <v>146</v>
       </c>
@@ -6318,7 +6332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
         <v>147</v>
       </c>
@@ -6338,7 +6352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
         <v>148</v>
       </c>
@@ -6358,7 +6372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
         <v>149</v>
       </c>
@@ -6378,7 +6392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
         <v>150</v>
       </c>
@@ -6398,7 +6412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
         <v>151</v>
       </c>
@@ -6418,7 +6432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
         <v>152</v>
       </c>
@@ -6438,7 +6452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
         <v>153</v>
       </c>
@@ -6458,7 +6472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
         <v>154</v>
       </c>
@@ -6478,7 +6492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
         <v>155</v>
       </c>
@@ -6498,7 +6512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
         <v>156</v>
       </c>
@@ -6518,7 +6532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
         <v>157</v>
       </c>
@@ -6538,7 +6552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
         <v>158</v>
       </c>
@@ -6558,7 +6572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
         <v>159</v>
       </c>
@@ -6578,7 +6592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
         <v>160</v>
       </c>
@@ -6598,7 +6612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
         <v>161</v>
       </c>
@@ -6618,7 +6632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
         <v>162</v>
       </c>
@@ -6638,7 +6652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
         <v>163</v>
       </c>
@@ -6658,7 +6672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
         <v>164</v>
       </c>
@@ -6678,7 +6692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
         <v>165</v>
       </c>
@@ -6698,7 +6712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
         <v>166</v>
       </c>
@@ -6718,7 +6732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
         <v>167</v>
       </c>
@@ -6738,7 +6752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
         <v>168</v>
       </c>
@@ -6758,7 +6772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
         <v>169</v>
       </c>
@@ -6778,7 +6792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
         <v>170</v>
       </c>
@@ -6798,7 +6812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
         <v>171</v>
       </c>
@@ -6818,7 +6832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
         <v>172</v>
       </c>
@@ -6838,7 +6852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
         <v>173</v>
       </c>
@@ -6858,7 +6872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
         <v>174</v>
       </c>
@@ -6878,7 +6892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
         <v>175</v>
       </c>
@@ -6898,7 +6912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
         <v>176</v>
       </c>
@@ -6918,7 +6932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
         <v>177</v>
       </c>
@@ -6938,7 +6952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
         <v>178</v>
       </c>
@@ -6958,7 +6972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
         <v>179</v>
       </c>
@@ -6978,7 +6992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A180" s="1">
         <v>180</v>
       </c>
@@ -6998,7 +7012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
         <v>181</v>
       </c>
@@ -7018,7 +7032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
         <v>182</v>
       </c>
@@ -7038,7 +7052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
         <v>183</v>
       </c>
@@ -7058,7 +7072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
         <v>184</v>
       </c>
@@ -7078,7 +7092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
         <v>185</v>
       </c>
@@ -7098,7 +7112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
         <v>186</v>
       </c>
@@ -7118,7 +7132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
         <v>187</v>
       </c>
@@ -7138,7 +7152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A188" s="1">
         <v>188</v>
       </c>
@@ -7158,7 +7172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
         <v>189</v>
       </c>
@@ -7178,7 +7192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
         <v>190</v>
       </c>
@@ -7198,7 +7212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
         <v>191</v>
       </c>
@@ -7218,7 +7232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
         <v>192</v>
       </c>
@@ -7238,7 +7252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
         <v>193</v>
       </c>
@@ -7258,7 +7272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A194" s="1">
         <v>194</v>
       </c>
@@ -7278,7 +7292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A195" s="1">
         <v>195</v>
       </c>
@@ -7298,7 +7312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A196" s="1">
         <v>196</v>
       </c>
@@ -7318,7 +7332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A197" s="1">
         <v>197</v>
       </c>
@@ -7338,7 +7352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A198" s="1">
         <v>198</v>
       </c>
@@ -7358,7 +7372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A199" s="1">
         <v>199</v>
       </c>
@@ -7378,7 +7392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A200" s="1">
         <v>200</v>
       </c>
@@ -7398,7 +7412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
         <v>201</v>
       </c>
@@ -7418,7 +7432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A202" s="1">
         <v>203</v>
       </c>
@@ -7438,7 +7452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A203" s="1">
         <v>204</v>
       </c>
@@ -7458,7 +7472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A204" s="1">
         <v>205</v>
       </c>
@@ -7478,7 +7492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A205" s="1">
         <v>206</v>
       </c>
@@ -7498,7 +7512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A206" s="1">
         <v>207</v>
       </c>
@@ -7518,7 +7532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A207" s="1">
         <v>208</v>
       </c>
@@ -7538,7 +7552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A208" s="1">
         <v>209</v>
       </c>
@@ -7558,7 +7572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A209" s="1">
         <v>210</v>
       </c>
@@ -7578,7 +7592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A210" s="1">
         <v>211</v>
       </c>
@@ -7598,7 +7612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A211" s="1">
         <v>212</v>
       </c>
@@ -7618,7 +7632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A212" s="1">
         <v>213</v>
       </c>
@@ -7638,7 +7652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A213" s="1">
         <v>214</v>
       </c>
@@ -7658,7 +7672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A214" s="1">
         <v>215</v>
       </c>
@@ -7678,7 +7692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A215" s="1">
         <v>216</v>
       </c>
@@ -7698,7 +7712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A216" s="1">
         <v>217</v>
       </c>
@@ -7718,7 +7732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A217" s="1">
         <v>218</v>
       </c>
@@ -7738,7 +7752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A218" s="1">
         <v>219</v>
       </c>
@@ -7758,7 +7772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A219" s="1">
         <v>220</v>
       </c>
@@ -7778,7 +7792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A220" s="1">
         <v>221</v>
       </c>
@@ -7798,7 +7812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A221" s="1">
         <v>222</v>
       </c>
@@ -7818,7 +7832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A222" s="1">
         <v>223</v>
       </c>
@@ -7838,7 +7852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A223" s="1">
         <v>224</v>
       </c>
@@ -7858,7 +7872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A224" s="1">
         <v>225</v>
       </c>
@@ -7878,7 +7892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A225" s="1">
         <v>226</v>
       </c>
@@ -7898,7 +7912,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A226" s="1">
         <v>227</v>
       </c>
@@ -7918,7 +7932,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A227" s="1">
         <v>228</v>
       </c>
@@ -7938,7 +7952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A228" s="1">
         <v>229</v>
       </c>
@@ -7958,7 +7972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A229" s="1">
         <v>230</v>
       </c>
@@ -7978,7 +7992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A230" s="1">
         <v>231</v>
       </c>
@@ -7998,7 +8012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A231" s="1">
         <v>232</v>
       </c>
@@ -8018,7 +8032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A232" s="1">
         <v>233</v>
       </c>
@@ -8038,7 +8052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A233" s="1">
         <v>234</v>
       </c>
@@ -8058,7 +8072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A234" s="1">
         <v>235</v>
       </c>
@@ -8078,7 +8092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A235" s="1">
         <v>236</v>
       </c>
@@ -8098,7 +8112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A236" s="1">
         <v>237</v>
       </c>
@@ -8118,7 +8132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A237" s="1">
         <v>238</v>
       </c>
@@ -8138,7 +8152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A238" s="1">
         <v>239</v>
       </c>
@@ -8158,7 +8172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A239" s="1">
         <v>240</v>
       </c>
@@ -8178,7 +8192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A240" s="1">
         <v>241</v>
       </c>
@@ -8198,7 +8212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A241" s="1">
         <v>242</v>
       </c>
@@ -8218,7 +8232,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A242" s="1">
         <v>243</v>
       </c>
@@ -8238,7 +8252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A243" s="1">
         <v>244</v>
       </c>
@@ -8258,7 +8272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A244" s="1">
         <v>245</v>
       </c>
@@ -8278,7 +8292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A245" s="1">
         <v>246</v>
       </c>
@@ -8298,7 +8312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A246" s="1">
         <v>247</v>
       </c>
@@ -8318,7 +8332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A247" s="1">
         <v>248</v>
       </c>
@@ -8338,7 +8352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A248" s="1">
         <v>249</v>
       </c>
@@ -8358,7 +8372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A249" s="1">
         <v>250</v>
       </c>
@@ -8378,7 +8392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A250" s="1">
         <v>251</v>
       </c>
@@ -8398,7 +8412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A251" s="1">
         <v>252</v>
       </c>
@@ -8418,7 +8432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A252" s="1">
         <v>253</v>
       </c>
@@ -8438,7 +8452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A253" s="1">
         <v>254</v>
       </c>
@@ -8458,7 +8472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A254" s="1">
         <v>255</v>
       </c>
@@ -8478,7 +8492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A255" s="1">
         <v>256</v>
       </c>
@@ -8498,7 +8512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A256" s="1">
         <v>257</v>
       </c>
@@ -8518,7 +8532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A257" s="1">
         <v>258</v>
       </c>
@@ -8538,7 +8552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A258" s="1">
         <v>259</v>
       </c>
@@ -8558,7 +8572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A259" s="1">
         <v>260</v>
       </c>
@@ -8578,7 +8592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A260" s="1">
         <v>261</v>
       </c>
@@ -8598,7 +8612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A261" s="1">
         <v>262</v>
       </c>
@@ -8618,7 +8632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A262" s="1">
         <v>263</v>
       </c>
@@ -8647,26 +8661,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.73046875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="106.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="44.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="106.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8689,7 +8703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
@@ -8697,22 +8711,22 @@
         <v>533</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>845</v>
+        <v>884</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>833</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>838</v>
+        <v>921</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>847</v>
+        <v>922</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -8720,22 +8734,22 @@
         <v>534</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>846</v>
+        <v>885</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>848</v>
+        <v>923</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -8743,22 +8757,22 @@
         <v>535</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>849</v>
+        <v>886</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>840</v>
+        <v>924</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>851</v>
+        <v>915</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
@@ -8766,22 +8780,22 @@
         <v>536</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>852</v>
+        <v>887</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>853</v>
+        <v>925</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
@@ -8789,22 +8803,22 @@
         <v>537</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>854</v>
+        <v>888</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>855</v>
+        <v>916</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
@@ -8812,22 +8826,22 @@
         <v>538</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>856</v>
+        <v>889</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>857</v>
+        <v>926</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
@@ -8835,22 +8849,22 @@
         <v>539</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>858</v>
+        <v>890</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>862</v>
+        <v>845</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>859</v>
+        <v>917</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
@@ -8858,22 +8872,22 @@
         <v>540</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>860</v>
+        <v>891</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>861</v>
+        <v>844</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>863</v>
+        <v>927</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>847</v>
+        <v>922</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
@@ -8881,7 +8895,7 @@
         <v>541</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>864</v>
+        <v>892</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>837</v>
@@ -8890,13 +8904,13 @@
         <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>865</v>
+        <v>928</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>1009</v>
       </c>
@@ -8904,22 +8918,22 @@
         <v>542</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>866</v>
+        <v>893</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>868</v>
+        <v>929</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>1010</v>
       </c>
@@ -8927,22 +8941,22 @@
         <v>543</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>869</v>
+        <v>894</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>870</v>
+        <v>847</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>871</v>
+        <v>930</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>855</v>
+        <v>916</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>1011</v>
       </c>
@@ -8950,22 +8964,22 @@
         <v>544</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>872</v>
+        <v>895</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>873</v>
+        <v>848</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>874</v>
+        <v>849</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>853</v>
+        <v>925</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>1012</v>
       </c>
@@ -8973,22 +8987,22 @@
         <v>545</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>875</v>
+        <v>896</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>876</v>
+        <v>931</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>877</v>
+        <v>850</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>878</v>
+        <v>918</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>1013</v>
       </c>
@@ -8996,22 +9010,22 @@
         <v>546</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>879</v>
+        <v>897</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>880</v>
+        <v>851</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>855</v>
+        <v>916</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>1014</v>
       </c>
@@ -9019,22 +9033,22 @@
         <v>547</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>881</v>
+        <v>898</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>882</v>
+        <v>852</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>883</v>
+        <v>853</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>884</v>
+        <v>932</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>1015</v>
       </c>
@@ -9042,22 +9056,22 @@
         <v>548</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>885</v>
+        <v>899</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>886</v>
+        <v>854</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>887</v>
+        <v>855</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>855</v>
+        <v>916</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>1016</v>
       </c>
@@ -9065,22 +9079,22 @@
         <v>549</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>888</v>
+        <v>900</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>889</v>
+        <v>856</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>890</v>
+        <v>933</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>1017</v>
       </c>
@@ -9088,22 +9102,22 @@
         <v>550</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>892</v>
+        <v>857</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>893</v>
+        <v>858</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>855</v>
+        <v>916</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>1018</v>
       </c>
@@ -9111,22 +9125,22 @@
         <v>551</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>895</v>
+        <v>859</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>896</v>
+        <v>934</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>1019</v>
       </c>
@@ -9134,22 +9148,22 @@
         <v>552</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>898</v>
+        <v>860</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>899</v>
+        <v>861</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>853</v>
+        <v>925</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>1020</v>
       </c>
@@ -9157,7 +9171,7 @@
         <v>553</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>835</v>
@@ -9166,13 +9180,13 @@
         <v>836</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>855</v>
+        <v>916</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>1021</v>
       </c>
@@ -9180,22 +9194,22 @@
         <v>554</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>902</v>
+        <v>862</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>903</v>
+        <v>935</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>1022</v>
       </c>
@@ -9203,22 +9217,22 @@
         <v>555</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>905</v>
+        <v>863</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>896</v>
+        <v>934</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>1023</v>
       </c>
@@ -9226,22 +9240,22 @@
         <v>556</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>907</v>
+        <v>864</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>908</v>
+        <v>936</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>896</v>
+        <v>934</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>1024</v>
       </c>
@@ -9249,22 +9263,22 @@
         <v>557</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>910</v>
+        <v>865</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>911</v>
+        <v>866</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>853</v>
+        <v>925</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>1025</v>
       </c>
@@ -9272,22 +9286,22 @@
         <v>558</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>913</v>
+        <v>867</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>884</v>
+        <v>932</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>1026</v>
       </c>
@@ -9295,22 +9309,22 @@
         <v>559</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>915</v>
+        <v>868</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>937</v>
+        <v>882</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>855</v>
+        <v>916</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>1027</v>
       </c>
@@ -9318,22 +9332,22 @@
         <v>560</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>917</v>
+        <v>869</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>918</v>
+        <v>937</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>1028</v>
       </c>
@@ -9341,22 +9355,22 @@
         <v>561</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>920</v>
+        <v>870</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>938</v>
+        <v>883</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>847</v>
+        <v>922</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>1029</v>
       </c>
@@ -9364,19 +9378,19 @@
         <v>562</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>834</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>922</v>
+        <v>938</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>1030</v>
       </c>
@@ -9384,22 +9398,22 @@
         <v>563</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>924</v>
+        <v>871</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>853</v>
-      </c>
       <c r="G32" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>1031</v>
       </c>
@@ -9407,13 +9421,13 @@
         <v>564</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>933</v>
+        <v>878</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>935</v>
+        <v>880</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>8</v>
@@ -9422,7 +9436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>1032</v>
       </c>
@@ -9430,13 +9444,13 @@
         <v>565</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>934</v>
+        <v>879</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>936</v>
+        <v>881</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>8</v>
@@ -9455,21 +9469,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="21.59765625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -9477,44 +9491,44 @@
         <v>566</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>567</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>568</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>569</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>570</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>571</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>926</v>
+        <v>873</v>
       </c>
     </row>
   </sheetData>

--- a/i18n/fr.xlsx
+++ b/i18n/fr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matej\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matej\Programming\wingsearch\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3953E686-2162-4186-80B4-FA97ED871142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4FB269-DCE7-4A50-A099-B2BA69FDF1CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="Other" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Birds!$A$1:$F$262</definedName>
-    <definedName name="ExternalData_2" localSheetId="1" hidden="1">Bonuses!$A$1:$G$34</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">Birds!$A$1:$F$357</definedName>
+    <definedName name="ExternalData_2" localSheetId="1" hidden="1">Bonuses!$A$1:$G$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="1134">
   <si>
     <t>id</t>
   </si>
@@ -2908,6 +2908,591 @@
   </si>
   <si>
     <t>3-4 oiseaux: 3[point]; 5 oiseaux: 7[point]</t>
+  </si>
+  <si>
+    <t>Abbott's Booby</t>
+  </si>
+  <si>
+    <t>Papasula abbotti</t>
+  </si>
+  <si>
+    <t>Australasian Pipit</t>
+  </si>
+  <si>
+    <t>Anthus novaeseelandiae</t>
+  </si>
+  <si>
+    <t>Australasian Shoveler</t>
+  </si>
+  <si>
+    <t>Spatula rhynchotis</t>
+  </si>
+  <si>
+    <t>Australian Ibis</t>
+  </si>
+  <si>
+    <t>Threskiornis moluccus</t>
+  </si>
+  <si>
+    <t>Australian Magpie</t>
+  </si>
+  <si>
+    <t>Gymnorhina tibicen</t>
+  </si>
+  <si>
+    <t>Australian Owlet-Nightjar</t>
+  </si>
+  <si>
+    <t>Aegotheles cristatus</t>
+  </si>
+  <si>
+    <t>Australian Raven</t>
+  </si>
+  <si>
+    <t>Corvus coronoides</t>
+  </si>
+  <si>
+    <t>Australian Reed Warbler</t>
+  </si>
+  <si>
+    <t>Acrocephalus australis</t>
+  </si>
+  <si>
+    <t>Australian Shelduck</t>
+  </si>
+  <si>
+    <t>Tadorna tadornoides</t>
+  </si>
+  <si>
+    <t>Australian Zebra Finch</t>
+  </si>
+  <si>
+    <t>Taeniopygia castanotis</t>
+  </si>
+  <si>
+    <t>Black Noddy</t>
+  </si>
+  <si>
+    <t>Anous minutus</t>
+  </si>
+  <si>
+    <t>Black Swan</t>
+  </si>
+  <si>
+    <t>Cygnus atratus</t>
+  </si>
+  <si>
+    <t>Black-Shouldered Kite</t>
+  </si>
+  <si>
+    <t>Elanus axillaris</t>
+  </si>
+  <si>
+    <t>Blyth's Hornbill</t>
+  </si>
+  <si>
+    <t>Rhyticeros plicatus</t>
+  </si>
+  <si>
+    <t>Brolga</t>
+  </si>
+  <si>
+    <t>Antigone rubicunda</t>
+  </si>
+  <si>
+    <t>Brown Falcon</t>
+  </si>
+  <si>
+    <t>Falco berigora</t>
+  </si>
+  <si>
+    <t>Budgerigar</t>
+  </si>
+  <si>
+    <t>Melopsittacus undulatus</t>
+  </si>
+  <si>
+    <t>Cockatiel</t>
+  </si>
+  <si>
+    <t>Nymphicus hollandicus</t>
+  </si>
+  <si>
+    <t>Count Raggi's Bird-of-Paradise</t>
+  </si>
+  <si>
+    <t>Paradisaea raggiana</t>
+  </si>
+  <si>
+    <t>Crested Pigeon</t>
+  </si>
+  <si>
+    <t>Ocyphaps lophotes</t>
+  </si>
+  <si>
+    <t>Crimson Chat</t>
+  </si>
+  <si>
+    <t>Epthianura tricolor</t>
+  </si>
+  <si>
+    <t>Eastern Rosella</t>
+  </si>
+  <si>
+    <t>Platycercus eximius</t>
+  </si>
+  <si>
+    <t>Eastern Whipbird</t>
+  </si>
+  <si>
+    <t>Psophodes olivaceus</t>
+  </si>
+  <si>
+    <t>Emu</t>
+  </si>
+  <si>
+    <t>Dromaius novaehollandiae</t>
+  </si>
+  <si>
+    <t>Galah</t>
+  </si>
+  <si>
+    <t>Eolophus roseicapilla</t>
+  </si>
+  <si>
+    <t>Golden-Headed Cisticola</t>
+  </si>
+  <si>
+    <t>Cisticola exilis</t>
+  </si>
+  <si>
+    <t>Gould's Finch</t>
+  </si>
+  <si>
+    <t>Erythrura gouldiae</t>
+  </si>
+  <si>
+    <t>Green Pygmy-Goose</t>
+  </si>
+  <si>
+    <t>Nettapus pulchellus</t>
+  </si>
+  <si>
+    <t>Grey Butcherbird</t>
+  </si>
+  <si>
+    <t>Cracticus torquatus</t>
+  </si>
+  <si>
+    <t>Grey Shrikethrush</t>
+  </si>
+  <si>
+    <t>Colluricincla harmonica</t>
+  </si>
+  <si>
+    <t>Grey Teal</t>
+  </si>
+  <si>
+    <t>Anas gracilis</t>
+  </si>
+  <si>
+    <t>Grey Warbler</t>
+  </si>
+  <si>
+    <t>Gerygone igata</t>
+  </si>
+  <si>
+    <t>Grey-Headed Mannikin</t>
+  </si>
+  <si>
+    <t>Lonchura caniceps</t>
+  </si>
+  <si>
+    <t>Horsfield's Bronze-Cuckoo</t>
+  </si>
+  <si>
+    <t>Chrysococcyx basalis</t>
+  </si>
+  <si>
+    <t>Horsfield's Bushlark</t>
+  </si>
+  <si>
+    <t>Mirafra javanica</t>
+  </si>
+  <si>
+    <t>Kākāpо̄</t>
+  </si>
+  <si>
+    <t>Strigops habroptila</t>
+  </si>
+  <si>
+    <t>Kea</t>
+  </si>
+  <si>
+    <t>Nestor notabilis</t>
+  </si>
+  <si>
+    <t>Kelp Gull</t>
+  </si>
+  <si>
+    <t>Larus dominicanus</t>
+  </si>
+  <si>
+    <t>Kererū</t>
+  </si>
+  <si>
+    <t>Hemiphaga novaeseelandiae</t>
+  </si>
+  <si>
+    <t>Korimako</t>
+  </si>
+  <si>
+    <t>Anthornis melanura</t>
+  </si>
+  <si>
+    <t>Laughing Kookaburra</t>
+  </si>
+  <si>
+    <t>Dacelo novaeguineae</t>
+  </si>
+  <si>
+    <t>Lesser Frigatebird</t>
+  </si>
+  <si>
+    <t>Fregata ariel</t>
+  </si>
+  <si>
+    <t>Lewin's Honeyeater</t>
+  </si>
+  <si>
+    <t>Meliphaga lewinii</t>
+  </si>
+  <si>
+    <t>Little Penguin</t>
+  </si>
+  <si>
+    <t>Eudyptula minor</t>
+  </si>
+  <si>
+    <t>Little Pied Cormorant</t>
+  </si>
+  <si>
+    <t>Microcarbo melanoleucos</t>
+  </si>
+  <si>
+    <t>Magpie-Lark</t>
+  </si>
+  <si>
+    <t>Grallina cyanoleuca</t>
+  </si>
+  <si>
+    <t>Major Mitchell's Cockatoo</t>
+  </si>
+  <si>
+    <t>Lophochroa leadbeateri</t>
+  </si>
+  <si>
+    <t>Malleefowl</t>
+  </si>
+  <si>
+    <t>Leipoa ocellata</t>
+  </si>
+  <si>
+    <t>Maned Duck</t>
+  </si>
+  <si>
+    <t>Chenonetta jubata</t>
+  </si>
+  <si>
+    <t>Many-Colored Fruit Dove</t>
+  </si>
+  <si>
+    <t>Ptilinopus perousii</t>
+  </si>
+  <si>
+    <t>Masked Lapwing</t>
+  </si>
+  <si>
+    <t>Vanellus miles</t>
+  </si>
+  <si>
+    <t>Mistletoebird</t>
+  </si>
+  <si>
+    <t>Dicaeum hirundinaceum</t>
+  </si>
+  <si>
+    <t>Musk Duck</t>
+  </si>
+  <si>
+    <t>Biziura lobata</t>
+  </si>
+  <si>
+    <t>New Holland Honeyeater</t>
+  </si>
+  <si>
+    <t>Phylidonyris novaehollandiae</t>
+  </si>
+  <si>
+    <t>Noisy Miner</t>
+  </si>
+  <si>
+    <t>Manorina melanocephala</t>
+  </si>
+  <si>
+    <t>North Island Brown Kiwi</t>
+  </si>
+  <si>
+    <t>Apteryx mantelli</t>
+  </si>
+  <si>
+    <t>Orange-Footed Scrubfowl</t>
+  </si>
+  <si>
+    <t>Megapodius reinwardt</t>
+  </si>
+  <si>
+    <t>Pacific Black Duck</t>
+  </si>
+  <si>
+    <t>Anas superciliosa</t>
+  </si>
+  <si>
+    <t>Peaceful Dove</t>
+  </si>
+  <si>
+    <t>Geopelia placida</t>
+  </si>
+  <si>
+    <t>Pesquet's Parrot</t>
+  </si>
+  <si>
+    <t>Psittrichas fulgidus</t>
+  </si>
+  <si>
+    <t>Pheasant Coucal</t>
+  </si>
+  <si>
+    <t>Centropus phasianinus</t>
+  </si>
+  <si>
+    <t>Pink-Eared Duck</t>
+  </si>
+  <si>
+    <t>Malacorhynchus membranaceus</t>
+  </si>
+  <si>
+    <t>Plains-Wanderer</t>
+  </si>
+  <si>
+    <t>Pedionomus torquatus</t>
+  </si>
+  <si>
+    <t>Princess Stephanie's Astrapia</t>
+  </si>
+  <si>
+    <t>Astrapia stephaniae</t>
+  </si>
+  <si>
+    <t>Pūkeko</t>
+  </si>
+  <si>
+    <t>Porphyrio melanotus</t>
+  </si>
+  <si>
+    <t>Rainbow Lorikeet</t>
+  </si>
+  <si>
+    <t>Trichoglossus moluccanus</t>
+  </si>
+  <si>
+    <t>Red Wattlebird</t>
+  </si>
+  <si>
+    <t>Anthochaera carunculata</t>
+  </si>
+  <si>
+    <t>Red-Backed Fairywren</t>
+  </si>
+  <si>
+    <t>Malurus melanocephalus</t>
+  </si>
+  <si>
+    <t>Red-Capped Robin</t>
+  </si>
+  <si>
+    <t>Petroica goodenovii</t>
+  </si>
+  <si>
+    <t>Red-Necked Avocet</t>
+  </si>
+  <si>
+    <t>Recurvirostra novaehollandiae</t>
+  </si>
+  <si>
+    <t>Red-Winged Parrot</t>
+  </si>
+  <si>
+    <t>Aprosmictus erythropterus</t>
+  </si>
+  <si>
+    <t>Regent Bowerbird</t>
+  </si>
+  <si>
+    <t>Sericulus chrysocephalus</t>
+  </si>
+  <si>
+    <t>Royal Spoonbill</t>
+  </si>
+  <si>
+    <t>Platalea regia</t>
+  </si>
+  <si>
+    <t>Rufous Night-Heron</t>
+  </si>
+  <si>
+    <t>Nycticorax caledonicus</t>
+  </si>
+  <si>
+    <t>Rufous Owl</t>
+  </si>
+  <si>
+    <t>Ninox rufa</t>
+  </si>
+  <si>
+    <t>Rufous-Banded Honeyeater</t>
+  </si>
+  <si>
+    <t>Conopophila albogularis</t>
+  </si>
+  <si>
+    <t>Sacred Kingfisher</t>
+  </si>
+  <si>
+    <t>Todiramphus sanctus</t>
+  </si>
+  <si>
+    <t>Silvereye</t>
+  </si>
+  <si>
+    <t>Zosterops lateralis</t>
+  </si>
+  <si>
+    <t>South Island Robin</t>
+  </si>
+  <si>
+    <t>Petroica australis</t>
+  </si>
+  <si>
+    <t>Southern Cassowary</t>
+  </si>
+  <si>
+    <t>Casuarius casuarius</t>
+  </si>
+  <si>
+    <t>Spangled Drongo</t>
+  </si>
+  <si>
+    <t>Dicrurus bracteatus</t>
+  </si>
+  <si>
+    <t>Splendid Fairywren</t>
+  </si>
+  <si>
+    <t>Malurus splendens</t>
+  </si>
+  <si>
+    <t>Spotless Crake</t>
+  </si>
+  <si>
+    <t>Zapornia tabuensis</t>
+  </si>
+  <si>
+    <t>Stubble Quail</t>
+  </si>
+  <si>
+    <t>Coturnix pectoralis</t>
+  </si>
+  <si>
+    <t>Sulphur-Crested Cockatoo</t>
+  </si>
+  <si>
+    <t>Cacatua galerita</t>
+  </si>
+  <si>
+    <t>Superb Lyrebird</t>
+  </si>
+  <si>
+    <t>Menura novaehollandiae</t>
+  </si>
+  <si>
+    <t>Tawny Frogmouth</t>
+  </si>
+  <si>
+    <t>Podargus strigoides</t>
+  </si>
+  <si>
+    <t>Tūī</t>
+  </si>
+  <si>
+    <t>Prosthemadera novaeseelandiae</t>
+  </si>
+  <si>
+    <t>Wedge-Tailed Eagle</t>
+  </si>
+  <si>
+    <t>Aquila audax</t>
+  </si>
+  <si>
+    <t>Welcome Swallow</t>
+  </si>
+  <si>
+    <t>Hirundo neoxena</t>
+  </si>
+  <si>
+    <t>White-Bellied Sea-Eagle</t>
+  </si>
+  <si>
+    <t>Haliaeetus leucogaster</t>
+  </si>
+  <si>
+    <t>White-Breasted Woodswallow</t>
+  </si>
+  <si>
+    <t>Artamus leucoryn</t>
+  </si>
+  <si>
+    <t>White-Faced Heron</t>
+  </si>
+  <si>
+    <t>Egretta novaehollandiae</t>
+  </si>
+  <si>
+    <t>Willie-Wagtail</t>
+  </si>
+  <si>
+    <t>Rhipidura leucophrys</t>
+  </si>
+  <si>
+    <t>Wrybill</t>
+  </si>
+  <si>
+    <t>Anarhynchus frontalis</t>
+  </si>
+  <si>
+    <t>Forest Data Analyst</t>
+  </si>
+  <si>
+    <t>Grassland Data Analyst</t>
+  </si>
+  <si>
+    <t>Mechanical Engineer</t>
+  </si>
+  <si>
+    <t>Site Selection Expert</t>
+  </si>
+  <si>
+    <t>Wetland Data Analyst</t>
   </si>
 </sst>
 </file>
@@ -2970,19 +3555,11 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="21">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3006,7 +3583,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3092,8 +3677,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="birds" displayName="birds" ref="A1:F262" tableType="queryTable" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:F262" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="birds" displayName="birds" ref="A1:F357" tableType="queryTable" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:F357" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="18"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="17"/>
@@ -3107,27 +3692,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="bonuses" displayName="bonuses" ref="A1:G34" tableType="queryTable" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:G34" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="bonuses" displayName="bonuses" ref="A1:G39" tableType="queryTable" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G39" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="Name" queryTableFieldId="3" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" uniqueName="4" name="Condition" queryTableFieldId="4" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" uniqueName="5" name="Explanatory text" queryTableFieldId="5" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" uniqueName="6" name="VP" queryTableFieldId="6" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" uniqueName="7" name="Note" queryTableFieldId="7" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="Name" queryTableFieldId="3" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" uniqueName="4" name="Condition" queryTableFieldId="4" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" uniqueName="5" name="Explanatory text" queryTableFieldId="5" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" uniqueName="6" name="VP" queryTableFieldId="6" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" uniqueName="7" name="Note" queryTableFieldId="7" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="A1:B6" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="A1:B6" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:B6" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="English name" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Translated" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="English name" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Translated" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3396,23 +3981,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F262"/>
+  <dimension ref="A1:F357"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="A263" sqref="A263:C357"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="26.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="26.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1328125" style="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3432,7 +4017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -3452,7 +4037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -3472,7 +4057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -3492,7 +4077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -3512,7 +4097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -3532,7 +4117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -3552,7 +4137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -3572,7 +4157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -3592,7 +4177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -3612,7 +4197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -3632,7 +4217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -3652,7 +4237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -3672,7 +4257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -3692,7 +4277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -3712,7 +4297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -3732,7 +4317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -3752,7 +4337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -3772,7 +4357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -3792,7 +4377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -3812,7 +4397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -3832,7 +4417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -3852,7 +4437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -3872,7 +4457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -3892,7 +4477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -3912,7 +4497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -3932,7 +4517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -3952,7 +4537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -3972,7 +4557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -3992,7 +4577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -4012,7 +4597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -4032,7 +4617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -4052,7 +4637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -4072,7 +4657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -4092,7 +4677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -4112,7 +4697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -4132,7 +4717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -4152,7 +4737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -4172,7 +4757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -4192,7 +4777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -4212,7 +4797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -4232,7 +4817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -4252,7 +4837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -4272,7 +4857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -4292,7 +4877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -4312,7 +4897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -4332,7 +4917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -4352,7 +4937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -4372,7 +4957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -4392,7 +4977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -4412,7 +4997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -4432,7 +5017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -4452,7 +5037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -4472,7 +5057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -4492,7 +5077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -4512,7 +5097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -4532,7 +5117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -4552,7 +5137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -4572,7 +5157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -4592,7 +5177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -4612,7 +5197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -4632,7 +5217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -4652,7 +5237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -4672,7 +5257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -4692,7 +5277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -4712,7 +5297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -4732,7 +5317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -4752,7 +5337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -4772,7 +5357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -4792,7 +5377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -4812,7 +5397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -4832,7 +5417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -4852,7 +5437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -4872,7 +5457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -4892,7 +5477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -4912,7 +5497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -4932,7 +5517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -4952,7 +5537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -4972,7 +5557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -4992,7 +5577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -5012,7 +5597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -5032,7 +5617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>82</v>
       </c>
@@ -5052,7 +5637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -5072,7 +5657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -5092,7 +5677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -5112,7 +5697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -5132,7 +5717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -5152,7 +5737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>88</v>
       </c>
@@ -5172,7 +5757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>89</v>
       </c>
@@ -5192,7 +5777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>90</v>
       </c>
@@ -5212,7 +5797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>91</v>
       </c>
@@ -5232,7 +5817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>92</v>
       </c>
@@ -5252,7 +5837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>93</v>
       </c>
@@ -5272,7 +5857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>94</v>
       </c>
@@ -5292,7 +5877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>95</v>
       </c>
@@ -5312,7 +5897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>96</v>
       </c>
@@ -5332,7 +5917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>97</v>
       </c>
@@ -5352,7 +5937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>98</v>
       </c>
@@ -5372,7 +5957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>99</v>
       </c>
@@ -5392,7 +5977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -5412,7 +5997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>101</v>
       </c>
@@ -5432,7 +6017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>102</v>
       </c>
@@ -5452,7 +6037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>103</v>
       </c>
@@ -5472,7 +6057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>104</v>
       </c>
@@ -5492,7 +6077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>105</v>
       </c>
@@ -5512,7 +6097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>106</v>
       </c>
@@ -5532,7 +6117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>107</v>
       </c>
@@ -5552,7 +6137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>108</v>
       </c>
@@ -5572,7 +6157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>109</v>
       </c>
@@ -5592,7 +6177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>110</v>
       </c>
@@ -5612,7 +6197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>111</v>
       </c>
@@ -5632,7 +6217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>112</v>
       </c>
@@ -5652,7 +6237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>113</v>
       </c>
@@ -5672,7 +6257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>114</v>
       </c>
@@ -5692,7 +6277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>115</v>
       </c>
@@ -5712,7 +6297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>116</v>
       </c>
@@ -5732,7 +6317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>117</v>
       </c>
@@ -5752,7 +6337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>118</v>
       </c>
@@ -5772,7 +6357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>119</v>
       </c>
@@ -5792,7 +6377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>120</v>
       </c>
@@ -5812,7 +6397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>121</v>
       </c>
@@ -5832,7 +6417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>122</v>
       </c>
@@ -5852,7 +6437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>123</v>
       </c>
@@ -5872,7 +6457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>124</v>
       </c>
@@ -5892,7 +6477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>125</v>
       </c>
@@ -5912,7 +6497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>126</v>
       </c>
@@ -5932,7 +6517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>127</v>
       </c>
@@ -5952,7 +6537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>128</v>
       </c>
@@ -5972,7 +6557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>129</v>
       </c>
@@ -5992,7 +6577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>130</v>
       </c>
@@ -6012,7 +6597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>131</v>
       </c>
@@ -6032,7 +6617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>132</v>
       </c>
@@ -6052,7 +6637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>133</v>
       </c>
@@ -6072,7 +6657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>134</v>
       </c>
@@ -6092,7 +6677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>135</v>
       </c>
@@ -6112,7 +6697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>136</v>
       </c>
@@ -6132,7 +6717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>137</v>
       </c>
@@ -6152,7 +6737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>138</v>
       </c>
@@ -6172,7 +6757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>139</v>
       </c>
@@ -6192,7 +6777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>140</v>
       </c>
@@ -6212,7 +6797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>141</v>
       </c>
@@ -6232,7 +6817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>142</v>
       </c>
@@ -6252,7 +6837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>143</v>
       </c>
@@ -6272,7 +6857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>144</v>
       </c>
@@ -6292,7 +6877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>145</v>
       </c>
@@ -6312,7 +6897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>146</v>
       </c>
@@ -6332,7 +6917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>147</v>
       </c>
@@ -6352,7 +6937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>148</v>
       </c>
@@ -6372,7 +6957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>149</v>
       </c>
@@ -6392,7 +6977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>150</v>
       </c>
@@ -6412,7 +6997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>151</v>
       </c>
@@ -6432,7 +7017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>152</v>
       </c>
@@ -6452,7 +7037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>153</v>
       </c>
@@ -6472,7 +7057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>154</v>
       </c>
@@ -6492,7 +7077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>155</v>
       </c>
@@ -6512,7 +7097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>156</v>
       </c>
@@ -6532,7 +7117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>157</v>
       </c>
@@ -6552,7 +7137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>158</v>
       </c>
@@ -6572,7 +7157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>159</v>
       </c>
@@ -6592,7 +7177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>160</v>
       </c>
@@ -6612,7 +7197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>161</v>
       </c>
@@ -6632,7 +7217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>162</v>
       </c>
@@ -6652,7 +7237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>163</v>
       </c>
@@ -6672,7 +7257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>164</v>
       </c>
@@ -6692,7 +7277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>165</v>
       </c>
@@ -6712,7 +7297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>166</v>
       </c>
@@ -6732,7 +7317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>167</v>
       </c>
@@ -6752,7 +7337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>168</v>
       </c>
@@ -6772,7 +7357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>169</v>
       </c>
@@ -6792,7 +7377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>170</v>
       </c>
@@ -6812,7 +7397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>171</v>
       </c>
@@ -6832,7 +7417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>172</v>
       </c>
@@ -6852,7 +7437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>173</v>
       </c>
@@ -6872,7 +7457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>174</v>
       </c>
@@ -6892,7 +7477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>175</v>
       </c>
@@ -6912,7 +7497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>176</v>
       </c>
@@ -6932,7 +7517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>177</v>
       </c>
@@ -6952,7 +7537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>178</v>
       </c>
@@ -6972,7 +7557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>179</v>
       </c>
@@ -6992,7 +7577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>180</v>
       </c>
@@ -7012,7 +7597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>181</v>
       </c>
@@ -7032,7 +7617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>182</v>
       </c>
@@ -7052,7 +7637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>183</v>
       </c>
@@ -7072,7 +7657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>184</v>
       </c>
@@ -7092,7 +7677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>185</v>
       </c>
@@ -7112,7 +7697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>186</v>
       </c>
@@ -7132,7 +7717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>187</v>
       </c>
@@ -7152,7 +7737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>188</v>
       </c>
@@ -7172,7 +7757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>189</v>
       </c>
@@ -7192,7 +7777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>190</v>
       </c>
@@ -7212,7 +7797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>191</v>
       </c>
@@ -7232,7 +7817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>192</v>
       </c>
@@ -7252,7 +7837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>193</v>
       </c>
@@ -7272,7 +7857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>194</v>
       </c>
@@ -7292,7 +7877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>195</v>
       </c>
@@ -7312,7 +7897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>196</v>
       </c>
@@ -7332,7 +7917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>197</v>
       </c>
@@ -7352,7 +7937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>198</v>
       </c>
@@ -7372,7 +7957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>199</v>
       </c>
@@ -7392,7 +7977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>200</v>
       </c>
@@ -7412,7 +7997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>201</v>
       </c>
@@ -7432,7 +8017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>203</v>
       </c>
@@ -7452,7 +8037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>204</v>
       </c>
@@ -7472,7 +8057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>205</v>
       </c>
@@ -7492,7 +8077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>206</v>
       </c>
@@ -7512,7 +8097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>207</v>
       </c>
@@ -7532,7 +8117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>208</v>
       </c>
@@ -7552,7 +8137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>209</v>
       </c>
@@ -7572,7 +8157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>210</v>
       </c>
@@ -7592,7 +8177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>211</v>
       </c>
@@ -7612,7 +8197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>212</v>
       </c>
@@ -7632,7 +8217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>213</v>
       </c>
@@ -7652,7 +8237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>214</v>
       </c>
@@ -7672,7 +8257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>215</v>
       </c>
@@ -7692,7 +8277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>216</v>
       </c>
@@ -7712,7 +8297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>217</v>
       </c>
@@ -7732,7 +8317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>218</v>
       </c>
@@ -7752,7 +8337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>219</v>
       </c>
@@ -7772,7 +8357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>220</v>
       </c>
@@ -7792,7 +8377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>221</v>
       </c>
@@ -7812,7 +8397,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>222</v>
       </c>
@@ -7832,7 +8417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>223</v>
       </c>
@@ -7852,7 +8437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>224</v>
       </c>
@@ -7872,7 +8457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>225</v>
       </c>
@@ -7892,7 +8477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>226</v>
       </c>
@@ -7912,7 +8497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>227</v>
       </c>
@@ -7932,7 +8517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>228</v>
       </c>
@@ -7952,7 +8537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>229</v>
       </c>
@@ -7972,7 +8557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>230</v>
       </c>
@@ -7992,7 +8577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>231</v>
       </c>
@@ -8012,7 +8597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>232</v>
       </c>
@@ -8032,7 +8617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>233</v>
       </c>
@@ -8052,7 +8637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>234</v>
       </c>
@@ -8072,7 +8657,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>235</v>
       </c>
@@ -8092,7 +8677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>236</v>
       </c>
@@ -8112,7 +8697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>237</v>
       </c>
@@ -8132,7 +8717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>238</v>
       </c>
@@ -8152,7 +8737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>239</v>
       </c>
@@ -8172,7 +8757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>240</v>
       </c>
@@ -8192,7 +8777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>241</v>
       </c>
@@ -8212,7 +8797,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>242</v>
       </c>
@@ -8232,7 +8817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>243</v>
       </c>
@@ -8252,7 +8837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>244</v>
       </c>
@@ -8272,7 +8857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>245</v>
       </c>
@@ -8292,7 +8877,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>246</v>
       </c>
@@ -8312,7 +8897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>247</v>
       </c>
@@ -8332,7 +8917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>248</v>
       </c>
@@ -8352,7 +8937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>249</v>
       </c>
@@ -8372,7 +8957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>250</v>
       </c>
@@ -8392,7 +8977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>251</v>
       </c>
@@ -8412,7 +8997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>252</v>
       </c>
@@ -8432,7 +9017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>253</v>
       </c>
@@ -8452,7 +9037,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>254</v>
       </c>
@@ -8472,7 +9057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>255</v>
       </c>
@@ -8492,7 +9077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>256</v>
       </c>
@@ -8512,7 +9097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>257</v>
       </c>
@@ -8532,7 +9117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>258</v>
       </c>
@@ -8552,7 +9137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>259</v>
       </c>
@@ -8572,7 +9157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>260</v>
       </c>
@@ -8592,7 +9177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>261</v>
       </c>
@@ -8612,7 +9197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>262</v>
       </c>
@@ -8632,7 +9217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>263</v>
       </c>
@@ -8651,6 +9236,1336 @@
       <c r="F262" s="2" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="263" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="1">
+        <v>264</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="D263" s="2"/>
+      <c r="E263" s="2"/>
+      <c r="F263" s="2"/>
+    </row>
+    <row r="264" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="1">
+        <v>265</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="D264" s="2"/>
+      <c r="E264" s="2"/>
+      <c r="F264" s="2"/>
+    </row>
+    <row r="265" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="1">
+        <v>266</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="D265" s="2"/>
+      <c r="E265" s="2"/>
+      <c r="F265" s="2"/>
+    </row>
+    <row r="266" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="1">
+        <v>267</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="D266" s="2"/>
+      <c r="E266" s="2"/>
+      <c r="F266" s="2"/>
+    </row>
+    <row r="267" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="1">
+        <v>268</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="D267" s="2"/>
+      <c r="E267" s="2"/>
+      <c r="F267" s="2"/>
+    </row>
+    <row r="268" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="1">
+        <v>269</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="D268" s="2"/>
+      <c r="E268" s="2"/>
+      <c r="F268" s="2"/>
+    </row>
+    <row r="269" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="1">
+        <v>270</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="D269" s="2"/>
+      <c r="E269" s="2"/>
+      <c r="F269" s="2"/>
+    </row>
+    <row r="270" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="1">
+        <v>271</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="D270" s="2"/>
+      <c r="E270" s="2"/>
+      <c r="F270" s="2"/>
+    </row>
+    <row r="271" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="1">
+        <v>272</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="D271" s="2"/>
+      <c r="E271" s="2"/>
+      <c r="F271" s="2"/>
+    </row>
+    <row r="272" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="1">
+        <v>273</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="D272" s="2"/>
+      <c r="E272" s="2"/>
+      <c r="F272" s="2"/>
+    </row>
+    <row r="273" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="1">
+        <v>274</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="D273" s="2"/>
+      <c r="E273" s="2"/>
+      <c r="F273" s="2"/>
+    </row>
+    <row r="274" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="1">
+        <v>275</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="D274" s="2"/>
+      <c r="E274" s="2"/>
+      <c r="F274" s="2"/>
+    </row>
+    <row r="275" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="1">
+        <v>276</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="D275" s="2"/>
+      <c r="E275" s="2"/>
+      <c r="F275" s="2"/>
+    </row>
+    <row r="276" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="1">
+        <v>277</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="D276" s="2"/>
+      <c r="E276" s="2"/>
+      <c r="F276" s="2"/>
+    </row>
+    <row r="277" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="1">
+        <v>278</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="D277" s="2"/>
+      <c r="E277" s="2"/>
+      <c r="F277" s="2"/>
+    </row>
+    <row r="278" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="1">
+        <v>279</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="D278" s="2"/>
+      <c r="E278" s="2"/>
+      <c r="F278" s="2"/>
+    </row>
+    <row r="279" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="1">
+        <v>280</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="D279" s="2"/>
+      <c r="E279" s="2"/>
+      <c r="F279" s="2"/>
+    </row>
+    <row r="280" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="1">
+        <v>281</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="D280" s="2"/>
+      <c r="E280" s="2"/>
+      <c r="F280" s="2"/>
+    </row>
+    <row r="281" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="1">
+        <v>282</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="D281" s="2"/>
+      <c r="E281" s="2"/>
+      <c r="F281" s="2"/>
+    </row>
+    <row r="282" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="1">
+        <v>283</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="D282" s="2"/>
+      <c r="E282" s="2"/>
+      <c r="F282" s="2"/>
+    </row>
+    <row r="283" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="1">
+        <v>284</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="D283" s="2"/>
+      <c r="E283" s="2"/>
+      <c r="F283" s="2"/>
+    </row>
+    <row r="284" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="1">
+        <v>285</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="D284" s="2"/>
+      <c r="E284" s="2"/>
+      <c r="F284" s="2"/>
+    </row>
+    <row r="285" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="1">
+        <v>286</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="D285" s="2"/>
+      <c r="E285" s="2"/>
+      <c r="F285" s="2"/>
+    </row>
+    <row r="286" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="1">
+        <v>287</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="D286" s="2"/>
+      <c r="E286" s="2"/>
+      <c r="F286" s="2"/>
+    </row>
+    <row r="287" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="1">
+        <v>288</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="D287" s="2"/>
+      <c r="E287" s="2"/>
+      <c r="F287" s="2"/>
+    </row>
+    <row r="288" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="1">
+        <v>289</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="D288" s="2"/>
+      <c r="E288" s="2"/>
+      <c r="F288" s="2"/>
+    </row>
+    <row r="289" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="1">
+        <v>290</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="D289" s="2"/>
+      <c r="E289" s="2"/>
+      <c r="F289" s="2"/>
+    </row>
+    <row r="290" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="1">
+        <v>291</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="D290" s="2"/>
+      <c r="E290" s="2"/>
+      <c r="F290" s="2"/>
+    </row>
+    <row r="291" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="1">
+        <v>292</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="D291" s="2"/>
+      <c r="E291" s="2"/>
+      <c r="F291" s="2"/>
+    </row>
+    <row r="292" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="1">
+        <v>293</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="D292" s="2"/>
+      <c r="E292" s="2"/>
+      <c r="F292" s="2"/>
+    </row>
+    <row r="293" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="1">
+        <v>294</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D293" s="2"/>
+      <c r="E293" s="2"/>
+      <c r="F293" s="2"/>
+    </row>
+    <row r="294" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="1">
+        <v>295</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D294" s="2"/>
+      <c r="E294" s="2"/>
+      <c r="F294" s="2"/>
+    </row>
+    <row r="295" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="1">
+        <v>296</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D295" s="2"/>
+      <c r="E295" s="2"/>
+      <c r="F295" s="2"/>
+    </row>
+    <row r="296" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="1">
+        <v>297</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D296" s="2"/>
+      <c r="E296" s="2"/>
+      <c r="F296" s="2"/>
+    </row>
+    <row r="297" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="1">
+        <v>298</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D297" s="2"/>
+      <c r="E297" s="2"/>
+      <c r="F297" s="2"/>
+    </row>
+    <row r="298" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="1">
+        <v>299</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D298" s="2"/>
+      <c r="E298" s="2"/>
+      <c r="F298" s="2"/>
+    </row>
+    <row r="299" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="1">
+        <v>300</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D299" s="2"/>
+      <c r="E299" s="2"/>
+      <c r="F299" s="2"/>
+    </row>
+    <row r="300" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="1">
+        <v>301</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D300" s="2"/>
+      <c r="E300" s="2"/>
+      <c r="F300" s="2"/>
+    </row>
+    <row r="301" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="1">
+        <v>302</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D301" s="2"/>
+      <c r="E301" s="2"/>
+      <c r="F301" s="2"/>
+    </row>
+    <row r="302" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="1">
+        <v>303</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D302" s="2"/>
+      <c r="E302" s="2"/>
+      <c r="F302" s="2"/>
+    </row>
+    <row r="303" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="1">
+        <v>304</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D303" s="2"/>
+      <c r="E303" s="2"/>
+      <c r="F303" s="2"/>
+    </row>
+    <row r="304" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="1">
+        <v>305</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D304" s="2"/>
+      <c r="E304" s="2"/>
+      <c r="F304" s="2"/>
+    </row>
+    <row r="305" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="1">
+        <v>306</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D305" s="2"/>
+      <c r="E305" s="2"/>
+      <c r="F305" s="2"/>
+    </row>
+    <row r="306" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="1">
+        <v>307</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D306" s="2"/>
+      <c r="E306" s="2"/>
+      <c r="F306" s="2"/>
+    </row>
+    <row r="307" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="1">
+        <v>308</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D307" s="2"/>
+      <c r="E307" s="2"/>
+      <c r="F307" s="2"/>
+    </row>
+    <row r="308" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="1">
+        <v>309</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D308" s="2"/>
+      <c r="E308" s="2"/>
+      <c r="F308" s="2"/>
+    </row>
+    <row r="309" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="1">
+        <v>310</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D309" s="2"/>
+      <c r="E309" s="2"/>
+      <c r="F309" s="2"/>
+    </row>
+    <row r="310" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="1">
+        <v>311</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D310" s="2"/>
+      <c r="E310" s="2"/>
+      <c r="F310" s="2"/>
+    </row>
+    <row r="311" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="1">
+        <v>312</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D311" s="2"/>
+      <c r="E311" s="2"/>
+      <c r="F311" s="2"/>
+    </row>
+    <row r="312" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="1">
+        <v>313</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D312" s="2"/>
+      <c r="E312" s="2"/>
+      <c r="F312" s="2"/>
+    </row>
+    <row r="313" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="1">
+        <v>314</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D313" s="2"/>
+      <c r="E313" s="2"/>
+      <c r="F313" s="2"/>
+    </row>
+    <row r="314" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <v>315</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D314" s="2"/>
+      <c r="E314" s="2"/>
+      <c r="F314" s="2"/>
+    </row>
+    <row r="315" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>316</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D315" s="2"/>
+      <c r="E315" s="2"/>
+      <c r="F315" s="2"/>
+    </row>
+    <row r="316" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>317</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D316" s="2"/>
+      <c r="E316" s="2"/>
+      <c r="F316" s="2"/>
+    </row>
+    <row r="317" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <v>318</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D317" s="2"/>
+      <c r="E317" s="2"/>
+      <c r="F317" s="2"/>
+    </row>
+    <row r="318" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <v>319</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D318" s="2"/>
+      <c r="E318" s="2"/>
+      <c r="F318" s="2"/>
+    </row>
+    <row r="319" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <v>320</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D319" s="2"/>
+      <c r="E319" s="2"/>
+      <c r="F319" s="2"/>
+    </row>
+    <row r="320" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <v>321</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D320" s="2"/>
+      <c r="E320" s="2"/>
+      <c r="F320" s="2"/>
+    </row>
+    <row r="321" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <v>322</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D321" s="2"/>
+      <c r="E321" s="2"/>
+      <c r="F321" s="2"/>
+    </row>
+    <row r="322" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <v>323</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D322" s="2"/>
+      <c r="E322" s="2"/>
+      <c r="F322" s="2"/>
+    </row>
+    <row r="323" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
+        <v>324</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D323" s="2"/>
+      <c r="E323" s="2"/>
+      <c r="F323" s="2"/>
+    </row>
+    <row r="324" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <v>325</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D324" s="2"/>
+      <c r="E324" s="2"/>
+      <c r="F324" s="2"/>
+    </row>
+    <row r="325" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <v>326</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D325" s="2"/>
+      <c r="E325" s="2"/>
+      <c r="F325" s="2"/>
+    </row>
+    <row r="326" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <v>327</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D326" s="2"/>
+      <c r="E326" s="2"/>
+      <c r="F326" s="2"/>
+    </row>
+    <row r="327" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>328</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D327" s="2"/>
+      <c r="E327" s="2"/>
+      <c r="F327" s="2"/>
+    </row>
+    <row r="328" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <v>329</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D328" s="2"/>
+      <c r="E328" s="2"/>
+      <c r="F328" s="2"/>
+    </row>
+    <row r="329" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <v>330</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D329" s="2"/>
+      <c r="E329" s="2"/>
+      <c r="F329" s="2"/>
+    </row>
+    <row r="330" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <v>331</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D330" s="2"/>
+      <c r="E330" s="2"/>
+      <c r="F330" s="2"/>
+    </row>
+    <row r="331" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
+        <v>332</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D331" s="2"/>
+      <c r="E331" s="2"/>
+      <c r="F331" s="2"/>
+    </row>
+    <row r="332" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <v>333</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D332" s="2"/>
+      <c r="E332" s="2"/>
+      <c r="F332" s="2"/>
+    </row>
+    <row r="333" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="1">
+        <v>334</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D333" s="2"/>
+      <c r="E333" s="2"/>
+      <c r="F333" s="2"/>
+    </row>
+    <row r="334" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="1">
+        <v>335</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D334" s="2"/>
+      <c r="E334" s="2"/>
+      <c r="F334" s="2"/>
+    </row>
+    <row r="335" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="1">
+        <v>336</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D335" s="2"/>
+      <c r="E335" s="2"/>
+      <c r="F335" s="2"/>
+    </row>
+    <row r="336" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="1">
+        <v>337</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D336" s="2"/>
+      <c r="E336" s="2"/>
+      <c r="F336" s="2"/>
+    </row>
+    <row r="337" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="1">
+        <v>338</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D337" s="2"/>
+      <c r="E337" s="2"/>
+      <c r="F337" s="2"/>
+    </row>
+    <row r="338" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="1">
+        <v>339</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D338" s="2"/>
+      <c r="E338" s="2"/>
+      <c r="F338" s="2"/>
+    </row>
+    <row r="339" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="1">
+        <v>340</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D339" s="2"/>
+      <c r="E339" s="2"/>
+      <c r="F339" s="2"/>
+    </row>
+    <row r="340" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="1">
+        <v>341</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D340" s="2"/>
+      <c r="E340" s="2"/>
+      <c r="F340" s="2"/>
+    </row>
+    <row r="341" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="1">
+        <v>342</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D341" s="2"/>
+      <c r="E341" s="2"/>
+      <c r="F341" s="2"/>
+    </row>
+    <row r="342" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="1">
+        <v>343</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D342" s="2"/>
+      <c r="E342" s="2"/>
+      <c r="F342" s="2"/>
+    </row>
+    <row r="343" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="1">
+        <v>344</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D343" s="2"/>
+      <c r="E343" s="2"/>
+      <c r="F343" s="2"/>
+    </row>
+    <row r="344" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="1">
+        <v>345</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D344" s="2"/>
+      <c r="E344" s="2"/>
+      <c r="F344" s="2"/>
+    </row>
+    <row r="345" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="1">
+        <v>346</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D345" s="2"/>
+      <c r="E345" s="2"/>
+      <c r="F345" s="2"/>
+    </row>
+    <row r="346" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="1">
+        <v>347</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D346" s="2"/>
+      <c r="E346" s="2"/>
+      <c r="F346" s="2"/>
+    </row>
+    <row r="347" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A347" s="1">
+        <v>348</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D347" s="2"/>
+      <c r="E347" s="2"/>
+      <c r="F347" s="2"/>
+    </row>
+    <row r="348" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A348" s="1">
+        <v>349</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D348" s="2"/>
+      <c r="E348" s="2"/>
+      <c r="F348" s="2"/>
+    </row>
+    <row r="349" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="1">
+        <v>350</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D349" s="2"/>
+      <c r="E349" s="2"/>
+      <c r="F349" s="2"/>
+    </row>
+    <row r="350" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="1">
+        <v>351</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D350" s="2"/>
+      <c r="E350" s="2"/>
+      <c r="F350" s="2"/>
+    </row>
+    <row r="351" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="1">
+        <v>352</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D351" s="2"/>
+      <c r="E351" s="2"/>
+      <c r="F351" s="2"/>
+    </row>
+    <row r="352" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A352" s="1">
+        <v>353</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D352" s="2"/>
+      <c r="E352" s="2"/>
+      <c r="F352" s="2"/>
+    </row>
+    <row r="353" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A353" s="1">
+        <v>354</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D353" s="2"/>
+      <c r="E353" s="2"/>
+      <c r="F353" s="2"/>
+    </row>
+    <row r="354" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="1">
+        <v>355</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D354" s="2"/>
+      <c r="E354" s="2"/>
+      <c r="F354" s="2"/>
+    </row>
+    <row r="355" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A355" s="1">
+        <v>356</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D355" s="2"/>
+      <c r="E355" s="2"/>
+      <c r="F355" s="2"/>
+    </row>
+    <row r="356" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="1">
+        <v>357</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D356" s="2"/>
+      <c r="E356" s="2"/>
+      <c r="F356" s="2"/>
+    </row>
+    <row r="357" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A357" s="1">
+        <v>358</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D357" s="2"/>
+      <c r="E357" s="2"/>
+      <c r="F357" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8662,25 +10577,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="106.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1328125" style="1"/>
+    <col min="4" max="4" width="44.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="106.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8703,7 +10618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
@@ -8726,7 +10641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -8749,7 +10664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -8772,7 +10687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
@@ -8795,7 +10710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
@@ -8818,7 +10733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
@@ -8841,7 +10756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
@@ -8864,7 +10779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
@@ -8887,7 +10802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
@@ -8910,7 +10825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1009</v>
       </c>
@@ -8933,7 +10848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1010</v>
       </c>
@@ -8956,7 +10871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1011</v>
       </c>
@@ -8979,7 +10894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1012</v>
       </c>
@@ -9002,7 +10917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1013</v>
       </c>
@@ -9025,7 +10940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1014</v>
       </c>
@@ -9048,7 +10963,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1015</v>
       </c>
@@ -9071,7 +10986,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1016</v>
       </c>
@@ -9094,7 +11009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1017</v>
       </c>
@@ -9117,7 +11032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1018</v>
       </c>
@@ -9140,7 +11055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1019</v>
       </c>
@@ -9163,7 +11078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1020</v>
       </c>
@@ -9186,7 +11101,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1021</v>
       </c>
@@ -9209,7 +11124,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>1022</v>
       </c>
@@ -9232,7 +11147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1023</v>
       </c>
@@ -9255,7 +11170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>1024</v>
       </c>
@@ -9278,7 +11193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>1025</v>
       </c>
@@ -9301,7 +11216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1026</v>
       </c>
@@ -9324,7 +11239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>1027</v>
       </c>
@@ -9347,7 +11262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1028</v>
       </c>
@@ -9370,7 +11285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>1029</v>
       </c>
@@ -9390,7 +11305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>1030</v>
       </c>
@@ -9413,7 +11328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>1031</v>
       </c>
@@ -9436,7 +11351,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>1032</v>
       </c>
@@ -9458,6 +11373,71 @@
       <c r="G34" s="2" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>1033</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>1034</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>1035</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>1036</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>1037</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9476,14 +11456,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.59765625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1328125" style="1"/>
+    <col min="2" max="2" width="21.5546875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -9491,7 +11471,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>567</v>
       </c>
@@ -9499,7 +11479,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>568</v>
       </c>
@@ -9507,7 +11487,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>569</v>
       </c>
@@ -9515,7 +11495,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>570</v>
       </c>
@@ -9523,7 +11503,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>571</v>
       </c>

--- a/i18n/fr.xlsx
+++ b/i18n/fr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matej\Programming\wingsearch\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4FB269-DCE7-4A50-A099-B2BA69FDF1CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800FDD3D-37E3-4FA2-976F-5FE9B80AD9A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="1134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="1135">
   <si>
     <t>id</t>
   </si>
@@ -3493,6 +3493,9 @@
   </si>
   <si>
     <t>Wetland Data Analyst</t>
+  </si>
+  <si>
+    <t>GAME END</t>
   </si>
 </sst>
 </file>
@@ -3559,7 +3562,15 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3583,15 +3594,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3692,27 +3695,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="bonuses" displayName="bonuses" ref="A1:G39" tableType="queryTable" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="bonuses" displayName="bonuses" ref="A1:G39" tableType="queryTable" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:G39" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="Name" queryTableFieldId="3" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" uniqueName="4" name="Condition" queryTableFieldId="4" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" uniqueName="5" name="Explanatory text" queryTableFieldId="5" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" uniqueName="6" name="VP" queryTableFieldId="6" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" uniqueName="7" name="Note" queryTableFieldId="7" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="Name" queryTableFieldId="3" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" uniqueName="4" name="Condition" queryTableFieldId="4" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" uniqueName="5" name="Explanatory text" queryTableFieldId="5" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" uniqueName="6" name="VP" queryTableFieldId="6" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" uniqueName="7" name="Note" queryTableFieldId="7" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="A1:B6" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:B6" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="A1:B7" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <autoFilter ref="A1:B7" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="English name" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Translated" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="English name" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Translated" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10579,7 +10582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
@@ -11450,10 +11453,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11503,11 +11506,16 @@
         <v>875</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:2" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>873</v>
       </c>
     </row>

--- a/i18n/fr.xlsx
+++ b/i18n/fr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matej\Programming\wingsearch\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800FDD3D-37E3-4FA2-976F-5FE9B80AD9A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632161F0-E0EC-4D8E-B890-67F5B15E84E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="1136">
   <si>
     <t>id</t>
   </si>
@@ -3496,6 +3496,9 @@
   </si>
   <si>
     <t>GAME END</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -3560,7 +3563,23 @@
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="25">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3650,14 +3669,18 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7">
-    <queryTableFields count="6">
+  <queryTableRefresh nextId="11" unboundColumnsRight="4">
+    <queryTableFields count="10">
       <queryTableField id="1" name="id" tableColumnId="1"/>
       <queryTableField id="2" name="English name" tableColumnId="2"/>
       <queryTableField id="3" name="Scientific name" tableColumnId="3"/>
       <queryTableField id="4" name="Common name" tableColumnId="4"/>
       <queryTableField id="5" name="Power text" tableColumnId="5"/>
       <queryTableField id="6" name="Note" tableColumnId="6"/>
+      <queryTableField id="7" dataBound="0" tableColumnId="7"/>
+      <queryTableField id="8" dataBound="0" tableColumnId="8"/>
+      <queryTableField id="9" dataBound="0" tableColumnId="9"/>
+      <queryTableField id="10" dataBound="0" tableColumnId="10"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -3680,42 +3703,46 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="birds" displayName="birds" ref="A1:F357" tableType="queryTable" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:F357" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Scientific name" queryTableFieldId="3" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Common name" queryTableFieldId="4" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Power text" queryTableFieldId="5" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Note" queryTableFieldId="6" dataDxfId="13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="birds" displayName="birds" ref="A1:J357" tableType="queryTable" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+  <autoFilter ref="A1:J357" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="Scientific name" queryTableFieldId="3" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Common name" queryTableFieldId="4" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="Power text" queryTableFieldId="5" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="Note" queryTableFieldId="6" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{4E097163-BC75-4062-B1A6-B7A1672FB634}" uniqueName="7" name="Anatomist" queryTableFieldId="7" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{BBE22E3B-660A-4348-9681-DE8768D7A036}" uniqueName="8" name="Cartographer" queryTableFieldId="8" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{96E31972-36ED-4AEA-A267-40F7EA96CAB9}" uniqueName="9" name="Historian" queryTableFieldId="9" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{61684CD2-FCF8-471E-93D0-3EC04D83E4F5}" uniqueName="10" name="Photographer" queryTableFieldId="10" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="bonuses" displayName="bonuses" ref="A1:G39" tableType="queryTable" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="bonuses" displayName="bonuses" ref="A1:G39" tableType="queryTable" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:G39" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="Name" queryTableFieldId="3" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" uniqueName="4" name="Condition" queryTableFieldId="4" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" uniqueName="5" name="Explanatory text" queryTableFieldId="5" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" uniqueName="6" name="VP" queryTableFieldId="6" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" uniqueName="7" name="Note" queryTableFieldId="7" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="id" queryTableFieldId="1" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="2" name="English name" queryTableFieldId="2" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="Name" queryTableFieldId="3" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" uniqueName="4" name="Condition" queryTableFieldId="4" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" uniqueName="5" name="Explanatory text" queryTableFieldId="5" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" uniqueName="6" name="VP" queryTableFieldId="6" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" uniqueName="7" name="Note" queryTableFieldId="7" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="A1:B7" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="A1:B7" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:B7" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="English name" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Translated" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="English name" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Translated" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3984,10 +4011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F357"/>
+  <dimension ref="A1:J357"/>
   <sheetViews>
-    <sheetView topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="A263" sqref="A263:C357"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:J357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4000,7 +4027,7 @@
     <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4019,8 +4046,20 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -4039,8 +4078,20 @@
       <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -4059,8 +4110,20 @@
       <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -4079,8 +4142,20 @@
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -4099,8 +4174,20 @@
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -4119,8 +4206,20 @@
       <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -4139,8 +4238,20 @@
       <c r="F7" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -4159,8 +4270,20 @@
       <c r="F8" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -4179,8 +4302,20 @@
       <c r="F9" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -4199,8 +4334,20 @@
       <c r="F10" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -4219,8 +4366,20 @@
       <c r="F11" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -4239,8 +4398,20 @@
       <c r="F12" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -4259,8 +4430,20 @@
       <c r="F13" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -4279,8 +4462,20 @@
       <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -4299,8 +4494,20 @@
       <c r="F15" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -4319,8 +4526,20 @@
       <c r="F16" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -4339,8 +4558,20 @@
       <c r="F17" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -4359,8 +4590,20 @@
       <c r="F18" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -4379,8 +4622,20 @@
       <c r="F19" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -4399,8 +4654,20 @@
       <c r="F20" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -4419,8 +4686,20 @@
       <c r="F21" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -4439,8 +4718,20 @@
       <c r="F22" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -4459,8 +4750,20 @@
       <c r="F23" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -4479,8 +4782,20 @@
       <c r="F24" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -4499,8 +4814,20 @@
       <c r="F25" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -4519,8 +4846,20 @@
       <c r="F26" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -4539,8 +4878,20 @@
       <c r="F27" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -4559,8 +4910,20 @@
       <c r="F28" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -4579,8 +4942,20 @@
       <c r="F29" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -4599,8 +4974,20 @@
       <c r="F30" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -4619,8 +5006,20 @@
       <c r="F31" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -4639,8 +5038,20 @@
       <c r="F32" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -4659,8 +5070,20 @@
       <c r="F33" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -4679,8 +5102,20 @@
       <c r="F34" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -4699,8 +5134,20 @@
       <c r="F35" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G35" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -4719,8 +5166,20 @@
       <c r="F36" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G36" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -4739,8 +5198,20 @@
       <c r="F37" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -4759,8 +5230,20 @@
       <c r="F38" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G38" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -4779,8 +5262,20 @@
       <c r="F39" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G39" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -4799,8 +5294,20 @@
       <c r="F40" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G40" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -4819,8 +5326,20 @@
       <c r="F41" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G41" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -4839,8 +5358,20 @@
       <c r="F42" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G42" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -4859,8 +5390,20 @@
       <c r="F43" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -4879,8 +5422,20 @@
       <c r="F44" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -4899,8 +5454,20 @@
       <c r="F45" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G45" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -4919,8 +5486,20 @@
       <c r="F46" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G46" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -4939,8 +5518,20 @@
       <c r="F47" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -4959,8 +5550,20 @@
       <c r="F48" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -4979,8 +5582,20 @@
       <c r="F49" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -4999,8 +5614,20 @@
       <c r="F50" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -5019,8 +5646,20 @@
       <c r="F51" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G51" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -5039,8 +5678,20 @@
       <c r="F52" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -5059,8 +5710,20 @@
       <c r="F53" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -5079,8 +5742,20 @@
       <c r="F54" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G54" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -5099,8 +5774,20 @@
       <c r="F55" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -5119,8 +5806,20 @@
       <c r="F56" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -5139,8 +5838,20 @@
       <c r="F57" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -5159,8 +5870,20 @@
       <c r="F58" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -5179,8 +5902,20 @@
       <c r="F59" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -5199,8 +5934,20 @@
       <c r="F60" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -5219,8 +5966,20 @@
       <c r="F61" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G61" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -5239,8 +5998,20 @@
       <c r="F62" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -5259,8 +6030,20 @@
       <c r="F63" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -5279,8 +6062,20 @@
       <c r="F64" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -5299,8 +6094,20 @@
       <c r="F65" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -5319,8 +6126,20 @@
       <c r="F66" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -5339,8 +6158,20 @@
       <c r="F67" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G67" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -5359,8 +6190,20 @@
       <c r="F68" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -5379,8 +6222,20 @@
       <c r="F69" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -5399,8 +6254,20 @@
       <c r="F70" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G70" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -5419,8 +6286,20 @@
       <c r="F71" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -5439,8 +6318,20 @@
       <c r="F72" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -5459,8 +6350,20 @@
       <c r="F73" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -5479,8 +6382,20 @@
       <c r="F74" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -5499,8 +6414,20 @@
       <c r="F75" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -5519,8 +6446,20 @@
       <c r="F76" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -5539,8 +6478,20 @@
       <c r="F77" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -5559,8 +6510,20 @@
       <c r="F78" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -5579,8 +6542,20 @@
       <c r="F79" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -5599,8 +6574,20 @@
       <c r="F80" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -5619,8 +6606,20 @@
       <c r="F81" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>82</v>
       </c>
@@ -5639,8 +6638,20 @@
       <c r="F82" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G82" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -5659,8 +6670,20 @@
       <c r="F83" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -5679,8 +6702,20 @@
       <c r="F84" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -5699,8 +6734,20 @@
       <c r="F85" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -5719,8 +6766,20 @@
       <c r="F86" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -5739,8 +6798,20 @@
       <c r="F87" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>88</v>
       </c>
@@ -5759,8 +6830,20 @@
       <c r="F88" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>89</v>
       </c>
@@ -5779,8 +6862,20 @@
       <c r="F89" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>90</v>
       </c>
@@ -5799,8 +6894,20 @@
       <c r="F90" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>91</v>
       </c>
@@ -5819,8 +6926,20 @@
       <c r="F91" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>92</v>
       </c>
@@ -5839,8 +6958,20 @@
       <c r="F92" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>93</v>
       </c>
@@ -5859,8 +6990,20 @@
       <c r="F93" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>94</v>
       </c>
@@ -5879,8 +7022,20 @@
       <c r="F94" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G94" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>95</v>
       </c>
@@ -5899,8 +7054,20 @@
       <c r="F95" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>96</v>
       </c>
@@ -5919,8 +7086,20 @@
       <c r="F96" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>97</v>
       </c>
@@ -5939,8 +7118,20 @@
       <c r="F97" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G97" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>98</v>
       </c>
@@ -5959,8 +7150,20 @@
       <c r="F98" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>99</v>
       </c>
@@ -5979,8 +7182,20 @@
       <c r="F99" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G99" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -5999,8 +7214,20 @@
       <c r="F100" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>101</v>
       </c>
@@ -6019,8 +7246,20 @@
       <c r="F101" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>102</v>
       </c>
@@ -6039,8 +7278,20 @@
       <c r="F102" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>103</v>
       </c>
@@ -6059,8 +7310,20 @@
       <c r="F103" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>104</v>
       </c>
@@ -6079,8 +7342,20 @@
       <c r="F104" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>105</v>
       </c>
@@ -6099,8 +7374,20 @@
       <c r="F105" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>106</v>
       </c>
@@ -6119,8 +7406,20 @@
       <c r="F106" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>107</v>
       </c>
@@ -6139,8 +7438,20 @@
       <c r="F107" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>108</v>
       </c>
@@ -6159,8 +7470,20 @@
       <c r="F108" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G108" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>109</v>
       </c>
@@ -6179,8 +7502,20 @@
       <c r="F109" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>110</v>
       </c>
@@ -6199,8 +7534,20 @@
       <c r="F110" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>111</v>
       </c>
@@ -6219,8 +7566,20 @@
       <c r="F111" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>112</v>
       </c>
@@ -6239,8 +7598,20 @@
       <c r="F112" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>113</v>
       </c>
@@ -6259,8 +7630,20 @@
       <c r="F113" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>114</v>
       </c>
@@ -6279,8 +7662,20 @@
       <c r="F114" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>115</v>
       </c>
@@ -6299,8 +7694,20 @@
       <c r="F115" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G115" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>116</v>
       </c>
@@ -6319,8 +7726,20 @@
       <c r="F116" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>117</v>
       </c>
@@ -6339,8 +7758,20 @@
       <c r="F117" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G117" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>118</v>
       </c>
@@ -6359,8 +7790,20 @@
       <c r="F118" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>119</v>
       </c>
@@ -6379,8 +7822,20 @@
       <c r="F119" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>120</v>
       </c>
@@ -6399,8 +7854,20 @@
       <c r="F120" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>121</v>
       </c>
@@ -6419,8 +7886,20 @@
       <c r="F121" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G121" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I121" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>122</v>
       </c>
@@ -6439,8 +7918,20 @@
       <c r="F122" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>123</v>
       </c>
@@ -6459,8 +7950,20 @@
       <c r="F123" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>124</v>
       </c>
@@ -6479,8 +7982,20 @@
       <c r="F124" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>125</v>
       </c>
@@ -6499,8 +8014,20 @@
       <c r="F125" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G125" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I125" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>126</v>
       </c>
@@ -6519,8 +8046,20 @@
       <c r="F126" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G126" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I126" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>127</v>
       </c>
@@ -6539,8 +8078,20 @@
       <c r="F127" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>128</v>
       </c>
@@ -6559,8 +8110,20 @@
       <c r="F128" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G128" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I128" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>129</v>
       </c>
@@ -6579,8 +8142,20 @@
       <c r="F129" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G129" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I129" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>130</v>
       </c>
@@ -6599,8 +8174,20 @@
       <c r="F130" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G130" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I130" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J130" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>131</v>
       </c>
@@ -6619,8 +8206,20 @@
       <c r="F131" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G131" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I131" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J131" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>132</v>
       </c>
@@ -6639,8 +8238,20 @@
       <c r="F132" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>133</v>
       </c>
@@ -6659,8 +8270,20 @@
       <c r="F133" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G133" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>134</v>
       </c>
@@ -6679,8 +8302,20 @@
       <c r="F134" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G134" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>135</v>
       </c>
@@ -6699,8 +8334,20 @@
       <c r="F135" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G135" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>136</v>
       </c>
@@ -6719,8 +8366,20 @@
       <c r="F136" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G136" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>137</v>
       </c>
@@ -6739,8 +8398,20 @@
       <c r="F137" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G137" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>138</v>
       </c>
@@ -6759,8 +8430,20 @@
       <c r="F138" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G138" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>139</v>
       </c>
@@ -6779,8 +8462,20 @@
       <c r="F139" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G139" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>140</v>
       </c>
@@ -6799,8 +8494,20 @@
       <c r="F140" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>141</v>
       </c>
@@ -6819,8 +8526,20 @@
       <c r="F141" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G141" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>142</v>
       </c>
@@ -6839,8 +8558,20 @@
       <c r="F142" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G142" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>143</v>
       </c>
@@ -6859,8 +8590,20 @@
       <c r="F143" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G143" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>144</v>
       </c>
@@ -6879,8 +8622,20 @@
       <c r="F144" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G144" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>145</v>
       </c>
@@ -6899,8 +8654,20 @@
       <c r="F145" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G145" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>146</v>
       </c>
@@ -6919,8 +8686,20 @@
       <c r="F146" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G146" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H146" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>147</v>
       </c>
@@ -6939,8 +8718,20 @@
       <c r="F147" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G147" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>148</v>
       </c>
@@ -6959,8 +8750,20 @@
       <c r="F148" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G148" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>149</v>
       </c>
@@ -6979,8 +8782,20 @@
       <c r="F149" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G149" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>150</v>
       </c>
@@ -6999,8 +8814,20 @@
       <c r="F150" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G150" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>151</v>
       </c>
@@ -7019,8 +8846,20 @@
       <c r="F151" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G151" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J151" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>152</v>
       </c>
@@ -7039,8 +8878,20 @@
       <c r="F152" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G152" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>153</v>
       </c>
@@ -7059,8 +8910,20 @@
       <c r="F153" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G153" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>154</v>
       </c>
@@ -7079,8 +8942,20 @@
       <c r="F154" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G154" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>155</v>
       </c>
@@ -7099,8 +8974,20 @@
       <c r="F155" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G155" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J155" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>156</v>
       </c>
@@ -7119,8 +9006,20 @@
       <c r="F156" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G156" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J156" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>157</v>
       </c>
@@ -7139,8 +9038,20 @@
       <c r="F157" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G157" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>158</v>
       </c>
@@ -7159,8 +9070,20 @@
       <c r="F158" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G158" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J158" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>159</v>
       </c>
@@ -7179,8 +9102,20 @@
       <c r="F159" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G159" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J159" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>160</v>
       </c>
@@ -7199,8 +9134,20 @@
       <c r="F160" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G160" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I160" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J160" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>161</v>
       </c>
@@ -7219,8 +9166,20 @@
       <c r="F161" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G161" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J161" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>162</v>
       </c>
@@ -7239,8 +9198,20 @@
       <c r="F162" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G162" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I162" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>163</v>
       </c>
@@ -7259,8 +9230,20 @@
       <c r="F163" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G163" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J163" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>164</v>
       </c>
@@ -7279,8 +9262,20 @@
       <c r="F164" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G164" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J164" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>165</v>
       </c>
@@ -7299,8 +9294,20 @@
       <c r="F165" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G165" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I165" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J165" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>166</v>
       </c>
@@ -7319,8 +9326,20 @@
       <c r="F166" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G166" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J166" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>167</v>
       </c>
@@ -7339,8 +9358,20 @@
       <c r="F167" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G167" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J167" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>168</v>
       </c>
@@ -7359,8 +9390,20 @@
       <c r="F168" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G168" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I168" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J168" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>169</v>
       </c>
@@ -7379,8 +9422,20 @@
       <c r="F169" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G169" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I169" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J169" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>170</v>
       </c>
@@ -7399,8 +9454,20 @@
       <c r="F170" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G170" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I170" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J170" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>171</v>
       </c>
@@ -7419,8 +9486,20 @@
       <c r="F171" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G171" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I171" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J171" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>172</v>
       </c>
@@ -7439,8 +9518,20 @@
       <c r="F172" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G172" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J172" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>173</v>
       </c>
@@ -7459,8 +9550,20 @@
       <c r="F173" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G173" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J173" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>174</v>
       </c>
@@ -7479,8 +9582,20 @@
       <c r="F174" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G174" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J174" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>175</v>
       </c>
@@ -7499,8 +9614,20 @@
       <c r="F175" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G175" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J175" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>176</v>
       </c>
@@ -7519,8 +9646,20 @@
       <c r="F176" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G176" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I176" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J176" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>177</v>
       </c>
@@ -7539,8 +9678,20 @@
       <c r="F177" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G177" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I177" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J177" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>178</v>
       </c>
@@ -7559,8 +9710,20 @@
       <c r="F178" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G178" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I178" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J178" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>179</v>
       </c>
@@ -7579,8 +9742,20 @@
       <c r="F179" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G179" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I179" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J179" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>180</v>
       </c>
@@ -7599,8 +9774,20 @@
       <c r="F180" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G180" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I180" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J180" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>181</v>
       </c>
@@ -7619,8 +9806,20 @@
       <c r="F181" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="182" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G181" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I181" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J181" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>182</v>
       </c>
@@ -7639,8 +9838,20 @@
       <c r="F182" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G182" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J182" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>183</v>
       </c>
@@ -7659,8 +9870,20 @@
       <c r="F183" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G183" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I183" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J183" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>184</v>
       </c>
@@ -7679,8 +9902,20 @@
       <c r="F184" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G184" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I184" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J184" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>185</v>
       </c>
@@ -7699,8 +9934,20 @@
       <c r="F185" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G185" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I185" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J185" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>186</v>
       </c>
@@ -7719,8 +9966,20 @@
       <c r="F186" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G186" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I186" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J186" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>187</v>
       </c>
@@ -7739,8 +9998,20 @@
       <c r="F187" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G187" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I187" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J187" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>188</v>
       </c>
@@ -7759,8 +10030,20 @@
       <c r="F188" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G188" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I188" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J188" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>189</v>
       </c>
@@ -7779,8 +10062,20 @@
       <c r="F189" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G189" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I189" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J189" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>190</v>
       </c>
@@ -7799,8 +10094,20 @@
       <c r="F190" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G190" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I190" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J190" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>191</v>
       </c>
@@ -7819,8 +10126,20 @@
       <c r="F191" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G191" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H191" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I191" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J191" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>192</v>
       </c>
@@ -7839,8 +10158,20 @@
       <c r="F192" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G192" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I192" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J192" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>193</v>
       </c>
@@ -7859,8 +10190,20 @@
       <c r="F193" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G193" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I193" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J193" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>194</v>
       </c>
@@ -7879,8 +10222,20 @@
       <c r="F194" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G194" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I194" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J194" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>195</v>
       </c>
@@ -7899,8 +10254,20 @@
       <c r="F195" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G195" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I195" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J195" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>196</v>
       </c>
@@ -7919,8 +10286,20 @@
       <c r="F196" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G196" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I196" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J196" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>197</v>
       </c>
@@ -7939,8 +10318,20 @@
       <c r="F197" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G197" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I197" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J197" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>198</v>
       </c>
@@ -7959,8 +10350,20 @@
       <c r="F198" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G198" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H198" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I198" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J198" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>199</v>
       </c>
@@ -7979,8 +10382,20 @@
       <c r="F199" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G199" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I199" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J199" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>200</v>
       </c>
@@ -7999,8 +10414,20 @@
       <c r="F200" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="201" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G200" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J200" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>201</v>
       </c>
@@ -8019,8 +10446,20 @@
       <c r="F201" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G201" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I201" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J201" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>203</v>
       </c>
@@ -8039,8 +10478,20 @@
       <c r="F202" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G202" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I202" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J202" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>204</v>
       </c>
@@ -8059,8 +10510,20 @@
       <c r="F203" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="204" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G203" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H203" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I203" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J203" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>205</v>
       </c>
@@ -8079,8 +10542,20 @@
       <c r="F204" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="205" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G204" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I204" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J204" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>206</v>
       </c>
@@ -8099,8 +10574,20 @@
       <c r="F205" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="206" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G205" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H205" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I205" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J205" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>207</v>
       </c>
@@ -8119,8 +10606,20 @@
       <c r="F206" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G206" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J206" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>208</v>
       </c>
@@ -8139,8 +10638,20 @@
       <c r="F207" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="208" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G207" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I207" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J207" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>209</v>
       </c>
@@ -8159,8 +10670,20 @@
       <c r="F208" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G208" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H208" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I208" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J208" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>210</v>
       </c>
@@ -8179,8 +10702,20 @@
       <c r="F209" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G209" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H209" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I209" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J209" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>211</v>
       </c>
@@ -8199,8 +10734,20 @@
       <c r="F210" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G210" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H210" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I210" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J210" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>212</v>
       </c>
@@ -8219,8 +10766,20 @@
       <c r="F211" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G211" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H211" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I211" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J211" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>213</v>
       </c>
@@ -8239,8 +10798,20 @@
       <c r="F212" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G212" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H212" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I212" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J212" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>214</v>
       </c>
@@ -8259,8 +10830,20 @@
       <c r="F213" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G213" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H213" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I213" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J213" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>215</v>
       </c>
@@ -8279,8 +10862,20 @@
       <c r="F214" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G214" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H214" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I214" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J214" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>216</v>
       </c>
@@ -8299,8 +10894,20 @@
       <c r="F215" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G215" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H215" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I215" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J215" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>217</v>
       </c>
@@ -8319,8 +10926,20 @@
       <c r="F216" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G216" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H216" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I216" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J216" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>218</v>
       </c>
@@ -8339,8 +10958,20 @@
       <c r="F217" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G217" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H217" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I217" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J217" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>219</v>
       </c>
@@ -8359,8 +10990,20 @@
       <c r="F218" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G218" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H218" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I218" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J218" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>220</v>
       </c>
@@ -8379,8 +11022,20 @@
       <c r="F219" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G219" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H219" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I219" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J219" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>221</v>
       </c>
@@ -8399,8 +11054,20 @@
       <c r="F220" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G220" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H220" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I220" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J220" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>222</v>
       </c>
@@ -8419,8 +11086,20 @@
       <c r="F221" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G221" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H221" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I221" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J221" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>223</v>
       </c>
@@ -8439,8 +11118,20 @@
       <c r="F222" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G222" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H222" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I222" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J222" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>224</v>
       </c>
@@ -8459,8 +11150,20 @@
       <c r="F223" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G223" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H223" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I223" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J223" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>225</v>
       </c>
@@ -8479,8 +11182,20 @@
       <c r="F224" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G224" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H224" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I224" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J224" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>226</v>
       </c>
@@ -8499,8 +11214,20 @@
       <c r="F225" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="226" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G225" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H225" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I225" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J225" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>227</v>
       </c>
@@ -8519,8 +11246,20 @@
       <c r="F226" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G226" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H226" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I226" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J226" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>228</v>
       </c>
@@ -8539,8 +11278,20 @@
       <c r="F227" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="228" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G227" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H227" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I227" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J227" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>229</v>
       </c>
@@ -8559,8 +11310,20 @@
       <c r="F228" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G228" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H228" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I228" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J228" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>230</v>
       </c>
@@ -8579,8 +11342,20 @@
       <c r="F229" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="230" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G229" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H229" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I229" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J229" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>231</v>
       </c>
@@ -8599,8 +11374,20 @@
       <c r="F230" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G230" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H230" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I230" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J230" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>232</v>
       </c>
@@ -8619,8 +11406,20 @@
       <c r="F231" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="232" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G231" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H231" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I231" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J231" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>233</v>
       </c>
@@ -8639,8 +11438,20 @@
       <c r="F232" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G232" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H232" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I232" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J232" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>234</v>
       </c>
@@ -8659,8 +11470,20 @@
       <c r="F233" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="234" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G233" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H233" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I233" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J233" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>235</v>
       </c>
@@ -8679,8 +11502,20 @@
       <c r="F234" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G234" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H234" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I234" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J234" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>236</v>
       </c>
@@ -8699,8 +11534,20 @@
       <c r="F235" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="236" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G235" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H235" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I235" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J235" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>237</v>
       </c>
@@ -8719,8 +11566,20 @@
       <c r="F236" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="237" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G236" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H236" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I236" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J236" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>238</v>
       </c>
@@ -8739,8 +11598,20 @@
       <c r="F237" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G237" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H237" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I237" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J237" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>239</v>
       </c>
@@ -8759,8 +11630,20 @@
       <c r="F238" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="239" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G238" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H238" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I238" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J238" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>240</v>
       </c>
@@ -8779,8 +11662,20 @@
       <c r="F239" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G239" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H239" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I239" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J239" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>241</v>
       </c>
@@ -8799,8 +11694,20 @@
       <c r="F240" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="241" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G240" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H240" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I240" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J240" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>242</v>
       </c>
@@ -8819,8 +11726,20 @@
       <c r="F241" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G241" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H241" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I241" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J241" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>243</v>
       </c>
@@ -8839,8 +11758,20 @@
       <c r="F242" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="243" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G242" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H242" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I242" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J242" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>244</v>
       </c>
@@ -8859,8 +11790,20 @@
       <c r="F243" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G243" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H243" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I243" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J243" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>245</v>
       </c>
@@ -8879,8 +11822,20 @@
       <c r="F244" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="245" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G244" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H244" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I244" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J244" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>246</v>
       </c>
@@ -8899,8 +11854,20 @@
       <c r="F245" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G245" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H245" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I245" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J245" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>247</v>
       </c>
@@ -8919,8 +11886,20 @@
       <c r="F246" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="247" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G246" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H246" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I246" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J246" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>248</v>
       </c>
@@ -8939,8 +11918,20 @@
       <c r="F247" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G247" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H247" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I247" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J247" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>249</v>
       </c>
@@ -8959,8 +11950,20 @@
       <c r="F248" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="249" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G248" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H248" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I248" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J248" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>250</v>
       </c>
@@ -8979,8 +11982,20 @@
       <c r="F249" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G249" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H249" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I249" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J249" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>251</v>
       </c>
@@ -8999,8 +12014,20 @@
       <c r="F250" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="251" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G250" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H250" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I250" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J250" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>252</v>
       </c>
@@ -9019,8 +12046,20 @@
       <c r="F251" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G251" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H251" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I251" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J251" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>253</v>
       </c>
@@ -9039,8 +12078,20 @@
       <c r="F252" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="253" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G252" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H252" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I252" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J252" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>254</v>
       </c>
@@ -9059,8 +12110,20 @@
       <c r="F253" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G253" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H253" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I253" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J253" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>255</v>
       </c>
@@ -9079,8 +12142,20 @@
       <c r="F254" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G254" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H254" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I254" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J254" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>256</v>
       </c>
@@ -9099,8 +12174,20 @@
       <c r="F255" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="256" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G255" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H255" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I255" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J255" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>257</v>
       </c>
@@ -9119,8 +12206,20 @@
       <c r="F256" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="257" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G256" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H256" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I256" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J256" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>258</v>
       </c>
@@ -9139,8 +12238,20 @@
       <c r="F257" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="258" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G257" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H257" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I257" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J257" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>259</v>
       </c>
@@ -9159,8 +12270,20 @@
       <c r="F258" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G258" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H258" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I258" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J258" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>260</v>
       </c>
@@ -9179,8 +12302,20 @@
       <c r="F259" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G259" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H259" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I259" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J259" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>261</v>
       </c>
@@ -9199,8 +12334,20 @@
       <c r="F260" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G260" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H260" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I260" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J260" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>262</v>
       </c>
@@ -9219,8 +12366,20 @@
       <c r="F261" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G261" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H261" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I261" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J261" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>263</v>
       </c>
@@ -9239,8 +12398,20 @@
       <c r="F262" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G262" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H262" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I262" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J262" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>264</v>
       </c>
@@ -9253,8 +12424,20 @@
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
-    </row>
-    <row r="264" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G263" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H263" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I263" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J263" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>265</v>
       </c>
@@ -9267,8 +12450,20 @@
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
-    </row>
-    <row r="265" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G264" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H264" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I264" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J264" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>266</v>
       </c>
@@ -9281,8 +12476,20 @@
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
-    </row>
-    <row r="266" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G265" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H265" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I265" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J265" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>267</v>
       </c>
@@ -9295,8 +12502,20 @@
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
-    </row>
-    <row r="267" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G266" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H266" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I266" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J266" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>268</v>
       </c>
@@ -9309,8 +12528,20 @@
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
-    </row>
-    <row r="268" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G267" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H267" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I267" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J267" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>269</v>
       </c>
@@ -9323,8 +12554,20 @@
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
-    </row>
-    <row r="269" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G268" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H268" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I268" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J268" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>270</v>
       </c>
@@ -9337,8 +12580,20 @@
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
-    </row>
-    <row r="270" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G269" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H269" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I269" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J269" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>271</v>
       </c>
@@ -9351,8 +12606,20 @@
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
-    </row>
-    <row r="271" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G270" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H270" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I270" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J270" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>272</v>
       </c>
@@ -9365,8 +12632,20 @@
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
-    </row>
-    <row r="272" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G271" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H271" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I271" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J271" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>273</v>
       </c>
@@ -9379,8 +12658,20 @@
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
-    </row>
-    <row r="273" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G272" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H272" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I272" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J272" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>274</v>
       </c>
@@ -9393,8 +12684,20 @@
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
-    </row>
-    <row r="274" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G273" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H273" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I273" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J273" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>275</v>
       </c>
@@ -9407,8 +12710,20 @@
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
-    </row>
-    <row r="275" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G274" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H274" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I274" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J274" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>276</v>
       </c>
@@ -9421,8 +12736,20 @@
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
-    </row>
-    <row r="276" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G275" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H275" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I275" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J275" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>277</v>
       </c>
@@ -9435,8 +12762,20 @@
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
-    </row>
-    <row r="277" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G276" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H276" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I276" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J276" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>278</v>
       </c>
@@ -9449,8 +12788,20 @@
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
-    </row>
-    <row r="278" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G277" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H277" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I277" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J277" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>279</v>
       </c>
@@ -9463,8 +12814,20 @@
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
-    </row>
-    <row r="279" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G278" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H278" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I278" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J278" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>280</v>
       </c>
@@ -9477,8 +12840,20 @@
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
-    </row>
-    <row r="280" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G279" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H279" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I279" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J279" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>281</v>
       </c>
@@ -9491,8 +12866,20 @@
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
-    </row>
-    <row r="281" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G280" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H280" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I280" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J280" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>282</v>
       </c>
@@ -9505,8 +12892,20 @@
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
-    </row>
-    <row r="282" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G281" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H281" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I281" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J281" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>283</v>
       </c>
@@ -9519,8 +12918,20 @@
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
-    </row>
-    <row r="283" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G282" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H282" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I282" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J282" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>284</v>
       </c>
@@ -9533,8 +12944,20 @@
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
-    </row>
-    <row r="284" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G283" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H283" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I283" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J283" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>285</v>
       </c>
@@ -9547,8 +12970,20 @@
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
-    </row>
-    <row r="285" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G284" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H284" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I284" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J284" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>286</v>
       </c>
@@ -9561,8 +12996,20 @@
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
-    </row>
-    <row r="286" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G285" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H285" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I285" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J285" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>287</v>
       </c>
@@ -9575,8 +13022,20 @@
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
-    </row>
-    <row r="287" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G286" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H286" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I286" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J286" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>288</v>
       </c>
@@ -9589,8 +13048,20 @@
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
-    </row>
-    <row r="288" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G287" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H287" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I287" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J287" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>289</v>
       </c>
@@ -9603,8 +13074,20 @@
       <c r="D288" s="2"/>
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
-    </row>
-    <row r="289" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G288" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H288" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I288" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J288" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>290</v>
       </c>
@@ -9617,8 +13100,20 @@
       <c r="D289" s="2"/>
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
-    </row>
-    <row r="290" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G289" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H289" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I289" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J289" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>291</v>
       </c>
@@ -9631,8 +13126,20 @@
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
-    </row>
-    <row r="291" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G290" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H290" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I290" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J290" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>292</v>
       </c>
@@ -9645,8 +13152,20 @@
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
       <c r="F291" s="2"/>
-    </row>
-    <row r="292" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G291" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H291" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I291" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J291" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>293</v>
       </c>
@@ -9659,8 +13178,20 @@
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
-    </row>
-    <row r="293" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G292" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H292" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I292" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J292" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>294</v>
       </c>
@@ -9673,8 +13204,20 @@
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
-    </row>
-    <row r="294" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G293" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H293" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I293" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J293" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>295</v>
       </c>
@@ -9687,8 +13230,20 @@
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
-    </row>
-    <row r="295" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G294" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H294" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I294" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J294" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>296</v>
       </c>
@@ -9701,8 +13256,20 @@
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
-    </row>
-    <row r="296" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G295" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H295" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I295" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J295" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>297</v>
       </c>
@@ -9715,8 +13282,20 @@
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
-    </row>
-    <row r="297" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G296" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H296" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I296" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J296" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>298</v>
       </c>
@@ -9729,8 +13308,20 @@
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
-    </row>
-    <row r="298" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G297" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H297" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I297" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J297" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>299</v>
       </c>
@@ -9743,8 +13334,20 @@
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
       <c r="F298" s="2"/>
-    </row>
-    <row r="299" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G298" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H298" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I298" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J298" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>300</v>
       </c>
@@ -9757,8 +13360,20 @@
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
-    </row>
-    <row r="300" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G299" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H299" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I299" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J299" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>301</v>
       </c>
@@ -9771,8 +13386,20 @@
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
-    </row>
-    <row r="301" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G300" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H300" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I300" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J300" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>302</v>
       </c>
@@ -9785,8 +13412,20 @@
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
       <c r="F301" s="2"/>
-    </row>
-    <row r="302" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G301" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H301" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I301" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J301" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>303</v>
       </c>
@@ -9799,8 +13438,20 @@
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
       <c r="F302" s="2"/>
-    </row>
-    <row r="303" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G302" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H302" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I302" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J302" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>304</v>
       </c>
@@ -9813,8 +13464,20 @@
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
       <c r="F303" s="2"/>
-    </row>
-    <row r="304" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G303" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H303" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I303" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J303" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>305</v>
       </c>
@@ -9827,8 +13490,20 @@
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
-    </row>
-    <row r="305" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G304" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H304" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I304" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J304" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>306</v>
       </c>
@@ -9841,8 +13516,20 @@
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
       <c r="F305" s="2"/>
-    </row>
-    <row r="306" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G305" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H305" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I305" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J305" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="1">
         <v>307</v>
       </c>
@@ -9855,8 +13542,20 @@
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
       <c r="F306" s="2"/>
-    </row>
-    <row r="307" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G306" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H306" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I306" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J306" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="1">
         <v>308</v>
       </c>
@@ -9869,8 +13568,20 @@
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
       <c r="F307" s="2"/>
-    </row>
-    <row r="308" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G307" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H307" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I307" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J307" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="1">
         <v>309</v>
       </c>
@@ -9883,8 +13594,20 @@
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
       <c r="F308" s="2"/>
-    </row>
-    <row r="309" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G308" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H308" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I308" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J308" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="1">
         <v>310</v>
       </c>
@@ -9897,8 +13620,20 @@
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
       <c r="F309" s="2"/>
-    </row>
-    <row r="310" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G309" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H309" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I309" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J309" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="1">
         <v>311</v>
       </c>
@@ -9911,8 +13646,20 @@
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
-    </row>
-    <row r="311" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G310" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H310" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I310" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J310" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="1">
         <v>312</v>
       </c>
@@ -9925,8 +13672,20 @@
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
       <c r="F311" s="2"/>
-    </row>
-    <row r="312" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G311" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H311" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I311" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J311" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="1">
         <v>313</v>
       </c>
@@ -9939,8 +13698,20 @@
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
       <c r="F312" s="2"/>
-    </row>
-    <row r="313" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G312" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H312" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I312" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J312" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="1">
         <v>314</v>
       </c>
@@ -9953,8 +13724,20 @@
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
       <c r="F313" s="2"/>
-    </row>
-    <row r="314" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G313" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H313" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I313" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J313" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="1">
         <v>315</v>
       </c>
@@ -9967,8 +13750,20 @@
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
       <c r="F314" s="2"/>
-    </row>
-    <row r="315" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G314" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H314" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I314" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J314" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="1">
         <v>316</v>
       </c>
@@ -9981,8 +13776,20 @@
       <c r="D315" s="2"/>
       <c r="E315" s="2"/>
       <c r="F315" s="2"/>
-    </row>
-    <row r="316" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G315" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H315" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I315" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J315" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="1">
         <v>317</v>
       </c>
@@ -9995,8 +13802,20 @@
       <c r="D316" s="2"/>
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
-    </row>
-    <row r="317" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G316" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H316" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I316" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J316" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="1">
         <v>318</v>
       </c>
@@ -10009,8 +13828,20 @@
       <c r="D317" s="2"/>
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
-    </row>
-    <row r="318" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G317" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H317" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I317" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J317" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="1">
         <v>319</v>
       </c>
@@ -10023,8 +13854,20 @@
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
       <c r="F318" s="2"/>
-    </row>
-    <row r="319" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G318" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H318" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I318" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J318" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="1">
         <v>320</v>
       </c>
@@ -10037,8 +13880,20 @@
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
       <c r="F319" s="2"/>
-    </row>
-    <row r="320" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G319" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H319" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I319" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J319" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="1">
         <v>321</v>
       </c>
@@ -10051,8 +13906,20 @@
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
       <c r="F320" s="2"/>
-    </row>
-    <row r="321" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G320" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H320" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I320" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J320" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="1">
         <v>322</v>
       </c>
@@ -10065,8 +13932,20 @@
       <c r="D321" s="2"/>
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
-    </row>
-    <row r="322" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G321" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H321" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I321" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J321" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="1">
         <v>323</v>
       </c>
@@ -10079,8 +13958,20 @@
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
       <c r="F322" s="2"/>
-    </row>
-    <row r="323" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G322" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H322" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I322" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J322" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="1">
         <v>324</v>
       </c>
@@ -10093,8 +13984,20 @@
       <c r="D323" s="2"/>
       <c r="E323" s="2"/>
       <c r="F323" s="2"/>
-    </row>
-    <row r="324" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G323" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H323" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I323" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J323" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="1">
         <v>325</v>
       </c>
@@ -10107,8 +14010,20 @@
       <c r="D324" s="2"/>
       <c r="E324" s="2"/>
       <c r="F324" s="2"/>
-    </row>
-    <row r="325" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G324" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H324" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I324" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J324" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="1">
         <v>326</v>
       </c>
@@ -10121,8 +14036,20 @@
       <c r="D325" s="2"/>
       <c r="E325" s="2"/>
       <c r="F325" s="2"/>
-    </row>
-    <row r="326" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G325" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H325" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I325" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J325" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="1">
         <v>327</v>
       </c>
@@ -10135,8 +14062,20 @@
       <c r="D326" s="2"/>
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
-    </row>
-    <row r="327" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G326" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H326" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I326" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J326" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="1">
         <v>328</v>
       </c>
@@ -10149,8 +14088,20 @@
       <c r="D327" s="2"/>
       <c r="E327" s="2"/>
       <c r="F327" s="2"/>
-    </row>
-    <row r="328" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G327" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H327" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I327" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J327" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="1">
         <v>329</v>
       </c>
@@ -10163,8 +14114,20 @@
       <c r="D328" s="2"/>
       <c r="E328" s="2"/>
       <c r="F328" s="2"/>
-    </row>
-    <row r="329" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G328" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H328" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I328" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J328" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="1">
         <v>330</v>
       </c>
@@ -10177,8 +14140,20 @@
       <c r="D329" s="2"/>
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
-    </row>
-    <row r="330" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G329" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H329" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I329" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J329" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="1">
         <v>331</v>
       </c>
@@ -10191,8 +14166,20 @@
       <c r="D330" s="2"/>
       <c r="E330" s="2"/>
       <c r="F330" s="2"/>
-    </row>
-    <row r="331" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G330" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H330" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I330" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J330" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="1">
         <v>332</v>
       </c>
@@ -10205,8 +14192,20 @@
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
       <c r="F331" s="2"/>
-    </row>
-    <row r="332" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G331" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H331" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I331" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J331" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="1">
         <v>333</v>
       </c>
@@ -10219,8 +14218,20 @@
       <c r="D332" s="2"/>
       <c r="E332" s="2"/>
       <c r="F332" s="2"/>
-    </row>
-    <row r="333" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G332" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H332" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I332" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J332" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="1">
         <v>334</v>
       </c>
@@ -10233,8 +14244,20 @@
       <c r="D333" s="2"/>
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
-    </row>
-    <row r="334" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G333" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H333" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I333" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J333" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="1">
         <v>335</v>
       </c>
@@ -10247,8 +14270,20 @@
       <c r="D334" s="2"/>
       <c r="E334" s="2"/>
       <c r="F334" s="2"/>
-    </row>
-    <row r="335" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G334" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H334" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I334" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J334" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="1">
         <v>336</v>
       </c>
@@ -10261,8 +14296,20 @@
       <c r="D335" s="2"/>
       <c r="E335" s="2"/>
       <c r="F335" s="2"/>
-    </row>
-    <row r="336" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G335" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H335" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I335" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J335" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="1">
         <v>337</v>
       </c>
@@ -10275,8 +14322,20 @@
       <c r="D336" s="2"/>
       <c r="E336" s="2"/>
       <c r="F336" s="2"/>
-    </row>
-    <row r="337" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G336" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H336" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I336" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J336" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="1">
         <v>338</v>
       </c>
@@ -10289,8 +14348,20 @@
       <c r="D337" s="2"/>
       <c r="E337" s="2"/>
       <c r="F337" s="2"/>
-    </row>
-    <row r="338" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G337" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H337" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I337" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J337" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="1">
         <v>339</v>
       </c>
@@ -10303,8 +14374,20 @@
       <c r="D338" s="2"/>
       <c r="E338" s="2"/>
       <c r="F338" s="2"/>
-    </row>
-    <row r="339" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G338" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H338" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I338" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J338" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="1">
         <v>340</v>
       </c>
@@ -10317,8 +14400,20 @@
       <c r="D339" s="2"/>
       <c r="E339" s="2"/>
       <c r="F339" s="2"/>
-    </row>
-    <row r="340" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G339" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H339" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I339" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J339" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="1">
         <v>341</v>
       </c>
@@ -10331,8 +14426,20 @@
       <c r="D340" s="2"/>
       <c r="E340" s="2"/>
       <c r="F340" s="2"/>
-    </row>
-    <row r="341" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G340" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H340" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I340" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J340" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="1">
         <v>342</v>
       </c>
@@ -10345,8 +14452,20 @@
       <c r="D341" s="2"/>
       <c r="E341" s="2"/>
       <c r="F341" s="2"/>
-    </row>
-    <row r="342" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G341" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H341" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I341" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J341" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="1">
         <v>343</v>
       </c>
@@ -10359,8 +14478,20 @@
       <c r="D342" s="2"/>
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
-    </row>
-    <row r="343" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G342" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H342" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I342" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J342" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="1">
         <v>344</v>
       </c>
@@ -10373,8 +14504,20 @@
       <c r="D343" s="2"/>
       <c r="E343" s="2"/>
       <c r="F343" s="2"/>
-    </row>
-    <row r="344" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G343" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H343" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I343" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J343" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="1">
         <v>345</v>
       </c>
@@ -10387,8 +14530,20 @@
       <c r="D344" s="2"/>
       <c r="E344" s="2"/>
       <c r="F344" s="2"/>
-    </row>
-    <row r="345" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G344" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H344" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I344" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J344" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="1">
         <v>346</v>
       </c>
@@ -10401,8 +14556,20 @@
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
       <c r="F345" s="2"/>
-    </row>
-    <row r="346" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G345" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H345" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I345" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J345" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="1">
         <v>347</v>
       </c>
@@ -10415,8 +14582,20 @@
       <c r="D346" s="2"/>
       <c r="E346" s="2"/>
       <c r="F346" s="2"/>
-    </row>
-    <row r="347" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G346" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H346" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I346" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J346" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="1">
         <v>348</v>
       </c>
@@ -10429,8 +14608,20 @@
       <c r="D347" s="2"/>
       <c r="E347" s="2"/>
       <c r="F347" s="2"/>
-    </row>
-    <row r="348" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G347" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H347" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I347" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J347" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="1">
         <v>349</v>
       </c>
@@ -10443,8 +14634,20 @@
       <c r="D348" s="2"/>
       <c r="E348" s="2"/>
       <c r="F348" s="2"/>
-    </row>
-    <row r="349" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G348" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H348" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I348" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J348" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="1">
         <v>350</v>
       </c>
@@ -10457,8 +14660,20 @@
       <c r="D349" s="2"/>
       <c r="E349" s="2"/>
       <c r="F349" s="2"/>
-    </row>
-    <row r="350" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G349" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H349" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I349" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J349" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="1">
         <v>351</v>
       </c>
@@ -10471,8 +14686,20 @@
       <c r="D350" s="2"/>
       <c r="E350" s="2"/>
       <c r="F350" s="2"/>
-    </row>
-    <row r="351" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G350" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H350" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I350" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J350" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="1">
         <v>352</v>
       </c>
@@ -10485,8 +14712,20 @@
       <c r="D351" s="2"/>
       <c r="E351" s="2"/>
       <c r="F351" s="2"/>
-    </row>
-    <row r="352" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G351" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H351" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I351" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J351" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="1">
         <v>353</v>
       </c>
@@ -10499,8 +14738,20 @@
       <c r="D352" s="2"/>
       <c r="E352" s="2"/>
       <c r="F352" s="2"/>
-    </row>
-    <row r="353" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G352" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H352" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I352" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J352" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="1">
         <v>354</v>
       </c>
@@ -10513,8 +14764,20 @@
       <c r="D353" s="2"/>
       <c r="E353" s="2"/>
       <c r="F353" s="2"/>
-    </row>
-    <row r="354" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G353" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H353" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="I353" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J353" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="1">
         <v>355</v>
       </c>
@@ -10527,8 +14790,20 @@
       <c r="D354" s="2"/>
       <c r="E354" s="2"/>
       <c r="F354" s="2"/>
-    </row>
-    <row r="355" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G354" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H354" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I354" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J354" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="1">
         <v>356</v>
       </c>
@@ -10541,8 +14816,20 @@
       <c r="D355" s="2"/>
       <c r="E355" s="2"/>
       <c r="F355" s="2"/>
-    </row>
-    <row r="356" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G355" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H355" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I355" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J355" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="1">
         <v>357</v>
       </c>
@@ -10555,8 +14842,20 @@
       <c r="D356" s="2"/>
       <c r="E356" s="2"/>
       <c r="F356" s="2"/>
-    </row>
-    <row r="357" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G356" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H356" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I356" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J356" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="1">
         <v>358</v>
       </c>
@@ -10569,6 +14868,18 @@
       <c r="D357" s="2"/>
       <c r="E357" s="2"/>
       <c r="F357" s="2"/>
+      <c r="G357" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H357" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I357" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J357" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11455,7 +15766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>

--- a/i18n/fr.xlsx
+++ b/i18n/fr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Touniouk/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matej\Programming\wingsearch\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123F275D-4752-F449-B481-13CA17C406BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C963F6-9633-437E-A625-07E96FDB0C79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -3806,9 +3806,6 @@
     <t>Défaussez 1 [egg] d’un de vos autres oiseaux pour gagner 2 [wild] de la réserve.</t>
   </si>
   <si>
-    <t>Choisissez 1 autre joueur. Pour chaque cube Action sur sa ligne [grasslandd], glissez 1 [card] de votre main sous cet oiseau, puis piochez autant de [card].</t>
-  </si>
-  <si>
     <t>Vous pouvez glisser des cartes à concurrence du nombre de cubes Action.</t>
   </si>
   <si>
@@ -3819,9 +3816,6 @@
   </si>
   <si>
     <t>Les nids [star] comptent comme des [bowl] ou [ground] pour cet oiseau.</t>
-  </si>
-  <si>
-    <t>Piochez 1 [cardd] face visible qui puisse être jouée dans [wetland].</t>
   </si>
   <si>
     <t>Choisissez 1 à 3 oiseaux dans votre [wetland]. Glissez 1 [card] de votre main sous chacun d’eux. Si vous le faites, piochez 1 [card].</t>
@@ -4480,9 +4474,6 @@
     <t>Faucon Brun</t>
   </si>
   <si>
-    <t>Regardez une [card] de la pioche. Si le coût en nourriture inclut [invertebrate] ou [mouse], glissez-la sous cet oiseau, sinon défaussez-la.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aigle d'Australie </t>
   </si>
   <si>
@@ -4499,9 +4490,6 @@
   </si>
   <si>
     <t>Élanion d'Australie</t>
-  </si>
-  <si>
-    <t>Relancez les dés de la mangeoire et gagnez 1 [rodednt], si disponible. Vous pouvez le donner à un autre joueur. Si vous le faites, pondez jusqu'à 3 [egg] sur cet oiseau.</t>
   </si>
   <si>
     <t xml:space="preserve">Pitohui Gris </t>
@@ -4693,6 +4681,18 @@
   </si>
   <si>
     <t>Vautour des palombes</t>
+  </si>
+  <si>
+    <t>Piochez 1 [card] face visible qui puisse être jouée dans [wetland].</t>
+  </si>
+  <si>
+    <t>Regardez une [card] de la pioche. Si le coût en nourriture inclut [invertebrate] ou [rodent], glissez-la sous cet oiseau, sinon défaussez-la.</t>
+  </si>
+  <si>
+    <t>Relancez les dés de la mangeoire et gagnez 1 [rodent], si disponible. Vous pouvez le donner à un autre joueur. Si vous le faites, pondez jusqu'à 3 [egg] sur cet oiseau.</t>
+  </si>
+  <si>
+    <t>Choisissez 1 autre joueur. Pour chaque cube Action sur sa ligne [grassland], glissez 1 [card] de votre main sous cet oiseau, puis piochez autant de [card].</t>
   </si>
 </sst>
 </file>
@@ -4824,7 +4824,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
     <dxf>
@@ -5279,22 +5279,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A285" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E286" sqref="E286"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="68" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="26.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="26.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.6640625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="54.1640625" style="4" customWidth="1"/>
-    <col min="7" max="10" width="9.1640625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.1640625" style="1"/>
+    <col min="6" max="6" width="54.109375" style="4" customWidth="1"/>
+    <col min="7" max="10" width="9.109375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14" customHeight="1">
+    <row r="1" spans="1:10" ht="13.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5804,7 +5804,7 @@
         <v>590</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>8</v>
@@ -5982,10 +5982,10 @@
         <v>597</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14" t="s">
@@ -6034,7 +6034,7 @@
         <v>599</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>8</v>
@@ -6116,10 +6116,10 @@
         <v>602</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
@@ -6142,10 +6142,10 @@
         <v>603</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
@@ -6196,10 +6196,10 @@
         <v>605</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="14" t="s">
@@ -6276,7 +6276,7 @@
         <v>608</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>1224</v>
@@ -6300,7 +6300,7 @@
         <v>609</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>1214</v>
@@ -6432,7 +6432,7 @@
         <v>614</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>8</v>
@@ -6486,7 +6486,7 @@
         <v>616</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>8</v>
@@ -6664,7 +6664,7 @@
         <v>623</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>8</v>
@@ -6922,7 +6922,7 @@
         <v>633</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="F63" s="12" t="s">
         <v>1214</v>
@@ -6948,7 +6948,7 @@
         <v>634</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="F64" s="12" t="s">
         <v>8</v>
@@ -7026,7 +7026,7 @@
         <v>637</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="F67" s="12" t="s">
         <v>8</v>
@@ -7260,10 +7260,10 @@
         <v>646</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
@@ -7286,10 +7286,10 @@
         <v>647</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="G77" s="14"/>
       <c r="H77" s="14"/>
@@ -7336,10 +7336,10 @@
         <v>649</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="G79" s="14"/>
       <c r="H79" s="14"/>
@@ -7360,10 +7360,10 @@
         <v>650</v>
       </c>
       <c r="E80" s="11" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="G80" s="14"/>
       <c r="H80" s="14"/>
@@ -7384,10 +7384,10 @@
         <v>651</v>
       </c>
       <c r="E81" s="5" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F81" s="5" t="s">
         <v>1237</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>1238</v>
       </c>
       <c r="G81" s="14"/>
       <c r="H81" s="14"/>
@@ -7410,10 +7410,10 @@
         <v>652</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="G82" s="14" t="s">
         <v>1133</v>
@@ -7562,10 +7562,10 @@
         <v>658</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="G88" s="14"/>
       <c r="H88" s="14"/>
@@ -7612,7 +7612,7 @@
         <v>660</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>8</v>
@@ -7734,7 +7734,7 @@
         <v>665</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="F95" s="12" t="s">
         <v>1178</v>
@@ -7760,7 +7760,7 @@
         <v>666</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="F96" s="12" t="s">
         <v>1185</v>
@@ -7786,7 +7786,7 @@
         <v>667</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="F97" s="7" t="s">
         <v>8</v>
@@ -7964,10 +7964,10 @@
         <v>674</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="G104" s="14"/>
       <c r="H104" s="14"/>
@@ -7988,7 +7988,7 @@
         <v>675</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="F105" s="5" t="s">
         <v>8</v>
@@ -8036,7 +8036,7 @@
         <v>677</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="F107" s="12" t="s">
         <v>8</v>
@@ -8088,10 +8088,10 @@
         <v>679</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="G109" s="14"/>
       <c r="H109" s="14" t="s">
@@ -8117,7 +8117,7 @@
         <v>1198</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="G110" s="14"/>
       <c r="H110" s="14"/>
@@ -8188,7 +8188,7 @@
         <v>683</v>
       </c>
       <c r="E113" s="5" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>1221</v>
@@ -8236,10 +8236,10 @@
         <v>685</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="G115" s="14"/>
       <c r="H115" s="14"/>
@@ -8286,10 +8286,10 @@
         <v>687</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="G117" s="14"/>
       <c r="H117" s="14"/>
@@ -8310,7 +8310,7 @@
         <v>688</v>
       </c>
       <c r="E118" s="5" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>1197</v>
@@ -8384,10 +8384,10 @@
         <v>691</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="G121" s="14" t="s">
         <v>1133</v>
@@ -8412,10 +8412,10 @@
         <v>692</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="F122" s="7" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="G122" s="14"/>
       <c r="H122" s="14" t="s">
@@ -8438,7 +8438,7 @@
         <v>693</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="F123" s="5" t="s">
         <v>1185</v>
@@ -8540,10 +8540,10 @@
         <v>697</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="G127" s="14"/>
       <c r="H127" s="14"/>
@@ -8566,10 +8566,10 @@
         <v>698</v>
       </c>
       <c r="E128" s="11" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="F128" s="11" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="G128" s="14"/>
       <c r="H128" s="14"/>
@@ -8638,10 +8638,10 @@
         <v>701</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="G131" s="14"/>
       <c r="H131" s="14"/>
@@ -8710,10 +8710,10 @@
         <v>704</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="G134" s="14"/>
       <c r="H134" s="14"/>
@@ -8784,7 +8784,7 @@
         <v>707</v>
       </c>
       <c r="E137" s="5" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="F137" s="5" t="s">
         <v>8</v>
@@ -8808,10 +8808,10 @@
         <v>708</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="G138" s="14"/>
       <c r="H138" s="14"/>
@@ -8884,7 +8884,7 @@
         <v>711</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>8</v>
@@ -8910,10 +8910,10 @@
         <v>712</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="G142" s="14"/>
       <c r="H142" s="14"/>
@@ -8939,7 +8939,7 @@
         <v>1198</v>
       </c>
       <c r="F143" s="12" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="G143" s="14"/>
       <c r="H143" s="14"/>
@@ -8962,7 +8962,7 @@
         <v>714</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="F144" s="9" t="s">
         <v>8</v>
@@ -8986,7 +8986,7 @@
         <v>715</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="F145" s="10" t="s">
         <v>1197</v>
@@ -9012,10 +9012,10 @@
         <v>716</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="G146" s="14"/>
       <c r="H146" s="14"/>
@@ -9036,10 +9036,10 @@
         <v>717</v>
       </c>
       <c r="E147" s="12" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F147" s="12" t="s">
         <v>1234</v>
-      </c>
-      <c r="F147" s="12" t="s">
-        <v>1235</v>
       </c>
       <c r="G147" s="14"/>
       <c r="H147" s="14"/>
@@ -9060,10 +9060,10 @@
         <v>718</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="G148" s="14"/>
       <c r="H148" s="14"/>
@@ -9280,10 +9280,10 @@
         <v>727</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="G157" s="14"/>
       <c r="H157" s="14"/>
@@ -9328,10 +9328,10 @@
         <v>729</v>
       </c>
       <c r="E159" s="7" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="G159" s="14"/>
       <c r="H159" s="14"/>
@@ -9354,7 +9354,7 @@
         <v>730</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="F160" s="10" t="s">
         <v>8</v>
@@ -9404,7 +9404,7 @@
         <v>732</v>
       </c>
       <c r="E162" s="9" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="F162" s="9" t="s">
         <v>1185</v>
@@ -9478,10 +9478,10 @@
         <v>735</v>
       </c>
       <c r="E165" s="12" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="F165" s="12" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="G165" s="14" t="s">
         <v>1133</v>
@@ -9686,10 +9686,10 @@
         <v>743</v>
       </c>
       <c r="E173" s="5" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="G173" s="14"/>
       <c r="H173" s="14"/>
@@ -9762,7 +9762,7 @@
         <v>746</v>
       </c>
       <c r="E176" s="5" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="F176" s="5" t="s">
         <v>8</v>
@@ -9786,7 +9786,7 @@
         <v>747</v>
       </c>
       <c r="E177" s="12" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="F177" s="12" t="s">
         <v>8</v>
@@ -9809,7 +9809,7 @@
         <v>360</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="E178" s="9" t="s">
         <v>1176</v>
@@ -9860,10 +9860,10 @@
         <v>749</v>
       </c>
       <c r="E180" s="10" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F180" s="10" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="G180" s="14"/>
       <c r="H180" s="14"/>
@@ -9956,7 +9956,7 @@
         <v>753</v>
       </c>
       <c r="E184" s="5" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="F184" s="5" t="s">
         <v>8</v>
@@ -10062,10 +10062,10 @@
         <v>757</v>
       </c>
       <c r="E188" s="5" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="G188" s="14"/>
       <c r="H188" s="14"/>
@@ -10086,7 +10086,7 @@
         <v>758</v>
       </c>
       <c r="E189" s="10" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="F189" s="10" t="s">
         <v>8</v>
@@ -10188,7 +10188,7 @@
         <v>762</v>
       </c>
       <c r="E193" s="10" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="F193" s="10" t="s">
         <v>8</v>
@@ -10476,7 +10476,7 @@
         <v>773</v>
       </c>
       <c r="E204" s="5" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="F204" s="5" t="s">
         <v>8</v>
@@ -10820,10 +10820,10 @@
         <v>786</v>
       </c>
       <c r="E217" s="12" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="F217" s="12" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="G217" s="14"/>
       <c r="H217" s="14"/>
@@ -10894,7 +10894,7 @@
         <v>789</v>
       </c>
       <c r="E220" s="10" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="F220" s="10" t="s">
         <v>8</v>
@@ -10920,10 +10920,10 @@
         <v>790</v>
       </c>
       <c r="E221" s="12" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="F221" s="12" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="G221" s="14"/>
       <c r="H221" s="14"/>
@@ -10994,7 +10994,7 @@
         <v>793</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="F224" s="5" t="s">
         <v>1185</v>
@@ -11090,7 +11090,7 @@
         <v>797</v>
       </c>
       <c r="E228" s="5" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="F228" s="5" t="s">
         <v>8</v>
@@ -11140,7 +11140,7 @@
         <v>799</v>
       </c>
       <c r="E230" s="12" t="s">
-        <v>1239</v>
+        <v>1520</v>
       </c>
       <c r="F230" s="12" t="s">
         <v>1195</v>
@@ -11187,7 +11187,7 @@
         <v>468</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="E232" s="7" t="s">
         <v>1179</v>
@@ -11314,10 +11314,10 @@
         <v>805</v>
       </c>
       <c r="E237" s="12" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="F237" s="12" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="G237" s="14" t="s">
         <v>1133</v>
@@ -11342,7 +11342,7 @@
         <v>806</v>
       </c>
       <c r="E238" s="12" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="F238" s="12" t="s">
         <v>8</v>
@@ -11394,10 +11394,10 @@
         <v>808</v>
       </c>
       <c r="E240" s="8" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="F240" s="8" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="G240" s="14"/>
       <c r="H240" s="14" t="s">
@@ -11636,7 +11636,7 @@
         <v>817</v>
       </c>
       <c r="E249" s="10" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="F249" s="10" t="s">
         <v>8</v>
@@ -11764,10 +11764,10 @@
         <v>822</v>
       </c>
       <c r="E254" s="10" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="F254" s="10" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="G254" s="14"/>
       <c r="H254" s="14"/>
@@ -11842,7 +11842,7 @@
         <v>825</v>
       </c>
       <c r="E257" s="10" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="F257" s="10" t="s">
         <v>8</v>
@@ -11997,13 +11997,13 @@
         <v>938</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="F263" s="5" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="G263" s="14"/>
       <c r="H263" s="14"/>
@@ -12023,10 +12023,10 @@
         <v>940</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="E264" s="5" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="F264" s="5"/>
       <c r="G264" s="14"/>
@@ -12047,10 +12047,10 @@
         <v>942</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="E265" s="12" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="F265" s="12"/>
       <c r="G265" s="14"/>
@@ -12071,13 +12071,13 @@
         <v>944</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="E266" s="12" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="F266" s="12" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="G266" s="14"/>
       <c r="H266" s="14" t="s">
@@ -12099,10 +12099,10 @@
         <v>946</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="F267" s="5"/>
       <c r="G267" s="14"/>
@@ -12123,10 +12123,10 @@
         <v>948</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="F268" s="5"/>
       <c r="G268" s="14"/>
@@ -12147,10 +12147,10 @@
         <v>950</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="E269" s="5" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="F269" s="5"/>
       <c r="G269" s="14"/>
@@ -12171,10 +12171,10 @@
         <v>952</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="E270" s="12" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="F270" s="12"/>
       <c r="G270" s="14"/>
@@ -12195,13 +12195,13 @@
         <v>954</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="E271" s="12" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="F271" s="12" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="G271" s="14"/>
       <c r="H271" s="14" t="s">
@@ -12221,10 +12221,10 @@
         <v>956</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="F272" s="5"/>
       <c r="G272" s="14"/>
@@ -12245,13 +12245,13 @@
         <v>958</v>
       </c>
       <c r="D273" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E273" s="5" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F273" s="5" t="s">
         <v>1438</v>
-      </c>
-      <c r="E273" s="5" t="s">
-        <v>1439</v>
-      </c>
-      <c r="F273" s="5" t="s">
-        <v>1440</v>
       </c>
       <c r="G273" s="14"/>
       <c r="H273" s="14"/>
@@ -12271,13 +12271,13 @@
         <v>960</v>
       </c>
       <c r="D274" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E274" s="12" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F274" s="12" t="s">
         <v>1406</v>
-      </c>
-      <c r="E274" s="12" t="s">
-        <v>1407</v>
-      </c>
-      <c r="F274" s="12" t="s">
-        <v>1408</v>
       </c>
       <c r="G274" s="14"/>
       <c r="H274" s="14"/>
@@ -12297,13 +12297,13 @@
         <v>962</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>1460</v>
+        <v>1522</v>
       </c>
       <c r="F275" s="5" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="G275" s="14"/>
       <c r="H275" s="14" t="s">
@@ -12323,10 +12323,10 @@
         <v>964</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="F276" s="5"/>
       <c r="G276" s="14"/>
@@ -12345,10 +12345,10 @@
         <v>966</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="F277" s="5"/>
       <c r="G277" s="14"/>
@@ -12367,10 +12367,10 @@
         <v>968</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="E278" s="5" t="s">
-        <v>1453</v>
+        <v>1521</v>
       </c>
       <c r="F278" s="5"/>
       <c r="G278" s="14"/>
@@ -12391,13 +12391,13 @@
         <v>970</v>
       </c>
       <c r="D279" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E279" s="10" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F279" s="10" t="s">
         <v>1426</v>
-      </c>
-      <c r="E279" s="10" t="s">
-        <v>1427</v>
-      </c>
-      <c r="F279" s="10" t="s">
-        <v>1428</v>
       </c>
       <c r="G279" s="14"/>
       <c r="H279" s="14"/>
@@ -12415,13 +12415,13 @@
         <v>972</v>
       </c>
       <c r="D280" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E280" s="5" t="s">
         <v>1415</v>
       </c>
-      <c r="E280" s="5" t="s">
-        <v>1417</v>
-      </c>
       <c r="F280" s="5" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="G280" s="14"/>
       <c r="H280" s="14"/>
@@ -12439,10 +12439,10 @@
         <v>974</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="E281" s="5" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="F281" s="5"/>
       <c r="G281" s="14"/>
@@ -12463,10 +12463,10 @@
         <v>976</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="E282" s="5" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="F282" s="5"/>
       <c r="G282" s="14"/>
@@ -12485,10 +12485,10 @@
         <v>978</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="E283" s="12" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="F283" s="12"/>
       <c r="G283" s="14"/>
@@ -12509,10 +12509,10 @@
         <v>980</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="E284" s="5" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="F284" s="5"/>
       <c r="G284" s="14"/>
@@ -12531,10 +12531,10 @@
         <v>982</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="E285" s="5" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="F285" s="5"/>
       <c r="G285" s="14" t="s">
@@ -12557,13 +12557,13 @@
         <v>984</v>
       </c>
       <c r="D286" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E286" s="12" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F286" s="12" t="s">
         <v>1345</v>
-      </c>
-      <c r="E286" s="12" t="s">
-        <v>1346</v>
-      </c>
-      <c r="F286" s="12" t="s">
-        <v>1347</v>
       </c>
       <c r="G286" s="14"/>
       <c r="H286" s="14" t="s">
@@ -12583,10 +12583,10 @@
         <v>986</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="E287" s="5" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="F287" s="5"/>
       <c r="G287" s="14"/>
@@ -12605,10 +12605,10 @@
         <v>988</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="E288" s="8" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="F288" s="8"/>
       <c r="G288" s="14" t="s">
@@ -12629,13 +12629,13 @@
         <v>990</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="E289" s="5" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="F289" s="5" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="G289" s="14"/>
       <c r="H289" s="14"/>
@@ -12655,10 +12655,10 @@
         <v>992</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="E290" s="5" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="F290" s="5"/>
       <c r="G290" s="14"/>
@@ -12677,10 +12677,10 @@
         <v>994</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="E291" s="12" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="F291" s="12"/>
       <c r="G291" s="14"/>
@@ -12699,13 +12699,13 @@
         <v>996</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="E292" s="5" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="F292" s="5" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="G292" s="14"/>
       <c r="H292" s="14"/>
@@ -12725,10 +12725,10 @@
         <v>998</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="E293" s="12" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="F293" s="12"/>
       <c r="G293" s="14"/>
@@ -12749,10 +12749,10 @@
         <v>1000</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="E294" s="8" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="F294" s="8"/>
       <c r="G294" s="14"/>
@@ -12773,13 +12773,13 @@
         <v>1002</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="E295" s="5" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="F295" s="5" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="G295" s="14"/>
       <c r="H295" s="14"/>
@@ -12799,10 +12799,10 @@
         <v>1004</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="E296" s="12" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="F296" s="12"/>
       <c r="G296" s="14"/>
@@ -12823,10 +12823,10 @@
         <v>1006</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="E297" s="12" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="F297" s="12"/>
       <c r="G297" s="14"/>
@@ -12848,7 +12848,7 @@
         <v>1007</v>
       </c>
       <c r="E298" s="5" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="F298" s="5"/>
       <c r="G298" s="14"/>
@@ -12867,13 +12867,13 @@
         <v>1010</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="E299" s="5" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="F299" s="5" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="G299" s="14"/>
       <c r="H299" s="14" t="s">
@@ -12893,10 +12893,10 @@
         <v>1012</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="E300" s="5" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="F300" s="5"/>
       <c r="G300" s="14"/>
@@ -12917,10 +12917,10 @@
         <v>1014</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="E301" s="5" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="F301" s="5"/>
       <c r="G301" s="14"/>
@@ -12941,10 +12941,10 @@
         <v>1016</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="E302" s="5" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="F302" s="5"/>
       <c r="G302" s="14"/>
@@ -12963,13 +12963,13 @@
         <v>1018</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="E303" s="5" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
       <c r="F303" s="5" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="G303" s="14"/>
       <c r="H303" s="14"/>
@@ -12987,10 +12987,10 @@
         <v>1020</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="E304" s="12" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="F304" s="12"/>
       <c r="G304" s="14"/>
@@ -13009,10 +13009,10 @@
         <v>1022</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="E305" s="5" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="F305" s="5"/>
       <c r="G305" s="14"/>
@@ -13033,10 +13033,10 @@
         <v>1024</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="E306" s="12" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="F306" s="12"/>
       <c r="G306" s="14"/>
@@ -13055,13 +13055,13 @@
         <v>1026</v>
       </c>
       <c r="D307" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E307" s="12" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F307" s="12" t="s">
         <v>1397</v>
-      </c>
-      <c r="E307" s="12" t="s">
-        <v>1398</v>
-      </c>
-      <c r="F307" s="12" t="s">
-        <v>1399</v>
       </c>
       <c r="G307" s="14"/>
       <c r="H307" s="14"/>
@@ -13079,13 +13079,13 @@
         <v>1028</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="E308" s="5" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="F308" s="5" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="G308" s="14"/>
       <c r="H308" s="14"/>
@@ -13103,10 +13103,10 @@
         <v>1030</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="E309" s="7" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="F309" s="7"/>
       <c r="G309" s="14"/>
@@ -13127,13 +13127,13 @@
         <v>1032</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="E310" s="12" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="F310" s="12" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="G310" s="14"/>
       <c r="H310" s="14"/>
@@ -13151,13 +13151,13 @@
         <v>1034</v>
       </c>
       <c r="D311" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E311" s="5" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F311" s="5" t="s">
         <v>1429</v>
-      </c>
-      <c r="E311" s="5" t="s">
-        <v>1430</v>
-      </c>
-      <c r="F311" s="5" t="s">
-        <v>1431</v>
       </c>
       <c r="G311" s="14" t="s">
         <v>1133</v>
@@ -13177,10 +13177,10 @@
         <v>1036</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="E312" s="12" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="F312" s="12"/>
       <c r="G312" s="14"/>
@@ -13199,13 +13199,13 @@
         <v>1038</v>
       </c>
       <c r="D313" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E313" s="5" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F313" s="5" t="s">
         <v>1352</v>
-      </c>
-      <c r="E313" s="5" t="s">
-        <v>1353</v>
-      </c>
-      <c r="F313" s="5" t="s">
-        <v>1354</v>
       </c>
       <c r="G313" s="14"/>
       <c r="H313" s="14"/>
@@ -13223,10 +13223,10 @@
         <v>1040</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="E314" s="5" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="F314" s="5"/>
       <c r="G314" s="14"/>
@@ -13245,13 +13245,13 @@
         <v>1042</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="E315" s="7" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="F315" s="7" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="G315" s="14" t="s">
         <v>1133</v>
@@ -13271,13 +13271,13 @@
         <v>1044</v>
       </c>
       <c r="D316" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E316" s="5" t="s">
         <v>1334</v>
       </c>
-      <c r="E316" s="5" t="s">
-        <v>1336</v>
-      </c>
       <c r="F316" s="5" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="G316" s="14"/>
       <c r="H316" s="14" t="s">
@@ -13297,10 +13297,10 @@
         <v>1046</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="E317" s="5" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="F317" s="5"/>
       <c r="G317" s="14"/>
@@ -13319,10 +13319,10 @@
         <v>1048</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="F318" s="5"/>
       <c r="G318" s="14"/>
@@ -13343,13 +13343,13 @@
         <v>1050</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="E319" s="7" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="F319" s="7" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="G319" s="14"/>
       <c r="H319" s="14"/>
@@ -13369,13 +13369,13 @@
         <v>1052</v>
       </c>
       <c r="D320" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="E320" s="5" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F320" s="5" t="s">
         <v>1391</v>
-      </c>
-      <c r="E320" s="5" t="s">
-        <v>1392</v>
-      </c>
-      <c r="F320" s="5" t="s">
-        <v>1393</v>
       </c>
       <c r="G320" s="14" t="s">
         <v>1133</v>
@@ -13395,10 +13395,10 @@
         <v>1054</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="E321" s="12" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="F321" s="12"/>
       <c r="G321" s="14"/>
@@ -13417,10 +13417,10 @@
         <v>1056</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="E322" s="5" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="F322" s="5"/>
       <c r="G322" s="14"/>
@@ -13441,10 +13441,10 @@
         <v>1058</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="E323" s="12" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="F323" s="12"/>
       <c r="G323" s="14"/>
@@ -13463,10 +13463,10 @@
         <v>1060</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>1361</v>
+        <v>1359</v>
       </c>
       <c r="E324" s="5" t="s">
-        <v>1362</v>
+        <v>1360</v>
       </c>
       <c r="F324" s="5"/>
       <c r="G324" s="14" t="s">
@@ -13489,10 +13489,10 @@
         <v>1062</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="E325" s="12" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="F325" s="12"/>
       <c r="G325" s="14"/>
@@ -13511,10 +13511,10 @@
         <v>1064</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="E326" s="5" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="F326" s="5"/>
       <c r="G326" s="14"/>
@@ -13535,13 +13535,13 @@
         <v>1066</v>
       </c>
       <c r="D327" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E327" s="12" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F327" s="12" t="s">
         <v>1386</v>
-      </c>
-      <c r="E327" s="12" t="s">
-        <v>1387</v>
-      </c>
-      <c r="F327" s="12" t="s">
-        <v>1388</v>
       </c>
       <c r="G327" s="14"/>
       <c r="H327" s="14"/>
@@ -13559,10 +13559,10 @@
         <v>1068</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="E328" s="12" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="F328" s="12"/>
       <c r="G328" s="14"/>
@@ -13583,10 +13583,10 @@
         <v>1070</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="E329" s="12" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="F329" s="12"/>
       <c r="G329" s="14" t="s">
@@ -13609,13 +13609,13 @@
         <v>1072</v>
       </c>
       <c r="D330" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="E330" s="5" t="s">
         <v>1403</v>
       </c>
-      <c r="E330" s="5" t="s">
-        <v>1405</v>
-      </c>
       <c r="F330" s="5" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="G330" s="14" t="s">
         <v>1133</v>
@@ -13637,10 +13637,10 @@
         <v>1074</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="E331" s="12" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="F331" s="12"/>
       <c r="G331" s="14" t="s">
@@ -13663,10 +13663,10 @@
         <v>1076</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="E332" s="12" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="F332" s="12"/>
       <c r="G332" s="14"/>
@@ -13687,10 +13687,10 @@
         <v>1078</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="E333" s="12" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="F333" s="12"/>
       <c r="G333" s="14"/>
@@ -13709,10 +13709,10 @@
         <v>1080</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="E334" s="5" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="F334" s="5"/>
       <c r="G334" s="14"/>
@@ -13733,13 +13733,13 @@
         <v>1082</v>
       </c>
       <c r="D335" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E335" s="5" t="s">
+        <v>1365</v>
+      </c>
+      <c r="F335" s="5" t="s">
         <v>1366</v>
-      </c>
-      <c r="E335" s="5" t="s">
-        <v>1367</v>
-      </c>
-      <c r="F335" s="5" t="s">
-        <v>1368</v>
       </c>
       <c r="G335" s="14"/>
       <c r="H335" s="14"/>
@@ -13757,10 +13757,10 @@
         <v>1084</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="E336" s="5" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="F336" s="5"/>
       <c r="G336" s="14"/>
@@ -13781,10 +13781,10 @@
         <v>1086</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="E337" s="5" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="F337" s="5"/>
       <c r="G337" s="14"/>
@@ -13805,10 +13805,10 @@
         <v>1088</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="E338" s="5" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="F338" s="5"/>
       <c r="G338" s="14" t="s">
@@ -13831,13 +13831,13 @@
         <v>1090</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="E339" s="12" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="F339" s="12" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="G339" s="14"/>
       <c r="H339" s="14"/>
@@ -13855,10 +13855,10 @@
         <v>1092</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="E340" s="5" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="F340" s="5"/>
       <c r="G340" s="14" t="s">
@@ -13881,10 +13881,10 @@
         <v>1094</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="E341" s="5" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="F341" s="5"/>
       <c r="G341" s="14"/>
@@ -13903,13 +13903,13 @@
         <v>1096</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="E342" s="5" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="F342" s="5" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="G342" s="14"/>
       <c r="H342" s="14"/>
@@ -13927,10 +13927,10 @@
         <v>1098</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="E343" s="12" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="F343" s="12"/>
       <c r="G343" s="14"/>
@@ -13951,13 +13951,13 @@
         <v>1100</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="E344" s="8" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="F344" s="8" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="G344" s="14"/>
       <c r="H344" s="14"/>
@@ -13975,13 +13975,13 @@
         <v>1102</v>
       </c>
       <c r="D345" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E345" s="5" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F345" s="5" t="s">
         <v>1394</v>
-      </c>
-      <c r="E345" s="5" t="s">
-        <v>1395</v>
-      </c>
-      <c r="F345" s="5" t="s">
-        <v>1396</v>
       </c>
       <c r="G345" s="14"/>
       <c r="H345" s="14"/>
@@ -13999,10 +13999,10 @@
         <v>1104</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="E346" s="5" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="F346" s="5"/>
       <c r="G346" s="14"/>
@@ -14021,10 +14021,10 @@
         <v>1106</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="E347" s="12" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="F347" s="12"/>
       <c r="G347" s="14" t="s">
@@ -14047,13 +14047,13 @@
         <v>1108</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="E348" s="12" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="F348" s="12" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="G348" s="14"/>
       <c r="H348" s="14"/>
@@ -14071,13 +14071,13 @@
         <v>1110</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="E349" s="5" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="F349" s="5" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="G349" s="14"/>
       <c r="H349" s="14"/>
@@ -14097,13 +14097,13 @@
         <v>1112</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="E350" s="8" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="F350" s="8" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="G350" s="14"/>
       <c r="H350" s="14"/>
@@ -14121,13 +14121,13 @@
         <v>1114</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="E351" s="12" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="F351" s="12" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="G351" s="14"/>
       <c r="H351" s="14" t="s">
@@ -14147,10 +14147,10 @@
         <v>1116</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="E352" s="5" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="F352" s="5"/>
       <c r="G352" s="14"/>
@@ -14169,13 +14169,13 @@
         <v>1118</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="E353" s="5" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="F353" s="5" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="G353" s="14" t="s">
         <v>1133</v>
@@ -14197,10 +14197,10 @@
         <v>1120</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="E354" s="5" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="F354" s="5"/>
       <c r="G354" s="14" t="s">
@@ -14223,13 +14223,13 @@
         <v>1122</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="E355" s="5" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="F355" s="5" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
       <c r="G355" s="14" t="s">
         <v>1133</v>
@@ -14251,13 +14251,13 @@
         <v>1124</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="E356" s="7" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="F356" s="7" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="G356" s="14"/>
       <c r="H356" s="14"/>
@@ -14275,13 +14275,13 @@
         <v>1126</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="E357" s="5" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="F357" s="5" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="G357" s="14" t="s">
         <v>1133</v>
@@ -14306,16 +14306,16 @@
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="106.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.1640625" style="1"/>
+    <col min="4" max="4" width="44.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="106.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -15179,11 +15179,11 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1640625" style="1"/>
+    <col min="2" max="2" width="21.44140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
@@ -15226,7 +15226,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="6" spans="1:2" customFormat="1">
+    <row r="6" spans="1:2" customFormat="1" ht="14.4">
       <c r="A6" t="s">
         <v>1132</v>
       </c>

--- a/i18n/fr.xlsx
+++ b/i18n/fr.xlsx
@@ -5,14 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Bonuses" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Other" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Parameters" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$B$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="ExternalData_1" vbProcedure="false">Birds!$A$1:$G$357</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="ExternalData_2" vbProcedure="false">Bonuses!$A$1:$H$39</definedName>
   </definedNames>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2807" uniqueCount="1739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="1741">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -5343,19 +5345,19 @@
     <t xml:space="preserve">ACTIVATION</t>
   </si>
   <si>
-    <t xml:space="preserve">WHEN PLAYED</t>
+    <t xml:space="preserve">WHEN PLAYED</t>
   </si>
   <si>
     <t xml:space="preserve">POSE</t>
   </si>
   <si>
-    <t xml:space="preserve">ONCE BETWEEN TURNS</t>
+    <t xml:space="preserve">ONCE BETWEEN TURNS</t>
   </si>
   <si>
     <t xml:space="preserve">1 FOIS ENTRE 2 TOURS</t>
   </si>
   <si>
-    <t xml:space="preserve">ROUND END</t>
+    <t xml:space="preserve">ROUND END</t>
   </si>
   <si>
     <t xml:space="preserve">FIN DE MANCHE</t>
@@ -5367,18 +5369,27 @@
     <t xml:space="preserve">FIN DE PARTIE</t>
   </si>
   <si>
-    <t xml:space="preserve">of cards</t>
+    <t xml:space="preserve">of cards</t>
   </si>
   <si>
     <t xml:space="preserve">des cartes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show bonus cards match symbols</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;PRAWDA&quot;;&quot;PRAWDA&quot;;&quot;FAŁSZ&quot;"/>
+    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -5503,7 +5514,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5586,6 +5597,22 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -5683,6 +5710,10 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5843,7 +5874,7 @@
   </sheetPr>
   <dimension ref="A1:K447"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="F275" activeCellId="0" sqref="F275"/>
@@ -18138,7 +18169,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18157,7 +18188,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1727</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -18165,7 +18196,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>1729</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -18173,7 +18204,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>1731</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -18181,7 +18212,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>1733</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -18189,7 +18220,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>1735</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -18197,7 +18228,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>1737</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -18218,6 +18249,53 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="22" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B2" s="24" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:B2"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;KffffffStrona &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <DataMashup xmlns="http://schemas.microsoft.com/DataMashup">AAAAAHkEAABQSwMEFAACAAgAHJM1UVR9qGWoAAAA+AAAABIAHABDb25maWcvUGFja2FnZS54bWwgohgAKKAUAAAAAAAAAAAAAAAAAAAAAAAAAAAAhY/RCoIwGIVfRXbvNs1Q5HdedFlCIES3Yy0d6gw3m+/WRY/UKySU1V2X5/Ad+M7jdod86lrvKgejep2hAFPkSS36k9JVhkZ79hOUM9hz0fBKejOsTToZlaHa2ktKiHMOuxXuh4qElAbkWOxKUcuO+0oby7WQ6LM6/V8hBoeXDAtxnOB1HFEcJQGQpYZC6S8SzsaYAvkpYTO2dhwkM41fboEsEcj7BXsCUEsDBBQAAgAIAByTNVEPyumrpAAAAOkAAAATABwAW0NvbnRlbnRfVHlwZXNdLnhtbCCiGAAooBQAAAAAAAAAAAAAAAAAAAAAAAAAAABtjksOwjAMRK8SeZ+6sEAINWUB3IALRMH9iOajxkXhbCw4ElcgbXeIpWfmeebzelfHZAfxoDH23inYFCUIcsbfetcqmLiRezjW1fUZKIocdVFBxxwOiNF0ZHUsfCCXncaPVnM+xxaDNnfdEm7LcofGOybHkucfUFdnavQ0sLikLK+1GQdxWnNzlQKmxLjI+JewP3kdwtAbzdnEJG2UdiFxGV5/AVBLAwQUAAIACAAckzVR5CzVm28BAABJBAAAEwAcAEZvcm11bGFzL1NlY3Rpb24xLm0gohgAKKAUAAAAAAAAAAAAAAAAAAAAAAAAAAAA5ZNPS8NAEMXvhXyHJV5aWIKKVlBykFjRg6WS6qXxsN2Mycr+KTsbtZR+d6dNoYoBD+LJHJLs+21m3iQvCDIoZ1neXo8uol7Uw1p4KNlc+RJZyjSEqMfoyF3jJZCS4Wty5WRjwIb+tdKQZM4GWmA/zs6LBwSPxZ0I8FJMvKu8MEbZqnijE4Lwsi5QerUIWGx7JBJf4wGfXYFWRgXwacxjzjKnG2MxHXI2stKV9HR6dHx6yNl94wLkYakh3d8mY2fhacBbrwcxdTbESnYDoiRDMRmfijlt3JGd3m/H4my20y+1zqXQwmMafPO5ZFYLW1HF6XIB+3JTLyw+O29awxuI/Y7+fLWKVUmD3dowPEk2+9acreKRrbTCmllhgGggnQV4D1uYS0XvVT0r2c0zZwx9v042cW/gt8tvaEzOvojrQdRTtnPQL5lwtkH481S0XX7Ixdl/zsW4Owy2VJv/+BsZvS+0sCI4v+wOxOPkdxn5AFBLAQItABQAAgAIAByTNVFUfahlqAAAAPgAAAASAAAAAAAAAAAAAAAAAAAAAABDb25maWcvUGFja2FnZS54bWxQSwECLQAUAAIACAAckzVRD8rpq6QAAADpAAAAEwAAAAAAAAAAAAAAAAD0AAAAW0NvbnRlbnRfVHlwZXNdLnhtbFBLAQItABQAAgAIAByTNVHkLNWbbwEAAEkEAAATAAAAAAAAAAAAAAAAAOUBAABGb3JtdWxhcy9TZWN0aW9uMS5tUEsFBgAAAAADAAMAwgAAAKEDAAAAABABAADvu788P3htbCB2ZXJzaW9uPSIxLjAiIGVuY29kaW5nPSJ1dGYtOCI/PjxQZXJtaXNzaW9uTGlzdCB4bWxuczp4c2k9Imh0dHA6Ly93d3cudzMub3JnLzIwMDEvWE1MU2NoZW1hLWluc3RhbmNlIiB4bWxuczp4c2Q9Imh0dHA6Ly93d3cudzMub3JnLzIwMDEvWE1MU2NoZW1hIj48Q2FuRXZhbHVhdGVGdXR1cmVQYWNrYWdlcz5mYWxzZTwvQ2FuRXZhbHVhdGVGdXR1cmVQYWNrYWdlcz48RmlyZXdhbGxFbmFibGVkPnRydWU8L0ZpcmV3YWxsRW5hYmxlZD48L1Blcm1pc3Npb25MaXN0PjMVAAAAAAAAERUAAO+7vzw/eG1sIHZlcnNpb249IjEuMCIgZW5jb2Rpbmc9InV0Zi04Ij8+PExvY2FsUGFja2FnZU1ldGFkYXRhRmlsZSB4bWxuczp4c2k9Imh0dHA6Ly93d3cudzMub3JnLzIwMDEvWE1MU2NoZW1hLWluc3RhbmNlIiB4bWxuczp4c2Q9Imh0dHA6Ly93d3cudzMub3JnLzIwMDEvWE1MU2NoZW1hIj48SXRlbXM+PEl0ZW0+PEl0ZW1Mb2NhdGlvbj48SXRlbVR5cGU+QWxsRm9ybXVsYXM8L0l0ZW1UeXBlPjxJdGVtUGF0aCAvPjwvSXRlbUxvY2F0aW9uPjxTdGFibGVFbnRyaWVzIC8+PC9JdGVtPjxJdGVtPjxJdGVtTG9jYXRpb24+PEl0ZW1UeXBlPkZvcm11bGE8L0l0ZW1UeXBlPjxJdGVtUGF0aD5TZWN0aW9uMS9iaXJkczwvSXRlbVBhdGg+PC9JdGVtTG9jYXRpb24+PFN0YWJsZUVudHJpZXM+PEVudHJ5IFR5cGU9IklzUHJpdmF0ZSIgVmFsdWU9ImwwIiAvPjxFbnRyeSBUeXBlPSJGaWxsRW5hYmxlZCIgVmFsdWU9ImwxIiAvPjxFbnRyeSBUeXBlPSJGaWxsT2JqZWN0VHlwZSIgVmFsdWU9InNUYWJsZSIgLz48RW50cnkgVHlwZT0iRmlsbFRvRGF0YU1vZGVsRW5hYmxlZCIgVmFsdWU9ImwwIiAvPjxFbnRyeSBUeXBlPSJCdWZmZXJOZXh0UmVmcmVzaCIgVmFsdWU9ImwxIiAvPjxFbnRyeSBUeXBlPSJSZXN1bHRUeXBlIiBWYWx1ZT0ic1RhYmxlIiAvPjxFbnRyeSBUeXBlPSJOYW1lVXBkYXRlZEFmdGVyRmlsbCIgVmFsdWU9ImwwIiAvPjxFbnRyeSBUeXBlPSJSZWNvdmVyeVRhcmdldFNoZWV0IiBWYWx1ZT0ic1NoZWV0MSIgLz48RW50cnkgVHlwZT0iUmVjb3ZlcnlUYXJnZXRDb2x1bW4iIFZhbHVlPSJsMSIgLz48RW50cnkgVHlwZT0iUmVjb3ZlcnlUYXJnZXRSb3ciIFZhbHVlPSJsMSIgLz48RW50cnkgVHlwZT0iRmlsbFRhcmdldCIgVmFsdWU9InNiaXJkcyIgLz48RW50cnkgVHlwZT0iRmlsbGVkQ29tcGxldGVSZXN1bHRUb1dvcmtzaGVldCIgVmFsdWU9ImwxIiAvPjxFbnRyeSBUeXBlPSJBZGRlZFRvRGF0YU1vZGVsIiBWYWx1ZT0ibDAiIC8+PEVudHJ5IFR5cGU9IkZpbGxDb3VudCIgVmFsdWU9ImwyNjEiIC8+PEVudHJ5IFR5cGU9IkZpbGxFcnJvckNvZGUiIFZhbHVlPSJzVW5rbm93biIgLz48RW50cnkgVHlwZT0iRmlsbEVycm9yQ291bnQiIFZhbHVlPSJsMCIgLz48RW50cnkgVHlwZT0iRmlsbExhc3RVcGRhdGVkIiBWYWx1ZT0iZDIwMjAtMDktMjFUMTY6MjQ6MDYuNDM2NTcyMVoiIC8+PEVudHJ5IFR5cGU9IkZpbGxDb2x1bW5UeXBlcyIgVmFsdWU9InNBd1lHQmdZRyIgLz48RW50cnkgVHlwZT0iRmlsbENvbHVtbk5hbWVzIiBWYWx1ZT0ic1smcXVvdDtpZCZxdW90OywmcXVvdDtFbmdsaXNoIG5hbWUmcXVvdDssJnF1b3Q7U2NpZW50aWZpYyBuYW1lJnF1b3Q7LCZxdW90O0NvbW1vbiBuYW1lJnF1b3Q7LCZxdW90O1Bvd2VyIHRleHQmcXVvdDssJnF1b3Q7Tm90ZSZxdW90O10iIC8+PEVudHJ5IFR5cGU9IkZpbGxTdGF0dXMiIFZhbHVlPSJzQ29tcGxldGUiIC8+PEVudHJ5IFR5cGU9IlJlbGF0aW9uc2hpcEluZm9Db250YWluZXIiIFZhbHVlPSJzeyZxdW90O2NvbHVtbkNvdW50JnF1b3Q7OjYsJnF1b3Q7a2V5Q29sdW1uTmFtZXMmcXVvdDs6W10sJnF1b3Q7cXVlcnlSZWxhdGlvbnNoaXBzJnF1b3Q7OltdLCZxdW90O2NvbHVtbklkZW50aXRpZXMmcXVvdDs6WyZxdW90O1NlY3Rpb24xL2JpcmRzL0NoYW5nZWQgVHlwZS57aWQsMH0mcXVvdDssJnF1b3Q7U2VjdGlvbjEvYmlyZHMvQ2hhbmdlZCBUeXBlLntFbmdsaXNoIG5hbWUsMX0mcXVvdDssJnF1b3Q7U2VjdGlvbjEvYmlyZHMvQ2hhbmdlZCBUeXBlLntTY2llbnRpZmljIG5hbWUsMn0mcXVvdDssJnF1b3Q7U2VjdGlvbjEvYmlyZHMvQ2hhbmdlZCBUeXBlLntDb21tb24gbmFtZSwzfSZxdW90OywmcXVvdDtTZWN0aW9uMS9iaXJkcy9DaGFuZ2VkIFR5cGUue1Bvd2VyIHRleHQsNH0mcXVvdDssJnF1b3Q7U2VjdGlvbjEvYmlyZHMvQ2hhbmdlZCBUeXBlLntOb3RlLDV9JnF1b3Q7XSwmcXVvdDtDb2x1bW5Db3VudCZxdW90Ozo2LCZxdW90O0tleUNvbHVtbk5hbWVzJnF1b3Q7OltdLCZxdW90O0NvbHVtbklkZW50aXRpZXMmcXVvdDs6WyZxdW90O1NlY3Rpb24xL2JpcmRzL0NoYW5nZWQgVHlwZS57aWQsMH0mcXVvdDssJnF1b3Q7U2VjdGlvbjEvYmlyZHMvQ2hhbmdlZCBUeXBlLntFbmdsaXNoIG5hbWUsMX0mcXVvdDssJnF1b3Q7U2VjdGlvbjEvYmlyZHMvQ2hhbmdlZCBUeXBlLntTY2llbnRpZmljIG5hbWUsMn0mcXVvdDssJnF1b3Q7U2VjdGlvbjEvYmlyZHMvQ2hhbmdlZCBUeXBlLntDb21tb24gbmFtZSwzfSZxdW90OywmcXVvdDtTZWN0aW9uMS9iaXJkcy9DaGFuZ2VkIFR5cGUue1Bvd2VyIHRleHQsNH0mcXVvdDssJnF1b3Q7U2VjdGlvbjEvYmlyZHMvQ2hhbmdlZCBUeXBlLntOb3RlLDV9JnF1b3Q7XSwmcXVvdDtSZWxhdGlvbnNoaXBJbmZvJnF1b3Q7OltdfSIgLz48L1N0YWJsZUVudHJpZXM+PC9JdGVtPjxJdGVtPjxJdGVtTG9jYXRpb24+PEl0ZW1UeXBlPkZvcm11bGE8L0l0ZW1UeXBlPjxJdGVtUGF0aD5TZWN0aW9uMS9iaXJkcy9Tb3VyY2U8L0l0ZW1QYXRoPjwvSXRlbUxvY2F0aW9uPjxTdGFibGVFbnRyaWVzIC8+PC9JdGVtPjxJdGVtPjxJdGVtTG9jYXRpb24+PEl0ZW1UeXBlPkZvcm11bGE8L0l0ZW1UeXBlPjxJdGVtUGF0aD5TZWN0aW9uMS9iaXJkcy9Qcm9tb3RlZCUyMEhlYWRlcnM8L0l0ZW1QYXRoPjwvSXRlbUxvY2F0aW9uPjxTdGFibGVFbnRyaWVzIC8+PC9JdGVtPjxJdGVtPjxJdGVtTG9jYXRpb24+PEl0ZW1UeXBlPkZvcm11bGE8L0l0ZW1UeXBlPjxJdGVtUGF0aD5TZWN0aW9uMS9iaXJkcy9DaGFuZ2VkJTIwVHlwZTwvSXRlbVBhdGg+PC9JdGVtTG9jYXRpb24+PFN0YWJsZUVudHJpZXMgLz48L0l0ZW0+PEl0ZW0+PEl0ZW1Mb2NhdGlvbj48SXRlbVR5cGU+Rm9ybXVsYTwvSXRlbVR5cGU+PEl0ZW1QYXRoPlNlY3Rpb24xL2JvbnVzZXM8L0l0ZW1QYXRoPjwvSXRlbUxvY2F0aW9uPjxTdGFibGVFbnRyaWVzPjxFbnRyeSBUeXBlPSJJc1ByaXZhdGUiIFZhbHVlPSJsMCIgLz48RW50cnkgVHlwZT0iRmlsbEVuYWJsZWQiIFZhbHVlPSJsMSIgLz48RW50cnkgVHlwZT0iRmlsbE9iamVjdFR5cGUiIFZhbHVlPSJzVGFibGUiIC8+PEVudHJ5IFR5cGU9IkZpbGxUb0RhdGFNb2RlbEVuYWJsZWQiIFZhbHVlPSJsMCIgLz48RW50cnkgVHlwZT0iQnVmZmVyTmV4dFJlZnJlc2giIFZhbHVlPSJsMSIgLz48RW50cnkgVHlwZT0iUmVzdWx0VHlwZSIgVmFsdWU9InNUYWJsZSIgLz48RW50cnkgVHlwZT0iTmFtZVVwZGF0ZWRBZnRlckZpbGwiIFZhbHVlPSJsMCIgLz48RW50cnkgVHlwZT0iRmlsbFRhcmdldCIgVmFsdWU9InNib251c2VzIiAvPjxFbnRyeSBUeXBlPSJGaWxsZWRDb21wbGV0ZVJlc3VsdFRvV29ya3NoZWV0IiBWYWx1ZT0ibDEiIC8+PEVudHJ5IFR5cGU9IkFkZGVkVG9EYXRhTW9kZWwiIFZhbHVlPSJsMCIgLz48RW50cnkgVHlwZT0iRmlsbENvdW50IiBWYWx1ZT0ibDMzIiAvPjxFbnRyeSBUeXBlPSJGaWxsRXJyb3JDb2RlIiBWYWx1ZT0ic1Vua25vd24iIC8+PEVudHJ5IFR5cGU9IkZpbGxFcnJvckNvdW50IiBWYWx1ZT0ibDAiIC8+PEVudHJ5IFR5cGU9IkZpbGxMYXN0VXBkYXRlZCIgVmFsdWU9ImQyMDIwLTA5LTIxVDE2OjI0OjU3Ljg0NTcwNTRaIiAvPjxFbnRyeSBUeXBlPSJGaWxsQ29sdW1uVHlwZXMiIFZhbHVlPSJzQXdZR0JnWUdCZz09IiAvPjxFbnRyeSBUeXBlPSJGaWxsQ29sdW1uTmFtZXMiIFZhbHVlPSJzWyZxdW90O2lkJnF1b3Q7LCZxdW90O0VuZ2xpc2ggbmFtZSZxdW90OywmcXVvdDtOYW1lJnF1b3Q7LCZxdW90O0NvbmRpdGlvbiZxdW90OywmcXVvdDtFeHBsYW5hdG9yeSB0ZXh0JnF1b3Q7LCZxdW90O1ZQJnF1b3Q7LCZxdW90O05vdGUmcXVvdDtdIiAvPjxFbnRyeSBUeXBlPSJGaWxsU3RhdHVzIiBWYWx1ZT0ic0NvbXBsZXRlIiAvPjxFbnRyeSBUeXBlPSJSZWxhdGlvbnNoaXBJbmZvQ29udGFpbmVyIiBWYWx1ZT0ic3smcXVvdDtjb2x1bW5Db3VudCZxdW90Ozo3LCZxdW90O2tleUNvbHVtbk5hbWVzJnF1b3Q7OltdLCZxdW90O3F1ZXJ5UmVsYXRpb25zaGlwcyZxdW90OzpbXSwmcXVvdDtjb2x1bW5JZGVudGl0aWVzJnF1b3Q7OlsmcXVvdDtTZWN0aW9uMS9ib251c2VzL0NoYW5nZWQgVHlwZS57aWQsMH0mcXVvdDssJnF1b3Q7U2VjdGlvbjEvYm9udXNlcy9DaGFuZ2VkIFR5cGUue0VuZ2xpc2ggbmFtZSwxfSZxdW90OywmcXVvdDtTZWN0aW9uMS9ib251c2VzL0NoYW5nZWQgVHlwZS57TmFtZSwyfSZxdW90OywmcXVvdDtTZWN0aW9uMS9ib251c2VzL0NoYW5nZWQgVHlwZS57Q29uZGl0aW9uLDN9JnF1b3Q7LCZxdW90O1NlY3Rpb24xL2JvbnVzZXMvQ2hhbmdlZCBUeXBlLntFeHBsYW5hdG9yeSB0ZXh0LDR9JnF1b3Q7LCZxdW90O1NlY3Rpb24xL2JvbnVzZXMvQ2hhbmdlZCBUeXBlLntWUCw1fSZxdW90OywmcXVvdDtTZWN0aW9uMS9ib251c2VzL0NoYW5nZWQgVHlwZS57Tm90ZSw2fSZxdW90O10sJnF1b3Q7Q29sdW1uQ291bnQmcXVvdDs6NywmcXVvdDtLZXlDb2x1bW5OYW1lcyZxdW90OzpbXSwmcXVvdDtDb2x1bW5JZGVudGl0aWVzJnF1b3Q7OlsmcXVvdDtTZWN0aW9uMS9ib251c2VzL0NoYW5nZWQgVHlwZS57aWQsMH0mcXVvdDssJnF1b3Q7U2VjdGlvbjEvYm9udXNlcy9DaGFuZ2VkIFR5cGUue0VuZ2xpc2ggbmFtZSwxfSZxdW90OywmcXVvdDtTZWN0aW9uMS9ib251c2VzL0NoYW5nZWQgVHlwZS57TmFtZSwyfSZxdW90OywmcXVvdDtTZWN0aW9uMS9ib251c2VzL0NoYW5nZWQgVHlwZS57Q29uZGl0aW9uLDN9JnF1b3Q7LCZxdW90O1NlY3Rpb24xL2JvbnVzZXMvQ2hhbmdlZCBUeXBlLntFeHBsYW5hdG9yeSB0ZXh0LDR9JnF1b3Q7LCZxdW90O1NlY3Rpb24xL2JvbnVzZXMvQ2hhbmdlZCBUeXBlLntWUCw1fSZxdW90OywmcXVvdDtTZWN0aW9uMS9ib251c2VzL0NoYW5nZWQgVHlwZS57Tm90ZSw2fSZxdW90O10sJnF1b3Q7UmVsYXRpb25zaGlwSW5mbyZxdW90OzpbXX0iIC8+PC9TdGFibGVFbnRyaWVzPjwvSXRlbT48SXRlbT48SXRlbUxvY2F0aW9uPjxJdGVtVHlwZT5Gb3JtdWxhPC9JdGVtVHlwZT48SXRlbVBhdGg+U2VjdGlvbjEvYm9udXNlcy9Tb3VyY2U8L0l0ZW1QYXRoPjwvSXRlbUxvY2F0aW9uPjxTdGFibGVFbnRyaWVzIC8+PC9JdGVtPjxJdGVtPjxJdGVtTG9jYXRpb24+PEl0ZW1UeXBlPkZvcm11bGE8L0l0ZW1UeXBlPjxJdGVtUGF0aD5TZWN0aW9uMS9ib251c2VzL1Byb21vdGVkJTIwSGVhZGVyczwvSXRlbVBhdGg+PC9JdGVtTG9jYXRpb24+PFN0YWJsZUVudHJpZXMgLz48L0l0ZW0+PEl0ZW0+PEl0ZW1Mb2NhdGlvbj48SXRlbVR5cGU+Rm9ybXVsYTwvSXRlbVR5cGU+PEl0ZW1QYXRoPlNlY3Rpb24xL2JvbnVzZXMvQ2hhbmdlZCUyMFR5cGU8L0l0ZW1QYXRoPjwvSXRlbUxvY2F0aW9uPjxTdGFibGVFbnRyaWVzIC8+PC9JdGVtPjwvSXRlbXM+PC9Mb2NhbFBhY2thZ2VNZXRhZGF0YUZpbGU+FgAAAFBLBQYAAAAAAAAAAAAAAAAAAAAAAAAmAQAAAQAAANCMnd8BFdERjHoAwE/Cl+sBAAAAMPVTOTTsnEW3BCpn531nnwAAAAACAAAAAAAQZgAAAAEAACAAAABqqtf0BhRFLmQ1UnB9JAYgugein6Su4KxWR/7zGuHsoAAAAAAOgAAAAAIAACAAAADHjhrYRrEEO2B2fKEbcP/HljaXS9xRUgoHBw3hh5c6UFAAAAC1+c8D9K2VoF5K3NPIlPcEAa/uKms+XJVFitIQ4I/f35lvHe4qzUSOpUZYuBUj4s2Lyr/RgcK5dixhA+cnA9RqGTGqnTyv34PdVc2FHewY9EAAAAA7FawTNmU1GiAm4MYe2+g7AQb2UlTnYdkopm883F2+UKZ7RkHla3LnohEme5oTn/4h+Y+izLS7/+tPrnGhneOY</DataMashup>
 </file>

--- a/i18n/fr.xlsx
+++ b/i18n/fr.xlsx
@@ -5,16 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Bonuses" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Other" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Parameters" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Goals" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Other" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Parameters" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$B$2</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Goals!$A$1:$F$47</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$B$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="ExternalData_1" vbProcedure="false">Birds!$A$1:$G$357</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="ExternalData_2" vbProcedure="false">Bonuses!$A$1:$H$39</definedName>
   </definedNames>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2810" uniqueCount="1741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2908" uniqueCount="1788">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -5334,6 +5336,147 @@
   </si>
   <si>
     <t xml:space="preserve">[automa] Rare Species Lister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explanatory Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bird in Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bird in Grassland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bird in Wetland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Grassland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Wetland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cavity Nest Bird with Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowl Nest Bird with Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ground Nest Bird with Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platform Nest Bird with Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Cavity Nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Bowl Nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Ground Nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Platform Nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sets of Eggs in 3 Habitats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Bird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food in Supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds Cards in Hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds Worth over 4 Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds with No Eggs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds in 1 Row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filled Columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brown Powers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White &amp; No Powers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds with Tucked Cards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Cost of Played Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invertebrate in Food Cost of Your Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit + Seed in Food Cost of Your Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodent + Fish in Food Cost of Your Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Goal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beak Pointing Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beak Pointing Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cubes on "Play a Bird"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds Worth Less than or Equal to 3 Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pairs of Matching Symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nest Symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not on Edge of Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On Edge of Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokens in Any One Horizontal Row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horizontal Rows with at Least One of Your Tokens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fewest Tokens on Bonus Spaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Grassland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Wetland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Duet Tokens</t>
   </si>
   <si>
     <t xml:space="preserve">Translated</t>
@@ -5514,7 +5657,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5599,19 +5742,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5713,6 +5852,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
@@ -5875,9 +6018,11 @@
   <dimension ref="A1:K447"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A271" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F275" activeCellId="0" sqref="F275"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17084,15 +17229,17 @@
   </sheetPr>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="6.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="32"/>
@@ -18166,10 +18313,714 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F47"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="45.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="49.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="51.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="19.25"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1558</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>1746</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>1751</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="19"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>1753</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>1755</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="19"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="n">
+        <v>2043</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="n">
+        <v>2040</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="n">
+        <v>2041</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="n">
+        <v>2042</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="n">
+        <v>2044</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>1766</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="n">
+        <v>2036</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="n">
+        <v>2037</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="n">
+        <v>2039</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F47"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;KffffffStrona &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -18184,55 +19035,55 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1726</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>1727</v>
+        <v>1774</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1728</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>1729</v>
+        <v>1776</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1730</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>1731</v>
+        <v>1778</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1732</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>1733</v>
+        <v>1780</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1734</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>1735</v>
+        <v>1782</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1736</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>1737</v>
+        <v>1784</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1738</v>
+        <v>1785</v>
       </c>
     </row>
   </sheetData>
@@ -18249,36 +19100,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="29.95"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="5" t="s">
         <v>1558</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>1739</v>
+      <c r="B1" s="22" t="s">
+        <v>1786</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>1740</v>
-      </c>
-      <c r="B2" s="24" t="b">
+      <c r="A2" s="2" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B2" s="23" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>

--- a/i18n/fr.xlsx
+++ b/i18n/fr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\navarog\projects\wingsearch\i18n\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pary754\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850BE34A-F068-492B-A3A1-0E91E18D9EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D01F6A-D8C0-4D64-A25D-8BE05180D254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="ExternalData_1" localSheetId="0">Birds!$A$1:$G$357</definedName>
     <definedName name="ExternalData_2" localSheetId="1">Bonuses!$A$1:$H$39</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="1827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3265" uniqueCount="2055">
   <si>
     <t>id</t>
   </si>
@@ -5650,6 +5650,745 @@
   <si>
     <t>Autour des palombes</t>
   </si>
+  <si>
+    <t>Pondez 2 [egg] sur chaque autre oiseau dans cette colonne.</t>
+  </si>
+  <si>
+    <t>Quand un autre joueur effectue l'action "Pondre des œufs", cet oiseau pond 1 [egg] sur un autre oiseau avec un nid [platform]. En utilisant ce pouvoir, vous pouvez pondre 3 œufs de plus que la limite habituelle.</t>
+  </si>
+  <si>
+    <t>Dépasser la limite d'œufs : lorsque vous activez cet oiseau, vous pouvez utiliser le pouvoir pour pondre un œuf sur un oiseau qui a déjà atteint sa limite d'œufs, comme indiqué dans la description du pouvoir. Ce pouvoir n'affecte aucune autre action du jeu, la limite d'œufs continue à s'appliquer par la suite. Un oiseau qui possède plus d'œufs que sa limite d'œufs compte pour la carte Bonus Thériogénologue Aviaire. Cette carte ne permet pas aux oiseaux qui n'ont pas de symbole de Nid, et donc pas de limite d'œufs, de recevoir des œufs.</t>
+  </si>
+  <si>
+    <t>Gagnez 1 [invertebrate], [seed], ou [fruit] de la réserve.</t>
+  </si>
+  <si>
+    <t>Glissez jusqu'à 3 [card] de votre main sous cet oiseau. Si vous glissez au moins 1 [card], pondez 1 [egg] sur cet oiseau.</t>
+  </si>
+  <si>
+    <t>Pondez 1 [egg] sur chaque oiseau adjacent à celui-ci (à droite et à gauche uniquement).</t>
+  </si>
+  <si>
+    <t>Colombine turvert</t>
+  </si>
+  <si>
+    <t>Coucou koël</t>
+  </si>
+  <si>
+    <t>Mésange azurée</t>
+  </si>
+  <si>
+    <t>Tisserin baya</t>
+  </si>
+  <si>
+    <t>Panure à moustaches</t>
+  </si>
+  <si>
+    <t>Cigogne noire</t>
+  </si>
+  <si>
+    <t>Pondez 1 [egg] sur cet oiseau pour chaque autre oiseau dans sa colonne avec au moins 1 œuf.</t>
+  </si>
+  <si>
+    <t>Drongo royal noir</t>
+  </si>
+  <si>
+    <t>Defaussez autant de [card] du plateau que vous les souhaitez, puis remplissez-le à nouveau. Si au moins un des oiseaux défaussés est un oiseau de [grassland], pondez 1 [egg] sur cet oiseau.</t>
+  </si>
+  <si>
+    <t>L'oiseau défaussé peut posséder plusieurs symboles d'habitat, mais il doit avoir un symbole de prairie afin de compter pour ce pouvoir.</t>
+  </si>
+  <si>
+    <t>Loriot noir de Chine</t>
+  </si>
+  <si>
+    <t>Si vous avec utilisé les 4 actions lors de cette manche, gagnez 1 [wild] de la réserve, pondez 1 [egg] sur un oiseau de votre choix, et piochez 1 [card].</t>
+  </si>
+  <si>
+    <t>A la fin de la manche, si vous avez des cubes Action sur les 4 zones de gauche de votre plateau Joueur, vous pouvez effectuer les 3 actions indiquées sur cette carte. Effectuez les actions dans l'ordre.</t>
+  </si>
+  <si>
+    <t>Monticole merle-bleu</t>
+  </si>
+  <si>
+    <t>Si cet oiseau n'a pas d'oiseaux à sa droite, vous pouvez le déplacer (seulement la carte) sur le plateau du joueur à votre gauche (vous choisissez son habitat). Si vous le faites, piochez 3 [card].</t>
+  </si>
+  <si>
+    <t>Lorsque vous déplacez cet oiseau sur le plateau d'un autre joueur, placez-le sur l'emplacement vide le plusà gauche de n'importe quel habitat. S'il n'y a aucun emplacement de libre dans un habitat, vous ne pouvez pas y déplacer l'oiseau. Défaussez les oeufs sur cette carte, les jetons qui y sont stockés et les cartes qui ont été glissées dessous. Le joueur à qui vous donnez cet oiseau ne peut pas le refuser.</t>
+  </si>
+  <si>
+    <t>Milan à tête blanche</t>
+  </si>
+  <si>
+    <t>Choisissez 3 [die]. Lancez-les jusqu'à 3 fois. A chaque fois, si vous obtenez au moins 1 [fish] ou [rodent], stockez en 1 ici. Sinon, arrêtez de lancer les dés et défaussez toute la nourriture stockée sur l'oiseau lors de ce tour.</t>
+  </si>
+  <si>
+    <t>Ces pouvoirs sont des paris risqués. Après chaque lancer de dé(s), vérifiez si vous avez réussi ou échoué. Lorsque vous échouez, vous ne pouvez plus recommencer, le pouvoir a fini de s activer. Vous pouvez aussi choisir de vous arrêter et de ne pas relancer les dés à tout moment. Cela vous permet d'éviter d'échouer et de perdre ce que vous auriez gagné.
+Si vous échouez, vous devez vous encier et défausser toute la nourriture stockée sur cet oiseau lors de cette activation du pouvoir.
+Si vous réussissez, stockez l nourriture de la reserve sur cet oiseau (ne stockez pas plus d'un jeton après chaque lancer). Si vous avez lancé les dés moins de 3 fois au cours de cette activation du pouvoir, décidez si vous souhaitez les relancer.</t>
+  </si>
+  <si>
+    <t>Pinson du nord</t>
+  </si>
+  <si>
+    <t>Piochez 2 [card] et ajoutez-les à votre main. Glissez ensuite jusqu'à 2 [card] de votre main sous cet oiseau.</t>
+  </si>
+  <si>
+    <t>Vous pouvez glisser entre 0 et 2 carte(s) sous cet oiseau lorsque vous en activez le pouvoir.
+Vous pouvez glisser des cartes que vous aviez déjà en main avant d'en piocher lors de l'activation du pouvoir.</t>
+  </si>
+  <si>
+    <t>Pie-grièche brune</t>
+  </si>
+  <si>
+    <t>Tous les joueurs peuvent stocker 1 [invertebrate] de leur propre réserve sur un oiseau dans leur [grassland]</t>
+  </si>
+  <si>
+    <t>Pour ces pouvoirs, il n'est pas nécessaire que les oiseaux sur lesquels vous stockez de la nourriture aient eux-mêmes des pouvoirs de stockage de nourriture.
+Le nombre de jetons Nourriture à stocker indiqué sur la carte (« sur chaque oiseau de celle ligne » par exemple), est une limite, vous pouvez donc en stocker moins si vous le souhaitez.</t>
+  </si>
+  <si>
+    <t>Pirolle verte</t>
+  </si>
+  <si>
+    <t>Gagnez 1 [invertebrate] ou [rodent] de la mangeoire, si disponible. Vous pouvez le stocker sur cet oiseau.</t>
+  </si>
+  <si>
+    <t>Si tous les dés de la mangeoire sont sur la même face, vous pouvez les relancer avant de gagner [nourriture spécifique]. Si la mangeoire ne contient aucun dé avec [nourriture spécifique], vous ne gagnez rien. 
+Lorsqu'un jeton Nourriture est stocké sur une carte Oiseau, vous ne pouvez plus le dépenser. Chaque jeton sur la carte à la fin de la partie vous rapporte 1 point.</t>
+  </si>
+  <si>
+    <t>Iora du Bengale</t>
+  </si>
+  <si>
+    <t>Pondez 1 [egg] sur un autre oiseau dans cette colonne.</t>
+  </si>
+  <si>
+    <t>Martin triste</t>
+  </si>
+  <si>
+    <t>Copiez le pouvoir marron Activation d'un oiseau de la [grassland] du joueur à votre gauche.</t>
+  </si>
+  <si>
+    <t>Chevalier guinette</t>
+  </si>
+  <si>
+    <t>Piochez 1 [card] pour chaque oiseau dans votre [wetland] avec un [egg]. Gardez-en 1 et défaussez le reste.</t>
+  </si>
+  <si>
+    <t>Fauvette couturière</t>
+  </si>
+  <si>
+    <t>Trouvez un groupe d'oiseaux adjacents dans votre réserve avec le même type de nid. Pondez 1 [egg] sur chacun d'entre eux. Les nids [star] comptent comme n'importe quel type de nid.</t>
+  </si>
+  <si>
+    <t>Deux cartes Oiseau sont « adjacentes » si leurs bords se touchent : au-dessus, en dessous, à gauche, ou à droite (les cartes en diagonale ne comptent pas).
+Le groupe peut zigzaguer entre les lignes et les colonnes tant que chaque oiseau du groupe est adjacent à au moins un autre oiseau du groupe.</t>
+  </si>
+  <si>
+    <t>Le pouvoir ainsi copié doit être un pouvoir « Activation ». Résolvez le pouvoir copié comme s'il s'agissait de celui du Martin Triste.</t>
+  </si>
+  <si>
+    <t>Sarcelle d'hiver</t>
+  </si>
+  <si>
+    <t>Pour chaque 3 [egg] dans votre [wetland], piochez 1 [card]. Vous pouvez glisser jusqu'à 2 [card] de votre main sous cet oiseau.</t>
+  </si>
+  <si>
+    <t>Vous pouvez glisser des cartes que vous aviez déjà en main avant d'en piocher lors de l'activation du pouvoir.</t>
+  </si>
+  <si>
+    <t>Barbu à plastron rouge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si tous les dés de la mangeoire sont sur la même face, vous pouvez les relancer avant de gagner [nourriture spécifique]. Si la mangeoire ne contient aucun dé avec [nourriture spécifique], vous ne gagnez rien. </t>
+  </si>
+  <si>
+    <t>Ibis nippon</t>
+  </si>
+  <si>
+    <t>Piochez 2 cartes bonus et gardez-en 1. Les autres joueurs peuvent défausser 2 ressources au choix ([wild], [egg], ou [card]) pour faire de même.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Chaque joueur peut défausser 2 ressources identiques (2 [wild] par exemple) ou 2 ressources différentes (par exemple 1 [wild] et 1 [egg]) pour piocher des cartes Bonus.
+Défaussez les [wild] de votre réserve personnelle et les [card] de votre main.
+Piochez 2 cartes Bonus, choisissez celle que vous souhaitez garder et défaussez l'autre. Si la pioche de cartes Bonus est épuisée, mélangez la défausse pour former une nouvelle pioche.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>EXTENSION OCÉANIE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Si un joueur défausse un [nectar] pour piocher ses cartes Bonus, placez le jeton nectar sur la case « nectar dépensé » de son [wetland].</t>
+    </r>
+  </si>
+  <si>
+    <t>Cochevis huppé</t>
+  </si>
+  <si>
+    <t>Défaussez 1 [seed]. Si vous le faites, pondez 1 [egg] sur cet oiseau.</t>
+  </si>
+  <si>
+    <t>La [seed] doit venir de votre réserve. Vous ne pouvez pas en prendre une stockée sur un oiseau.</t>
+  </si>
+  <si>
+    <t>Roselin de Lichtenstein</t>
+  </si>
+  <si>
+    <t>Pondez 1 [egg] sur cet oiseau pour chaque autre oiseau dans votre [grassland].</t>
+  </si>
+  <si>
+    <t>Traquet du désert</t>
+  </si>
+  <si>
+    <t>Pour chaque oiseau dans votre [grassland] avec un [egg], lancez 1 [die]. 
+Choisissez 1 type de nourriture indiqué par un de ces dés et recevez 1 jeton correspondant de la réserve.</t>
+  </si>
+  <si>
+    <t>Vous ne gagnez que 1 jeton Nourriture, quel que soit le nombre de dés lancés.</t>
+  </si>
+  <si>
+    <t>Foulque macroule</t>
+  </si>
+  <si>
+    <t>Glissez jusqu'à 3 [card] de votre main sous cet oiseau.</t>
+  </si>
+  <si>
+    <t>Grand-Duc d'Europe</t>
+  </si>
+  <si>
+    <t>Piochez jusqu'à 3 [card], une par une. Vous pouvez vous arrêter de piocher à tout moment. Lorsque vous vous arrêtez, si l'envergure totale des oiseaux piochés est inférieure à 110cm, glissez-les sous cet oiseau. Sinon, défaussez-les.</t>
+  </si>
+  <si>
+    <t>Ces pouvoirs sont des paris risqués. Après chaque [card] piochée, vérifiez si vous avez réussi ou échoué. Lorsque vous échouez, vous ne pouvez plus piocher de carte, le pouvoir a fini de s'activer. Vous pouvez aussi choisir de vous arrêter et de ne pas piocher de carte à tout moment. Cela vous permet d'éviter d'échouer et de perdre ce que vous auriez gagné.
+Après chaque [card] piochée, additionnez l'envergure de toutes les [card] piochées jusque là. Si le total est supérieur ou égal à 110cm, vous avez échoué. Défaussez toutes les [card] piochées lors de cette activation du pouvoir de cet oiseau.
+Si l'envergure totale est inférieure à 110cm et que vous avez pioché moins de 3 [card] lors de cette activation du pouvoir, vous avez le choix entre piocher une autre [card] ou vous arrêter de piocher et glisser toutes les [card] piochées sous cet oiseau.
+Si vous piochez une [card] avec une envergure variable (comme certains oiseaux de l'extension Océanie), indiqué par un astérisque (*) au lieu de la mesure de l'envergure, vous pouvez choisir n'importe quel nombre positif comme envergure de cet oiseau.</t>
+  </si>
+  <si>
+    <t>Huppe fasciée</t>
+  </si>
+  <si>
+    <t>Volez 1 [invertebrate] à chacun de vos voisins. Chaque voisin à qui vous volez un [invertebrate], peut obtenir 1 [wild] de la réserve.</t>
+  </si>
+  <si>
+    <t>Vous ne pouvez activer ce pouvoir que si l'un de vos voisins possède un [invertebrate]. 
+Dans une partie à 2 joueurs, votre adversaire se trouve à la fois à votre droite et à votre gauche. Comme vous n'avez qu'un seul voisin, vous ne pouvez lui voler que 1 [invertebrate].</t>
+  </si>
+  <si>
+    <t>Faucon crécerelle</t>
+  </si>
+  <si>
+    <t>Lancez 3 [die] au choix. Si vous obtenez au moins 1 [rodent], stockez 1 [rodent] sur cet oiseau.</t>
+  </si>
+  <si>
+    <t>Si vous obtenez plus de 1 [rodent], vous n'en stockez tout de même qu'un.</t>
+  </si>
+  <si>
+    <t>Busard des roseaux</t>
+  </si>
+  <si>
+    <t>Grimpereau des bois</t>
+  </si>
+  <si>
+    <t>Pour chaque 3 [egg] dans votre [forest], gagnez 1 [invertebrate] ou [seed] de la réserve. Vous pouvez en stocker jusqu'à 2 sur cet oiseau.</t>
+  </si>
+  <si>
+    <t>Comptez les œufs dans l’habitat indiqué, puis divisez le total par 3 arrondis au nombre inférieur. Gagnez autant de jetons Nourriture de la réserve.
+Ces pouvoirs vous donnent le choix entre plusieurs type de nourriture. Si vous gagnez plus d'un jeton, vous pouvez prendre des jetons différents.</t>
+  </si>
+  <si>
+    <t>Serin à front d'or</t>
+  </si>
+  <si>
+    <t>Pondez 1 [egg] sur cet oiseau pour chaque oiseau qui se trouve à sa gauche dans cette ligne.</t>
+  </si>
+  <si>
+    <t>Chevêche forestière</t>
+  </si>
+  <si>
+    <t>Choisissez 2 [die]. Lancez-les jusqu'à 3 fois. A chaque fois, si vous obtenez au moins 1 [invertebrate] ou [rodent], stockez en 1 ici. Sinon, arrêtez de lancer les dés et défaussez toute la nourriture stockée sur l'oiseau lors de ce tour.</t>
+  </si>
+  <si>
+    <t>Faisan doré</t>
+  </si>
+  <si>
+    <t>Tous les joueurs pondent 2 [egg]. Vous pondez 2 [egg] supplémentaires.</t>
+  </si>
+  <si>
+    <t>Chaque joueur peut pondre ses œufs sur le même oiseau ou sur des oiseaux différents.</t>
+  </si>
+  <si>
+    <t>Prinia gracile</t>
+  </si>
+  <si>
+    <t>Défaussez 1 [egg]. Si vous le faites, gagnez 1 [invertebrate] de la réserve.</t>
+  </si>
+  <si>
+    <t>Vous pouvez prendre l'œuf à défausser sur n'importe lequel de vos oiseaux.</t>
+  </si>
+  <si>
+    <t>Grandala bleu</t>
+  </si>
+  <si>
+    <t>Si vous avez pondu un [egg] sur cet oiseau lors de ce tour, glissez 1 [card] de la pioche sous cet oiseau.</t>
+  </si>
+  <si>
+    <t>L'œuf doit avoir été pondu avant d'activer cette carte. Si vous utilisez un autre pouvoir pour copier l'effet du Grandala bleu, vous devez avoir pondu un œuf sur l'oiseau vous permettant de copier le pouvoir à la place.</t>
+  </si>
+  <si>
+    <t>Bergeronnette des ruisseaux</t>
+  </si>
+  <si>
+    <t>Si vous avez utilisé les 4 types d'actions lors de cette manche, gagnez 2 [wild] de la réserve.</t>
+  </si>
+  <si>
+    <t>N'oubliez pas de laisser les cubes Actions dans la colonne de gauche des actions effectuées lors de chaque tour.</t>
+  </si>
+  <si>
+    <t>Grand cormoran</t>
+  </si>
+  <si>
+    <t>Vous pouvez pendre 1 [fish] de cet oiseau, pour le mettre dans votre réserve. Lancez ensuite 2 [die] au choix. Si vous obtenez au moins 1 [fish], stockez 1 [fish] de la réserve sur cet oiseau.</t>
+  </si>
+  <si>
+    <t>Calao bicorne</t>
+  </si>
+  <si>
+    <t>Tous les joueurs peuvent glisser une [card] de leur main sous un oiseau dans leur [forest] et/ou stocker 1 [fruit] de leur réserve sur un oiseau dans leur [forest].</t>
+  </si>
+  <si>
+    <t>Outarde à tête noire</t>
+  </si>
+  <si>
+    <t>Marquez immédiatement les points d'une de vos cartes bonus en stockant 1 [seed] de la réserve sur cet oiseau par point gagné. Vous marquerez également les points de la carte normalement à la fin du jeu.</t>
+  </si>
+  <si>
+    <t>Ce pouvoir stocke de la nourriture pour ne pas oublier des points marqués par la carte Bonus lors de son activation. La nourriture ainsi stockée est identique à la nourriture stockée autrement (elle compte par exemple pour la carte Bonus Dissection).</t>
+  </si>
+  <si>
+    <t>Pic épeiche</t>
+  </si>
+  <si>
+    <t>Gagnez 1 [invertebrate] ou [seed] de la mangeoire, si disponible.</t>
+  </si>
+  <si>
+    <t>Marabout argala</t>
+  </si>
+  <si>
+    <t>Copiez le pouvoir d'une des cartes Bonus du joueur à votre gauche (marquez les points en fonction de vos propres oiseaux).</t>
+  </si>
+  <si>
+    <t>Si vous jouez avec les cartes Bonus face cachée et que vous activez ce pouvoir, le joueur indiqué vous montre ses cartes Bonus.
+Lors d'une partie à 2 joueurs, le Vautour indien et le Marabout argala peuvent copier tous les deux la même carte Bonus.</t>
+  </si>
+  <si>
+    <t>Petit guêpier vert</t>
+  </si>
+  <si>
+    <t>Glissez sous cette carte un des oiseaux du plateau qui possèdent [invertebrate] dans leur coût en nourriture, s'il y en a.</t>
+  </si>
+  <si>
+    <t>Faisan versicolore</t>
+  </si>
+  <si>
+    <t>Tous les joueurs pondent 1 [egg].</t>
+  </si>
+  <si>
+    <t>Vous pouvez pondre l'[egg] sur n'importe quel oiseau.</t>
+  </si>
+  <si>
+    <t>Lophophore resplendissant</t>
+  </si>
+  <si>
+    <t>Tous les joueurs gagnent 1 [seed] de la réserve. Pondez également 1 [egg].</t>
+  </si>
+  <si>
+    <t>L'œuf peut être pondu sur n'importe quel oiseau, à condition de ne pas dépasser sa limite d'œufs.</t>
+  </si>
+  <si>
+    <t>Corneille de l'Inde</t>
+  </si>
+  <si>
+    <t>Vous pouvez stocker 1 [wild] de votre réserve sur chaque oiseau de cette ligne.</t>
+  </si>
+  <si>
+    <t>Bec-d'ibis Tibétain</t>
+  </si>
+  <si>
+    <t>Tous les joueurs piochent 1 [card] et gagnent 1 [invertebrate] de la réserve.
+Vous piochez 1 [card] supplémentaire.</t>
+  </si>
+  <si>
+    <t>Paon bleu</t>
+  </si>
+  <si>
+    <t>Tous les joueurs piochent 2 [card]. Vous piochez 1 [card] supplémentaire.</t>
+  </si>
+  <si>
+    <t>Vous pouvez prendre la carte supplémentaire dans la pioche ou sur le plateau Oiseau.</t>
+  </si>
+  <si>
+    <t>Vautour indien</t>
+  </si>
+  <si>
+    <t>Copiez le pouvoir d'une des cartes Bonus du joueur à votre droite (marquez les points en fonction de vos propres oiseaux).</t>
+  </si>
+  <si>
+    <t>Corbeau à gros bec</t>
+  </si>
+  <si>
+    <t>Stockez 1 [wild] de votre réserve sur un oiseau au choix.
+Si vous le faites, vous pouvez glisser 1 [card] de votre main sous cet oiseau.</t>
+  </si>
+  <si>
+    <t>Aigrette garzette</t>
+  </si>
+  <si>
+    <t>Grèbe castagneux</t>
+  </si>
+  <si>
+    <t>Pour chaque oiseau dans cette colonne avec un [egg], piochez 1 [card].
+Gardez-en 1 et défaussez les autres.</t>
+  </si>
+  <si>
+    <t>Petit gravelot</t>
+  </si>
+  <si>
+    <t>Défaussez 1 [card] de votre main. Si vous le faites, pondez 1 [egg] sur cet oiseau.</t>
+  </si>
+  <si>
+    <t>Canard mandarin</t>
+  </si>
+  <si>
+    <t>Piochez 5 [card]. Ajoutez-en 1 à votre main, glissez-en 1 sous cet oiseau, donnez-en 1 à un autre joueur et défaussez les autres.</t>
+  </si>
+  <si>
+    <t>Si vous décidez d'activer cet oiseau à la fin de la manche, vous êtes obligé d'effectuer l'ensemble des actions décrites.</t>
+  </si>
+  <si>
+    <t>Souimanga à dos vert</t>
+  </si>
+  <si>
+    <t>Chaque joueur peut lancer 1 [die] au choix et gagner ce jeton Nourriture de la réserve.</t>
+  </si>
+  <si>
+    <t>Chaque joueur peut choisir le même dé ou un dé différent, y compris un dé qui vient d'être lancé par un autre joueur. Ne prenez que le jeton nourriture du dé que vous avez lancé. Si la face obtenue vous donne le choix entre deux jetons Nourriture ([seed]/[invertebrate]), choisissez-en un.</t>
+  </si>
+  <si>
+    <t>Phodile calong</t>
+  </si>
+  <si>
+    <t>Activez les pouvoirs Activation (marron) de tous vos autres [predator].</t>
+  </si>
+  <si>
+    <t>Losque vous utilisez ce pouvoir, vous pouvez activer les pouvoirs Activation (marron) de vos oiseaux [predator] dans l'ordre de votre choix. Ces pouvoirs sont désignés par le symbole [predator] à gauche ou à droite du pouvoir (pas dans le texte du pouvoir).</t>
+  </si>
+  <si>
+    <t>Shama dayal</t>
+  </si>
+  <si>
+    <t>Pour chaque 3 [egg] dans votre [grassland], gagnez 1 [invertebrate] ou [seed] de la réserve.
+Vous pouvez en stocker jusqu'à 2 sur cet oiseau.</t>
+  </si>
+  <si>
+    <t>Pithécophage des philippines</t>
+  </si>
+  <si>
+    <t>Lancez les 5 [die]. Vous pouvez relancer autant de [die] que vous les souhaitez, jusqu'à 2 fois. Si vous avez obtenu au moins 3 [rodent] lorsque vous arrêtez de lancer les dés, piochez 2 cartes Bonus de gardez-en 1. Relancez les dés de la mangeoire.</t>
+  </si>
+  <si>
+    <t>Après avoir lancé les 5 dés, vous pouvez en reprendre autant que souhaité pour les relancer (tous en même temps). Vous pouvez répéter à nouveau cette opération (reprendre des dés pour les relancer, tous en même temps). Vous avez donc droit à un total de 3 lancers de dés. Après avoir fini de lancer les dés, si vous avez au moins 3 [rodent] parmi les 5 dés, piochez 2 cartes Bonus et gardez-en 1. Relancez les dés de la mangeoire, quel que soit le nombre de [rodent] parmi les dés.</t>
+  </si>
+  <si>
+    <t>Nymphée fuligineuse</t>
+  </si>
+  <si>
+    <t>Héron pourpré</t>
+  </si>
+  <si>
+    <t>Bengali rouge</t>
+  </si>
+  <si>
+    <t>Coq doré</t>
+  </si>
+  <si>
+    <t>Grue à couronne rouge</t>
+  </si>
+  <si>
+    <t>Bulbul à ventre rouge</t>
+  </si>
+  <si>
+    <t>Vanneau indien</t>
+  </si>
+  <si>
+    <t>Macareux rhinocéros</t>
+  </si>
+  <si>
+    <t>Pigeon biset</t>
+  </si>
+  <si>
+    <t>Corbeau freux</t>
+  </si>
+  <si>
+    <t>Perruche à collier</t>
+  </si>
+  <si>
+    <t>Étourneau roselin</t>
+  </si>
+  <si>
+    <t>Tadorne casarca</t>
+  </si>
+  <si>
+    <t>Grue antigone</t>
+  </si>
+  <si>
+    <t>Tragopan satyre</t>
+  </si>
+  <si>
+    <t>Capucin damier</t>
+  </si>
+  <si>
+    <t>Minivet oranor</t>
+  </si>
+  <si>
+    <t>Harle piette</t>
+  </si>
+  <si>
+    <t>Bécasseau spatule</t>
+  </si>
+  <si>
+    <t>Tourterelle tigrine</t>
+  </si>
+  <si>
+    <t>Pirolle bleue de Ceylan</t>
+  </si>
+  <si>
+    <t>Podarge de Ceylan</t>
+  </si>
+  <si>
+    <t>Martin-chasseur gurial</t>
+  </si>
+  <si>
+    <t>Roselin githagine</t>
+  </si>
+  <si>
+    <t>Linotte à bec jaune</t>
+  </si>
+  <si>
+    <t>Gobemouche vert-de-gris</t>
+  </si>
+  <si>
+    <t>Coucou violet</t>
+  </si>
+  <si>
+    <t>Paruline à sourcils blancs</t>
+  </si>
+  <si>
+    <t>Garrulaxe à huppe blanche</t>
+  </si>
+  <si>
+    <t>Érismature à tête blanche</t>
+  </si>
+  <si>
+    <t>Martin-chasseur à gorge blanche</t>
+  </si>
+  <si>
+    <t>Mésange boréale</t>
+  </si>
+  <si>
+    <t>Blongios de Chine</t>
+  </si>
+  <si>
+    <t>Géopélie zébrée</t>
+  </si>
+  <si>
+    <t>Piochez 1 [card] et ajoutez-la à votre main. Tous les autres joueurs piochent 1 [card]et l'ajoutent à leur main si l'oiseau possède [invertebrate] ou [seed] dans son coût en nourriture.</t>
+  </si>
+  <si>
+    <t>Piochez 1 [card] et ajoutez-la à votre main. Tous les autres joueurs piochent 1 [card] et la gardent si c'est un oiseau de [wetland].</t>
+  </si>
+  <si>
+    <t>L'oiseau doit posséder un symbole [invertebrate] ou [seed]. Le symbole [wild] ne compte pas.</t>
+  </si>
+  <si>
+    <t>Choisissez 2 [die]. Lancez-les jusqu'à 3 fois. A chaque fois, si vous obtenez au moins 1 [invertebrate] ou [fish], stockez en 1 ici. Sinon, arrêtez de lancer les dés et défaussez toute la nourriture stockée sur l'oiseau lors de ce tour.</t>
+  </si>
+  <si>
+    <t>Ce pouvoir est un pari risqué. Après chaque lancer de dé(s), vérifiez si vous avez réussi ou échoué. Lorsque vous échouez, vous ne pouvez plus recommencer, le pouvoir a fini de s activer. Vous pouvez aussi choisir de vous arrêter et de ne pas relancer les dés à tout moment. Cela vous permet d'éviter d'échouer et de perdre ce que vous auriez gagné.
+Si vous échouez, vous devez vous encier et défausser toute la nourriture stockée sur cet oiseau lors de cette activation du pouvoir.
+Si vous réussissez, stockez l nourriture de la reserve sur cet oiseau (ne stockez pas plus d'un jeton après chaque lancer). Si vous avez lancé les dés moins de 3 fois au cours de cette activation du pouvoir, décidez si vous souhaitez les relancer.</t>
+  </si>
+  <si>
+    <t>Donnez 1 [card] de votre main à un autre joueur. Si vous le faites, piochez 2 [card].</t>
+  </si>
+  <si>
+    <t>Comptez les [egg] sur tous vos oiseaux. Si vous avez moins de 6 [egg] au total, pondez 1 [egg] sur cet oiseau.</t>
+  </si>
+  <si>
+    <t>Marquez immédiatement les points d'une de vos cartes bonus en stockant 1 [wild] de la réserve sur cet oiseau par point gagné. Défaussez cette carte Bonus et piochez-en une nouvelle.</t>
+  </si>
+  <si>
+    <t>Si vous avez au moins 1 [fruit] dans votre réserve, pondez 1 [egg] sur cet oiseau.</t>
+  </si>
+  <si>
+    <t>Défaussez autant de [card] du plateau Oiseaux que vous le souhaitez, puis remplissez-le à nouveau. Si au moins 1 des oiseaux défaussés est un [predator], pondez 1 [egg] sur cet oiseau.</t>
+  </si>
+  <si>
+    <t>Lancez 2 [die] au choix. Si vous obtenez au moins 1 [fish], stockez 1 [fish] de la réserve sur cet oiseau. Tous les joueurs peuvent défausser 1 [card] de leur main pour gagner 1 [fish] de la réserve.</t>
+  </si>
+  <si>
+    <t>Tous les joueurs pondent 1 [egg]. Vous pondez 1 [egg] supplémentaire.</t>
+  </si>
+  <si>
+    <t>Stockez 1 [wild] de votre réserve sur cet oiseau ou glissez 1 [card] de votre main sous cette carte. Si vous faites un des deux, glissez 1 [card] de la pioche sous cet oiseau.</t>
+  </si>
+  <si>
+    <t>Copiez un pouvoir Pose (pas de couleur) de 1 des oiseaux de vos voisins.</t>
+  </si>
+  <si>
+    <t>Glissez jusqu'à 3 [card] de votre main sous cet oiseau. Si vous glissez au moins 1 [card], gagnez 1 [invertebrate] de la réserve.</t>
+  </si>
+  <si>
+    <t>Piochez 5 [card]. Ajoutez-en 1 à votre main, glissez-en 1 sous cet oiseau et défaussez les autres.</t>
+  </si>
+  <si>
+    <t>Chaque joueur peut défausser 1 [egg] pour piocher 1 [card].</t>
+  </si>
+  <si>
+    <t>Donnez 1 [card] de votre main à un autre joueur. Si vous le faites, pondez 2 [egg] sur cet oiseau.</t>
+  </si>
+  <si>
+    <t>Gagnez 1 [seed] de la réserve ou glissez 1 [card] de la pioche sous cet oiseau.</t>
+  </si>
+  <si>
+    <t>Jouez 1 oiseau supplémentaire dans votre [forest]. Vous pouvez ignorer 1 [invertebrate] ou 1 [egg] dans son coût.</t>
+  </si>
+  <si>
+    <t>Piochez 4 [card]. Glissez 2 [card] sous cette carte, et ajoutez les 2 autres [card] à votre main.</t>
+  </si>
+  <si>
+    <t>Si cet oiseau n'a pas d'oiseaux à sa droite, vous pouvez le déplacer (seulement la carte) sur le plateau du joueur à votre droite (vous choisissez son habitat). Si vous le faites, piochez 3 [card].</t>
+  </si>
+  <si>
+    <t>Vous pouvez stocker 1 [wild] de votre réserve sur chacun de vos autres oiseaux.</t>
+  </si>
+  <si>
+    <t>Lancez 1 [die] au choix. Si vous obtenez un [invertabrate], stockez 1 [invertebrate] de la réserve sur cet oiseau. Tous les joueurs peuvent défausser 1 [card] de leur main pour gagner 1 [invertebrate] de la réserve.</t>
+  </si>
+  <si>
+    <t>Choisissez 1 [die]. Lancez-le une fois pour chacun de vos oiseaux [wetland].
+Si vous obtenez au moins 1 [fish], gagnez-en 1 de la réserve. Vous pouvez le stocker sur cet oiseau.</t>
+  </si>
+  <si>
+    <t>Jouez un oiseau supplémentaire dans votre [grassland]. Vous pouvez ignorer 1 [seed] ou 1 [egg] dans son coût.</t>
+  </si>
+  <si>
+    <t>Piochez 2 [card] et ajoutez-les à votre main. Glissez ensuite  2 [card] de votre main sous cet oiseau.</t>
+  </si>
+  <si>
+    <t>Si vous avez gagné un [invertebrate] de la mangeoire lors de ce tour, gagnez 1 [fruit] de la réserve.</t>
+  </si>
+  <si>
+    <t>Lorsqu'un autre joueur effectue l'action Pondre des œufs, vous pouvez pondre 1 [egg] sur un oiseau d'envergure inférieure à 30cm. Ce pouvoir vous permet de pondre 2 œufs de plus que la limite habituelle.</t>
+  </si>
+  <si>
+    <t>Pour chaque oiseau dans votre [forest] avec un œuf dessus, lancez 1 [die] au choix. Choisissez 1 type de nourriture indiqué par un de ces dés et recevez un jeton correspondant de la réserve.</t>
+  </si>
+  <si>
+    <t>Glissez 1 [card] de votre main sous cet oiseau. Si vous le faites, gagnez 1 [invertebrate], [seed], ou [fruit] de la mangeoire.</t>
+  </si>
+  <si>
+    <t>Piochez 3 cartes Bonus et gardez-en 1.</t>
+  </si>
+  <si>
+    <t>Choisissez 1 [die]. Lancez-le jusqu'à 3 fois. A chaque fois, si vous obtenez [invertebrate], [fish], ou [rodent] stockez en 1 ici. Sinon, arrêtez de lancer les dés et défaussez toute la nourriture stockée sur l'oiseau lors de ce tour.</t>
+  </si>
+  <si>
+    <t>Stockez sur cet oiseau 1 [invertebrate], [seed], ou [fruit] de la mangeoire, si disponible.</t>
+  </si>
+  <si>
+    <t>Piochez la [card] du milieu sur le plateau Oiseaux.</t>
+  </si>
+  <si>
+    <t>Tous les joueurs peuvent défausser 1 [seed] de leur réserve pour pondre 1 [egg].</t>
+  </si>
+  <si>
+    <t>Amateur d'espèces rares [automa]</t>
+  </si>
+  <si>
+    <t>Ne défaussez pas la [fruit].</t>
+  </si>
+  <si>
+    <t>La face ([invertebrate]/[seed]) compte comme si vous aviez obtenu un [invertebrate].
+Lorsque vous lancez 2 dés, vous ne pouvez stocker que 1 [fish], même si vous obtenez 2 [fish] aux dés.
+La seconde partie de ce pouvoir est indépendante de la première. Tous les joueurs peuvent défausser une [card] pour gagner de la nourriture, et ce quel que soit le résultat du lancer de dés. Les consignes « tous les joueurs » s'appliquent à vous aussi.</t>
+  </si>
+  <si>
+    <t>Vous pouvez pondre l'[egg] sur n'importe quel oiseau. Vous pouvez pondre le deuxième œuf sur le même oiseau que le premier (mais ce n'est pas obligatoire).</t>
+  </si>
+  <si>
+    <t>Le pouvoir ainsi copié doit être un pouvoir « Pose » (pas de couleur).
+Cet oiseau peut copier un pouvoir « Pose » qui vous permet de jouer un oiseau supplémentaire, même dans un autre habitat que celui dans lequel vous avez joué cet oiseau. L'oiseau supplémentaire doit être joué dans l'habitat indiqué par le pouvoir copié, s'il y en a un.
+Comme cet oiseau ne peut pas être joué dans le [wetland], il ne peut pas copier un pouvoir « Pose » spécifiant de jouer l'oiseau dans cet habitat (par exemple le Héron Cendré de l'extension Europe).
+Si vous utilisez cet oiseau pour copier le pouvoir « Pose » d'un oiseau avec un coût alternatif de nourriture, vous pouvez payer ce coût alternatif pour jouer cet oiseau, comme indiqué dans le pouvoir. (Aucun oiseau de cette extension n'a de coût alternatif, mais c'est le cas de certains oiseaux de l'extension Europe. Ces coûts alternatifs sont indiqués par un astérisque [*] à côté du coût en nourriture.)</t>
+  </si>
+  <si>
+    <t>Pour ce pouvoir, il n'est pas nécessaire que les oiseaux sur lesquels vous stockez de la nourriture aient eux-mêmes des pouvoirs de stockage de nourriture.
+Le nombre de jetons Nourriture à stocker indiqué sur la carte (« sur chaque oiseau de celle ligne » par exemple), est une limite, vous pouvez donc en stocker moins si vous le souhaitez.</t>
+  </si>
+  <si>
+    <t>Vous pouvez ignorer un symbole [wild] dans le coût en nourriture de l'oiseau au lieu d'ignorer 1 [invertebrate].</t>
+  </si>
+  <si>
+    <t>Lorsque vous utilisez le pouvoir de cet oiseau, vous êtes obligé de glisser les cartes sous celui-ci.</t>
+  </si>
+  <si>
+    <t>Chaque joueur peut défausser 2 ressources identiques (2 [wild] par exemple) ou 2 ressources différentes (par exemple 1 [wild] et 1 [egg]) pour piocher des cartes Bonus.
+Défaussez les [wild] de votre réserve personnelle et les [card] de votre main.
+Piochez 2 cartes Bonus, choisissez celle que vous souhaitez garder et défaussez l'autre. Si la pioche de cartes Bonus est épuisée, mélangez la défausse pour former une nouvelle pioche.
+EXTENSION OCÉANIE Si un joueur défausse un [nectar] pour piocher ses cartes Bonus, placez le jeton nectar sur la case « nectar dépensé » de son [wetland].</t>
+  </si>
+  <si>
+    <t>Si vous gagnez plus de 1 [fish], vous n'en gardez tout de même qu'un.</t>
+  </si>
+  <si>
+    <t>Vous pouvez ignorer un symbole [wild] dans le coût en nourriture de l'oiseau au lieu d'ignorer 1 [seed].</t>
+  </si>
+  <si>
+    <t>Lorsque vous utilisez le pouvoir de cet oiseau, vous êtes obligé de glisser les cartes sous celui-ci.
+Vous pouvez glisser des cartes que vous aviez déjà en main avant d'en piocher lors de l'activation du pouvoir.</t>
+  </si>
+  <si>
+    <t>Vous pouvez appliquer ce pouvoir aux [invertebrate] gagnés avant ou après avoir activé le Gobemouche vert-de-gris. Cpendant vous ne pouvez utiliser ce pouvoir qu'une seule fois par tour, et donc gagner un seul [fruit] quel que soit le nombre de [invertebrate] gagnés.</t>
+  </si>
+  <si>
+    <t>Si tous les dés de la mangeoire sont sur la même face, vous pouvez les relancer avant de gagner [nourriture spécifique]. Si la mangeoire ne contient aucun dé avec [nourriture spécifique], vous ne gagnez rien.</t>
+  </si>
+  <si>
+    <t>Piochez 3 cartes Bonus, choisissez celle que vous souhaitez garder et défaussez les autres. Si la pioche de cartes Bonus est épuisée, mélangez la défausse pour former une nouvelle pioche.</t>
+  </si>
+  <si>
+    <t>N'oubliez pas : les cartes du plateau ne doivent jamais être déplacées (que ce soit vers la droite ou vers la gauche) lorsque vous en piochez une. Si l'emplacement du milieu est vide, ce pouvoir ne s'active pas.</t>
+  </si>
+  <si>
+    <t>Si vous défaussez un [seed], vous pouvez pondre l'[egg] sur n'importe quel oiseau, pas forcément sur la Géopélie zébrée.</t>
+  </si>
 </sst>
 </file>
 
@@ -5658,7 +6397,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;PRAWDA&quot;;&quot;PRAWDA&quot;;&quot;FAŁSZ&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5701,6 +6440,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -6033,22 +6779,26 @@
   <dimension ref="A1:K447"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C174" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C443" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A219" sqref="A219"/>
-      <selection pane="bottomRight" activeCell="F178" sqref="F178"/>
+      <selection pane="bottomRight" activeCell="F444" sqref="F444"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.86328125" customWidth="1"/>
-    <col min="3" max="3" width="26.1328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" customWidth="1"/>
-    <col min="5" max="5" width="26.1328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.73046875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="54.1328125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.1328125" style="1"/>
+    <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="54.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" customHeight="1">
@@ -15855,7 +16605,7 @@
       <c r="J357" s="3"/>
       <c r="K357" s="3"/>
     </row>
-    <row r="358" spans="1:11">
+    <row r="358" spans="1:11" ht="30">
       <c r="A358" s="1">
         <v>358</v>
       </c>
@@ -15868,8 +16618,14 @@
       <c r="D358" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="359" spans="1:11">
+      <c r="E358" s="1" t="s">
+        <v>1833</v>
+      </c>
+      <c r="F358" s="2" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" ht="150">
       <c r="A359" s="1">
         <v>359</v>
       </c>
@@ -15882,8 +16638,17 @@
       <c r="D359" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="360" spans="1:11">
+      <c r="E359" s="1" t="s">
+        <v>1834</v>
+      </c>
+      <c r="F359" s="2" t="s">
+        <v>1828</v>
+      </c>
+      <c r="G359" s="2" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" ht="30">
       <c r="A360" s="1">
         <v>360</v>
       </c>
@@ -15896,8 +16661,17 @@
       <c r="D360" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="361" spans="1:11">
+      <c r="E360" s="1" t="s">
+        <v>1835</v>
+      </c>
+      <c r="F360" s="2" t="s">
+        <v>1830</v>
+      </c>
+      <c r="K360" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" ht="45">
       <c r="A361" s="1">
         <v>361</v>
       </c>
@@ -15910,8 +16684,14 @@
       <c r="D361" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="362" spans="1:11">
+      <c r="E361" s="1" t="s">
+        <v>1836</v>
+      </c>
+      <c r="F361" s="2" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" ht="45">
       <c r="A362" s="1">
         <v>362</v>
       </c>
@@ -15924,8 +16704,14 @@
       <c r="D362" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="363" spans="1:11">
+      <c r="E362" s="1" t="s">
+        <v>1837</v>
+      </c>
+      <c r="F362" s="2" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" ht="75">
       <c r="A363" s="1">
         <v>363</v>
       </c>
@@ -15938,8 +16724,20 @@
       <c r="D363" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="364" spans="1:11">
+      <c r="E363" s="2" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F363" s="2" t="s">
+        <v>1841</v>
+      </c>
+      <c r="G363" s="2" t="s">
+        <v>1842</v>
+      </c>
+      <c r="K363" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" ht="30">
       <c r="A364" s="1">
         <v>364</v>
       </c>
@@ -15952,8 +16750,17 @@
       <c r="D364" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="365" spans="1:11">
+      <c r="E364" s="1" t="s">
+        <v>1838</v>
+      </c>
+      <c r="F364" s="2" t="s">
+        <v>1832</v>
+      </c>
+      <c r="K364" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" ht="60">
       <c r="A365" s="1">
         <v>365</v>
       </c>
@@ -15966,8 +16773,23 @@
       <c r="D365" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="366" spans="1:11">
+      <c r="E365" s="1" t="s">
+        <v>1843</v>
+      </c>
+      <c r="F365" s="2" t="s">
+        <v>1844</v>
+      </c>
+      <c r="G365" s="2" t="s">
+        <v>1845</v>
+      </c>
+      <c r="I365" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K365" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" ht="105">
       <c r="A366" s="1">
         <v>366</v>
       </c>
@@ -15980,8 +16802,20 @@
       <c r="D366" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="367" spans="1:11">
+      <c r="E366" s="1" t="s">
+        <v>1846</v>
+      </c>
+      <c r="F366" s="2" t="s">
+        <v>1847</v>
+      </c>
+      <c r="G366" s="2" t="s">
+        <v>1848</v>
+      </c>
+      <c r="K366" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" ht="225">
       <c r="A367" s="1">
         <v>367</v>
       </c>
@@ -15994,8 +16828,20 @@
       <c r="D367" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="368" spans="1:11">
+      <c r="E367" s="1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F367" s="2" t="s">
+        <v>1850</v>
+      </c>
+      <c r="G367" s="2" t="s">
+        <v>1851</v>
+      </c>
+      <c r="K367" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" ht="75">
       <c r="A368" s="1">
         <v>368</v>
       </c>
@@ -16008,8 +16854,20 @@
       <c r="D368" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="369" spans="1:4">
+      <c r="E368" s="1" t="s">
+        <v>1852</v>
+      </c>
+      <c r="F368" s="2" t="s">
+        <v>1853</v>
+      </c>
+      <c r="G368" s="2" t="s">
+        <v>1854</v>
+      </c>
+      <c r="I368" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" ht="120">
       <c r="A369" s="1">
         <v>369</v>
       </c>
@@ -16022,8 +16880,20 @@
       <c r="D369" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="370" spans="1:4">
+      <c r="E369" s="1" t="s">
+        <v>1855</v>
+      </c>
+      <c r="F369" s="2" t="s">
+        <v>1856</v>
+      </c>
+      <c r="G369" s="2" t="s">
+        <v>1857</v>
+      </c>
+      <c r="K369" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" ht="105">
       <c r="A370" s="1">
         <v>370</v>
       </c>
@@ -16036,8 +16906,20 @@
       <c r="D370" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="371" spans="1:4">
+      <c r="E370" s="1" t="s">
+        <v>1858</v>
+      </c>
+      <c r="F370" s="2" t="s">
+        <v>1859</v>
+      </c>
+      <c r="G370" s="2" t="s">
+        <v>1860</v>
+      </c>
+      <c r="K370" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" ht="30">
       <c r="A371" s="1">
         <v>371</v>
       </c>
@@ -16050,8 +16932,17 @@
       <c r="D371" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="372" spans="1:4">
+      <c r="E371" s="1" t="s">
+        <v>1861</v>
+      </c>
+      <c r="F371" s="2" t="s">
+        <v>1862</v>
+      </c>
+      <c r="I371" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" ht="45">
       <c r="A372" s="1">
         <v>372</v>
       </c>
@@ -16064,8 +16955,17 @@
       <c r="D372" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="373" spans="1:4">
+      <c r="E372" s="1" t="s">
+        <v>1863</v>
+      </c>
+      <c r="F372" s="2" t="s">
+        <v>1864</v>
+      </c>
+      <c r="G372" s="2" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" ht="45">
       <c r="A373" s="1">
         <v>373</v>
       </c>
@@ -16078,8 +16978,14 @@
       <c r="D373" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="374" spans="1:4">
+      <c r="E373" s="1" t="s">
+        <v>1865</v>
+      </c>
+      <c r="F373" s="2" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" ht="90">
       <c r="A374" s="1">
         <v>374</v>
       </c>
@@ -16092,8 +16998,17 @@
       <c r="D374" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="375" spans="1:4">
+      <c r="E374" s="1" t="s">
+        <v>1867</v>
+      </c>
+      <c r="F374" s="2" t="s">
+        <v>1868</v>
+      </c>
+      <c r="G374" s="2" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" ht="45">
       <c r="A375" s="1">
         <v>375</v>
       </c>
@@ -16106,8 +17021,17 @@
       <c r="D375" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="376" spans="1:4">
+      <c r="E375" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="F375" s="2" t="s">
+        <v>1872</v>
+      </c>
+      <c r="G375" s="2" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" ht="60">
       <c r="A376" s="1">
         <v>376</v>
       </c>
@@ -16120,8 +17044,23 @@
       <c r="D376" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="377" spans="1:4">
+      <c r="E376" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="F376" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="G376" s="2" t="s">
+        <v>1875</v>
+      </c>
+      <c r="H376" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K376" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" ht="210">
       <c r="A377" s="1">
         <v>377</v>
       </c>
@@ -16134,8 +17073,20 @@
       <c r="D377" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="378" spans="1:4">
+      <c r="E377" s="1" t="s">
+        <v>1876</v>
+      </c>
+      <c r="F377" s="2" t="s">
+        <v>1877</v>
+      </c>
+      <c r="G377" s="2" t="s">
+        <v>1878</v>
+      </c>
+      <c r="I377" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" ht="30">
       <c r="A378" s="1">
         <v>378</v>
       </c>
@@ -16148,8 +17099,20 @@
       <c r="D378" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="379" spans="1:4">
+      <c r="E378" s="1" t="s">
+        <v>1879</v>
+      </c>
+      <c r="F378" s="2" t="s">
+        <v>1880</v>
+      </c>
+      <c r="G378" s="2" t="s">
+        <v>1881</v>
+      </c>
+      <c r="H378" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" ht="30">
       <c r="A379" s="1">
         <v>379</v>
       </c>
@@ -16162,8 +17125,17 @@
       <c r="D379" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="380" spans="1:4">
+      <c r="E379" s="1" t="s">
+        <v>1882</v>
+      </c>
+      <c r="F379" s="2" t="s">
+        <v>1883</v>
+      </c>
+      <c r="I379" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" ht="75">
       <c r="A380" s="1">
         <v>380</v>
       </c>
@@ -16176,8 +17148,20 @@
       <c r="D380" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="381" spans="1:4">
+      <c r="E380" s="1" t="s">
+        <v>1884</v>
+      </c>
+      <c r="F380" s="2" t="s">
+        <v>1885</v>
+      </c>
+      <c r="G380" s="2" t="s">
+        <v>1886</v>
+      </c>
+      <c r="I380" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" ht="30">
       <c r="A381" s="1">
         <v>381</v>
       </c>
@@ -16190,8 +17174,14 @@
       <c r="D381" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="382" spans="1:4">
+      <c r="E381" s="1" t="s">
+        <v>1887</v>
+      </c>
+      <c r="F381" s="2" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" ht="375">
       <c r="A382" s="1">
         <v>382</v>
       </c>
@@ -16204,8 +17194,20 @@
       <c r="D382" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="383" spans="1:4">
+      <c r="E382" s="1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="F382" s="2" t="s">
+        <v>1890</v>
+      </c>
+      <c r="G382" s="2" t="s">
+        <v>1891</v>
+      </c>
+      <c r="I382" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" ht="105">
       <c r="A383" s="1">
         <v>383</v>
       </c>
@@ -16218,8 +17220,17 @@
       <c r="D383" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="384" spans="1:4">
+      <c r="E383" s="1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F383" s="2" t="s">
+        <v>1893</v>
+      </c>
+      <c r="G383" s="2" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" ht="45">
       <c r="A384" s="1">
         <v>384</v>
       </c>
@@ -16232,8 +17243,17 @@
       <c r="D384" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="385" spans="1:4">
+      <c r="E384" s="1" t="s">
+        <v>1895</v>
+      </c>
+      <c r="F384" s="2" t="s">
+        <v>1896</v>
+      </c>
+      <c r="G384" s="2" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" ht="375">
       <c r="A385" s="1">
         <v>385</v>
       </c>
@@ -16246,8 +17266,20 @@
       <c r="D385" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="386" spans="1:4">
+      <c r="E385" s="1" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F385" s="2" t="s">
+        <v>1890</v>
+      </c>
+      <c r="G385" s="2" t="s">
+        <v>1891</v>
+      </c>
+      <c r="I385" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" ht="105">
       <c r="A386" s="1">
         <v>386</v>
       </c>
@@ -16260,8 +17292,20 @@
       <c r="D386" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="387" spans="1:4">
+      <c r="E386" s="1" t="s">
+        <v>1899</v>
+      </c>
+      <c r="F386" s="2" t="s">
+        <v>1900</v>
+      </c>
+      <c r="G386" s="2" t="s">
+        <v>1901</v>
+      </c>
+      <c r="I386" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" ht="45">
       <c r="A387" s="1">
         <v>387</v>
       </c>
@@ -16274,8 +17318,20 @@
       <c r="D387" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="388" spans="1:4">
+      <c r="E387" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F387" s="2" t="s">
+        <v>1903</v>
+      </c>
+      <c r="H387" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K387" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" ht="225">
       <c r="A388" s="1">
         <v>388</v>
       </c>
@@ -16288,8 +17344,17 @@
       <c r="D388" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="389" spans="1:4">
+      <c r="E388" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F388" s="2" t="s">
+        <v>1905</v>
+      </c>
+      <c r="G388" s="2" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" ht="30">
       <c r="A389" s="1">
         <v>389</v>
       </c>
@@ -16302,8 +17367,20 @@
       <c r="D389" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="390" spans="1:4">
+      <c r="E389" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="F389" s="2" t="s">
+        <v>1907</v>
+      </c>
+      <c r="G389" s="2" t="s">
+        <v>1908</v>
+      </c>
+      <c r="K389" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" ht="30">
       <c r="A390" s="1">
         <v>390</v>
       </c>
@@ -16316,8 +17393,17 @@
       <c r="D390" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="391" spans="1:4">
+      <c r="E390" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="F390" s="2" t="s">
+        <v>1910</v>
+      </c>
+      <c r="G390" s="2" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" ht="60">
       <c r="A391" s="1">
         <v>391</v>
       </c>
@@ -16330,8 +17416,20 @@
       <c r="D391" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="392" spans="1:4">
+      <c r="E391" s="1" t="s">
+        <v>1912</v>
+      </c>
+      <c r="F391" s="2" t="s">
+        <v>1913</v>
+      </c>
+      <c r="G391" s="2" t="s">
+        <v>1914</v>
+      </c>
+      <c r="K391" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" ht="30">
       <c r="A392" s="1">
         <v>392</v>
       </c>
@@ -16344,8 +17442,20 @@
       <c r="D392" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="393" spans="1:4">
+      <c r="E392" s="1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="F392" s="2" t="s">
+        <v>1916</v>
+      </c>
+      <c r="G392" s="2" t="s">
+        <v>1917</v>
+      </c>
+      <c r="I392" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" ht="75">
       <c r="A393" s="1">
         <v>393</v>
       </c>
@@ -16358,8 +17468,14 @@
       <c r="D393" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="394" spans="1:4">
+      <c r="E393" s="1" t="s">
+        <v>1918</v>
+      </c>
+      <c r="F393" s="2" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" ht="60">
       <c r="A394" s="1">
         <v>394</v>
       </c>
@@ -16372,8 +17488,17 @@
       <c r="D394" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="395" spans="1:4">
+      <c r="E394" s="1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="F394" s="2" t="s">
+        <v>1921</v>
+      </c>
+      <c r="H394" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" ht="75">
       <c r="A395" s="1">
         <v>395</v>
       </c>
@@ -16386,8 +17511,23 @@
       <c r="D395" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="396" spans="1:4">
+      <c r="E395" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="F395" s="2" t="s">
+        <v>1923</v>
+      </c>
+      <c r="G395" s="2" t="s">
+        <v>1924</v>
+      </c>
+      <c r="H395" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K395" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" ht="60">
       <c r="A396" s="1">
         <v>396</v>
       </c>
@@ -16400,8 +17540,17 @@
       <c r="D396" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="397" spans="1:4">
+      <c r="E396" s="1" t="s">
+        <v>1925</v>
+      </c>
+      <c r="F396" s="2" t="s">
+        <v>1926</v>
+      </c>
+      <c r="G396" s="2" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" ht="105">
       <c r="A397" s="1">
         <v>397</v>
       </c>
@@ -16414,8 +17563,17 @@
       <c r="D397" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="398" spans="1:4">
+      <c r="E397" s="1" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F397" s="2" t="s">
+        <v>1928</v>
+      </c>
+      <c r="G397" s="2" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" ht="45">
       <c r="A398" s="1">
         <v>398</v>
       </c>
@@ -16428,8 +17586,17 @@
       <c r="D398" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="399" spans="1:4">
+      <c r="E398" s="1" t="s">
+        <v>1930</v>
+      </c>
+      <c r="F398" s="2" t="s">
+        <v>1931</v>
+      </c>
+      <c r="K398" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11">
       <c r="A399" s="1">
         <v>399</v>
       </c>
@@ -16442,8 +17609,20 @@
       <c r="D399" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="400" spans="1:4">
+      <c r="E399" s="1" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F399" s="2" t="s">
+        <v>1933</v>
+      </c>
+      <c r="G399" s="2" t="s">
+        <v>1934</v>
+      </c>
+      <c r="K399" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" ht="30">
       <c r="A400" s="1">
         <v>400</v>
       </c>
@@ -16456,8 +17635,17 @@
       <c r="D400" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="401" spans="1:4">
+      <c r="E400" s="1" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F400" s="2" t="s">
+        <v>1936</v>
+      </c>
+      <c r="G400" s="2" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" ht="120">
       <c r="A401" s="1">
         <v>401</v>
       </c>
@@ -16470,8 +17658,20 @@
       <c r="D401" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="402" spans="1:4">
+      <c r="E401" s="1" t="s">
+        <v>1938</v>
+      </c>
+      <c r="F401" s="2" t="s">
+        <v>1939</v>
+      </c>
+      <c r="G401" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="I401" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" ht="45">
       <c r="A402" s="1">
         <v>402</v>
       </c>
@@ -16484,8 +17684,20 @@
       <c r="D402" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="403" spans="1:4">
+      <c r="E402" s="1" t="s">
+        <v>1940</v>
+      </c>
+      <c r="F402" s="2" t="s">
+        <v>1941</v>
+      </c>
+      <c r="H402" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I402" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" ht="30">
       <c r="A403" s="1">
         <v>403</v>
       </c>
@@ -16498,8 +17710,20 @@
       <c r="D403" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="404" spans="1:4">
+      <c r="E403" s="1" t="s">
+        <v>1942</v>
+      </c>
+      <c r="F403" s="2" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G403" s="2" t="s">
+        <v>1944</v>
+      </c>
+      <c r="K403" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" ht="105">
       <c r="A404" s="1">
         <v>404</v>
       </c>
@@ -16512,8 +17736,20 @@
       <c r="D404" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="405" spans="1:4">
+      <c r="E404" s="1" t="s">
+        <v>1945</v>
+      </c>
+      <c r="F404" s="2" t="s">
+        <v>1946</v>
+      </c>
+      <c r="G404" s="2" t="s">
+        <v>1929</v>
+      </c>
+      <c r="I404" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" ht="120">
       <c r="A405" s="1">
         <v>405</v>
       </c>
@@ -16526,8 +17762,20 @@
       <c r="D405" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="406" spans="1:4">
+      <c r="E405" s="1" t="s">
+        <v>1947</v>
+      </c>
+      <c r="F405" s="2" t="s">
+        <v>1948</v>
+      </c>
+      <c r="G405" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="H405" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" ht="45">
       <c r="A406" s="1">
         <v>406</v>
       </c>
@@ -16540,8 +17788,14 @@
       <c r="D406" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="407" spans="1:4">
+      <c r="E406" s="1" t="s">
+        <v>1949</v>
+      </c>
+      <c r="F406" s="2" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" ht="45">
       <c r="A407" s="1">
         <v>407</v>
       </c>
@@ -16554,8 +17808,14 @@
       <c r="D407" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="408" spans="1:4">
+      <c r="E407" s="1" t="s">
+        <v>1950</v>
+      </c>
+      <c r="F407" s="2" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" ht="30">
       <c r="A408" s="1">
         <v>408</v>
       </c>
@@ -16568,8 +17828,14 @@
       <c r="D408" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="409" spans="1:4">
+      <c r="E408" s="1" t="s">
+        <v>1952</v>
+      </c>
+      <c r="F408" s="2" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" ht="45">
       <c r="A409" s="1">
         <v>409</v>
       </c>
@@ -16582,8 +17848,17 @@
       <c r="D409" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="410" spans="1:4">
+      <c r="E409" s="1" t="s">
+        <v>1954</v>
+      </c>
+      <c r="F409" s="2" t="s">
+        <v>1955</v>
+      </c>
+      <c r="G409" s="2" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" ht="90">
       <c r="A410" s="1">
         <v>410</v>
       </c>
@@ -16596,8 +17871,23 @@
       <c r="D410" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="411" spans="1:4">
+      <c r="E410" s="1" t="s">
+        <v>1957</v>
+      </c>
+      <c r="F410" s="2" t="s">
+        <v>1958</v>
+      </c>
+      <c r="G410" s="2" t="s">
+        <v>1959</v>
+      </c>
+      <c r="H410" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K410" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" ht="75">
       <c r="A411" s="1">
         <v>411</v>
       </c>
@@ -16610,8 +17900,17 @@
       <c r="D411" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="412" spans="1:4">
+      <c r="E411" s="1" t="s">
+        <v>1960</v>
+      </c>
+      <c r="F411" s="2" t="s">
+        <v>1961</v>
+      </c>
+      <c r="G411" s="2" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" ht="105">
       <c r="A412" s="1">
         <v>412</v>
       </c>
@@ -16624,8 +17923,17 @@
       <c r="D412" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="413" spans="1:4">
+      <c r="E412" s="1" t="s">
+        <v>1963</v>
+      </c>
+      <c r="F412" s="2" t="s">
+        <v>1964</v>
+      </c>
+      <c r="G412" s="2" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" ht="135">
       <c r="A413" s="1">
         <v>413</v>
       </c>
@@ -16638,8 +17946,20 @@
       <c r="D413" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="414" spans="1:4">
+      <c r="E413" s="1" t="s">
+        <v>1965</v>
+      </c>
+      <c r="F413" s="2" t="s">
+        <v>1966</v>
+      </c>
+      <c r="G413" s="2" t="s">
+        <v>1967</v>
+      </c>
+      <c r="I413" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" ht="75">
       <c r="A414" s="1">
         <v>414</v>
       </c>
@@ -16652,8 +17972,17 @@
       <c r="D414" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="415" spans="1:4">
+      <c r="E414" s="1" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F414" s="2" t="s">
+        <v>2002</v>
+      </c>
+      <c r="G414" s="2" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" ht="225">
       <c r="A415" s="1">
         <v>415</v>
       </c>
@@ -16666,8 +17995,20 @@
       <c r="D415" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="416" spans="1:4">
+      <c r="E415" s="1" t="s">
+        <v>1969</v>
+      </c>
+      <c r="F415" s="2" t="s">
+        <v>2005</v>
+      </c>
+      <c r="G415" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="K415" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" ht="30">
       <c r="A416" s="1">
         <v>416</v>
       </c>
@@ -16680,8 +18021,17 @@
       <c r="D416" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="417" spans="1:4">
+      <c r="E416" s="1" t="s">
+        <v>1970</v>
+      </c>
+      <c r="F416" s="2" t="s">
+        <v>2007</v>
+      </c>
+      <c r="K416" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" ht="45">
       <c r="A417" s="1">
         <v>417</v>
       </c>
@@ -16694,8 +18044,17 @@
       <c r="D417" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="418" spans="1:4">
+      <c r="E417" s="1" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F417" s="2" t="s">
+        <v>2008</v>
+      </c>
+      <c r="K417" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" ht="75">
       <c r="A418" s="1">
         <v>418</v>
       </c>
@@ -16708,8 +18067,23 @@
       <c r="D418" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="419" spans="1:4">
+      <c r="E418" s="1" t="s">
+        <v>1972</v>
+      </c>
+      <c r="F418" s="2" t="s">
+        <v>2009</v>
+      </c>
+      <c r="G418" s="2" t="s">
+        <v>1924</v>
+      </c>
+      <c r="H418" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K418" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" ht="30">
       <c r="A419" s="1">
         <v>419</v>
       </c>
@@ -16722,8 +18096,23 @@
       <c r="D419" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="420" spans="1:4">
+      <c r="E419" s="1" t="s">
+        <v>1973</v>
+      </c>
+      <c r="F419" s="2" t="s">
+        <v>2010</v>
+      </c>
+      <c r="G419" s="2" t="s">
+        <v>2039</v>
+      </c>
+      <c r="H419" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K419" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" ht="75">
       <c r="A420" s="1">
         <v>420</v>
       </c>
@@ -16736,8 +18125,17 @@
       <c r="D420" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="421" spans="1:4">
+      <c r="E420" s="1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="F420" s="2" t="s">
+        <v>2011</v>
+      </c>
+      <c r="I420" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" ht="165">
       <c r="A421" s="1">
         <v>421</v>
       </c>
@@ -16750,8 +18148,17 @@
       <c r="D421" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="422" spans="1:4">
+      <c r="E421" s="1" t="s">
+        <v>1975</v>
+      </c>
+      <c r="F421" s="2" t="s">
+        <v>2012</v>
+      </c>
+      <c r="G421" s="2" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" ht="45">
       <c r="A422" s="1">
         <v>422</v>
       </c>
@@ -16764,8 +18171,17 @@
       <c r="D422" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="423" spans="1:4">
+      <c r="E422" s="1" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F422" s="2" t="s">
+        <v>2013</v>
+      </c>
+      <c r="G422" s="2" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" ht="60">
       <c r="A423" s="1">
         <v>423</v>
       </c>
@@ -16778,8 +18194,14 @@
       <c r="D423" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="424" spans="1:4">
+      <c r="E423" s="1" t="s">
+        <v>1977</v>
+      </c>
+      <c r="F423" s="2" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" ht="330">
       <c r="A424" s="1">
         <v>424</v>
       </c>
@@ -16792,8 +18214,17 @@
       <c r="D424" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="425" spans="1:4">
+      <c r="E424" s="1" t="s">
+        <v>1978</v>
+      </c>
+      <c r="F424" s="2" t="s">
+        <v>2015</v>
+      </c>
+      <c r="G424" s="2" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" ht="45">
       <c r="A425" s="1">
         <v>425</v>
       </c>
@@ -16806,8 +18237,14 @@
       <c r="D425" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="426" spans="1:4">
+      <c r="E425" s="1" t="s">
+        <v>1979</v>
+      </c>
+      <c r="F425" s="2" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" ht="45">
       <c r="A426" s="1">
         <v>426</v>
       </c>
@@ -16820,8 +18257,17 @@
       <c r="D426" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="427" spans="1:4">
+      <c r="E426" s="1" t="s">
+        <v>1980</v>
+      </c>
+      <c r="F426" s="2" t="s">
+        <v>2017</v>
+      </c>
+      <c r="G426" s="2" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" ht="30">
       <c r="A427" s="1">
         <v>427</v>
       </c>
@@ -16834,8 +18280,14 @@
       <c r="D427" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="428" spans="1:4">
+      <c r="E427" s="1" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F427" s="2" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" ht="45">
       <c r="A428" s="1">
         <v>428</v>
       </c>
@@ -16848,8 +18300,14 @@
       <c r="D428" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="429" spans="1:4">
+      <c r="E428" s="1" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F428" s="2" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" ht="30">
       <c r="A429" s="1">
         <v>429</v>
       </c>
@@ -16862,8 +18320,14 @@
       <c r="D429" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="430" spans="1:4">
+      <c r="E429" s="1" t="s">
+        <v>1983</v>
+      </c>
+      <c r="F429" s="2" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" ht="45">
       <c r="A430" s="1">
         <v>430</v>
       </c>
@@ -16876,8 +18340,17 @@
       <c r="D430" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="431" spans="1:4">
+      <c r="E430" s="1" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F430" s="2" t="s">
+        <v>2021</v>
+      </c>
+      <c r="G430" s="2" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" ht="45">
       <c r="A431" s="1">
         <v>431</v>
       </c>
@@ -16890,8 +18363,17 @@
       <c r="D431" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="432" spans="1:4">
+      <c r="E431" s="1" t="s">
+        <v>1985</v>
+      </c>
+      <c r="F431" s="2" t="s">
+        <v>2022</v>
+      </c>
+      <c r="G431" s="2" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" ht="210">
       <c r="A432" s="1">
         <v>432</v>
       </c>
@@ -16904,8 +18386,17 @@
       <c r="D432" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="433" spans="1:4">
+      <c r="E432" s="1" t="s">
+        <v>1986</v>
+      </c>
+      <c r="F432" s="2" t="s">
+        <v>1877</v>
+      </c>
+      <c r="G432" s="2" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" ht="105">
       <c r="A433" s="1">
         <v>433</v>
       </c>
@@ -16918,8 +18409,17 @@
       <c r="D433" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="434" spans="1:4">
+      <c r="E433" s="1" t="s">
+        <v>1987</v>
+      </c>
+      <c r="F433" s="2" t="s">
+        <v>2023</v>
+      </c>
+      <c r="G433" s="2" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" ht="120">
       <c r="A434" s="1">
         <v>434</v>
       </c>
@@ -16932,8 +18432,23 @@
       <c r="D434" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="435" spans="1:4">
+      <c r="E434" s="1" t="s">
+        <v>1988</v>
+      </c>
+      <c r="F434" s="2" t="s">
+        <v>2024</v>
+      </c>
+      <c r="G434" s="2" t="s">
+        <v>2043</v>
+      </c>
+      <c r="I434" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K434" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" ht="165">
       <c r="A435" s="1">
         <v>435</v>
       </c>
@@ -16946,8 +18461,20 @@
       <c r="D435" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="436" spans="1:4">
+      <c r="E435" s="1" t="s">
+        <v>1989</v>
+      </c>
+      <c r="F435" s="2" t="s">
+        <v>2025</v>
+      </c>
+      <c r="G435" s="2" t="s">
+        <v>2040</v>
+      </c>
+      <c r="I435" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" ht="75">
       <c r="A436" s="1">
         <v>436</v>
       </c>
@@ -16960,8 +18487,17 @@
       <c r="D436" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="437" spans="1:4">
+      <c r="E436" s="1" t="s">
+        <v>1990</v>
+      </c>
+      <c r="F436" s="2" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G436" s="2" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" ht="45">
       <c r="A437" s="1">
         <v>437</v>
       </c>
@@ -16974,8 +18510,17 @@
       <c r="D437" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="438" spans="1:4">
+      <c r="E437" s="1" t="s">
+        <v>1991</v>
+      </c>
+      <c r="F437" s="2" t="s">
+        <v>2027</v>
+      </c>
+      <c r="G437" s="2" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" ht="75">
       <c r="A438" s="1">
         <v>438</v>
       </c>
@@ -16988,8 +18533,23 @@
       <c r="D438" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="439" spans="1:4">
+      <c r="E438" s="1" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F438" s="2" t="s">
+        <v>2028</v>
+      </c>
+      <c r="G438" s="2" t="s">
+        <v>2049</v>
+      </c>
+      <c r="H438" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K438" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" ht="75">
       <c r="A439" s="1">
         <v>439</v>
       </c>
@@ -17002,8 +18562,20 @@
       <c r="D439" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="440" spans="1:4">
+      <c r="E439" s="1" t="s">
+        <v>1993</v>
+      </c>
+      <c r="F439" s="2" t="s">
+        <v>2029</v>
+      </c>
+      <c r="G439" s="2" t="s">
+        <v>2050</v>
+      </c>
+      <c r="K439" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" ht="150">
       <c r="A440" s="1">
         <v>440</v>
       </c>
@@ -17016,8 +18588,20 @@
       <c r="D440" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="441" spans="1:4">
+      <c r="E440" s="1" t="s">
+        <v>1994</v>
+      </c>
+      <c r="F440" s="2" t="s">
+        <v>2030</v>
+      </c>
+      <c r="G440" s="2" t="s">
+        <v>1829</v>
+      </c>
+      <c r="K440" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" ht="75">
       <c r="A441" s="1">
         <v>441</v>
       </c>
@@ -17030,8 +18614,23 @@
       <c r="D441" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="442" spans="1:4">
+      <c r="E441" s="1" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F441" s="2" t="s">
+        <v>2031</v>
+      </c>
+      <c r="G441" s="2" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H441" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K441" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" ht="60">
       <c r="A442" s="1">
         <v>442</v>
       </c>
@@ -17044,8 +18643,23 @@
       <c r="D442" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="443" spans="1:4">
+      <c r="E442" s="1" t="s">
+        <v>1996</v>
+      </c>
+      <c r="F442" s="2" t="s">
+        <v>2032</v>
+      </c>
+      <c r="G442" s="2" t="s">
+        <v>2051</v>
+      </c>
+      <c r="H442" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K442" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" ht="60">
       <c r="A443" s="1">
         <v>443</v>
       </c>
@@ -17058,8 +18672,23 @@
       <c r="D443" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="444" spans="1:4">
+      <c r="E443" s="1" t="s">
+        <v>1997</v>
+      </c>
+      <c r="F443" s="2" t="s">
+        <v>2033</v>
+      </c>
+      <c r="G443" s="2" t="s">
+        <v>2052</v>
+      </c>
+      <c r="H443" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K443" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" ht="225">
       <c r="A444" s="1">
         <v>444</v>
       </c>
@@ -17072,8 +18701,23 @@
       <c r="D444" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="445" spans="1:4">
+      <c r="E444" s="1" t="s">
+        <v>1998</v>
+      </c>
+      <c r="F444" s="2" t="s">
+        <v>2034</v>
+      </c>
+      <c r="G444" s="2" t="s">
+        <v>2006</v>
+      </c>
+      <c r="H444" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K444" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" ht="60">
       <c r="A445" s="1">
         <v>445</v>
       </c>
@@ -17086,8 +18730,17 @@
       <c r="D445" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="446" spans="1:4">
+      <c r="E445" s="1" t="s">
+        <v>1999</v>
+      </c>
+      <c r="F445" s="2" t="s">
+        <v>2035</v>
+      </c>
+      <c r="G445" s="2" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" ht="60">
       <c r="A446" s="1">
         <v>446</v>
       </c>
@@ -17100,8 +18753,20 @@
       <c r="D446" s="1" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="447" spans="1:4">
+      <c r="E446" s="1" t="s">
+        <v>2000</v>
+      </c>
+      <c r="F446" s="2" t="s">
+        <v>2036</v>
+      </c>
+      <c r="G446" s="2" t="s">
+        <v>2053</v>
+      </c>
+      <c r="I446" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" ht="45">
       <c r="A447" s="1">
         <v>447</v>
       </c>
@@ -17113,11 +18778,23 @@
       </c>
       <c r="D447" s="1" t="s">
         <v>1379</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>2001</v>
+      </c>
+      <c r="F447" s="2" t="s">
+        <v>2037</v>
+      </c>
+      <c r="G447" s="2" t="s">
+        <v>2054</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0078D7 C1 - Interne</oddFooter>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -17129,23 +18806,23 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D51" activeCellId="1" sqref="B2 D51"/>
+      <selection pane="bottomRight" activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="32" style="1" customWidth="1"/>
-    <col min="5" max="5" width="44.1328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="106.1328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="86.73046875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.73046875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1328125" style="1"/>
+    <col min="5" max="5" width="44.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="106.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="86.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1">
@@ -17888,7 +19565,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="28.5">
+    <row r="35" spans="1:8" ht="30">
       <c r="A35">
         <v>1034</v>
       </c>
@@ -17908,7 +19585,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="28.5">
+    <row r="36" spans="1:8" ht="30">
       <c r="A36">
         <v>1035</v>
       </c>
@@ -17928,7 +19605,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15.75">
+    <row r="37" spans="1:8" ht="30">
       <c r="A37">
         <v>1036</v>
       </c>
@@ -17974,7 +19651,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="28.5">
+    <row r="39" spans="1:8" ht="30">
       <c r="A39">
         <v>1038</v>
       </c>
@@ -18274,6 +19951,9 @@
       <c r="C52" s="15" t="s">
         <v>1379</v>
       </c>
+      <c r="D52" s="1" t="s">
+        <v>2038</v>
+      </c>
       <c r="G52" s="11" t="s">
         <v>1763</v>
       </c>
@@ -18290,6 +19970,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0078D7 C1 - Interne</oddFooter>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -18301,20 +19984,20 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C2" activeCellId="1" sqref="B2 C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
     <col min="2" max="2" width="46" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" customWidth="1"/>
-    <col min="4" max="4" width="49.73046875" customWidth="1"/>
-    <col min="5" max="5" width="51.265625" customWidth="1"/>
-    <col min="6" max="6" width="19.265625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="49.7109375" customWidth="1"/>
+    <col min="5" max="5" width="51.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
@@ -18951,7 +20634,7 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;KffffffStrona &amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;KffffffStrona &amp;P_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0078D7 C1 - Interne</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -18965,11 +20648,11 @@
       <selection pane="bottomLeft" activeCellId="1" sqref="B2 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1328125" style="1"/>
+    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
@@ -19031,6 +20714,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0078D7 C1 - Interne</oddFooter>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -19046,10 +20732,10 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="11.53125" style="16"/>
+    <col min="2" max="2" width="11.5703125" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -19075,7 +20761,13 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;KffffffStrona &amp;P</oddFooter>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;KffffffStrona &amp;P_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0078D7 C1 - Interne</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{ee0428da-ac0f-4a84-a429-a80e20cb35de}" enabled="1" method="Standard" siteId="{80c03608-5f64-40bb-9c70-9394abe6011c}" contentBits="2" removed="0"/>
+</clbl:labelList>
 </file>
--- a/i18n/fr.xlsx
+++ b/i18n/fr.xlsx
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Goals!$A$1:$F$47</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Parameters!$A$1:$B$2</definedName>
-    <definedName name="ExternalData_1" localSheetId="0">Birds!$A$1:$G$357</definedName>
+    <definedName name="ExternalData_1" localSheetId="0">Birds!$A$1:$H$357</definedName>
     <definedName name="ExternalData_2" localSheetId="1">Bonuses!$A$1:$H$39</definedName>
   </definedNames>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3265" uniqueCount="2054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3266" uniqueCount="2055">
   <si>
     <t>id</t>
   </si>
@@ -6385,6 +6385,9 @@
   <si>
     <t>Ces oiseaux sont capable de vivre dans des habitats variés, et leur pouvoir leur permet de se déplacer d’un habitat à un autre, mais seulement s’ils sont le dernier oiseau dans cette ligne. (Ils peuvent se trouver dans n’importe quelle colonne.) Ceci peut être très utile pour augmenter vos capacités dans plusieurs habitats et pour les Objectifs de fin de manche. Veillez à ne pas jouer d’autres oiseaux à la droite de ceux-ci, sinon vous ne pourrez plus utiliser leur pouvoir!</t>
   </si>
+  <si>
+    <t>Flavor text</t>
+  </si>
 </sst>
 </file>
 
@@ -6393,7 +6396,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;PRAWDA&quot;;&quot;PRAWDA&quot;;&quot;FAŁSZ&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -6450,6 +6453,12 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -6488,7 +6497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6539,11 +6548,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -6625,15 +6639,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="birds" displayName="birds" ref="A1:K357" totalsRowShown="0">
-  <autoFilter ref="A1:K357"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="birds" displayName="birds" ref="A1:L357" totalsRowShown="0">
+  <autoFilter ref="A1:L357"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="English name"/>
     <tableColumn id="3" name="Scientific name"/>
     <tableColumn id="4" name="Expansion"/>
     <tableColumn id="5" name="Common name"/>
     <tableColumn id="6" name="Power text"/>
+    <tableColumn id="12" name="Flavor text" dataDxfId="0"/>
     <tableColumn id="7" name="Note"/>
     <tableColumn id="8" name="Anatomist"/>
     <tableColumn id="9" name="Cartographer"/>
@@ -6782,13 +6797,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K447"/>
+  <dimension ref="A1:L447"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C257" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A219" sqref="A219"/>
-      <selection pane="bottomRight" activeCell="G260" sqref="G260"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6798,16 +6813,16 @@
     <col min="3" max="3" width="26.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="26.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="54.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="7" width="43.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="54.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" customHeight="1">
+    <row r="1" spans="1:12" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6826,23 +6841,26 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="20" t="s">
+        <v>2054</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="102" customHeight="1">
+    <row r="2" spans="1:12" ht="102" customHeight="1">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -6861,15 +6879,15 @@
       <c r="F2" s="2" t="s">
         <v>1934</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>1935</v>
       </c>
-      <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" ht="102" customHeight="1">
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" ht="102" customHeight="1">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -6888,17 +6906,17 @@
       <c r="F3" s="2" t="s">
         <v>1936</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>2027</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" ht="102" customHeight="1">
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="102" customHeight="1">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -6917,17 +6935,18 @@
       <c r="F4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
         <v>1937</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" ht="102" customHeight="1">
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="102" customHeight="1">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -6946,17 +6965,17 @@
       <c r="F5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" ht="102" customHeight="1">
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="102" customHeight="1">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -6975,17 +6994,17 @@
       <c r="F6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" ht="102" customHeight="1">
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="102" customHeight="1">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -7004,14 +7023,14 @@
       <c r="F7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="102" customHeight="1">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="102" customHeight="1">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -7030,17 +7049,17 @@
       <c r="F8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" ht="102" customHeight="1">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" ht="102" customHeight="1">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -7059,17 +7078,18 @@
       <c r="F9" s="4" t="s">
         <v>1933</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" ht="102" customHeight="1">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" ht="102" customHeight="1">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -7088,15 +7108,15 @@
       <c r="F10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" ht="102" customHeight="1">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" ht="102" customHeight="1">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -7115,17 +7135,17 @@
       <c r="F11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" ht="102" customHeight="1">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="102" customHeight="1">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -7144,17 +7164,17 @@
       <c r="F12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" ht="102" customHeight="1">
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="102" customHeight="1">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -7170,14 +7190,14 @@
       <c r="E13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" ht="102" customHeight="1">
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" ht="102" customHeight="1">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -7196,17 +7216,17 @@
       <c r="F14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" ht="102" customHeight="1">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" ht="102" customHeight="1">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -7225,17 +7245,17 @@
       <c r="F15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" ht="102" customHeight="1">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" ht="102" customHeight="1">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -7254,19 +7274,19 @@
       <c r="F16" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="102" customHeight="1">
+      <c r="K16" s="3"/>
+      <c r="L16" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="102" customHeight="1">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -7285,15 +7305,15 @@
       <c r="F17" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" ht="102" customHeight="1">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" ht="102" customHeight="1">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -7312,14 +7332,14 @@
       <c r="F18" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" ht="102" customHeight="1">
+      <c r="J18" s="3"/>
+      <c r="K18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" ht="102" customHeight="1">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -7338,14 +7358,14 @@
       <c r="F19" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" ht="102" customHeight="1">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" ht="102" customHeight="1">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -7364,16 +7384,16 @@
       <c r="F20" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="102" customHeight="1">
+      <c r="K20" s="3"/>
+      <c r="L20" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="102" customHeight="1">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -7392,14 +7412,14 @@
       <c r="F21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" ht="102" customHeight="1">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" ht="102" customHeight="1">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -7418,15 +7438,15 @@
       <c r="F22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" ht="102" customHeight="1">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" ht="102" customHeight="1">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -7445,15 +7465,16 @@
       <c r="F23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="4"/>
+      <c r="H23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" ht="102" customHeight="1">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" ht="102" customHeight="1">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -7472,15 +7493,15 @@
       <c r="F24" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" ht="102" customHeight="1">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" ht="102" customHeight="1">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -7499,17 +7520,18 @@
       <c r="F25" s="4" t="s">
         <v>1938</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4" t="s">
         <v>2027</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="1:11" ht="102" customHeight="1">
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" ht="102" customHeight="1">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -7528,17 +7550,18 @@
       <c r="F26" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" ht="102" customHeight="1">
+      <c r="J26" s="3"/>
+      <c r="K26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" ht="102" customHeight="1">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -7557,17 +7580,17 @@
       <c r="F27" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>2037</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="1:11" ht="102" customHeight="1">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" ht="102" customHeight="1">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -7586,17 +7609,18 @@
       <c r="F28" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4" t="s">
         <v>2053</v>
       </c>
-      <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" ht="102" customHeight="1">
+      <c r="J28" s="3"/>
+      <c r="K28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" ht="102" customHeight="1">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -7616,16 +7640,17 @@
         <v>127</v>
       </c>
       <c r="G29" s="4"/>
-      <c r="H29" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J29" s="3"/>
-      <c r="K29" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="102" customHeight="1">
+      <c r="K29" s="3"/>
+      <c r="L29" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="102" customHeight="1">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -7644,19 +7669,19 @@
       <c r="F30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" s="3"/>
+      <c r="I30" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J30" s="3"/>
-      <c r="K30" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="102" customHeight="1">
+      <c r="K30" s="3"/>
+      <c r="L30" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="102" customHeight="1">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -7675,17 +7700,18 @@
       <c r="F31" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="4"/>
+      <c r="H31" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="102" customHeight="1">
+      <c r="K31" s="3"/>
+      <c r="L31" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="102" customHeight="1">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -7704,17 +7730,17 @@
       <c r="F32" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="102" customHeight="1">
+      <c r="K32" s="3"/>
+      <c r="L32" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="102" customHeight="1">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -7733,17 +7759,17 @@
       <c r="F33" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-      <c r="K33" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="102" customHeight="1">
+      <c r="K33" s="3"/>
+      <c r="L33" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="102" customHeight="1">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -7762,19 +7788,20 @@
       <c r="F34" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="4"/>
+      <c r="H34" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" s="3"/>
+      <c r="I34" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J34" s="3"/>
-      <c r="K34" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="102" customHeight="1">
+      <c r="K34" s="3"/>
+      <c r="L34" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="102" customHeight="1">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -7793,17 +7820,17 @@
       <c r="F35" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="1:11" ht="102" customHeight="1">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" ht="102" customHeight="1">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -7822,16 +7849,16 @@
       <c r="F36" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="3"/>
+      <c r="I36" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J36" s="3"/>
-      <c r="K36" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="102" customHeight="1">
+      <c r="K36" s="3"/>
+      <c r="L36" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="102" customHeight="1">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -7850,17 +7877,18 @@
       <c r="F37" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="4"/>
+      <c r="H37" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
-      <c r="K37" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="102" customHeight="1">
+      <c r="K37" s="3"/>
+      <c r="L37" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="102" customHeight="1">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -7879,15 +7907,16 @@
       <c r="F38" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="4"/>
+      <c r="H38" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="1:11" ht="102" customHeight="1">
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:12" ht="102" customHeight="1">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -7906,17 +7935,18 @@
       <c r="F39" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="4"/>
+      <c r="H39" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="1:11" ht="102" customHeight="1">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:12" ht="102" customHeight="1">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -7935,19 +7965,20 @@
       <c r="F40" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="G40" s="4" t="s">
+      <c r="G40" s="4"/>
+      <c r="H40" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" s="3"/>
+      <c r="I40" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J40" s="3"/>
-      <c r="K40" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="102" customHeight="1">
+      <c r="K40" s="3"/>
+      <c r="L40" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="102" customHeight="1">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -7966,12 +7997,12 @@
       <c r="F41" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="1:11" ht="102" customHeight="1">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" ht="102" customHeight="1">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -7990,19 +8021,20 @@
       <c r="F42" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="G42" s="4"/>
+      <c r="H42" s="4" t="s">
         <v>2053</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I42" s="3"/>
+      <c r="I42" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J42" s="3"/>
-      <c r="K42" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="102" customHeight="1">
+      <c r="K42" s="3"/>
+      <c r="L42" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="102" customHeight="1">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -8021,17 +8053,17 @@
       <c r="F43" s="2" t="s">
         <v>1934</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>1935</v>
       </c>
-      <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
-      <c r="K43" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="102" customHeight="1">
+      <c r="K43" s="3"/>
+      <c r="L43" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="102" customHeight="1">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -8050,14 +8082,14 @@
       <c r="F44" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
-      <c r="K44" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="102" customHeight="1">
+      <c r="K44" s="3"/>
+      <c r="L44" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="102" customHeight="1">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -8073,16 +8105,16 @@
       <c r="E45" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I45" s="3"/>
+      <c r="I45" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J45" s="3"/>
-      <c r="K45" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="102" customHeight="1">
+      <c r="K45" s="3"/>
+      <c r="L45" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="102" customHeight="1">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -8102,14 +8134,15 @@
         <v>193</v>
       </c>
       <c r="G46" s="4"/>
-      <c r="H46" s="3"/>
+      <c r="H46" s="4"/>
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
-      <c r="K46" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="102" customHeight="1">
+      <c r="K46" s="3"/>
+      <c r="L46" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="102" customHeight="1">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -8128,17 +8161,17 @@
       <c r="F47" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="1:11" ht="102" customHeight="1">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="1:12" ht="102" customHeight="1">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -8157,17 +8190,18 @@
       <c r="F48" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="G48" s="4" t="s">
+      <c r="G48" s="4"/>
+      <c r="H48" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="1:11" ht="102" customHeight="1">
+      <c r="J48" s="3"/>
+      <c r="K48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" ht="102" customHeight="1">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -8186,12 +8220,12 @@
       <c r="F49" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="1:11" ht="102" customHeight="1">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="1:12" ht="102" customHeight="1">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -8211,14 +8245,15 @@
         <v>210</v>
       </c>
       <c r="G50" s="4"/>
-      <c r="H50" s="3"/>
+      <c r="H50" s="4"/>
       <c r="I50" s="3"/>
-      <c r="J50" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="1:11" ht="102" customHeight="1">
+      <c r="J50" s="3"/>
+      <c r="K50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="1:12" ht="102" customHeight="1">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -8237,15 +8272,15 @@
       <c r="F51" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="1:11" ht="102" customHeight="1">
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="1:12" ht="102" customHeight="1">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -8264,17 +8299,18 @@
       <c r="F52" s="4" t="s">
         <v>1939</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G52" s="4"/>
+      <c r="H52" s="4" t="s">
         <v>2027</v>
       </c>
-      <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
-      <c r="K52" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="102" customHeight="1">
+      <c r="K52" s="3"/>
+      <c r="L52" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="102" customHeight="1">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -8293,14 +8329,14 @@
       <c r="F53" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="102" customHeight="1">
+      <c r="K53" s="3"/>
+      <c r="L53" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="102" customHeight="1">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -8319,19 +8355,20 @@
       <c r="F54" s="4" t="s">
         <v>1939</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G54" s="4"/>
+      <c r="H54" s="4" t="s">
         <v>2027</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I54" s="3"/>
+      <c r="I54" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J54" s="3"/>
-      <c r="K54" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="102" customHeight="1">
+      <c r="K54" s="3"/>
+      <c r="L54" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="102" customHeight="1">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -8350,15 +8387,15 @@
       <c r="F55" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="1:11" ht="102" customHeight="1">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="1:12" ht="102" customHeight="1">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -8377,15 +8414,15 @@
       <c r="F56" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="1:11" ht="102" customHeight="1">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="1:12" ht="102" customHeight="1">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -8404,12 +8441,12 @@
       <c r="F57" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="1:11" ht="102" customHeight="1">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="1:12" ht="102" customHeight="1">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -8428,17 +8465,18 @@
       <c r="F58" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G58" s="4"/>
+      <c r="H58" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="1:11" ht="102" customHeight="1">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="1:12" ht="102" customHeight="1">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -8457,14 +8495,14 @@
       <c r="F59" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="1:11" ht="102" customHeight="1">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="1:12" ht="102" customHeight="1">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -8483,17 +8521,18 @@
       <c r="F60" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="G60" s="4"/>
+      <c r="H60" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="1:11" ht="102" customHeight="1">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="1:12" ht="102" customHeight="1">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -8512,19 +8551,19 @@
       <c r="F61" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="H61" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I61" s="3"/>
+      <c r="I61" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J61" s="3"/>
-      <c r="K61" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="102" customHeight="1">
+      <c r="K61" s="3"/>
+      <c r="L61" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="102" customHeight="1">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -8543,17 +8582,17 @@
       <c r="F62" s="2" t="s">
         <v>1940</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>1935</v>
       </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="1:11" ht="102" customHeight="1">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="1:12" ht="102" customHeight="1">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -8572,17 +8611,17 @@
       <c r="F63" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="1:11" ht="102" customHeight="1">
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="1:12" ht="102" customHeight="1">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -8601,14 +8640,14 @@
       <c r="F64" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
-      <c r="K64" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="102" customHeight="1">
+      <c r="K64" s="3"/>
+      <c r="L64" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="102" customHeight="1">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -8627,17 +8666,18 @@
       <c r="F65" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="G65" s="4"/>
+      <c r="H65" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H65" s="3"/>
       <c r="I65" s="3"/>
-      <c r="J65" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="1:11" ht="102" customHeight="1">
+      <c r="J65" s="3"/>
+      <c r="K65" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="1:12" ht="102" customHeight="1">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -8656,14 +8696,14 @@
       <c r="F66" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H66" s="3"/>
       <c r="I66" s="3"/>
-      <c r="J66" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="1:11" ht="102" customHeight="1">
+      <c r="J66" s="3"/>
+      <c r="K66" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="1:12" ht="102" customHeight="1">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -8682,14 +8722,14 @@
       <c r="F67" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="1:11" ht="102" customHeight="1">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="1:12" ht="102" customHeight="1">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -8708,17 +8748,18 @@
       <c r="F68" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G68" s="4" t="s">
+      <c r="G68" s="4"/>
+      <c r="H68" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="102" customHeight="1">
+      <c r="K68" s="3"/>
+      <c r="L68" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="102" customHeight="1">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -8737,17 +8778,18 @@
       <c r="F69" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G69" s="4"/>
+      <c r="H69" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="H69" s="3"/>
       <c r="I69" s="3"/>
-      <c r="J69" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="1:11" ht="102" customHeight="1">
+      <c r="J69" s="3"/>
+      <c r="K69" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="1:12" ht="102" customHeight="1">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -8766,19 +8808,20 @@
       <c r="F70" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="G70" s="4"/>
+      <c r="H70" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H70" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I70" s="3"/>
+      <c r="I70" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J70" s="3"/>
-      <c r="K70" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="102" customHeight="1">
+      <c r="K70" s="3"/>
+      <c r="L70" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="102" customHeight="1">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -8797,19 +8840,19 @@
       <c r="F71" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="H71" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H71" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I71" s="3"/>
+      <c r="I71" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J71" s="3"/>
-      <c r="K71" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="102" customHeight="1">
+      <c r="K71" s="3"/>
+      <c r="L71" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="102" customHeight="1">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -8828,15 +8871,15 @@
       <c r="F72" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="H72" s="2" t="s">
         <v>2053</v>
       </c>
-      <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="1:11" ht="102" customHeight="1">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="1:12" ht="102" customHeight="1">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -8855,12 +8898,12 @@
       <c r="F73" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="1:11" ht="102" customHeight="1">
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="1:12" ht="102" customHeight="1">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -8879,17 +8922,17 @@
       <c r="F74" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="H74" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H74" s="3"/>
       <c r="I74" s="3"/>
-      <c r="J74" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="1:11" ht="102" customHeight="1">
+      <c r="J74" s="3"/>
+      <c r="K74" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="1:12" ht="102" customHeight="1">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -8908,17 +8951,17 @@
       <c r="F75" s="2" t="s">
         <v>1934</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="H75" s="2" t="s">
         <v>1935</v>
       </c>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="1:11" ht="102" customHeight="1">
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="1:12" ht="102" customHeight="1">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -8937,17 +8980,17 @@
       <c r="F76" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="H76" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
-      <c r="K76" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="102" customHeight="1">
+      <c r="K76" s="3"/>
+      <c r="L76" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="102" customHeight="1">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -8966,17 +9009,18 @@
       <c r="F77" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="G77" s="4"/>
+      <c r="H77" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
-      <c r="K77" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="102" customHeight="1">
+      <c r="K77" s="3"/>
+      <c r="L77" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="102" customHeight="1">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -8995,15 +9039,16 @@
       <c r="F78" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="G78" s="5" t="s">
+      <c r="G78" s="5"/>
+      <c r="H78" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
-    </row>
-    <row r="79" spans="1:11" ht="102" customHeight="1">
+      <c r="L78" s="3"/>
+    </row>
+    <row r="79" spans="1:12" ht="102" customHeight="1">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -9022,15 +9067,15 @@
       <c r="F79" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="H79" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
-    </row>
-    <row r="80" spans="1:11" ht="102" customHeight="1">
+      <c r="L79" s="3"/>
+    </row>
+    <row r="80" spans="1:12" ht="102" customHeight="1">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -9049,15 +9094,16 @@
       <c r="F80" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="G80" s="5"/>
+      <c r="H80" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
-    </row>
-    <row r="81" spans="1:11" ht="102" customHeight="1">
+      <c r="L80" s="3"/>
+    </row>
+    <row r="81" spans="1:12" ht="102" customHeight="1">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -9076,17 +9122,17 @@
       <c r="F81" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="H81" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
-      <c r="K81" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="102" customHeight="1">
+      <c r="K81" s="3"/>
+      <c r="L81" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="102" customHeight="1">
       <c r="A82" s="1">
         <v>82</v>
       </c>
@@ -9105,19 +9151,19 @@
       <c r="F82" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="H82" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="H82" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I82" s="3"/>
+      <c r="I82" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J82" s="3"/>
-      <c r="K82" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="102" customHeight="1">
+      <c r="K82" s="3"/>
+      <c r="L82" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="102" customHeight="1">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -9136,14 +9182,14 @@
       <c r="F83" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
-      <c r="K83" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="102" customHeight="1">
+      <c r="K83" s="3"/>
+      <c r="L83" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="102" customHeight="1">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -9162,17 +9208,17 @@
       <c r="F84" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="H84" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="1:11" ht="102" customHeight="1">
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="1:12" ht="102" customHeight="1">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -9191,15 +9237,15 @@
       <c r="F85" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="H85" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="1:11" ht="102" customHeight="1">
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="1:12" ht="102" customHeight="1">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -9218,15 +9264,16 @@
       <c r="F86" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G86" s="6" t="s">
+      <c r="G86" s="6"/>
+      <c r="H86" s="6" t="s">
         <v>1937</v>
       </c>
-      <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="1:11" ht="102" customHeight="1">
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="1:12" ht="102" customHeight="1">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -9245,15 +9292,16 @@
       <c r="F87" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="G87" s="4"/>
+      <c r="H87" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="1:11" ht="102" customHeight="1">
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="1:12" ht="102" customHeight="1">
       <c r="A88" s="1">
         <v>88</v>
       </c>
@@ -9272,15 +9320,15 @@
       <c r="F88" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="H88" s="2" t="s">
         <v>2038</v>
       </c>
-      <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="1:11" ht="102" customHeight="1">
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="1:12" ht="102" customHeight="1">
       <c r="A89" s="1">
         <v>89</v>
       </c>
@@ -9299,17 +9347,17 @@
       <c r="F89" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="H89" s="2" t="s">
         <v>2053</v>
       </c>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="1:11" ht="102" customHeight="1">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="1:12" ht="102" customHeight="1">
       <c r="A90" s="1">
         <v>90</v>
       </c>
@@ -9329,12 +9377,13 @@
         <v>193</v>
       </c>
       <c r="G90" s="4"/>
-      <c r="H90" s="3"/>
+      <c r="H90" s="4"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="1:11" ht="102" customHeight="1">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="1:12" ht="102" customHeight="1">
       <c r="A91" s="1">
         <v>91</v>
       </c>
@@ -9353,15 +9402,16 @@
       <c r="F91" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="G91" s="4" t="s">
+      <c r="G91" s="4"/>
+      <c r="H91" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="1:11" ht="102" customHeight="1">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="1:12" ht="102" customHeight="1">
       <c r="A92" s="1">
         <v>92</v>
       </c>
@@ -9381,12 +9431,13 @@
         <v>365</v>
       </c>
       <c r="G92" s="7"/>
-      <c r="H92" s="3"/>
+      <c r="H92" s="7"/>
       <c r="I92" s="3"/>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="1:11" ht="102" customHeight="1">
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="1:12" ht="102" customHeight="1">
       <c r="A93" s="1">
         <v>93</v>
       </c>
@@ -9406,14 +9457,15 @@
         <v>369</v>
       </c>
       <c r="G93" s="4"/>
-      <c r="H93" s="3"/>
+      <c r="H93" s="4"/>
       <c r="I93" s="3"/>
       <c r="J93" s="3"/>
-      <c r="K93" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="102" customHeight="1">
+      <c r="K93" s="3"/>
+      <c r="L93" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="102" customHeight="1">
       <c r="A94" s="1">
         <v>94</v>
       </c>
@@ -9432,15 +9484,15 @@
       <c r="F94" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="H94" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="1:11" ht="102" customHeight="1">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="1:12" ht="102" customHeight="1">
       <c r="A95" s="1">
         <v>95</v>
       </c>
@@ -9459,17 +9511,17 @@
       <c r="F95" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="G95" s="2" t="s">
+      <c r="H95" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H95" s="3"/>
       <c r="I95" s="3"/>
-      <c r="J95" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="1:11" ht="102" customHeight="1">
+      <c r="J95" s="3"/>
+      <c r="K95" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="1:12" ht="102" customHeight="1">
       <c r="A96" s="1">
         <v>96</v>
       </c>
@@ -9488,17 +9540,17 @@
       <c r="F96" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="H96" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="1:11" ht="102" customHeight="1">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="1:12" ht="102" customHeight="1">
       <c r="A97" s="1">
         <v>97</v>
       </c>
@@ -9518,14 +9570,15 @@
         <v>385</v>
       </c>
       <c r="G97" s="4"/>
-      <c r="H97" s="3"/>
+      <c r="H97" s="4"/>
       <c r="I97" s="3"/>
       <c r="J97" s="3"/>
-      <c r="K97" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="102" customHeight="1">
+      <c r="K97" s="3"/>
+      <c r="L97" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="102" customHeight="1">
       <c r="A98" s="1">
         <v>98</v>
       </c>
@@ -9544,14 +9597,14 @@
       <c r="F98" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="H98" s="3"/>
-      <c r="I98" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="1:11" ht="102" customHeight="1">
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="1:12" ht="102" customHeight="1">
       <c r="A99" s="1">
         <v>99</v>
       </c>
@@ -9570,17 +9623,18 @@
       <c r="F99" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G99" s="4" t="s">
+      <c r="G99" s="4"/>
+      <c r="H99" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H99" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I99" s="3"/>
+      <c r="I99" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="1:11" ht="102" customHeight="1">
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="1:12" ht="102" customHeight="1">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -9599,15 +9653,15 @@
       <c r="F100" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="H100" s="2" t="s">
         <v>2028</v>
       </c>
-      <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="1:11" ht="102" customHeight="1">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="1:12" ht="102" customHeight="1">
       <c r="A101" s="1">
         <v>101</v>
       </c>
@@ -9626,12 +9680,12 @@
       <c r="F101" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="1:11" ht="102" customHeight="1">
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="1:12" ht="102" customHeight="1">
       <c r="A102" s="1">
         <v>102</v>
       </c>
@@ -9650,19 +9704,20 @@
       <c r="F102" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="G102" s="5" t="s">
+      <c r="G102" s="5"/>
+      <c r="H102" s="5" t="s">
         <v>2028</v>
       </c>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="102" customHeight="1">
+      <c r="I102" s="3"/>
+      <c r="J102" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="102" customHeight="1">
       <c r="A103" s="1">
         <v>103</v>
       </c>
@@ -9681,15 +9736,15 @@
       <c r="F103" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="H103" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
       <c r="K103" s="3"/>
-    </row>
-    <row r="104" spans="1:11" ht="102" customHeight="1">
+      <c r="L103" s="3"/>
+    </row>
+    <row r="104" spans="1:12" ht="102" customHeight="1">
       <c r="A104" s="1">
         <v>104</v>
       </c>
@@ -9708,15 +9763,15 @@
       <c r="F104" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="G104" s="2" t="s">
+      <c r="H104" s="2" t="s">
         <v>2037</v>
       </c>
-      <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
-    </row>
-    <row r="105" spans="1:11" ht="102" customHeight="1">
+      <c r="L104" s="3"/>
+    </row>
+    <row r="105" spans="1:12" ht="102" customHeight="1">
       <c r="A105" s="1">
         <v>105</v>
       </c>
@@ -9735,12 +9790,12 @@
       <c r="F105" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
       <c r="K105" s="3"/>
-    </row>
-    <row r="106" spans="1:11" ht="102" customHeight="1">
+      <c r="L105" s="3"/>
+    </row>
+    <row r="106" spans="1:12" ht="102" customHeight="1">
       <c r="A106" s="1">
         <v>106</v>
       </c>
@@ -9759,15 +9814,15 @@
       <c r="F106" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G106" s="2" t="s">
+      <c r="H106" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
       <c r="K106" s="3"/>
-    </row>
-    <row r="107" spans="1:11" ht="102" customHeight="1">
+      <c r="L106" s="3"/>
+    </row>
+    <row r="107" spans="1:12" ht="102" customHeight="1">
       <c r="A107" s="1">
         <v>107</v>
       </c>
@@ -9786,14 +9841,14 @@
       <c r="F107" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="H107" s="3"/>
       <c r="I107" s="3"/>
-      <c r="J107" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K107" s="3"/>
-    </row>
-    <row r="108" spans="1:11" ht="102" customHeight="1">
+      <c r="J107" s="3"/>
+      <c r="K107" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L107" s="3"/>
+    </row>
+    <row r="108" spans="1:12" ht="102" customHeight="1">
       <c r="A108" s="1">
         <v>108</v>
       </c>
@@ -9813,14 +9868,15 @@
         <v>365</v>
       </c>
       <c r="G108" s="7"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J108" s="3"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K108" s="3"/>
-    </row>
-    <row r="109" spans="1:11" ht="102" customHeight="1">
+      <c r="L108" s="3"/>
+    </row>
+    <row r="109" spans="1:12" ht="102" customHeight="1">
       <c r="A109" s="1">
         <v>109</v>
       </c>
@@ -9839,17 +9895,18 @@
       <c r="F109" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="G109" s="4" t="s">
+      <c r="G109" s="4"/>
+      <c r="H109" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K109" s="3"/>
-    </row>
-    <row r="110" spans="1:11" ht="102" customHeight="1">
+      <c r="L109" s="3"/>
+    </row>
+    <row r="110" spans="1:12" ht="102" customHeight="1">
       <c r="A110" s="1">
         <v>110</v>
       </c>
@@ -9868,17 +9925,17 @@
       <c r="F110" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="G110" s="2" t="s">
+      <c r="H110" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
-      <c r="K110" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="102" customHeight="1">
+      <c r="K110" s="3"/>
+      <c r="L110" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="102" customHeight="1">
       <c r="A111" s="1">
         <v>111</v>
       </c>
@@ -9897,15 +9954,15 @@
       <c r="F111" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="H111" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
       <c r="K111" s="3"/>
-    </row>
-    <row r="112" spans="1:11" ht="102" customHeight="1">
+      <c r="L111" s="3"/>
+    </row>
+    <row r="112" spans="1:12" ht="102" customHeight="1">
       <c r="A112" s="1">
         <v>112</v>
       </c>
@@ -9924,15 +9981,15 @@
       <c r="F112" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="G112" s="2" t="s">
+      <c r="H112" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
-    </row>
-    <row r="113" spans="1:11" ht="102" customHeight="1">
+      <c r="L112" s="3"/>
+    </row>
+    <row r="113" spans="1:12" ht="102" customHeight="1">
       <c r="A113" s="1">
         <v>113</v>
       </c>
@@ -9951,15 +10008,15 @@
       <c r="F113" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="G113" s="2" t="s">
+      <c r="H113" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
       <c r="K113" s="3"/>
-    </row>
-    <row r="114" spans="1:11" ht="102" customHeight="1">
+      <c r="L113" s="3"/>
+    </row>
+    <row r="114" spans="1:12" ht="102" customHeight="1">
       <c r="A114" s="1">
         <v>114</v>
       </c>
@@ -9978,15 +10035,15 @@
       <c r="F114" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="G114" s="2" t="s">
+      <c r="H114" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
       <c r="K114" s="3"/>
-    </row>
-    <row r="115" spans="1:11" ht="102" customHeight="1">
+      <c r="L114" s="3"/>
+    </row>
+    <row r="115" spans="1:12" ht="102" customHeight="1">
       <c r="A115" s="1">
         <v>115</v>
       </c>
@@ -10005,15 +10062,15 @@
       <c r="F115" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G115" s="2" t="s">
+      <c r="H115" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
       <c r="K115" s="3"/>
-    </row>
-    <row r="116" spans="1:11" ht="102" customHeight="1">
+      <c r="L115" s="3"/>
+    </row>
+    <row r="116" spans="1:12" ht="102" customHeight="1">
       <c r="A116" s="1">
         <v>116</v>
       </c>
@@ -10032,17 +10089,18 @@
       <c r="F116" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="G116" s="4" t="s">
+      <c r="G116" s="4"/>
+      <c r="H116" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="H116" s="3"/>
-      <c r="I116" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K116" s="3"/>
-    </row>
-    <row r="117" spans="1:11" ht="102" customHeight="1">
+      <c r="L116" s="3"/>
+    </row>
+    <row r="117" spans="1:12" ht="102" customHeight="1">
       <c r="A117" s="1">
         <v>117</v>
       </c>
@@ -10061,15 +10119,16 @@
       <c r="F117" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="G117" s="4" t="s">
+      <c r="G117" s="4"/>
+      <c r="H117" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
-    </row>
-    <row r="118" spans="1:11" ht="102" customHeight="1">
+      <c r="L117" s="3"/>
+    </row>
+    <row r="118" spans="1:12" ht="102" customHeight="1">
       <c r="A118" s="1">
         <v>118</v>
       </c>
@@ -10088,17 +10147,17 @@
       <c r="F118" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="G118" s="2" t="s">
+      <c r="H118" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K118" s="3"/>
-    </row>
-    <row r="119" spans="1:11" ht="102" customHeight="1">
+      <c r="L118" s="3"/>
+    </row>
+    <row r="119" spans="1:12" ht="102" customHeight="1">
       <c r="A119" s="1">
         <v>119</v>
       </c>
@@ -10117,12 +10176,12 @@
       <c r="F119" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
       <c r="K119" s="3"/>
-    </row>
-    <row r="120" spans="1:11" ht="102" customHeight="1">
+      <c r="L119" s="3"/>
+    </row>
+    <row r="120" spans="1:12" ht="102" customHeight="1">
       <c r="A120" s="1">
         <v>120</v>
       </c>
@@ -10141,15 +10200,15 @@
       <c r="F120" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="G120" s="2" t="s">
+      <c r="H120" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
       <c r="K120" s="3"/>
-    </row>
-    <row r="121" spans="1:11" ht="102" customHeight="1">
+      <c r="L120" s="3"/>
+    </row>
+    <row r="121" spans="1:12" ht="102" customHeight="1">
       <c r="A121" s="1">
         <v>121</v>
       </c>
@@ -10168,19 +10227,19 @@
       <c r="F121" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="G121" s="2" t="s">
+      <c r="H121" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="H121" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I121" s="3"/>
+      <c r="I121" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J121" s="3"/>
-      <c r="K121" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" ht="102" customHeight="1">
+      <c r="K121" s="3"/>
+      <c r="L121" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="102" customHeight="1">
       <c r="A122" s="1">
         <v>122</v>
       </c>
@@ -10199,17 +10258,18 @@
       <c r="F122" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="G122" s="4" t="s">
+      <c r="G122" s="4"/>
+      <c r="H122" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="H122" s="3"/>
-      <c r="I122" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K122" s="3"/>
-    </row>
-    <row r="123" spans="1:11" ht="102" customHeight="1">
+      <c r="L122" s="3"/>
+    </row>
+    <row r="123" spans="1:12" ht="102" customHeight="1">
       <c r="A123" s="1">
         <v>123</v>
       </c>
@@ -10228,15 +10288,15 @@
       <c r="F123" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="G123" s="2" t="s">
+      <c r="H123" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
-    </row>
-    <row r="124" spans="1:11" ht="102" customHeight="1">
+      <c r="L123" s="3"/>
+    </row>
+    <row r="124" spans="1:12" ht="102" customHeight="1">
       <c r="A124" s="1">
         <v>124</v>
       </c>
@@ -10255,17 +10315,17 @@
       <c r="F124" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G124" s="2" t="s">
+      <c r="H124" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H124" s="3"/>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
-      <c r="K124" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" ht="102" customHeight="1">
+      <c r="K124" s="3"/>
+      <c r="L124" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="102" customHeight="1">
       <c r="A125" s="1">
         <v>125</v>
       </c>
@@ -10284,17 +10344,17 @@
       <c r="F125" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G125" s="2" t="s">
+      <c r="H125" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H125" s="3"/>
-      <c r="I125" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J125" s="3"/>
+      <c r="I125" s="3"/>
+      <c r="J125" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K125" s="3"/>
-    </row>
-    <row r="126" spans="1:11" ht="102" customHeight="1">
+      <c r="L125" s="3"/>
+    </row>
+    <row r="126" spans="1:12" ht="102" customHeight="1">
       <c r="A126" s="1">
         <v>126</v>
       </c>
@@ -10313,17 +10373,17 @@
       <c r="F126" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G126" s="2" t="s">
+      <c r="H126" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H126" s="3"/>
       <c r="I126" s="3"/>
-      <c r="J126" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K126" s="3"/>
-    </row>
-    <row r="127" spans="1:11" ht="102" customHeight="1">
+      <c r="J126" s="3"/>
+      <c r="K126" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L126" s="3"/>
+    </row>
+    <row r="127" spans="1:12" ht="102" customHeight="1">
       <c r="A127" s="1">
         <v>127</v>
       </c>
@@ -10342,17 +10402,18 @@
       <c r="F127" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="G127" s="4" t="s">
+      <c r="G127" s="4"/>
+      <c r="H127" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="H127" s="3"/>
       <c r="I127" s="3"/>
-      <c r="J127" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K127" s="3"/>
-    </row>
-    <row r="128" spans="1:11" ht="102" customHeight="1">
+      <c r="J127" s="3"/>
+      <c r="K127" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L127" s="3"/>
+    </row>
+    <row r="128" spans="1:12" ht="102" customHeight="1">
       <c r="A128" s="1">
         <v>128</v>
       </c>
@@ -10371,15 +10432,16 @@
       <c r="F128" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="G128" s="5" t="s">
+      <c r="G128" s="5"/>
+      <c r="H128" s="5" t="s">
         <v>2038</v>
       </c>
-      <c r="H128" s="3"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
-    </row>
-    <row r="129" spans="1:11" ht="102" customHeight="1">
+      <c r="L128" s="3"/>
+    </row>
+    <row r="129" spans="1:12" ht="102" customHeight="1">
       <c r="A129" s="1">
         <v>129</v>
       </c>
@@ -10398,15 +10460,15 @@
       <c r="F129" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G129" s="2" t="s">
+      <c r="H129" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H129" s="3"/>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
-    </row>
-    <row r="130" spans="1:11" ht="102" customHeight="1">
+      <c r="L129" s="3"/>
+    </row>
+    <row r="130" spans="1:12" ht="102" customHeight="1">
       <c r="A130" s="1">
         <v>130</v>
       </c>
@@ -10425,12 +10487,12 @@
       <c r="F130" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="H130" s="3"/>
       <c r="I130" s="3"/>
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
-    </row>
-    <row r="131" spans="1:11" ht="102" customHeight="1">
+      <c r="L130" s="3"/>
+    </row>
+    <row r="131" spans="1:12" ht="102" customHeight="1">
       <c r="A131" s="1">
         <v>131</v>
       </c>
@@ -10449,15 +10511,15 @@
       <c r="F131" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="G131" s="2" t="s">
+      <c r="H131" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="H131" s="3"/>
       <c r="I131" s="3"/>
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
-    </row>
-    <row r="132" spans="1:11" ht="102" customHeight="1">
+      <c r="L131" s="3"/>
+    </row>
+    <row r="132" spans="1:12" ht="102" customHeight="1">
       <c r="A132" s="1">
         <v>132</v>
       </c>
@@ -10476,15 +10538,16 @@
       <c r="F132" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="G132" s="4" t="s">
+      <c r="G132" s="4"/>
+      <c r="H132" s="4" t="s">
         <v>2028</v>
       </c>
-      <c r="H132" s="3"/>
       <c r="I132" s="3"/>
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
-    </row>
-    <row r="133" spans="1:11" ht="102" customHeight="1">
+      <c r="L132" s="3"/>
+    </row>
+    <row r="133" spans="1:12" ht="102" customHeight="1">
       <c r="A133" s="1">
         <v>133</v>
       </c>
@@ -10503,12 +10566,12 @@
       <c r="F133" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="H133" s="3"/>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
-    </row>
-    <row r="134" spans="1:11" ht="102" customHeight="1">
+      <c r="L133" s="3"/>
+    </row>
+    <row r="134" spans="1:12" ht="102" customHeight="1">
       <c r="A134" s="1">
         <v>134</v>
       </c>
@@ -10527,15 +10590,15 @@
       <c r="F134" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="G134" s="2" t="s">
+      <c r="H134" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="H134" s="3"/>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
-    </row>
-    <row r="135" spans="1:11" ht="102" customHeight="1">
+      <c r="L134" s="3"/>
+    </row>
+    <row r="135" spans="1:12" ht="102" customHeight="1">
       <c r="A135" s="1">
         <v>135</v>
       </c>
@@ -10554,15 +10617,16 @@
       <c r="F135" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="G135" s="4" t="s">
+      <c r="G135" s="4"/>
+      <c r="H135" s="4" t="s">
         <v>2028</v>
       </c>
-      <c r="H135" s="3"/>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
-    </row>
-    <row r="136" spans="1:11" ht="102" customHeight="1">
+      <c r="L135" s="3"/>
+    </row>
+    <row r="136" spans="1:12" ht="102" customHeight="1">
       <c r="A136" s="1">
         <v>136</v>
       </c>
@@ -10581,17 +10645,17 @@
       <c r="F136" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G136" s="2" t="s">
+      <c r="H136" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H136" s="3"/>
-      <c r="I136" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J136" s="3"/>
+      <c r="I136" s="3"/>
+      <c r="J136" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K136" s="3"/>
-    </row>
-    <row r="137" spans="1:11" ht="102" customHeight="1">
+      <c r="L136" s="3"/>
+    </row>
+    <row r="137" spans="1:12" ht="102" customHeight="1">
       <c r="A137" s="1">
         <v>137</v>
       </c>
@@ -10610,12 +10674,12 @@
       <c r="F137" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="H137" s="3"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
-    </row>
-    <row r="138" spans="1:11" ht="102" customHeight="1">
+      <c r="L137" s="3"/>
+    </row>
+    <row r="138" spans="1:12" ht="102" customHeight="1">
       <c r="A138" s="1">
         <v>138</v>
       </c>
@@ -10634,17 +10698,17 @@
       <c r="F138" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="G138" s="2" t="s">
+      <c r="H138" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="H138" s="3"/>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
-      <c r="K138" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" ht="102" customHeight="1">
+      <c r="K138" s="3"/>
+      <c r="L138" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" ht="102" customHeight="1">
       <c r="A139" s="1">
         <v>139</v>
       </c>
@@ -10663,17 +10727,18 @@
       <c r="F139" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G139" s="4" t="s">
+      <c r="G139" s="4"/>
+      <c r="H139" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H139" s="3"/>
-      <c r="I139" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K139" s="3"/>
-    </row>
-    <row r="140" spans="1:11" ht="102" customHeight="1">
+      <c r="L139" s="3"/>
+    </row>
+    <row r="140" spans="1:12" ht="102" customHeight="1">
       <c r="A140" s="1">
         <v>140</v>
       </c>
@@ -10692,15 +10757,15 @@
       <c r="F140" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="G140" s="2" t="s">
+      <c r="H140" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H140" s="3"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
-    </row>
-    <row r="141" spans="1:11" ht="102" customHeight="1">
+      <c r="L140" s="3"/>
+    </row>
+    <row r="141" spans="1:12" ht="102" customHeight="1">
       <c r="A141" s="1">
         <v>141</v>
       </c>
@@ -10719,14 +10784,14 @@
       <c r="F141" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="H141" s="3"/>
       <c r="I141" s="3"/>
       <c r="J141" s="3"/>
-      <c r="K141" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" ht="102" customHeight="1">
+      <c r="K141" s="3"/>
+      <c r="L141" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" ht="102" customHeight="1">
       <c r="A142" s="1">
         <v>142</v>
       </c>
@@ -10745,17 +10810,17 @@
       <c r="F142" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="G142" s="2" t="s">
+      <c r="H142" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="H142" s="3"/>
       <c r="I142" s="3"/>
       <c r="J142" s="3"/>
-      <c r="K142" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" ht="102" customHeight="1">
+      <c r="K142" s="3"/>
+      <c r="L142" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" ht="102" customHeight="1">
       <c r="A143" s="1">
         <v>143</v>
       </c>
@@ -10774,17 +10839,17 @@
       <c r="F143" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="G143" s="2" t="s">
+      <c r="H143" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="H143" s="3"/>
       <c r="I143" s="3"/>
       <c r="J143" s="3"/>
-      <c r="K143" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" ht="102" customHeight="1">
+      <c r="K143" s="3"/>
+      <c r="L143" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" ht="102" customHeight="1">
       <c r="A144" s="1">
         <v>144</v>
       </c>
@@ -10803,12 +10868,12 @@
       <c r="F144" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
-    </row>
-    <row r="145" spans="1:11" ht="102" customHeight="1">
+      <c r="L144" s="3"/>
+    </row>
+    <row r="145" spans="1:12" ht="102" customHeight="1">
       <c r="A145" s="1">
         <v>145</v>
       </c>
@@ -10827,17 +10892,18 @@
       <c r="F145" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="G145" s="4" t="s">
+      <c r="G145" s="4"/>
+      <c r="H145" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="H145" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I145" s="3"/>
+      <c r="I145" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
-    </row>
-    <row r="146" spans="1:11" ht="102" customHeight="1">
+      <c r="L145" s="3"/>
+    </row>
+    <row r="146" spans="1:12" ht="102" customHeight="1">
       <c r="A146" s="1">
         <v>146</v>
       </c>
@@ -10856,15 +10922,15 @@
       <c r="F146" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="G146" s="2" t="s">
+      <c r="H146" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="H146" s="3"/>
       <c r="I146" s="3"/>
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
-    </row>
-    <row r="147" spans="1:11" ht="102" customHeight="1">
+      <c r="L146" s="3"/>
+    </row>
+    <row r="147" spans="1:12" ht="102" customHeight="1">
       <c r="A147" s="1">
         <v>147</v>
       </c>
@@ -10883,15 +10949,15 @@
       <c r="F147" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="G147" s="2" t="s">
+      <c r="H147" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="H147" s="3"/>
       <c r="I147" s="3"/>
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
-    </row>
-    <row r="148" spans="1:11" ht="102" customHeight="1">
+      <c r="L147" s="3"/>
+    </row>
+    <row r="148" spans="1:12" ht="102" customHeight="1">
       <c r="A148" s="1">
         <v>148</v>
       </c>
@@ -10910,15 +10976,15 @@
       <c r="F148" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="G148" s="2" t="s">
+      <c r="H148" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="H148" s="3"/>
       <c r="I148" s="3"/>
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
-    </row>
-    <row r="149" spans="1:11" ht="102" customHeight="1">
+      <c r="L148" s="3"/>
+    </row>
+    <row r="149" spans="1:12" ht="102" customHeight="1">
       <c r="A149" s="1">
         <v>149</v>
       </c>
@@ -10934,12 +11000,12 @@
       <c r="E149" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="H149" s="3"/>
       <c r="I149" s="3"/>
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
-    </row>
-    <row r="150" spans="1:11" ht="102" customHeight="1">
+      <c r="L149" s="3"/>
+    </row>
+    <row r="150" spans="1:12" ht="102" customHeight="1">
       <c r="A150" s="1">
         <v>150</v>
       </c>
@@ -10959,14 +11025,15 @@
         <v>584</v>
       </c>
       <c r="G150" s="4"/>
-      <c r="H150" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I150" s="3"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
-    </row>
-    <row r="151" spans="1:11" ht="102" customHeight="1">
+      <c r="L150" s="3"/>
+    </row>
+    <row r="151" spans="1:12" ht="102" customHeight="1">
       <c r="A151" s="1">
         <v>151</v>
       </c>
@@ -10985,15 +11052,15 @@
       <c r="F151" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G151" s="2" t="s">
+      <c r="H151" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H151" s="3"/>
       <c r="I151" s="3"/>
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
-    </row>
-    <row r="152" spans="1:11" ht="102" customHeight="1">
+      <c r="L151" s="3"/>
+    </row>
+    <row r="152" spans="1:12" ht="102" customHeight="1">
       <c r="A152" s="1">
         <v>152</v>
       </c>
@@ -11012,12 +11079,12 @@
       <c r="F152" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="H152" s="3"/>
       <c r="I152" s="3"/>
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
-    </row>
-    <row r="153" spans="1:11" ht="102" customHeight="1">
+      <c r="L152" s="3"/>
+    </row>
+    <row r="153" spans="1:12" ht="102" customHeight="1">
       <c r="A153" s="1">
         <v>153</v>
       </c>
@@ -11036,15 +11103,15 @@
       <c r="F153" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="G153" s="2" t="s">
+      <c r="H153" s="2" t="s">
         <v>2028</v>
       </c>
-      <c r="H153" s="3"/>
       <c r="I153" s="3"/>
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
-    </row>
-    <row r="154" spans="1:11" ht="102" customHeight="1">
+      <c r="L153" s="3"/>
+    </row>
+    <row r="154" spans="1:12" ht="102" customHeight="1">
       <c r="A154" s="1">
         <v>154</v>
       </c>
@@ -11063,17 +11130,18 @@
       <c r="F154" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="G154" s="4" t="s">
+      <c r="G154" s="4"/>
+      <c r="H154" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H154" s="3"/>
-      <c r="I154" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J154" s="3"/>
+      <c r="I154" s="3"/>
+      <c r="J154" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K154" s="3"/>
-    </row>
-    <row r="155" spans="1:11" ht="102" customHeight="1">
+      <c r="L154" s="3"/>
+    </row>
+    <row r="155" spans="1:12" ht="102" customHeight="1">
       <c r="A155" s="1">
         <v>155</v>
       </c>
@@ -11092,14 +11160,14 @@
       <c r="F155" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="H155" s="3"/>
       <c r="I155" s="3"/>
       <c r="J155" s="3"/>
-      <c r="K155" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" ht="102" customHeight="1">
+      <c r="K155" s="3"/>
+      <c r="L155" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" ht="102" customHeight="1">
       <c r="A156" s="1">
         <v>156</v>
       </c>
@@ -11118,15 +11186,16 @@
       <c r="F156" s="4" t="s">
         <v>1940</v>
       </c>
-      <c r="G156" s="4" t="s">
+      <c r="G156" s="4"/>
+      <c r="H156" s="4" t="s">
         <v>1935</v>
       </c>
-      <c r="H156" s="3"/>
       <c r="I156" s="3"/>
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
-    </row>
-    <row r="157" spans="1:11" ht="102" customHeight="1">
+      <c r="L156" s="3"/>
+    </row>
+    <row r="157" spans="1:12" ht="102" customHeight="1">
       <c r="A157" s="1">
         <v>157</v>
       </c>
@@ -11145,15 +11214,15 @@
       <c r="F157" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="G157" s="2" t="s">
+      <c r="H157" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="H157" s="3"/>
       <c r="I157" s="3"/>
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
-    </row>
-    <row r="158" spans="1:11" ht="102" customHeight="1">
+      <c r="L157" s="3"/>
+    </row>
+    <row r="158" spans="1:12" ht="102" customHeight="1">
       <c r="A158" s="1">
         <v>158</v>
       </c>
@@ -11172,15 +11241,16 @@
       <c r="F158" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G158" s="4" t="s">
+      <c r="G158" s="4"/>
+      <c r="H158" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H158" s="3"/>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
-    </row>
-    <row r="159" spans="1:11" ht="102" customHeight="1">
+      <c r="L158" s="3"/>
+    </row>
+    <row r="159" spans="1:12" ht="102" customHeight="1">
       <c r="A159" s="1">
         <v>159</v>
       </c>
@@ -11199,17 +11269,18 @@
       <c r="F159" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="G159" s="4" t="s">
+      <c r="G159" s="4"/>
+      <c r="H159" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
-      <c r="K159" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" ht="102" customHeight="1">
+      <c r="K159" s="3"/>
+      <c r="L159" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" ht="102" customHeight="1">
       <c r="A160" s="1">
         <v>160</v>
       </c>
@@ -11229,12 +11300,13 @@
         <v>127</v>
       </c>
       <c r="G160" s="4"/>
-      <c r="H160" s="3"/>
+      <c r="H160" s="4"/>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
-    </row>
-    <row r="161" spans="1:11" ht="102" customHeight="1">
+      <c r="L160" s="3"/>
+    </row>
+    <row r="161" spans="1:12" ht="102" customHeight="1">
       <c r="A161" s="1">
         <v>161</v>
       </c>
@@ -11253,17 +11325,18 @@
       <c r="F161" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G161" s="4" t="s">
+      <c r="G161" s="4"/>
+      <c r="H161" s="4" t="s">
         <v>2053</v>
       </c>
-      <c r="H161" s="3"/>
       <c r="I161" s="3"/>
-      <c r="J161" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K161" s="3"/>
-    </row>
-    <row r="162" spans="1:11" ht="102" customHeight="1">
+      <c r="J161" s="3"/>
+      <c r="K161" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L161" s="3"/>
+    </row>
+    <row r="162" spans="1:12" ht="102" customHeight="1">
       <c r="A162" s="1">
         <v>162</v>
       </c>
@@ -11282,15 +11355,15 @@
       <c r="F162" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="G162" s="2" t="s">
+      <c r="H162" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
-    </row>
-    <row r="163" spans="1:11" ht="102" customHeight="1">
+      <c r="L162" s="3"/>
+    </row>
+    <row r="163" spans="1:12" ht="102" customHeight="1">
       <c r="A163" s="1">
         <v>163</v>
       </c>
@@ -11309,17 +11382,17 @@
       <c r="F163" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="G163" s="2" t="s">
+      <c r="H163" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="H163" s="3"/>
       <c r="I163" s="3"/>
-      <c r="J163" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K163" s="3"/>
-    </row>
-    <row r="164" spans="1:11" ht="102" customHeight="1">
+      <c r="J163" s="3"/>
+      <c r="K163" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L163" s="3"/>
+    </row>
+    <row r="164" spans="1:12" ht="102" customHeight="1">
       <c r="A164" s="1">
         <v>164</v>
       </c>
@@ -11338,15 +11411,15 @@
       <c r="F164" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="G164" s="2" t="s">
+      <c r="H164" s="2" t="s">
         <v>1935</v>
       </c>
-      <c r="H164" s="3"/>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
-    </row>
-    <row r="165" spans="1:11" ht="102" customHeight="1">
+      <c r="L164" s="3"/>
+    </row>
+    <row r="165" spans="1:12" ht="102" customHeight="1">
       <c r="A165" s="1">
         <v>165</v>
       </c>
@@ -11365,17 +11438,17 @@
       <c r="F165" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="G165" s="2" t="s">
+      <c r="H165" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="H165" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I165" s="3"/>
+      <c r="I165" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
-    </row>
-    <row r="166" spans="1:11" ht="102" customHeight="1">
+      <c r="L165" s="3"/>
+    </row>
+    <row r="166" spans="1:12" ht="102" customHeight="1">
       <c r="A166" s="1">
         <v>166</v>
       </c>
@@ -11394,19 +11467,19 @@
       <c r="F166" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="G166" s="2" t="s">
+      <c r="H166" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="H166" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I166" s="3"/>
+      <c r="I166" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J166" s="3"/>
-      <c r="K166" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" ht="102" customHeight="1">
+      <c r="K166" s="3"/>
+      <c r="L166" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="102" customHeight="1">
       <c r="A167" s="1">
         <v>167</v>
       </c>
@@ -11425,17 +11498,17 @@
       <c r="F167" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G167" s="2" t="s">
+      <c r="H167" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H167" s="3"/>
-      <c r="I167" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J167" s="3"/>
+      <c r="I167" s="3"/>
+      <c r="J167" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K167" s="3"/>
-    </row>
-    <row r="168" spans="1:11" ht="102" customHeight="1">
+      <c r="L167" s="3"/>
+    </row>
+    <row r="168" spans="1:12" ht="102" customHeight="1">
       <c r="A168" s="1">
         <v>168</v>
       </c>
@@ -11454,17 +11527,18 @@
       <c r="F168" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="G168" s="4" t="s">
+      <c r="G168" s="4"/>
+      <c r="H168" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="H168" s="3"/>
       <c r="I168" s="3"/>
-      <c r="J168" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K168" s="3"/>
-    </row>
-    <row r="169" spans="1:11" ht="102" customHeight="1">
+      <c r="J168" s="3"/>
+      <c r="K168" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L168" s="3"/>
+    </row>
+    <row r="169" spans="1:12" ht="102" customHeight="1">
       <c r="A169" s="1">
         <v>169</v>
       </c>
@@ -11483,17 +11557,17 @@
       <c r="F169" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="G169" s="2" t="s">
+      <c r="H169" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="3"/>
-      <c r="K169" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" ht="102" customHeight="1">
+      <c r="K169" s="3"/>
+      <c r="L169" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" ht="102" customHeight="1">
       <c r="A170" s="1">
         <v>170</v>
       </c>
@@ -11512,17 +11586,18 @@
       <c r="F170" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="G170" s="4" t="s">
+      <c r="G170" s="4"/>
+      <c r="H170" s="4" t="s">
         <v>2028</v>
       </c>
-      <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="3"/>
-      <c r="K170" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" ht="102" customHeight="1">
+      <c r="K170" s="3"/>
+      <c r="L170" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" ht="102" customHeight="1">
       <c r="A171" s="1">
         <v>171</v>
       </c>
@@ -11541,17 +11616,17 @@
       <c r="F171" s="2" t="s">
         <v>1940</v>
       </c>
-      <c r="G171" s="2" t="s">
+      <c r="H171" s="2" t="s">
         <v>1935</v>
       </c>
-      <c r="H171" s="3"/>
       <c r="I171" s="3"/>
-      <c r="J171" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K171" s="3"/>
-    </row>
-    <row r="172" spans="1:11" ht="102" customHeight="1">
+      <c r="J171" s="3"/>
+      <c r="K171" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L171" s="3"/>
+    </row>
+    <row r="172" spans="1:12" ht="102" customHeight="1">
       <c r="A172" s="1">
         <v>172</v>
       </c>
@@ -11570,12 +11645,12 @@
       <c r="F172" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="H172" s="3"/>
       <c r="I172" s="3"/>
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
-    </row>
-    <row r="173" spans="1:11" ht="102" customHeight="1">
+      <c r="L172" s="3"/>
+    </row>
+    <row r="173" spans="1:12" ht="102" customHeight="1">
       <c r="A173" s="1">
         <v>173</v>
       </c>
@@ -11594,15 +11669,15 @@
       <c r="F173" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="G173" s="2" t="s">
+      <c r="H173" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="H173" s="3"/>
       <c r="I173" s="3"/>
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
-    </row>
-    <row r="174" spans="1:11" ht="102" customHeight="1">
+      <c r="L173" s="3"/>
+    </row>
+    <row r="174" spans="1:12" ht="102" customHeight="1">
       <c r="A174" s="1">
         <v>174</v>
       </c>
@@ -11621,14 +11696,14 @@
       <c r="F174" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="H174" s="3"/>
-      <c r="I174" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J174" s="3"/>
+      <c r="I174" s="3"/>
+      <c r="J174" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K174" s="3"/>
-    </row>
-    <row r="175" spans="1:11" ht="102" customHeight="1">
+      <c r="L174" s="3"/>
+    </row>
+    <row r="175" spans="1:12" ht="102" customHeight="1">
       <c r="A175" s="1">
         <v>175</v>
       </c>
@@ -11647,14 +11722,14 @@
       <c r="F175" s="2" t="s">
         <v>1941</v>
       </c>
-      <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="3"/>
-      <c r="K175" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" ht="102" customHeight="1">
+      <c r="K175" s="3"/>
+      <c r="L175" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="102" customHeight="1">
       <c r="A176" s="1">
         <v>176</v>
       </c>
@@ -11673,12 +11748,12 @@
       <c r="F176" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
-    </row>
-    <row r="177" spans="1:11" ht="102" customHeight="1">
+      <c r="L176" s="3"/>
+    </row>
+    <row r="177" spans="1:12" ht="102" customHeight="1">
       <c r="A177" s="1">
         <v>177</v>
       </c>
@@ -11697,14 +11772,14 @@
       <c r="F177" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="H177" s="3"/>
       <c r="I177" s="3"/>
-      <c r="J177" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K177" s="3"/>
-    </row>
-    <row r="178" spans="1:11" ht="102" customHeight="1">
+      <c r="J177" s="3"/>
+      <c r="K177" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L177" s="3"/>
+    </row>
+    <row r="178" spans="1:12" ht="102" customHeight="1">
       <c r="A178" s="1">
         <v>178</v>
       </c>
@@ -11723,15 +11798,15 @@
       <c r="F178" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G178" s="2" t="s">
+      <c r="H178" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="H178" s="3"/>
       <c r="I178" s="3"/>
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
-    </row>
-    <row r="179" spans="1:11" ht="102" customHeight="1">
+      <c r="L178" s="3"/>
+    </row>
+    <row r="179" spans="1:12" ht="102" customHeight="1">
       <c r="A179" s="1">
         <v>179</v>
       </c>
@@ -11750,15 +11825,15 @@
       <c r="F179" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="G179" s="2" t="s">
+      <c r="H179" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H179" s="3"/>
       <c r="I179" s="3"/>
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
-    </row>
-    <row r="180" spans="1:11" ht="102" customHeight="1">
+      <c r="L179" s="3"/>
+    </row>
+    <row r="180" spans="1:12" ht="102" customHeight="1">
       <c r="A180" s="1">
         <v>180</v>
       </c>
@@ -11777,15 +11852,16 @@
       <c r="F180" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="G180" s="4" t="s">
+      <c r="G180" s="4"/>
+      <c r="H180" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="H180" s="3"/>
       <c r="I180" s="3"/>
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
-    </row>
-    <row r="181" spans="1:11" ht="102" customHeight="1">
+      <c r="L180" s="3"/>
+    </row>
+    <row r="181" spans="1:12" ht="102" customHeight="1">
       <c r="A181" s="1">
         <v>181</v>
       </c>
@@ -11804,15 +11880,15 @@
       <c r="F181" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="G181" s="2" t="s">
+      <c r="H181" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="H181" s="3"/>
       <c r="I181" s="3"/>
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
-    </row>
-    <row r="182" spans="1:11" ht="102" customHeight="1">
+      <c r="L181" s="3"/>
+    </row>
+    <row r="182" spans="1:12" ht="102" customHeight="1">
       <c r="A182" s="1">
         <v>182</v>
       </c>
@@ -11831,12 +11907,12 @@
       <c r="F182" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="H182" s="3"/>
       <c r="I182" s="3"/>
       <c r="J182" s="3"/>
       <c r="K182" s="3"/>
-    </row>
-    <row r="183" spans="1:11" ht="102" customHeight="1">
+      <c r="L182" s="3"/>
+    </row>
+    <row r="183" spans="1:12" ht="102" customHeight="1">
       <c r="A183" s="1">
         <v>183</v>
       </c>
@@ -11855,15 +11931,16 @@
       <c r="F183" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G183" s="4" t="s">
+      <c r="G183" s="4"/>
+      <c r="H183" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H183" s="3"/>
       <c r="I183" s="3"/>
       <c r="J183" s="3"/>
       <c r="K183" s="3"/>
-    </row>
-    <row r="184" spans="1:11" ht="102" customHeight="1">
+      <c r="L183" s="3"/>
+    </row>
+    <row r="184" spans="1:12" ht="102" customHeight="1">
       <c r="A184" s="1">
         <v>184</v>
       </c>
@@ -11882,16 +11959,16 @@
       <c r="F184" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H184" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I184" s="3"/>
+      <c r="I184" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J184" s="3"/>
-      <c r="K184" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" ht="102" customHeight="1">
+      <c r="K184" s="3"/>
+      <c r="L184" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" ht="102" customHeight="1">
       <c r="A185" s="1">
         <v>185</v>
       </c>
@@ -11910,19 +11987,19 @@
       <c r="F185" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="G185" s="2" t="s">
+      <c r="H185" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="H185" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I185" s="3"/>
+      <c r="I185" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J185" s="3"/>
-      <c r="K185" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" ht="102" customHeight="1">
+      <c r="K185" s="3"/>
+      <c r="L185" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" ht="102" customHeight="1">
       <c r="A186" s="1">
         <v>186</v>
       </c>
@@ -11941,15 +12018,15 @@
       <c r="F186" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G186" s="2" t="s">
+      <c r="H186" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H186" s="3"/>
       <c r="I186" s="3"/>
       <c r="J186" s="3"/>
       <c r="K186" s="3"/>
-    </row>
-    <row r="187" spans="1:11" ht="102" customHeight="1">
+      <c r="L186" s="3"/>
+    </row>
+    <row r="187" spans="1:12" ht="102" customHeight="1">
       <c r="A187" s="1">
         <v>187</v>
       </c>
@@ -11968,17 +12045,17 @@
       <c r="F187" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="G187" s="2" t="s">
+      <c r="H187" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H187" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I187" s="3"/>
+      <c r="I187" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J187" s="3"/>
       <c r="K187" s="3"/>
-    </row>
-    <row r="188" spans="1:11" ht="102" customHeight="1">
+      <c r="L187" s="3"/>
+    </row>
+    <row r="188" spans="1:12" ht="102" customHeight="1">
       <c r="A188" s="1">
         <v>188</v>
       </c>
@@ -11997,15 +12074,15 @@
       <c r="F188" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="G188" s="2" t="s">
+      <c r="H188" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="H188" s="3"/>
       <c r="I188" s="3"/>
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
-    </row>
-    <row r="189" spans="1:11" ht="102" customHeight="1">
+      <c r="L188" s="3"/>
+    </row>
+    <row r="189" spans="1:12" ht="102" customHeight="1">
       <c r="A189" s="1">
         <v>189</v>
       </c>
@@ -12025,12 +12102,13 @@
         <v>269</v>
       </c>
       <c r="G189" s="4"/>
-      <c r="H189" s="3"/>
+      <c r="H189" s="4"/>
       <c r="I189" s="3"/>
       <c r="J189" s="3"/>
       <c r="K189" s="3"/>
-    </row>
-    <row r="190" spans="1:11" ht="102" customHeight="1">
+      <c r="L189" s="3"/>
+    </row>
+    <row r="190" spans="1:12" ht="102" customHeight="1">
       <c r="A190" s="1">
         <v>190</v>
       </c>
@@ -12048,14 +12126,15 @@
       </c>
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
-      <c r="H190" s="3"/>
+      <c r="H190" s="4"/>
       <c r="I190" s="3"/>
       <c r="J190" s="3"/>
-      <c r="K190" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" ht="102" customHeight="1">
+      <c r="K190" s="3"/>
+      <c r="L190" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" ht="102" customHeight="1">
       <c r="A191" s="1">
         <v>191</v>
       </c>
@@ -12074,17 +12153,18 @@
       <c r="F191" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="G191" s="4" t="s">
+      <c r="G191" s="4"/>
+      <c r="H191" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="H191" s="3"/>
       <c r="I191" s="3"/>
       <c r="J191" s="3"/>
-      <c r="K191" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" ht="102" customHeight="1">
+      <c r="K191" s="3"/>
+      <c r="L191" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" ht="102" customHeight="1">
       <c r="A192" s="1">
         <v>192</v>
       </c>
@@ -12103,17 +12183,18 @@
       <c r="F192" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G192" s="4" t="s">
+      <c r="G192" s="4"/>
+      <c r="H192" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H192" s="3"/>
       <c r="I192" s="3"/>
       <c r="J192" s="3"/>
-      <c r="K192" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" ht="102" customHeight="1">
+      <c r="K192" s="3"/>
+      <c r="L192" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" ht="102" customHeight="1">
       <c r="A193" s="1">
         <v>193</v>
       </c>
@@ -12133,12 +12214,13 @@
         <v>732</v>
       </c>
       <c r="G193" s="4"/>
-      <c r="H193" s="3"/>
+      <c r="H193" s="4"/>
       <c r="I193" s="3"/>
       <c r="J193" s="3"/>
       <c r="K193" s="3"/>
-    </row>
-    <row r="194" spans="1:11" ht="102" customHeight="1">
+      <c r="L193" s="3"/>
+    </row>
+    <row r="194" spans="1:12" ht="102" customHeight="1">
       <c r="A194" s="1">
         <v>194</v>
       </c>
@@ -12157,16 +12239,16 @@
       <c r="F194" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="H194" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I194" s="3"/>
+      <c r="I194" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J194" s="3"/>
-      <c r="K194" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" ht="102" customHeight="1">
+      <c r="K194" s="3"/>
+      <c r="L194" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" ht="102" customHeight="1">
       <c r="A195" s="1">
         <v>195</v>
       </c>
@@ -12185,15 +12267,16 @@
       <c r="F195" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="G195" s="4" t="s">
+      <c r="G195" s="4"/>
+      <c r="H195" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="H195" s="3"/>
       <c r="I195" s="3"/>
       <c r="J195" s="3"/>
       <c r="K195" s="3"/>
-    </row>
-    <row r="196" spans="1:11" ht="102" customHeight="1">
+      <c r="L195" s="3"/>
+    </row>
+    <row r="196" spans="1:12" ht="102" customHeight="1">
       <c r="A196" s="1">
         <v>196</v>
       </c>
@@ -12212,15 +12295,15 @@
       <c r="F196" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="G196" s="2" t="s">
+      <c r="H196" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H196" s="3"/>
       <c r="I196" s="3"/>
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
-    </row>
-    <row r="197" spans="1:11" ht="102" customHeight="1">
+      <c r="L196" s="3"/>
+    </row>
+    <row r="197" spans="1:12" ht="102" customHeight="1">
       <c r="A197" s="1">
         <v>197</v>
       </c>
@@ -12239,15 +12322,16 @@
       <c r="F197" s="4" t="s">
         <v>746</v>
       </c>
-      <c r="G197" s="4" t="s">
+      <c r="G197" s="4"/>
+      <c r="H197" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="H197" s="3"/>
       <c r="I197" s="3"/>
       <c r="J197" s="3"/>
       <c r="K197" s="3"/>
-    </row>
-    <row r="198" spans="1:11" ht="102" customHeight="1">
+      <c r="L197" s="3"/>
+    </row>
+    <row r="198" spans="1:12" ht="102" customHeight="1">
       <c r="A198" s="1">
         <v>198</v>
       </c>
@@ -12266,19 +12350,19 @@
       <c r="F198" s="2" t="s">
         <v>1934</v>
       </c>
-      <c r="G198" s="2" t="s">
+      <c r="H198" s="2" t="s">
         <v>1935</v>
       </c>
-      <c r="H198" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I198" s="3"/>
+      <c r="I198" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J198" s="3"/>
-      <c r="K198" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" ht="102" customHeight="1">
+      <c r="K198" s="3"/>
+      <c r="L198" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" ht="102" customHeight="1">
       <c r="A199" s="1">
         <v>199</v>
       </c>
@@ -12297,15 +12381,15 @@
       <c r="F199" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="G199" s="2" t="s">
+      <c r="H199" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H199" s="3"/>
       <c r="I199" s="3"/>
       <c r="J199" s="3"/>
       <c r="K199" s="3"/>
-    </row>
-    <row r="200" spans="1:11" ht="102" customHeight="1">
+      <c r="L199" s="3"/>
+    </row>
+    <row r="200" spans="1:12" ht="102" customHeight="1">
       <c r="A200" s="1">
         <v>200</v>
       </c>
@@ -12324,19 +12408,20 @@
       <c r="F200" s="7" t="s">
         <v>1940</v>
       </c>
-      <c r="G200" s="7" t="s">
+      <c r="G200" s="7"/>
+      <c r="H200" s="7" t="s">
         <v>1935</v>
       </c>
-      <c r="H200" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I200" s="3"/>
+      <c r="I200" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J200" s="3"/>
-      <c r="K200" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" ht="102" customHeight="1">
+      <c r="K200" s="3"/>
+      <c r="L200" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" ht="102" customHeight="1">
       <c r="A201" s="1">
         <v>201</v>
       </c>
@@ -12355,19 +12440,20 @@
       <c r="F201" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G201" s="4" t="s">
+      <c r="G201" s="4"/>
+      <c r="H201" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H201" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I201" s="3"/>
+      <c r="I201" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J201" s="3"/>
-      <c r="K201" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" ht="102" customHeight="1">
+      <c r="K201" s="3"/>
+      <c r="L201" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" ht="102" customHeight="1">
       <c r="A202" s="1">
         <v>202</v>
       </c>
@@ -12386,19 +12472,19 @@
       <c r="F202" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="G202" s="2" t="s">
+      <c r="H202" s="2" t="s">
         <v>2028</v>
       </c>
-      <c r="H202" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I202" s="3"/>
+      <c r="I202" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J202" s="3"/>
-      <c r="K202" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" ht="102" customHeight="1">
+      <c r="K202" s="3"/>
+      <c r="L202" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" ht="102" customHeight="1">
       <c r="A203" s="1">
         <v>203</v>
       </c>
@@ -12417,19 +12503,19 @@
       <c r="F203" s="2" t="s">
         <v>1934</v>
       </c>
-      <c r="G203" s="2" t="s">
+      <c r="H203" s="2" t="s">
         <v>1935</v>
       </c>
-      <c r="H203" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I203" s="3"/>
+      <c r="I203" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J203" s="3"/>
-      <c r="K203" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" ht="102" customHeight="1">
+      <c r="K203" s="3"/>
+      <c r="L203" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" ht="102" customHeight="1">
       <c r="A204" s="1">
         <v>204</v>
       </c>
@@ -12448,14 +12534,14 @@
       <c r="F204" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="H204" s="3"/>
       <c r="I204" s="3"/>
       <c r="J204" s="3"/>
-      <c r="K204" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" ht="102" customHeight="1">
+      <c r="K204" s="3"/>
+      <c r="L204" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" ht="102" customHeight="1">
       <c r="A205" s="1">
         <v>205</v>
       </c>
@@ -12474,17 +12560,17 @@
       <c r="F205" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="G205" s="2" t="s">
+      <c r="H205" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H205" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I205" s="3"/>
+      <c r="I205" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
-    </row>
-    <row r="206" spans="1:11" ht="102" customHeight="1">
+      <c r="L205" s="3"/>
+    </row>
+    <row r="206" spans="1:12" ht="102" customHeight="1">
       <c r="A206" s="1">
         <v>206</v>
       </c>
@@ -12503,19 +12589,19 @@
       <c r="F206" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="G206" s="2" t="s">
+      <c r="H206" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H206" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I206" s="3"/>
+      <c r="I206" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J206" s="3"/>
-      <c r="K206" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" ht="102" customHeight="1">
+      <c r="K206" s="3"/>
+      <c r="L206" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" ht="102" customHeight="1">
       <c r="A207" s="1">
         <v>207</v>
       </c>
@@ -12534,14 +12620,14 @@
       <c r="F207" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="H207" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I207" s="3"/>
+      <c r="I207" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J207" s="3"/>
       <c r="K207" s="3"/>
-    </row>
-    <row r="208" spans="1:11" ht="102" customHeight="1">
+      <c r="L207" s="3"/>
+    </row>
+    <row r="208" spans="1:12" ht="102" customHeight="1">
       <c r="A208" s="1">
         <v>208</v>
       </c>
@@ -12560,17 +12646,17 @@
       <c r="F208" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G208" s="2" t="s">
+      <c r="H208" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H208" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I208" s="3"/>
+      <c r="I208" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J208" s="3"/>
       <c r="K208" s="3"/>
-    </row>
-    <row r="209" spans="1:11" ht="102" customHeight="1">
+      <c r="L208" s="3"/>
+    </row>
+    <row r="209" spans="1:12" ht="102" customHeight="1">
       <c r="A209" s="1">
         <v>209</v>
       </c>
@@ -12589,16 +12675,16 @@
       <c r="F209" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="H209" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I209" s="3"/>
+      <c r="I209" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J209" s="3"/>
-      <c r="K209" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" ht="102" customHeight="1">
+      <c r="K209" s="3"/>
+      <c r="L209" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" ht="102" customHeight="1">
       <c r="A210" s="1">
         <v>210</v>
       </c>
@@ -12617,17 +12703,18 @@
       <c r="F210" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G210" s="4" t="s">
+      <c r="G210" s="4"/>
+      <c r="H210" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H210" s="3"/>
       <c r="I210" s="3"/>
       <c r="J210" s="3"/>
-      <c r="K210" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" ht="102" customHeight="1">
+      <c r="K210" s="3"/>
+      <c r="L210" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" ht="102" customHeight="1">
       <c r="A211" s="1">
         <v>211</v>
       </c>
@@ -12646,19 +12733,19 @@
       <c r="F211" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="G211" s="2" t="s">
+      <c r="H211" s="2" t="s">
         <v>2028</v>
       </c>
-      <c r="H211" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I211" s="3"/>
+      <c r="I211" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J211" s="3"/>
-      <c r="K211" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" ht="102" customHeight="1">
+      <c r="K211" s="3"/>
+      <c r="L211" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" ht="102" customHeight="1">
       <c r="A212" s="1">
         <v>212</v>
       </c>
@@ -12677,19 +12764,19 @@
       <c r="F212" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G212" s="2" t="s">
+      <c r="H212" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H212" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I212" s="3"/>
+      <c r="I212" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J212" s="3"/>
-      <c r="K212" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" ht="102" customHeight="1">
+      <c r="K212" s="3"/>
+      <c r="L212" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" ht="102" customHeight="1">
       <c r="A213" s="1">
         <v>213</v>
       </c>
@@ -12708,17 +12795,17 @@
       <c r="F213" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="G213" s="2" t="s">
+      <c r="H213" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H213" s="3"/>
       <c r="I213" s="3"/>
       <c r="J213" s="3"/>
-      <c r="K213" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" ht="102" customHeight="1">
+      <c r="K213" s="3"/>
+      <c r="L213" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" ht="102" customHeight="1">
       <c r="A214" s="1">
         <v>214</v>
       </c>
@@ -12738,12 +12825,13 @@
         <v>800</v>
       </c>
       <c r="G214" s="4"/>
-      <c r="H214" s="3"/>
+      <c r="H214" s="4"/>
       <c r="I214" s="3"/>
       <c r="J214" s="3"/>
       <c r="K214" s="3"/>
-    </row>
-    <row r="215" spans="1:11" ht="102" customHeight="1">
+      <c r="L214" s="3"/>
+    </row>
+    <row r="215" spans="1:12" ht="102" customHeight="1">
       <c r="A215" s="1">
         <v>215</v>
       </c>
@@ -12762,17 +12850,17 @@
       <c r="F215" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="G215" s="2" t="s">
+      <c r="H215" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H215" s="3"/>
-      <c r="I215" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J215" s="3"/>
+      <c r="I215" s="3"/>
+      <c r="J215" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K215" s="3"/>
-    </row>
-    <row r="216" spans="1:11" ht="102" customHeight="1">
+      <c r="L215" s="3"/>
+    </row>
+    <row r="216" spans="1:12" ht="102" customHeight="1">
       <c r="A216" s="1">
         <v>216</v>
       </c>
@@ -12791,17 +12879,17 @@
       <c r="F216" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="G216" s="2" t="s">
+      <c r="H216" s="2" t="s">
         <v>2028</v>
       </c>
-      <c r="H216" s="3"/>
-      <c r="I216" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J216" s="3"/>
+      <c r="I216" s="3"/>
+      <c r="J216" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K216" s="3"/>
-    </row>
-    <row r="217" spans="1:11" ht="102" customHeight="1">
+      <c r="L216" s="3"/>
+    </row>
+    <row r="217" spans="1:12" ht="102" customHeight="1">
       <c r="A217" s="1">
         <v>217</v>
       </c>
@@ -12820,15 +12908,15 @@
       <c r="F217" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="G217" s="2" t="s">
+      <c r="H217" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="H217" s="3"/>
       <c r="I217" s="3"/>
       <c r="J217" s="3"/>
       <c r="K217" s="3"/>
-    </row>
-    <row r="218" spans="1:11" ht="102" customHeight="1">
+      <c r="L217" s="3"/>
+    </row>
+    <row r="218" spans="1:12" ht="102" customHeight="1">
       <c r="A218" s="1">
         <v>218</v>
       </c>
@@ -12847,17 +12935,18 @@
       <c r="F218" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="G218" s="4" t="s">
+      <c r="G218" s="4"/>
+      <c r="H218" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H218" s="3"/>
       <c r="I218" s="3"/>
-      <c r="J218" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K218" s="3"/>
-    </row>
-    <row r="219" spans="1:11" ht="102" customHeight="1">
+      <c r="J218" s="3"/>
+      <c r="K218" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L218" s="3"/>
+    </row>
+    <row r="219" spans="1:12" ht="102" customHeight="1">
       <c r="A219" s="1">
         <v>219</v>
       </c>
@@ -12877,12 +12966,13 @@
         <v>241</v>
       </c>
       <c r="G219" s="4"/>
-      <c r="H219" s="3"/>
+      <c r="H219" s="4"/>
       <c r="I219" s="3"/>
       <c r="J219" s="3"/>
       <c r="K219" s="3"/>
-    </row>
-    <row r="220" spans="1:11" ht="102" customHeight="1">
+      <c r="L219" s="3"/>
+    </row>
+    <row r="220" spans="1:12" ht="102" customHeight="1">
       <c r="A220" s="1">
         <v>220</v>
       </c>
@@ -12902,14 +12992,15 @@
         <v>414</v>
       </c>
       <c r="G220" s="4"/>
-      <c r="H220" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I220" s="3"/>
+      <c r="H220" s="4"/>
+      <c r="I220" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J220" s="3"/>
       <c r="K220" s="3"/>
-    </row>
-    <row r="221" spans="1:11" ht="102" customHeight="1">
+      <c r="L220" s="3"/>
+    </row>
+    <row r="221" spans="1:12" ht="102" customHeight="1">
       <c r="A221" s="1">
         <v>221</v>
       </c>
@@ -12928,15 +13019,15 @@
       <c r="F221" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="G221" s="2" t="s">
+      <c r="H221" s="2" t="s">
         <v>2038</v>
       </c>
-      <c r="H221" s="3"/>
       <c r="I221" s="3"/>
       <c r="J221" s="3"/>
       <c r="K221" s="3"/>
-    </row>
-    <row r="222" spans="1:11" ht="102" customHeight="1">
+      <c r="L221" s="3"/>
+    </row>
+    <row r="222" spans="1:12" ht="102" customHeight="1">
       <c r="A222" s="1">
         <v>222</v>
       </c>
@@ -12956,12 +13047,13 @@
         <v>829</v>
       </c>
       <c r="G222" s="4"/>
-      <c r="H222" s="3"/>
+      <c r="H222" s="4"/>
       <c r="I222" s="3"/>
       <c r="J222" s="3"/>
       <c r="K222" s="3"/>
-    </row>
-    <row r="223" spans="1:11" ht="102" customHeight="1">
+      <c r="L222" s="3"/>
+    </row>
+    <row r="223" spans="1:12" ht="102" customHeight="1">
       <c r="A223" s="1">
         <v>223</v>
       </c>
@@ -12980,17 +13072,18 @@
       <c r="F223" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="G223" s="4" t="s">
+      <c r="G223" s="4"/>
+      <c r="H223" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H223" s="3"/>
       <c r="I223" s="3"/>
       <c r="J223" s="3"/>
-      <c r="K223" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" ht="102" customHeight="1">
+      <c r="K223" s="3"/>
+      <c r="L223" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" ht="102" customHeight="1">
       <c r="A224" s="1">
         <v>224</v>
       </c>
@@ -13009,15 +13102,15 @@
       <c r="F224" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="G224" s="2" t="s">
+      <c r="H224" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H224" s="3"/>
       <c r="I224" s="3"/>
       <c r="J224" s="3"/>
       <c r="K224" s="3"/>
-    </row>
-    <row r="225" spans="1:11" ht="102" customHeight="1">
+      <c r="L224" s="3"/>
+    </row>
+    <row r="225" spans="1:12" ht="102" customHeight="1">
       <c r="A225" s="1">
         <v>225</v>
       </c>
@@ -13036,15 +13129,15 @@
       <c r="F225" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G225" s="2" t="s">
+      <c r="H225" s="2" t="s">
         <v>2053</v>
       </c>
-      <c r="H225" s="3"/>
       <c r="I225" s="3"/>
       <c r="J225" s="3"/>
       <c r="K225" s="3"/>
-    </row>
-    <row r="226" spans="1:11" ht="102" customHeight="1">
+      <c r="L225" s="3"/>
+    </row>
+    <row r="226" spans="1:12" ht="102" customHeight="1">
       <c r="A226" s="1">
         <v>226</v>
       </c>
@@ -13063,15 +13156,16 @@
       <c r="F226" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G226" s="4" t="s">
+      <c r="G226" s="4"/>
+      <c r="H226" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H226" s="3"/>
       <c r="I226" s="3"/>
       <c r="J226" s="3"/>
       <c r="K226" s="3"/>
-    </row>
-    <row r="227" spans="1:11" ht="102" customHeight="1">
+      <c r="L226" s="3"/>
+    </row>
+    <row r="227" spans="1:12" ht="102" customHeight="1">
       <c r="A227" s="1">
         <v>227</v>
       </c>
@@ -13090,15 +13184,16 @@
       <c r="F227" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="G227" s="4" t="s">
+      <c r="G227" s="4"/>
+      <c r="H227" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="H227" s="3"/>
       <c r="I227" s="3"/>
       <c r="J227" s="3"/>
       <c r="K227" s="3"/>
-    </row>
-    <row r="228" spans="1:11" ht="102" customHeight="1">
+      <c r="L227" s="3"/>
+    </row>
+    <row r="228" spans="1:12" ht="102" customHeight="1">
       <c r="A228" s="1">
         <v>228</v>
       </c>
@@ -13117,12 +13212,12 @@
       <c r="F228" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="H228" s="3"/>
       <c r="I228" s="3"/>
       <c r="J228" s="3"/>
       <c r="K228" s="3"/>
-    </row>
-    <row r="229" spans="1:11" ht="102" customHeight="1">
+      <c r="L228" s="3"/>
+    </row>
+    <row r="229" spans="1:12" ht="102" customHeight="1">
       <c r="A229" s="1">
         <v>229</v>
       </c>
@@ -13141,17 +13236,18 @@
       <c r="F229" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G229" s="4" t="s">
+      <c r="G229" s="4"/>
+      <c r="H229" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H229" s="3"/>
       <c r="I229" s="3"/>
-      <c r="J229" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K229" s="3"/>
-    </row>
-    <row r="230" spans="1:11" ht="102" customHeight="1">
+      <c r="J229" s="3"/>
+      <c r="K229" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L229" s="3"/>
+    </row>
+    <row r="230" spans="1:12" ht="102" customHeight="1">
       <c r="A230" s="1">
         <v>230</v>
       </c>
@@ -13170,15 +13266,15 @@
       <c r="F230" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="G230" s="2" t="s">
+      <c r="H230" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="H230" s="3"/>
       <c r="I230" s="3"/>
       <c r="J230" s="3"/>
       <c r="K230" s="3"/>
-    </row>
-    <row r="231" spans="1:11" ht="102" customHeight="1">
+      <c r="L230" s="3"/>
+    </row>
+    <row r="231" spans="1:12" ht="102" customHeight="1">
       <c r="A231" s="1">
         <v>231</v>
       </c>
@@ -13197,17 +13293,17 @@
       <c r="F231" s="2" t="s">
         <v>1934</v>
       </c>
-      <c r="G231" s="2" t="s">
+      <c r="H231" s="2" t="s">
         <v>1935</v>
       </c>
-      <c r="H231" s="3"/>
       <c r="I231" s="3"/>
-      <c r="J231" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K231" s="3"/>
-    </row>
-    <row r="232" spans="1:11" ht="102" customHeight="1">
+      <c r="J231" s="3"/>
+      <c r="K231" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L231" s="3"/>
+    </row>
+    <row r="232" spans="1:12" ht="102" customHeight="1">
       <c r="A232" s="1">
         <v>232</v>
       </c>
@@ -13226,17 +13322,18 @@
       <c r="F232" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G232" s="4" t="s">
+      <c r="G232" s="4"/>
+      <c r="H232" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H232" s="3"/>
       <c r="I232" s="3"/>
-      <c r="J232" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K232" s="3"/>
-    </row>
-    <row r="233" spans="1:11" ht="102" customHeight="1">
+      <c r="J232" s="3"/>
+      <c r="K232" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L232" s="3"/>
+    </row>
+    <row r="233" spans="1:12" ht="102" customHeight="1">
       <c r="A233" s="1">
         <v>233</v>
       </c>
@@ -13255,14 +13352,14 @@
       <c r="F233" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="H233" s="3"/>
       <c r="I233" s="3"/>
-      <c r="J233" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K233" s="3"/>
-    </row>
-    <row r="234" spans="1:11" ht="102" customHeight="1">
+      <c r="J233" s="3"/>
+      <c r="K233" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L233" s="3"/>
+    </row>
+    <row r="234" spans="1:12" ht="102" customHeight="1">
       <c r="A234" s="1">
         <v>234</v>
       </c>
@@ -13281,15 +13378,16 @@
       <c r="F234" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G234" s="4" t="s">
+      <c r="G234" s="4"/>
+      <c r="H234" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H234" s="3"/>
       <c r="I234" s="3"/>
       <c r="J234" s="3"/>
       <c r="K234" s="3"/>
-    </row>
-    <row r="235" spans="1:11" ht="102" customHeight="1">
+      <c r="L234" s="3"/>
+    </row>
+    <row r="235" spans="1:12" ht="102" customHeight="1">
       <c r="A235" s="1">
         <v>235</v>
       </c>
@@ -13305,12 +13403,12 @@
       <c r="E235" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="H235" s="3"/>
       <c r="I235" s="3"/>
       <c r="J235" s="3"/>
       <c r="K235" s="3"/>
-    </row>
-    <row r="236" spans="1:11" ht="102" customHeight="1">
+      <c r="L235" s="3"/>
+    </row>
+    <row r="236" spans="1:12" ht="102" customHeight="1">
       <c r="A236" s="1">
         <v>236</v>
       </c>
@@ -13329,15 +13427,16 @@
       <c r="F236" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="G236" s="7" t="s">
+      <c r="G236" s="7"/>
+      <c r="H236" s="7" t="s">
         <v>2028</v>
       </c>
-      <c r="H236" s="3"/>
       <c r="I236" s="3"/>
       <c r="J236" s="3"/>
       <c r="K236" s="3"/>
-    </row>
-    <row r="237" spans="1:11" ht="102" customHeight="1">
+      <c r="L236" s="3"/>
+    </row>
+    <row r="237" spans="1:12" ht="102" customHeight="1">
       <c r="A237" s="1">
         <v>237</v>
       </c>
@@ -13356,19 +13455,19 @@
       <c r="F237" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G237" s="2" t="s">
+      <c r="H237" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H237" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I237" s="3"/>
+      <c r="I237" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J237" s="3"/>
-      <c r="K237" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" ht="102" customHeight="1">
+      <c r="K237" s="3"/>
+      <c r="L237" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" ht="102" customHeight="1">
       <c r="A238" s="1">
         <v>238</v>
       </c>
@@ -13387,12 +13486,12 @@
       <c r="F238" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="H238" s="3"/>
       <c r="I238" s="3"/>
       <c r="J238" s="3"/>
       <c r="K238" s="3"/>
-    </row>
-    <row r="239" spans="1:11" ht="102" customHeight="1">
+      <c r="L238" s="3"/>
+    </row>
+    <row r="239" spans="1:12" ht="102" customHeight="1">
       <c r="A239" s="1">
         <v>239</v>
       </c>
@@ -13411,19 +13510,19 @@
       <c r="F239" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G239" s="2" t="s">
+      <c r="H239" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H239" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I239" s="3"/>
+      <c r="I239" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J239" s="3"/>
-      <c r="K239" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" ht="102" customHeight="1">
+      <c r="K239" s="3"/>
+      <c r="L239" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" ht="102" customHeight="1">
       <c r="A240" s="1">
         <v>240</v>
       </c>
@@ -13442,17 +13541,18 @@
       <c r="F240" s="7" t="s">
         <v>888</v>
       </c>
-      <c r="G240" s="7" t="s">
+      <c r="G240" s="7"/>
+      <c r="H240" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="H240" s="3"/>
-      <c r="I240" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J240" s="3"/>
+      <c r="I240" s="3"/>
+      <c r="J240" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K240" s="3"/>
-    </row>
-    <row r="241" spans="1:11" ht="102" customHeight="1">
+      <c r="L240" s="3"/>
+    </row>
+    <row r="241" spans="1:12" ht="102" customHeight="1">
       <c r="A241" s="1">
         <v>241</v>
       </c>
@@ -13471,16 +13571,16 @@
       <c r="F241" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="H241" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I241" s="3"/>
+      <c r="I241" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J241" s="3"/>
-      <c r="K241" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" ht="102" customHeight="1">
+      <c r="K241" s="3"/>
+      <c r="L241" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" ht="102" customHeight="1">
       <c r="A242" s="1">
         <v>242</v>
       </c>
@@ -13499,14 +13599,14 @@
       <c r="F242" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="H242" s="3"/>
       <c r="I242" s="3"/>
       <c r="J242" s="3"/>
-      <c r="K242" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" ht="102" customHeight="1">
+      <c r="K242" s="3"/>
+      <c r="L242" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" ht="102" customHeight="1">
       <c r="A243" s="1">
         <v>243</v>
       </c>
@@ -13525,17 +13625,17 @@
       <c r="F243" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="G243" s="2" t="s">
+      <c r="H243" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="H243" s="3"/>
       <c r="I243" s="3"/>
       <c r="J243" s="3"/>
-      <c r="K243" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" ht="102" customHeight="1">
+      <c r="K243" s="3"/>
+      <c r="L243" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" ht="102" customHeight="1">
       <c r="A244" s="1">
         <v>244</v>
       </c>
@@ -13554,16 +13654,16 @@
       <c r="F244" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H244" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I244" s="3"/>
+      <c r="I244" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J244" s="3"/>
-      <c r="K244" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" ht="102" customHeight="1">
+      <c r="K244" s="3"/>
+      <c r="L244" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" ht="102" customHeight="1">
       <c r="A245" s="1">
         <v>245</v>
       </c>
@@ -13582,19 +13682,19 @@
       <c r="F245" s="2" t="s">
         <v>1940</v>
       </c>
-      <c r="G245" s="2" t="s">
+      <c r="H245" s="2" t="s">
         <v>1935</v>
       </c>
-      <c r="H245" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I245" s="3"/>
+      <c r="I245" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J245" s="3"/>
-      <c r="K245" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" ht="102" customHeight="1">
+      <c r="K245" s="3"/>
+      <c r="L245" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" ht="102" customHeight="1">
       <c r="A246" s="1">
         <v>246</v>
       </c>
@@ -13613,19 +13713,19 @@
       <c r="F246" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G246" s="2" t="s">
+      <c r="H246" s="2" t="s">
         <v>2053</v>
       </c>
-      <c r="H246" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I246" s="3"/>
+      <c r="I246" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J246" s="3"/>
-      <c r="K246" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" ht="102" customHeight="1">
+      <c r="K246" s="3"/>
+      <c r="L246" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" ht="102" customHeight="1">
       <c r="A247" s="1">
         <v>247</v>
       </c>
@@ -13644,19 +13744,19 @@
       <c r="F247" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G247" s="2" t="s">
+      <c r="H247" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H247" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I247" s="3"/>
+      <c r="I247" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J247" s="3"/>
-      <c r="K247" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" ht="102" customHeight="1">
+      <c r="K247" s="3"/>
+      <c r="L247" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" ht="102" customHeight="1">
       <c r="A248" s="1">
         <v>248</v>
       </c>
@@ -13675,12 +13775,12 @@
       <c r="F248" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="H248" s="3"/>
       <c r="I248" s="3"/>
       <c r="J248" s="3"/>
       <c r="K248" s="3"/>
-    </row>
-    <row r="249" spans="1:11" ht="102" customHeight="1">
+      <c r="L248" s="3"/>
+    </row>
+    <row r="249" spans="1:12" ht="102" customHeight="1">
       <c r="A249" s="1">
         <v>249</v>
       </c>
@@ -13700,16 +13800,17 @@
         <v>916</v>
       </c>
       <c r="G249" s="4"/>
-      <c r="H249" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I249" s="3"/>
+      <c r="H249" s="4"/>
+      <c r="I249" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J249" s="3"/>
-      <c r="K249" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" ht="102" customHeight="1">
+      <c r="K249" s="3"/>
+      <c r="L249" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" ht="102" customHeight="1">
       <c r="A250" s="1">
         <v>250</v>
       </c>
@@ -13728,17 +13829,18 @@
       <c r="F250" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G250" s="4" t="s">
+      <c r="G250" s="4"/>
+      <c r="H250" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H250" s="3"/>
       <c r="I250" s="3"/>
       <c r="J250" s="3"/>
-      <c r="K250" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11" ht="102" customHeight="1">
+      <c r="K250" s="3"/>
+      <c r="L250" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" ht="102" customHeight="1">
       <c r="A251" s="1">
         <v>251</v>
       </c>
@@ -13756,12 +13858,13 @@
       </c>
       <c r="F251" s="4"/>
       <c r="G251" s="4"/>
-      <c r="H251" s="3"/>
+      <c r="H251" s="4"/>
       <c r="I251" s="3"/>
       <c r="J251" s="3"/>
       <c r="K251" s="3"/>
-    </row>
-    <row r="252" spans="1:11" ht="102" customHeight="1">
+      <c r="L251" s="3"/>
+    </row>
+    <row r="252" spans="1:12" ht="102" customHeight="1">
       <c r="A252" s="1">
         <v>252</v>
       </c>
@@ -13780,15 +13883,15 @@
       <c r="F252" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G252" s="2" t="s">
+      <c r="H252" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H252" s="3"/>
       <c r="I252" s="3"/>
       <c r="J252" s="3"/>
       <c r="K252" s="3"/>
-    </row>
-    <row r="253" spans="1:11" ht="102" customHeight="1">
+      <c r="L252" s="3"/>
+    </row>
+    <row r="253" spans="1:12" ht="102" customHeight="1">
       <c r="A253" s="1">
         <v>253</v>
       </c>
@@ -13807,17 +13910,17 @@
       <c r="F253" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="G253" s="2" t="s">
+      <c r="H253" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="H253" s="3"/>
       <c r="I253" s="3"/>
-      <c r="J253" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K253" s="3"/>
-    </row>
-    <row r="254" spans="1:11" ht="102" customHeight="1">
+      <c r="J253" s="3"/>
+      <c r="K253" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L253" s="3"/>
+    </row>
+    <row r="254" spans="1:12" ht="102" customHeight="1">
       <c r="A254" s="1">
         <v>254</v>
       </c>
@@ -13836,17 +13939,18 @@
       <c r="F254" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="G254" s="4" t="s">
+      <c r="G254" s="4"/>
+      <c r="H254" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="H254" s="3"/>
       <c r="I254" s="3"/>
-      <c r="J254" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K254" s="3"/>
-    </row>
-    <row r="255" spans="1:11" ht="102" customHeight="1">
+      <c r="J254" s="3"/>
+      <c r="K254" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L254" s="3"/>
+    </row>
+    <row r="255" spans="1:12" ht="102" customHeight="1">
       <c r="A255" s="1">
         <v>255</v>
       </c>
@@ -13865,17 +13969,18 @@
       <c r="F255" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="G255" s="4" t="s">
+      <c r="G255" s="4"/>
+      <c r="H255" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="H255" s="3"/>
-      <c r="I255" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J255" s="3"/>
+      <c r="I255" s="3"/>
+      <c r="J255" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K255" s="3"/>
-    </row>
-    <row r="256" spans="1:11" ht="102" customHeight="1">
+      <c r="L255" s="3"/>
+    </row>
+    <row r="256" spans="1:12" ht="102" customHeight="1">
       <c r="A256" s="1">
         <v>256</v>
       </c>
@@ -13894,17 +13999,18 @@
       <c r="F256" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G256" s="4" t="s">
+      <c r="G256" s="4"/>
+      <c r="H256" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H256" s="3"/>
-      <c r="I256" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J256" s="3"/>
+      <c r="I256" s="3"/>
+      <c r="J256" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K256" s="3"/>
-    </row>
-    <row r="257" spans="1:11" ht="102" customHeight="1">
+      <c r="L256" s="3"/>
+    </row>
+    <row r="257" spans="1:12" ht="102" customHeight="1">
       <c r="A257" s="1">
         <v>257</v>
       </c>
@@ -13924,12 +14030,13 @@
         <v>186</v>
       </c>
       <c r="G257" s="4"/>
-      <c r="H257" s="3"/>
+      <c r="H257" s="4"/>
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
       <c r="K257" s="3"/>
-    </row>
-    <row r="258" spans="1:11" ht="102" customHeight="1">
+      <c r="L257" s="3"/>
+    </row>
+    <row r="258" spans="1:12" ht="102" customHeight="1">
       <c r="A258" s="1">
         <v>258</v>
       </c>
@@ -13948,19 +14055,20 @@
       <c r="F258" s="8" t="s">
         <v>1939</v>
       </c>
-      <c r="G258" s="8" t="s">
+      <c r="G258" s="8"/>
+      <c r="H258" s="8" t="s">
         <v>2027</v>
       </c>
-      <c r="H258" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I258" s="3"/>
+      <c r="I258" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J258" s="3"/>
-      <c r="K258" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11" ht="102" customHeight="1">
+      <c r="K258" s="3"/>
+      <c r="L258" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" ht="102" customHeight="1">
       <c r="A259" s="1">
         <v>259</v>
       </c>
@@ -13979,15 +14087,15 @@
       <c r="F259" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G259" s="2" t="s">
+      <c r="H259" s="2" t="s">
         <v>2053</v>
       </c>
-      <c r="H259" s="3"/>
       <c r="I259" s="3"/>
       <c r="J259" s="3"/>
       <c r="K259" s="3"/>
-    </row>
-    <row r="260" spans="1:11" ht="102" customHeight="1">
+      <c r="L259" s="3"/>
+    </row>
+    <row r="260" spans="1:12" ht="102" customHeight="1">
       <c r="A260" s="1">
         <v>260</v>
       </c>
@@ -14007,16 +14115,17 @@
         <v>210</v>
       </c>
       <c r="G260" s="4"/>
-      <c r="H260" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I260" s="3"/>
+      <c r="H260" s="4"/>
+      <c r="I260" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J260" s="3"/>
-      <c r="K260" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" ht="102" customHeight="1">
+      <c r="K260" s="3"/>
+      <c r="L260" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" ht="102" customHeight="1">
       <c r="A261" s="1">
         <v>261</v>
       </c>
@@ -14035,19 +14144,19 @@
       <c r="F261" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G261" s="2" t="s">
+      <c r="H261" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H261" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I261" s="3"/>
+      <c r="I261" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J261" s="3"/>
-      <c r="K261" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" ht="102" customHeight="1">
+      <c r="K261" s="3"/>
+      <c r="L261" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" ht="102" customHeight="1">
       <c r="A262" s="1">
         <v>262</v>
       </c>
@@ -14066,17 +14175,17 @@
       <c r="F262" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="G262" s="2" t="s">
+      <c r="H262" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="H262" s="3"/>
       <c r="I262" s="3"/>
       <c r="J262" s="3"/>
-      <c r="K262" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" ht="102" customHeight="1">
+      <c r="K262" s="3"/>
+      <c r="L262" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" ht="102" customHeight="1">
       <c r="A263" s="1">
         <v>263</v>
       </c>
@@ -14095,17 +14204,17 @@
       <c r="F263" s="2" t="s">
         <v>959</v>
       </c>
-      <c r="G263" s="2" t="s">
+      <c r="H263" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="H263" s="3"/>
       <c r="I263" s="3"/>
-      <c r="J263" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K263" s="3"/>
-    </row>
-    <row r="264" spans="1:11" ht="102" customHeight="1">
+      <c r="J263" s="3"/>
+      <c r="K263" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L263" s="3"/>
+    </row>
+    <row r="264" spans="1:12" ht="102" customHeight="1">
       <c r="A264" s="1">
         <v>264</v>
       </c>
@@ -14124,14 +14233,14 @@
       <c r="F264" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="H264" s="3"/>
-      <c r="I264" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J264" s="3"/>
+      <c r="I264" s="3"/>
+      <c r="J264" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K264" s="3"/>
-    </row>
-    <row r="265" spans="1:11" ht="102" customHeight="1">
+      <c r="L264" s="3"/>
+    </row>
+    <row r="265" spans="1:12" ht="102" customHeight="1">
       <c r="A265" s="1">
         <v>265</v>
       </c>
@@ -14150,14 +14259,14 @@
       <c r="F265" s="2" t="s">
         <v>966</v>
       </c>
-      <c r="H265" s="3"/>
-      <c r="I265" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J265" s="3"/>
+      <c r="I265" s="3"/>
+      <c r="J265" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K265" s="3"/>
-    </row>
-    <row r="266" spans="1:11" ht="102" customHeight="1">
+      <c r="L265" s="3"/>
+    </row>
+    <row r="266" spans="1:12" ht="102" customHeight="1">
       <c r="A266" s="1">
         <v>266</v>
       </c>
@@ -14176,19 +14285,19 @@
       <c r="F266" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="G266" s="2" t="s">
+      <c r="H266" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="H266" s="3"/>
-      <c r="I266" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J266" s="3"/>
-      <c r="K266" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" ht="102" customHeight="1">
+      <c r="I266" s="3"/>
+      <c r="J266" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K266" s="3"/>
+      <c r="L266" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" ht="102" customHeight="1">
       <c r="A267" s="1">
         <v>267</v>
       </c>
@@ -14207,14 +14316,14 @@
       <c r="F267" s="2" t="s">
         <v>973</v>
       </c>
-      <c r="H267" s="3"/>
-      <c r="I267" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J267" s="3"/>
+      <c r="I267" s="3"/>
+      <c r="J267" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K267" s="3"/>
-    </row>
-    <row r="268" spans="1:11" ht="102" customHeight="1">
+      <c r="L267" s="3"/>
+    </row>
+    <row r="268" spans="1:12" ht="102" customHeight="1">
       <c r="A268" s="1">
         <v>268</v>
       </c>
@@ -14233,14 +14342,14 @@
       <c r="F268" s="2" t="s">
         <v>2039</v>
       </c>
-      <c r="H268" s="3"/>
-      <c r="I268" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J268" s="3"/>
+      <c r="I268" s="3"/>
+      <c r="J268" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K268" s="3"/>
-    </row>
-    <row r="269" spans="1:11" ht="102" customHeight="1">
+      <c r="L268" s="3"/>
+    </row>
+    <row r="269" spans="1:12" ht="102" customHeight="1">
       <c r="A269" s="1">
         <v>269</v>
       </c>
@@ -14259,14 +14368,14 @@
       <c r="F269" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="H269" s="3"/>
-      <c r="I269" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J269" s="3"/>
+      <c r="I269" s="3"/>
+      <c r="J269" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K269" s="3"/>
-    </row>
-    <row r="270" spans="1:11" ht="102" customHeight="1">
+      <c r="L269" s="3"/>
+    </row>
+    <row r="270" spans="1:12" ht="102" customHeight="1">
       <c r="A270" s="1">
         <v>270</v>
       </c>
@@ -14285,14 +14394,14 @@
       <c r="F270" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="H270" s="3"/>
-      <c r="I270" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J270" s="3"/>
+      <c r="I270" s="3"/>
+      <c r="J270" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K270" s="3"/>
-    </row>
-    <row r="271" spans="1:11" ht="102" customHeight="1">
+      <c r="L270" s="3"/>
+    </row>
+    <row r="271" spans="1:12" ht="102" customHeight="1">
       <c r="A271" s="1">
         <v>271</v>
       </c>
@@ -14311,17 +14420,17 @@
       <c r="F271" s="2" t="s">
         <v>984</v>
       </c>
-      <c r="G271" s="2" t="s">
+      <c r="H271" s="2" t="s">
         <v>2029</v>
       </c>
-      <c r="H271" s="3"/>
-      <c r="I271" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J271" s="3"/>
+      <c r="I271" s="3"/>
+      <c r="J271" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K271" s="3"/>
-    </row>
-    <row r="272" spans="1:11" ht="102" customHeight="1">
+      <c r="L271" s="3"/>
+    </row>
+    <row r="272" spans="1:12" ht="102" customHeight="1">
       <c r="A272" s="1">
         <v>272</v>
       </c>
@@ -14340,14 +14449,14 @@
       <c r="F272" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="H272" s="3"/>
-      <c r="I272" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J272" s="3"/>
+      <c r="I272" s="3"/>
+      <c r="J272" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K272" s="3"/>
-    </row>
-    <row r="273" spans="1:11" ht="102" customHeight="1">
+      <c r="L272" s="3"/>
+    </row>
+    <row r="273" spans="1:12" ht="102" customHeight="1">
       <c r="A273" s="1">
         <v>273</v>
       </c>
@@ -14366,17 +14475,17 @@
       <c r="F273" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="G273" s="2" t="s">
+      <c r="H273" s="2" t="s">
         <v>991</v>
       </c>
-      <c r="H273" s="3"/>
       <c r="I273" s="3"/>
       <c r="J273" s="3"/>
-      <c r="K273" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" ht="102" customHeight="1">
+      <c r="K273" s="3"/>
+      <c r="L273" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" ht="102" customHeight="1">
       <c r="A274" s="1">
         <v>274</v>
       </c>
@@ -14395,17 +14504,17 @@
       <c r="F274" s="2" t="s">
         <v>995</v>
       </c>
-      <c r="G274" s="2" t="s">
+      <c r="H274" s="2" t="s">
         <v>996</v>
       </c>
-      <c r="H274" s="3"/>
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
-      <c r="K274" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" ht="102" customHeight="1">
+      <c r="K274" s="3"/>
+      <c r="L274" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" ht="102" customHeight="1">
       <c r="A275" s="1">
         <v>275</v>
       </c>
@@ -14424,17 +14533,17 @@
       <c r="F275" s="2" t="s">
         <v>1000</v>
       </c>
-      <c r="G275" s="2" t="s">
+      <c r="H275" s="2" t="s">
         <v>991</v>
       </c>
-      <c r="H275" s="3"/>
-      <c r="I275" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J275" s="3"/>
+      <c r="I275" s="3"/>
+      <c r="J275" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K275" s="3"/>
-    </row>
-    <row r="276" spans="1:11" ht="102" customHeight="1">
+      <c r="L275" s="3"/>
+    </row>
+    <row r="276" spans="1:12" ht="102" customHeight="1">
       <c r="A276" s="1">
         <v>276</v>
       </c>
@@ -14453,12 +14562,12 @@
       <c r="F276" s="2" t="s">
         <v>1003</v>
       </c>
-      <c r="H276" s="3"/>
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
       <c r="K276" s="3"/>
-    </row>
-    <row r="277" spans="1:11" ht="102" customHeight="1">
+      <c r="L276" s="3"/>
+    </row>
+    <row r="277" spans="1:12" ht="102" customHeight="1">
       <c r="A277" s="1">
         <v>277</v>
       </c>
@@ -14477,12 +14586,12 @@
       <c r="F277" s="2" t="s">
         <v>1006</v>
       </c>
-      <c r="H277" s="3"/>
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
       <c r="K277" s="3"/>
-    </row>
-    <row r="278" spans="1:11" ht="102" customHeight="1">
+      <c r="L277" s="3"/>
+    </row>
+    <row r="278" spans="1:12" ht="102" customHeight="1">
       <c r="A278" s="1">
         <v>278</v>
       </c>
@@ -14501,14 +14610,14 @@
       <c r="F278" s="2" t="s">
         <v>1010</v>
       </c>
-      <c r="H278" s="3"/>
       <c r="I278" s="3"/>
       <c r="J278" s="3"/>
-      <c r="K278" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" ht="102" customHeight="1">
+      <c r="K278" s="3"/>
+      <c r="L278" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" ht="102" customHeight="1">
       <c r="A279" s="1">
         <v>279</v>
       </c>
@@ -14527,15 +14636,16 @@
       <c r="F279" s="4" t="s">
         <v>1955</v>
       </c>
-      <c r="G279" s="4" t="s">
+      <c r="G279" s="4"/>
+      <c r="H279" s="4" t="s">
         <v>1956</v>
       </c>
-      <c r="H279" s="3"/>
       <c r="I279" s="3"/>
       <c r="J279" s="3"/>
       <c r="K279" s="3"/>
-    </row>
-    <row r="280" spans="1:11" ht="102" customHeight="1">
+      <c r="L279" s="3"/>
+    </row>
+    <row r="280" spans="1:12" ht="102" customHeight="1">
       <c r="A280" s="1">
         <v>280</v>
       </c>
@@ -14554,15 +14664,15 @@
       <c r="F280" s="2" t="s">
         <v>1016</v>
       </c>
-      <c r="G280" s="2" t="s">
+      <c r="H280" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="H280" s="3"/>
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
       <c r="K280" s="3"/>
-    </row>
-    <row r="281" spans="1:11" ht="102" customHeight="1">
+      <c r="L280" s="3"/>
+    </row>
+    <row r="281" spans="1:12" ht="102" customHeight="1">
       <c r="A281" s="1">
         <v>281</v>
       </c>
@@ -14581,14 +14691,14 @@
       <c r="F281" s="2" t="s">
         <v>1020</v>
       </c>
-      <c r="H281" s="3"/>
       <c r="I281" s="3"/>
-      <c r="J281" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K281" s="3"/>
-    </row>
-    <row r="282" spans="1:11" ht="102" customHeight="1">
+      <c r="J281" s="3"/>
+      <c r="K281" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L281" s="3"/>
+    </row>
+    <row r="282" spans="1:12" ht="102" customHeight="1">
       <c r="A282" s="1">
         <v>282</v>
       </c>
@@ -14607,12 +14717,12 @@
       <c r="F282" s="2" t="s">
         <v>1023</v>
       </c>
-      <c r="H282" s="3"/>
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
       <c r="K282" s="3"/>
-    </row>
-    <row r="283" spans="1:11" ht="102" customHeight="1">
+      <c r="L282" s="3"/>
+    </row>
+    <row r="283" spans="1:12" ht="102" customHeight="1">
       <c r="A283" s="1">
         <v>283</v>
       </c>
@@ -14631,14 +14741,14 @@
       <c r="F283" s="2" t="s">
         <v>1026</v>
       </c>
-      <c r="H283" s="3"/>
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
-      <c r="K283" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11" ht="102" customHeight="1">
+      <c r="K283" s="3"/>
+      <c r="L283" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" ht="102" customHeight="1">
       <c r="A284" s="1">
         <v>284</v>
       </c>
@@ -14657,12 +14767,12 @@
       <c r="F284" s="2" t="s">
         <v>1029</v>
       </c>
-      <c r="H284" s="3"/>
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
       <c r="K284" s="3"/>
-    </row>
-    <row r="285" spans="1:11" ht="102" customHeight="1">
+      <c r="L284" s="3"/>
+    </row>
+    <row r="285" spans="1:12" ht="102" customHeight="1">
       <c r="A285" s="1">
         <v>285</v>
       </c>
@@ -14681,16 +14791,16 @@
       <c r="F285" s="2" t="s">
         <v>1032</v>
       </c>
-      <c r="H285" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I285" s="3"/>
+      <c r="I285" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J285" s="3"/>
-      <c r="K285" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11" ht="102" customHeight="1">
+      <c r="K285" s="3"/>
+      <c r="L285" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" ht="102" customHeight="1">
       <c r="A286" s="1">
         <v>286</v>
       </c>
@@ -14709,17 +14819,17 @@
       <c r="F286" s="2" t="s">
         <v>1035</v>
       </c>
-      <c r="G286" s="2" t="s">
+      <c r="H286" s="2" t="s">
         <v>1036</v>
       </c>
-      <c r="H286" s="3"/>
-      <c r="I286" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J286" s="3"/>
+      <c r="I286" s="3"/>
+      <c r="J286" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K286" s="3"/>
-    </row>
-    <row r="287" spans="1:11" ht="102" customHeight="1">
+      <c r="L286" s="3"/>
+    </row>
+    <row r="287" spans="1:12" ht="102" customHeight="1">
       <c r="A287" s="1">
         <v>287</v>
       </c>
@@ -14738,12 +14848,12 @@
       <c r="F287" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="H287" s="3"/>
       <c r="I287" s="3"/>
       <c r="J287" s="3"/>
       <c r="K287" s="3"/>
-    </row>
-    <row r="288" spans="1:11" ht="102" customHeight="1">
+      <c r="L287" s="3"/>
+    </row>
+    <row r="288" spans="1:12" ht="102" customHeight="1">
       <c r="A288" s="1">
         <v>288</v>
       </c>
@@ -14763,14 +14873,15 @@
         <v>1042</v>
       </c>
       <c r="G288" s="7"/>
-      <c r="H288" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I288" s="3"/>
+      <c r="H288" s="7"/>
+      <c r="I288" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J288" s="3"/>
       <c r="K288" s="3"/>
-    </row>
-    <row r="289" spans="1:11" ht="102" customHeight="1">
+      <c r="L288" s="3"/>
+    </row>
+    <row r="289" spans="1:12" ht="102" customHeight="1">
       <c r="A289" s="1">
         <v>289</v>
       </c>
@@ -14789,17 +14900,17 @@
       <c r="F289" s="2" t="s">
         <v>2040</v>
       </c>
-      <c r="G289" s="2" t="s">
+      <c r="H289" s="2" t="s">
         <v>2047</v>
       </c>
-      <c r="H289" s="3"/>
       <c r="I289" s="3"/>
-      <c r="J289" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K289" s="3"/>
-    </row>
-    <row r="290" spans="1:11" ht="102" customHeight="1">
+      <c r="J289" s="3"/>
+      <c r="K289" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L289" s="3"/>
+    </row>
+    <row r="290" spans="1:12" ht="102" customHeight="1">
       <c r="A290" s="1">
         <v>290</v>
       </c>
@@ -14818,12 +14929,12 @@
       <c r="F290" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="H290" s="3"/>
       <c r="I290" s="3"/>
       <c r="J290" s="3"/>
       <c r="K290" s="3"/>
-    </row>
-    <row r="291" spans="1:11" ht="102" customHeight="1">
+      <c r="L290" s="3"/>
+    </row>
+    <row r="291" spans="1:12" ht="102" customHeight="1">
       <c r="A291" s="1">
         <v>291</v>
       </c>
@@ -14842,12 +14953,12 @@
       <c r="F291" s="2" t="s">
         <v>1050</v>
       </c>
-      <c r="H291" s="3"/>
       <c r="I291" s="3"/>
       <c r="J291" s="3"/>
       <c r="K291" s="3"/>
-    </row>
-    <row r="292" spans="1:11" ht="102" customHeight="1">
+      <c r="L291" s="3"/>
+    </row>
+    <row r="292" spans="1:12" ht="102" customHeight="1">
       <c r="A292" s="1">
         <v>292</v>
       </c>
@@ -14866,17 +14977,17 @@
       <c r="F292" s="2" t="s">
         <v>1053</v>
       </c>
-      <c r="G292" s="2" t="s">
+      <c r="H292" s="2" t="s">
         <v>991</v>
       </c>
-      <c r="H292" s="3"/>
       <c r="I292" s="3"/>
       <c r="J292" s="3"/>
-      <c r="K292" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="293" spans="1:11" ht="102" customHeight="1">
+      <c r="K292" s="3"/>
+      <c r="L292" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" ht="102" customHeight="1">
       <c r="A293" s="1">
         <v>293</v>
       </c>
@@ -14895,14 +15006,14 @@
       <c r="F293" s="2" t="s">
         <v>1057</v>
       </c>
-      <c r="H293" s="3"/>
       <c r="I293" s="3"/>
       <c r="J293" s="3"/>
-      <c r="K293" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11" ht="102" customHeight="1">
+      <c r="K293" s="3"/>
+      <c r="L293" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" ht="102" customHeight="1">
       <c r="A294" s="1">
         <v>294</v>
       </c>
@@ -14922,14 +15033,15 @@
         <v>1060</v>
       </c>
       <c r="G294" s="7"/>
-      <c r="H294" s="3"/>
-      <c r="I294" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J294" s="3"/>
+      <c r="H294" s="7"/>
+      <c r="I294" s="3"/>
+      <c r="J294" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K294" s="3"/>
-    </row>
-    <row r="295" spans="1:11" ht="102" customHeight="1">
+      <c r="L294" s="3"/>
+    </row>
+    <row r="295" spans="1:12" ht="102" customHeight="1">
       <c r="A295" s="1">
         <v>295</v>
       </c>
@@ -14948,17 +15060,17 @@
       <c r="F295" s="2" t="s">
         <v>2041</v>
       </c>
-      <c r="G295" s="2" t="s">
+      <c r="H295" s="2" t="s">
         <v>2048</v>
       </c>
-      <c r="H295" s="3"/>
       <c r="I295" s="3"/>
       <c r="J295" s="3"/>
-      <c r="K295" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11" ht="102" customHeight="1">
+      <c r="K295" s="3"/>
+      <c r="L295" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" ht="102" customHeight="1">
       <c r="A296" s="1">
         <v>296</v>
       </c>
@@ -14977,14 +15089,14 @@
       <c r="F296" s="2" t="s">
         <v>2052</v>
       </c>
-      <c r="H296" s="3"/>
       <c r="I296" s="3"/>
-      <c r="J296" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K296" s="3"/>
-    </row>
-    <row r="297" spans="1:11" ht="102" customHeight="1">
+      <c r="J296" s="3"/>
+      <c r="K296" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L296" s="3"/>
+    </row>
+    <row r="297" spans="1:12" ht="102" customHeight="1">
       <c r="A297" s="1">
         <v>297</v>
       </c>
@@ -15003,12 +15115,12 @@
       <c r="F297" s="2" t="s">
         <v>1067</v>
       </c>
-      <c r="H297" s="3"/>
       <c r="I297" s="3"/>
       <c r="J297" s="3"/>
       <c r="K297" s="3"/>
-    </row>
-    <row r="298" spans="1:11" ht="102" customHeight="1">
+      <c r="L297" s="3"/>
+    </row>
+    <row r="298" spans="1:12" ht="102" customHeight="1">
       <c r="A298" s="1">
         <v>298</v>
       </c>
@@ -15027,12 +15139,12 @@
       <c r="F298" s="2" t="s">
         <v>1070</v>
       </c>
-      <c r="H298" s="3"/>
       <c r="I298" s="3"/>
       <c r="J298" s="3"/>
       <c r="K298" s="3"/>
-    </row>
-    <row r="299" spans="1:11" ht="102" customHeight="1">
+      <c r="L298" s="3"/>
+    </row>
+    <row r="299" spans="1:12" ht="102" customHeight="1">
       <c r="A299" s="1">
         <v>299</v>
       </c>
@@ -15051,17 +15163,17 @@
       <c r="F299" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="G299" s="2" t="s">
+      <c r="H299" s="2" t="s">
         <v>1074</v>
       </c>
-      <c r="H299" s="3"/>
-      <c r="I299" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J299" s="3"/>
+      <c r="I299" s="3"/>
+      <c r="J299" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K299" s="3"/>
-    </row>
-    <row r="300" spans="1:11" ht="102" customHeight="1">
+      <c r="L299" s="3"/>
+    </row>
+    <row r="300" spans="1:12" ht="102" customHeight="1">
       <c r="A300" s="1">
         <v>300</v>
       </c>
@@ -15080,14 +15192,14 @@
       <c r="F300" s="2" t="s">
         <v>1077</v>
       </c>
-      <c r="H300" s="3"/>
-      <c r="I300" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J300" s="3"/>
+      <c r="I300" s="3"/>
+      <c r="J300" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K300" s="3"/>
-    </row>
-    <row r="301" spans="1:11" ht="102" customHeight="1">
+      <c r="L300" s="3"/>
+    </row>
+    <row r="301" spans="1:12" ht="102" customHeight="1">
       <c r="A301" s="1">
         <v>301</v>
       </c>
@@ -15106,14 +15218,14 @@
       <c r="F301" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="H301" s="3"/>
-      <c r="I301" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J301" s="3"/>
+      <c r="I301" s="3"/>
+      <c r="J301" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K301" s="3"/>
-    </row>
-    <row r="302" spans="1:11" ht="102" customHeight="1">
+      <c r="L301" s="3"/>
+    </row>
+    <row r="302" spans="1:12" ht="102" customHeight="1">
       <c r="A302" s="1">
         <v>302</v>
       </c>
@@ -15132,12 +15244,12 @@
       <c r="F302" s="2" t="s">
         <v>1084</v>
       </c>
-      <c r="H302" s="3"/>
       <c r="I302" s="3"/>
       <c r="J302" s="3"/>
       <c r="K302" s="3"/>
-    </row>
-    <row r="303" spans="1:11" ht="102" customHeight="1">
+      <c r="L302" s="3"/>
+    </row>
+    <row r="303" spans="1:12" ht="102" customHeight="1">
       <c r="A303" s="1">
         <v>303</v>
       </c>
@@ -15156,15 +15268,15 @@
       <c r="F303" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="G303" s="2" t="s">
+      <c r="H303" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="H303" s="3"/>
       <c r="I303" s="3"/>
       <c r="J303" s="3"/>
       <c r="K303" s="3"/>
-    </row>
-    <row r="304" spans="1:11" ht="102" customHeight="1">
+      <c r="L303" s="3"/>
+    </row>
+    <row r="304" spans="1:12" ht="102" customHeight="1">
       <c r="A304" s="1">
         <v>304</v>
       </c>
@@ -15183,12 +15295,12 @@
       <c r="F304" s="2" t="s">
         <v>2023</v>
       </c>
-      <c r="H304" s="3"/>
       <c r="I304" s="3"/>
       <c r="J304" s="3"/>
       <c r="K304" s="3"/>
-    </row>
-    <row r="305" spans="1:11" ht="102" customHeight="1">
+      <c r="L304" s="3"/>
+    </row>
+    <row r="305" spans="1:12" ht="102" customHeight="1">
       <c r="A305" s="1">
         <v>305</v>
       </c>
@@ -15207,14 +15319,14 @@
       <c r="F305" s="2" t="s">
         <v>1094</v>
       </c>
-      <c r="H305" s="3"/>
       <c r="I305" s="3"/>
-      <c r="J305" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K305" s="3"/>
-    </row>
-    <row r="306" spans="1:11" ht="102" customHeight="1">
+      <c r="J305" s="3"/>
+      <c r="K305" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L305" s="3"/>
+    </row>
+    <row r="306" spans="1:12" ht="102" customHeight="1">
       <c r="A306" s="1">
         <v>306</v>
       </c>
@@ -15233,12 +15345,12 @@
       <c r="F306" s="2" t="s">
         <v>1097</v>
       </c>
-      <c r="H306" s="3"/>
       <c r="I306" s="3"/>
       <c r="J306" s="3"/>
       <c r="K306" s="3"/>
-    </row>
-    <row r="307" spans="1:11" ht="102" customHeight="1">
+      <c r="L306" s="3"/>
+    </row>
+    <row r="307" spans="1:12" ht="102" customHeight="1">
       <c r="A307" s="1">
         <v>307</v>
       </c>
@@ -15257,15 +15369,15 @@
       <c r="F307" s="2" t="s">
         <v>1101</v>
       </c>
-      <c r="G307" s="2" t="s">
+      <c r="H307" s="2" t="s">
         <v>1102</v>
       </c>
-      <c r="H307" s="3"/>
       <c r="I307" s="3"/>
       <c r="J307" s="3"/>
       <c r="K307" s="3"/>
-    </row>
-    <row r="308" spans="1:11" ht="102" customHeight="1">
+      <c r="L307" s="3"/>
+    </row>
+    <row r="308" spans="1:12" ht="102" customHeight="1">
       <c r="A308" s="1">
         <v>308</v>
       </c>
@@ -15284,15 +15396,15 @@
       <c r="F308" s="2" t="s">
         <v>2049</v>
       </c>
-      <c r="G308" s="2" t="s">
+      <c r="H308" s="2" t="s">
         <v>2048</v>
       </c>
-      <c r="H308" s="3"/>
       <c r="I308" s="3"/>
       <c r="J308" s="3"/>
       <c r="K308" s="3"/>
-    </row>
-    <row r="309" spans="1:11" ht="102" customHeight="1">
+      <c r="L308" s="3"/>
+    </row>
+    <row r="309" spans="1:12" ht="102" customHeight="1">
       <c r="A309" s="1">
         <v>309</v>
       </c>
@@ -15312,14 +15424,15 @@
         <v>1107</v>
       </c>
       <c r="G309" s="4"/>
-      <c r="H309" s="3"/>
+      <c r="H309" s="4"/>
       <c r="I309" s="3"/>
-      <c r="J309" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K309" s="3"/>
-    </row>
-    <row r="310" spans="1:11" ht="102" customHeight="1">
+      <c r="J309" s="3"/>
+      <c r="K309" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L309" s="3"/>
+    </row>
+    <row r="310" spans="1:12" ht="102" customHeight="1">
       <c r="A310" s="1">
         <v>310</v>
       </c>
@@ -15338,15 +15451,15 @@
       <c r="F310" s="2" t="s">
         <v>1110</v>
       </c>
-      <c r="G310" s="2" t="s">
+      <c r="H310" s="2" t="s">
         <v>1102</v>
       </c>
-      <c r="H310" s="3"/>
       <c r="I310" s="3"/>
       <c r="J310" s="3"/>
       <c r="K310" s="3"/>
-    </row>
-    <row r="311" spans="1:11" ht="102" customHeight="1">
+      <c r="L310" s="3"/>
+    </row>
+    <row r="311" spans="1:12" ht="102" customHeight="1">
       <c r="A311" s="1">
         <v>311</v>
       </c>
@@ -15365,17 +15478,17 @@
       <c r="F311" s="2" t="s">
         <v>1114</v>
       </c>
-      <c r="G311" s="2" t="s">
+      <c r="H311" s="2" t="s">
         <v>1115</v>
       </c>
-      <c r="H311" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I311" s="3"/>
+      <c r="I311" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J311" s="3"/>
       <c r="K311" s="3"/>
-    </row>
-    <row r="312" spans="1:11" ht="102" customHeight="1">
+      <c r="L311" s="3"/>
+    </row>
+    <row r="312" spans="1:12" ht="102" customHeight="1">
       <c r="A312" s="1">
         <v>312</v>
       </c>
@@ -15394,12 +15507,12 @@
       <c r="F312" s="2" t="s">
         <v>1117</v>
       </c>
-      <c r="H312" s="3"/>
       <c r="I312" s="3"/>
       <c r="J312" s="3"/>
       <c r="K312" s="3"/>
-    </row>
-    <row r="313" spans="1:11" ht="102" customHeight="1">
+      <c r="L312" s="3"/>
+    </row>
+    <row r="313" spans="1:12" ht="102" customHeight="1">
       <c r="A313" s="1">
         <v>313</v>
       </c>
@@ -15418,15 +15531,15 @@
       <c r="F313" s="2" t="s">
         <v>1120</v>
       </c>
-      <c r="G313" s="2" t="s">
+      <c r="H313" s="2" t="s">
         <v>1121</v>
       </c>
-      <c r="H313" s="3"/>
       <c r="I313" s="3"/>
       <c r="J313" s="3"/>
       <c r="K313" s="3"/>
-    </row>
-    <row r="314" spans="1:11" ht="102" customHeight="1">
+      <c r="L313" s="3"/>
+    </row>
+    <row r="314" spans="1:12" ht="102" customHeight="1">
       <c r="A314" s="1">
         <v>314</v>
       </c>
@@ -15445,12 +15558,12 @@
       <c r="F314" s="2" t="s">
         <v>1124</v>
       </c>
-      <c r="H314" s="3"/>
       <c r="I314" s="3"/>
       <c r="J314" s="3"/>
       <c r="K314" s="3"/>
-    </row>
-    <row r="315" spans="1:11" ht="102" customHeight="1">
+      <c r="L314" s="3"/>
+    </row>
+    <row r="315" spans="1:12" ht="102" customHeight="1">
       <c r="A315" s="1">
         <v>315</v>
       </c>
@@ -15469,17 +15582,18 @@
       <c r="F315" s="4" t="s">
         <v>1127</v>
       </c>
-      <c r="G315" s="4" t="s">
+      <c r="G315" s="4"/>
+      <c r="H315" s="4" t="s">
         <v>2029</v>
       </c>
-      <c r="H315" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I315" s="3"/>
+      <c r="I315" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J315" s="3"/>
       <c r="K315" s="3"/>
-    </row>
-    <row r="316" spans="1:11" ht="102" customHeight="1">
+      <c r="L315" s="3"/>
+    </row>
+    <row r="316" spans="1:12" ht="102" customHeight="1">
       <c r="A316" s="1">
         <v>316</v>
       </c>
@@ -15498,17 +15612,17 @@
       <c r="F316" s="2" t="s">
         <v>1130</v>
       </c>
-      <c r="G316" s="2" t="s">
+      <c r="H316" s="2" t="s">
         <v>2024</v>
       </c>
-      <c r="H316" s="3"/>
-      <c r="I316" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J316" s="3"/>
+      <c r="I316" s="3"/>
+      <c r="J316" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K316" s="3"/>
-    </row>
-    <row r="317" spans="1:11" ht="102" customHeight="1">
+      <c r="L316" s="3"/>
+    </row>
+    <row r="317" spans="1:12" ht="102" customHeight="1">
       <c r="A317" s="1">
         <v>317</v>
       </c>
@@ -15527,12 +15641,12 @@
       <c r="F317" s="2" t="s">
         <v>1133</v>
       </c>
-      <c r="H317" s="3"/>
       <c r="I317" s="3"/>
       <c r="J317" s="3"/>
       <c r="K317" s="3"/>
-    </row>
-    <row r="318" spans="1:11" ht="102" customHeight="1">
+      <c r="L317" s="3"/>
+    </row>
+    <row r="318" spans="1:12" ht="102" customHeight="1">
       <c r="A318" s="1">
         <v>318</v>
       </c>
@@ -15551,14 +15665,14 @@
       <c r="F318" s="2" t="s">
         <v>1137</v>
       </c>
-      <c r="H318" s="3"/>
       <c r="I318" s="3"/>
       <c r="J318" s="3"/>
-      <c r="K318" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="319" spans="1:11" ht="102" customHeight="1">
+      <c r="K318" s="3"/>
+      <c r="L318" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" ht="102" customHeight="1">
       <c r="A319" s="1">
         <v>319</v>
       </c>
@@ -15577,17 +15691,18 @@
       <c r="F319" s="4" t="s">
         <v>1110</v>
       </c>
-      <c r="G319" s="4" t="s">
+      <c r="G319" s="4"/>
+      <c r="H319" s="4" t="s">
         <v>1102</v>
       </c>
-      <c r="H319" s="3"/>
       <c r="I319" s="3"/>
-      <c r="J319" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K319" s="3"/>
-    </row>
-    <row r="320" spans="1:11" ht="102" customHeight="1">
+      <c r="J319" s="3"/>
+      <c r="K319" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L319" s="3"/>
+    </row>
+    <row r="320" spans="1:12" ht="102" customHeight="1">
       <c r="A320" s="1">
         <v>320</v>
       </c>
@@ -15606,17 +15721,17 @@
       <c r="F320" s="2" t="s">
         <v>1142</v>
       </c>
-      <c r="G320" s="2" t="s">
+      <c r="H320" s="2" t="s">
         <v>2030</v>
       </c>
-      <c r="H320" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I320" s="3"/>
+      <c r="I320" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J320" s="3"/>
       <c r="K320" s="3"/>
-    </row>
-    <row r="321" spans="1:11" ht="102" customHeight="1">
+      <c r="L320" s="3"/>
+    </row>
+    <row r="321" spans="1:12" ht="102" customHeight="1">
       <c r="A321" s="1">
         <v>321</v>
       </c>
@@ -15635,12 +15750,12 @@
       <c r="F321" s="2" t="s">
         <v>1145</v>
       </c>
-      <c r="H321" s="3"/>
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
       <c r="K321" s="3"/>
-    </row>
-    <row r="322" spans="1:11" ht="102" customHeight="1">
+      <c r="L321" s="3"/>
+    </row>
+    <row r="322" spans="1:12" ht="102" customHeight="1">
       <c r="A322" s="1">
         <v>322</v>
       </c>
@@ -15659,14 +15774,14 @@
       <c r="F322" s="2" t="s">
         <v>1148</v>
       </c>
-      <c r="H322" s="3"/>
       <c r="I322" s="3"/>
-      <c r="J322" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K322" s="3"/>
-    </row>
-    <row r="323" spans="1:11" ht="102" customHeight="1">
+      <c r="J322" s="3"/>
+      <c r="K322" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L322" s="3"/>
+    </row>
+    <row r="323" spans="1:12" ht="102" customHeight="1">
       <c r="A323" s="1">
         <v>323</v>
       </c>
@@ -15685,12 +15800,12 @@
       <c r="F323" s="2" t="s">
         <v>2042</v>
       </c>
-      <c r="H323" s="3"/>
       <c r="I323" s="3"/>
       <c r="J323" s="3"/>
       <c r="K323" s="3"/>
-    </row>
-    <row r="324" spans="1:11" ht="102" customHeight="1">
+      <c r="L323" s="3"/>
+    </row>
+    <row r="324" spans="1:12" ht="102" customHeight="1">
       <c r="A324" s="1">
         <v>324</v>
       </c>
@@ -15709,16 +15824,16 @@
       <c r="F324" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="H324" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I324" s="3"/>
+      <c r="I324" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J324" s="3"/>
-      <c r="K324" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="325" spans="1:11" ht="102" customHeight="1">
+      <c r="K324" s="3"/>
+      <c r="L324" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" ht="102" customHeight="1">
       <c r="A325" s="1">
         <v>325</v>
       </c>
@@ -15737,12 +15852,12 @@
       <c r="F325" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="H325" s="3"/>
       <c r="I325" s="3"/>
       <c r="J325" s="3"/>
       <c r="K325" s="3"/>
-    </row>
-    <row r="326" spans="1:11" ht="102" customHeight="1">
+      <c r="L325" s="3"/>
+    </row>
+    <row r="326" spans="1:12" ht="102" customHeight="1">
       <c r="A326" s="1">
         <v>326</v>
       </c>
@@ -15761,14 +15876,14 @@
       <c r="F326" s="2" t="s">
         <v>1159</v>
       </c>
-      <c r="H326" s="3"/>
       <c r="I326" s="3"/>
-      <c r="J326" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K326" s="3"/>
-    </row>
-    <row r="327" spans="1:11" ht="102" customHeight="1">
+      <c r="J326" s="3"/>
+      <c r="K326" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L326" s="3"/>
+    </row>
+    <row r="327" spans="1:12" ht="102" customHeight="1">
       <c r="A327" s="1">
         <v>327</v>
       </c>
@@ -15787,15 +15902,15 @@
       <c r="F327" s="2" t="s">
         <v>2025</v>
       </c>
-      <c r="G327" s="2" t="s">
+      <c r="H327" s="2" t="s">
         <v>1163</v>
       </c>
-      <c r="H327" s="3"/>
       <c r="I327" s="3"/>
       <c r="J327" s="3"/>
       <c r="K327" s="3"/>
-    </row>
-    <row r="328" spans="1:11" ht="102" customHeight="1">
+      <c r="L327" s="3"/>
+    </row>
+    <row r="328" spans="1:12" ht="102" customHeight="1">
       <c r="A328" s="1">
         <v>328</v>
       </c>
@@ -15814,14 +15929,14 @@
       <c r="F328" s="2" t="s">
         <v>1167</v>
       </c>
-      <c r="H328" s="3"/>
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
-      <c r="K328" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="329" spans="1:11" ht="102" customHeight="1">
+      <c r="K328" s="3"/>
+      <c r="L328" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" ht="102" customHeight="1">
       <c r="A329" s="1">
         <v>329</v>
       </c>
@@ -15840,16 +15955,16 @@
       <c r="F329" s="2" t="s">
         <v>1170</v>
       </c>
-      <c r="H329" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I329" s="3"/>
+      <c r="I329" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J329" s="3"/>
-      <c r="K329" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="330" spans="1:11" ht="102" customHeight="1">
+      <c r="K329" s="3"/>
+      <c r="L329" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" ht="102" customHeight="1">
       <c r="A330" s="1">
         <v>330</v>
       </c>
@@ -15868,19 +15983,19 @@
       <c r="F330" s="2" t="s">
         <v>1173</v>
       </c>
-      <c r="G330" s="2" t="s">
+      <c r="H330" s="2" t="s">
         <v>1174</v>
       </c>
-      <c r="H330" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I330" s="3"/>
+      <c r="I330" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J330" s="3"/>
-      <c r="K330" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="331" spans="1:11" ht="102" customHeight="1">
+      <c r="K330" s="3"/>
+      <c r="L330" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" ht="102" customHeight="1">
       <c r="A331" s="1">
         <v>331</v>
       </c>
@@ -15899,16 +16014,16 @@
       <c r="F331" s="2" t="s">
         <v>1177</v>
       </c>
-      <c r="H331" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I331" s="3"/>
+      <c r="I331" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J331" s="3"/>
-      <c r="K331" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="332" spans="1:11" ht="102" customHeight="1">
+      <c r="K331" s="3"/>
+      <c r="L331" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" ht="102" customHeight="1">
       <c r="A332" s="1">
         <v>332</v>
       </c>
@@ -15927,14 +16042,14 @@
       <c r="F332" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="H332" s="3"/>
-      <c r="I332" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J332" s="3"/>
+      <c r="I332" s="3"/>
+      <c r="J332" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K332" s="3"/>
-    </row>
-    <row r="333" spans="1:11" ht="102" customHeight="1">
+      <c r="L332" s="3"/>
+    </row>
+    <row r="333" spans="1:12" ht="102" customHeight="1">
       <c r="A333" s="1">
         <v>333</v>
       </c>
@@ -15953,12 +16068,12 @@
       <c r="F333" s="2" t="s">
         <v>1183</v>
       </c>
-      <c r="H333" s="3"/>
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
       <c r="K333" s="3"/>
-    </row>
-    <row r="334" spans="1:11" ht="102" customHeight="1">
+      <c r="L333" s="3"/>
+    </row>
+    <row r="334" spans="1:12" ht="102" customHeight="1">
       <c r="A334" s="1">
         <v>334</v>
       </c>
@@ -15977,14 +16092,14 @@
       <c r="F334" s="2" t="s">
         <v>1032</v>
       </c>
-      <c r="H334" s="3"/>
       <c r="I334" s="3"/>
-      <c r="J334" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K334" s="3"/>
-    </row>
-    <row r="335" spans="1:11" ht="102" customHeight="1">
+      <c r="J334" s="3"/>
+      <c r="K334" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L334" s="3"/>
+    </row>
+    <row r="335" spans="1:12" ht="102" customHeight="1">
       <c r="A335" s="1">
         <v>335</v>
       </c>
@@ -16003,15 +16118,15 @@
       <c r="F335" s="2" t="s">
         <v>1188</v>
       </c>
-      <c r="G335" s="2" t="s">
+      <c r="H335" s="2" t="s">
         <v>2029</v>
       </c>
-      <c r="H335" s="3"/>
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
       <c r="K335" s="3"/>
-    </row>
-    <row r="336" spans="1:11" ht="102" customHeight="1">
+      <c r="L335" s="3"/>
+    </row>
+    <row r="336" spans="1:12" ht="102" customHeight="1">
       <c r="A336" s="1">
         <v>336</v>
       </c>
@@ -16030,14 +16145,14 @@
       <c r="F336" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="H336" s="3"/>
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
-      <c r="K336" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="337" spans="1:11" ht="102" customHeight="1">
+      <c r="K336" s="3"/>
+      <c r="L336" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" ht="102" customHeight="1">
       <c r="A337" s="1">
         <v>337</v>
       </c>
@@ -16056,14 +16171,14 @@
       <c r="F337" s="2" t="s">
         <v>1194</v>
       </c>
-      <c r="H337" s="3"/>
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
-      <c r="K337" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="338" spans="1:11" ht="102" customHeight="1">
+      <c r="K337" s="3"/>
+      <c r="L337" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" ht="102" customHeight="1">
       <c r="A338" s="1">
         <v>338</v>
       </c>
@@ -16082,16 +16197,16 @@
       <c r="F338" s="2" t="s">
         <v>1197</v>
       </c>
-      <c r="H338" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I338" s="3"/>
+      <c r="I338" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J338" s="3"/>
-      <c r="K338" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="339" spans="1:11" ht="102" customHeight="1">
+      <c r="K338" s="3"/>
+      <c r="L338" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" ht="102" customHeight="1">
       <c r="A339" s="1">
         <v>339</v>
       </c>
@@ -16110,15 +16225,15 @@
       <c r="F339" s="2" t="s">
         <v>2043</v>
       </c>
-      <c r="G339" s="2" t="s">
+      <c r="H339" s="2" t="s">
         <v>1200</v>
       </c>
-      <c r="H339" s="3"/>
       <c r="I339" s="3"/>
       <c r="J339" s="3"/>
       <c r="K339" s="3"/>
-    </row>
-    <row r="340" spans="1:11" ht="102" customHeight="1">
+      <c r="L339" s="3"/>
+    </row>
+    <row r="340" spans="1:12" ht="102" customHeight="1">
       <c r="A340" s="1">
         <v>340</v>
       </c>
@@ -16137,16 +16252,16 @@
       <c r="F340" s="2" t="s">
         <v>1203</v>
       </c>
-      <c r="H340" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I340" s="3"/>
+      <c r="I340" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J340" s="3"/>
-      <c r="K340" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="341" spans="1:11" ht="102" customHeight="1">
+      <c r="K340" s="3"/>
+      <c r="L340" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" ht="102" customHeight="1">
       <c r="A341" s="1">
         <v>341</v>
       </c>
@@ -16165,12 +16280,12 @@
       <c r="F341" s="2" t="s">
         <v>1206</v>
       </c>
-      <c r="H341" s="3"/>
       <c r="I341" s="3"/>
       <c r="J341" s="3"/>
       <c r="K341" s="3"/>
-    </row>
-    <row r="342" spans="1:11" ht="102" customHeight="1">
+      <c r="L341" s="3"/>
+    </row>
+    <row r="342" spans="1:12" ht="102" customHeight="1">
       <c r="A342" s="1">
         <v>342</v>
       </c>
@@ -16189,15 +16304,15 @@
       <c r="F342" s="2" t="s">
         <v>1209</v>
       </c>
-      <c r="G342" s="2" t="s">
+      <c r="H342" s="2" t="s">
         <v>1210</v>
       </c>
-      <c r="H342" s="3"/>
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
       <c r="K342" s="3"/>
-    </row>
-    <row r="343" spans="1:11" ht="102" customHeight="1">
+      <c r="L342" s="3"/>
+    </row>
+    <row r="343" spans="1:12" ht="102" customHeight="1">
       <c r="A343" s="1">
         <v>343</v>
       </c>
@@ -16216,14 +16331,14 @@
       <c r="F343" s="2" t="s">
         <v>2026</v>
       </c>
-      <c r="H343" s="3"/>
       <c r="I343" s="3"/>
       <c r="J343" s="3"/>
-      <c r="K343" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="344" spans="1:11" ht="102" customHeight="1">
+      <c r="K343" s="3"/>
+      <c r="L343" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12" ht="102" customHeight="1">
       <c r="A344" s="1">
         <v>344</v>
       </c>
@@ -16242,15 +16357,16 @@
       <c r="F344" s="7" t="s">
         <v>1215</v>
       </c>
-      <c r="G344" s="7" t="s">
+      <c r="G344" s="7"/>
+      <c r="H344" s="7" t="s">
         <v>996</v>
       </c>
-      <c r="H344" s="3"/>
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
       <c r="K344" s="3"/>
-    </row>
-    <row r="345" spans="1:11" ht="102" customHeight="1">
+      <c r="L344" s="3"/>
+    </row>
+    <row r="345" spans="1:12" ht="102" customHeight="1">
       <c r="A345" s="1">
         <v>345</v>
       </c>
@@ -16269,15 +16385,15 @@
       <c r="F345" s="2" t="s">
         <v>1218</v>
       </c>
-      <c r="G345" s="2" t="s">
+      <c r="H345" s="2" t="s">
         <v>1219</v>
       </c>
-      <c r="H345" s="3"/>
       <c r="I345" s="3"/>
       <c r="J345" s="3"/>
       <c r="K345" s="3"/>
-    </row>
-    <row r="346" spans="1:11" ht="102" customHeight="1">
+      <c r="L345" s="3"/>
+    </row>
+    <row r="346" spans="1:12" ht="102" customHeight="1">
       <c r="A346" s="1">
         <v>346</v>
       </c>
@@ -16296,12 +16412,12 @@
       <c r="F346" s="2" t="s">
         <v>1222</v>
       </c>
-      <c r="H346" s="3"/>
       <c r="I346" s="3"/>
       <c r="J346" s="3"/>
       <c r="K346" s="3"/>
-    </row>
-    <row r="347" spans="1:11" ht="102" customHeight="1">
+      <c r="L346" s="3"/>
+    </row>
+    <row r="347" spans="1:12" ht="102" customHeight="1">
       <c r="A347" s="1">
         <v>347</v>
       </c>
@@ -16320,16 +16436,16 @@
       <c r="F347" s="2" t="s">
         <v>1225</v>
       </c>
-      <c r="H347" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I347" s="3"/>
+      <c r="I347" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J347" s="3"/>
-      <c r="K347" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="348" spans="1:11" ht="102" customHeight="1">
+      <c r="K347" s="3"/>
+      <c r="L347" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" ht="102" customHeight="1">
       <c r="A348" s="1">
         <v>348</v>
       </c>
@@ -16348,15 +16464,15 @@
       <c r="F348" s="2" t="s">
         <v>1228</v>
       </c>
-      <c r="G348" s="2" t="s">
+      <c r="H348" s="2" t="s">
         <v>2044</v>
       </c>
-      <c r="H348" s="3"/>
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
       <c r="K348" s="3"/>
-    </row>
-    <row r="349" spans="1:11" ht="102" customHeight="1">
+      <c r="L348" s="3"/>
+    </row>
+    <row r="349" spans="1:12" ht="102" customHeight="1">
       <c r="A349" s="1">
         <v>349</v>
       </c>
@@ -16375,17 +16491,17 @@
       <c r="F349" s="2" t="s">
         <v>1232</v>
       </c>
-      <c r="G349" s="2" t="s">
+      <c r="H349" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="H349" s="3"/>
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
-      <c r="K349" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="350" spans="1:11" ht="102" customHeight="1">
+      <c r="K349" s="3"/>
+      <c r="L349" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" ht="102" customHeight="1">
       <c r="A350" s="1">
         <v>350</v>
       </c>
@@ -16404,15 +16520,16 @@
       <c r="F350" s="7" t="s">
         <v>1236</v>
       </c>
-      <c r="G350" s="7" t="s">
+      <c r="G350" s="7"/>
+      <c r="H350" s="7" t="s">
         <v>2044</v>
       </c>
-      <c r="H350" s="3"/>
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
       <c r="K350" s="3"/>
-    </row>
-    <row r="351" spans="1:11" ht="102" customHeight="1">
+      <c r="L350" s="3"/>
+    </row>
+    <row r="351" spans="1:12" ht="102" customHeight="1">
       <c r="A351" s="1">
         <v>351</v>
       </c>
@@ -16431,17 +16548,17 @@
       <c r="F351" s="2" t="s">
         <v>1239</v>
       </c>
-      <c r="G351" s="2" t="s">
+      <c r="H351" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="H351" s="3"/>
-      <c r="I351" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J351" s="3"/>
+      <c r="I351" s="3"/>
+      <c r="J351" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="K351" s="3"/>
-    </row>
-    <row r="352" spans="1:11" ht="102" customHeight="1">
+      <c r="L351" s="3"/>
+    </row>
+    <row r="352" spans="1:12" ht="102" customHeight="1">
       <c r="A352" s="1">
         <v>352</v>
       </c>
@@ -16460,12 +16577,12 @@
       <c r="F352" s="2" t="s">
         <v>1243</v>
       </c>
-      <c r="H352" s="3"/>
       <c r="I352" s="3"/>
       <c r="J352" s="3"/>
       <c r="K352" s="3"/>
-    </row>
-    <row r="353" spans="1:11" ht="102" customHeight="1">
+      <c r="L352" s="3"/>
+    </row>
+    <row r="353" spans="1:12" ht="102" customHeight="1">
       <c r="A353" s="1">
         <v>353</v>
       </c>
@@ -16484,19 +16601,19 @@
       <c r="F353" s="2" t="s">
         <v>1246</v>
       </c>
-      <c r="G353" s="2" t="s">
+      <c r="H353" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="H353" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I353" s="3"/>
+      <c r="I353" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J353" s="3"/>
-      <c r="K353" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="354" spans="1:11" ht="102" customHeight="1">
+      <c r="K353" s="3"/>
+      <c r="L353" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" ht="102" customHeight="1">
       <c r="A354" s="1">
         <v>354</v>
       </c>
@@ -16515,16 +16632,16 @@
       <c r="F354" s="2" t="s">
         <v>1249</v>
       </c>
-      <c r="H354" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I354" s="3"/>
+      <c r="I354" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J354" s="3"/>
-      <c r="K354" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="355" spans="1:11" ht="102" customHeight="1">
+      <c r="K354" s="3"/>
+      <c r="L354" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" ht="102" customHeight="1">
       <c r="A355" s="1">
         <v>355</v>
       </c>
@@ -16543,19 +16660,19 @@
       <c r="F355" s="2" t="s">
         <v>1252</v>
       </c>
-      <c r="G355" s="2" t="s">
+      <c r="H355" s="2" t="s">
         <v>1253</v>
       </c>
-      <c r="H355" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I355" s="3"/>
+      <c r="I355" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J355" s="3"/>
-      <c r="K355" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="356" spans="1:11" ht="102" customHeight="1">
+      <c r="K355" s="3"/>
+      <c r="L355" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" ht="102" customHeight="1">
       <c r="A356" s="1">
         <v>356</v>
       </c>
@@ -16574,15 +16691,16 @@
       <c r="F356" s="4" t="s">
         <v>984</v>
       </c>
-      <c r="G356" s="4" t="s">
+      <c r="G356" s="4"/>
+      <c r="H356" s="4" t="s">
         <v>2029</v>
       </c>
-      <c r="H356" s="3"/>
       <c r="I356" s="3"/>
       <c r="J356" s="3"/>
       <c r="K356" s="3"/>
-    </row>
-    <row r="357" spans="1:11" ht="102" customHeight="1">
+      <c r="L356" s="3"/>
+    </row>
+    <row r="357" spans="1:12" ht="102" customHeight="1">
       <c r="A357" s="1">
         <v>357</v>
       </c>
@@ -16601,17 +16719,17 @@
       <c r="F357" s="2" t="s">
         <v>1258</v>
       </c>
-      <c r="G357" s="2" t="s">
+      <c r="H357" s="2" t="s">
         <v>1259</v>
       </c>
-      <c r="H357" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I357" s="3"/>
+      <c r="I357" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J357" s="3"/>
       <c r="K357" s="3"/>
-    </row>
-    <row r="358" spans="1:11" ht="30">
+      <c r="L357" s="3"/>
+    </row>
+    <row r="358" spans="1:12" ht="30">
       <c r="A358" s="1">
         <v>358</v>
       </c>
@@ -16631,7 +16749,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="359" spans="1:11" ht="150">
+    <row r="359" spans="1:12" ht="150">
       <c r="A359" s="1">
         <v>359</v>
       </c>
@@ -16650,11 +16768,11 @@
       <c r="F359" s="2" t="s">
         <v>1710</v>
       </c>
-      <c r="G359" s="2" t="s">
+      <c r="H359" s="2" t="s">
         <v>2031</v>
       </c>
     </row>
-    <row r="360" spans="1:11" ht="30">
+    <row r="360" spans="1:12" ht="30">
       <c r="A360" s="1">
         <v>360</v>
       </c>
@@ -16673,11 +16791,11 @@
       <c r="F360" s="2" t="s">
         <v>1711</v>
       </c>
-      <c r="K360" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="361" spans="1:11" ht="45">
+      <c r="L360" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" ht="45">
       <c r="A361" s="1">
         <v>361</v>
       </c>
@@ -16697,7 +16815,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="362" spans="1:11" ht="45">
+    <row r="362" spans="1:12" ht="45">
       <c r="A362" s="1">
         <v>362</v>
       </c>
@@ -16717,7 +16835,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="363" spans="1:11" ht="75">
+    <row r="363" spans="1:12" ht="75">
       <c r="A363" s="1">
         <v>363</v>
       </c>
@@ -16736,14 +16854,14 @@
       <c r="F363" s="2" t="s">
         <v>1722</v>
       </c>
-      <c r="G363" s="2" t="s">
+      <c r="H363" s="2" t="s">
         <v>1723</v>
       </c>
-      <c r="K363" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="364" spans="1:11" ht="30">
+      <c r="L363" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" ht="30">
       <c r="A364" s="1">
         <v>364</v>
       </c>
@@ -16762,11 +16880,11 @@
       <c r="F364" s="2" t="s">
         <v>1713</v>
       </c>
-      <c r="K364" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="365" spans="1:11" ht="60">
+      <c r="L364" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" ht="60">
       <c r="A365" s="1">
         <v>365</v>
       </c>
@@ -16785,17 +16903,17 @@
       <c r="F365" s="2" t="s">
         <v>1725</v>
       </c>
-      <c r="G365" s="2" t="s">
+      <c r="H365" s="2" t="s">
         <v>1726</v>
       </c>
-      <c r="I365" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K365" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="366" spans="1:11" ht="120">
+      <c r="J365" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L365" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" ht="120">
       <c r="A366" s="1">
         <v>366</v>
       </c>
@@ -16814,14 +16932,14 @@
       <c r="F366" s="2" t="s">
         <v>1728</v>
       </c>
-      <c r="G366" s="2" t="s">
+      <c r="H366" s="2" t="s">
         <v>1729</v>
       </c>
-      <c r="K366" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="367" spans="1:11" ht="225">
+      <c r="L366" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" ht="225">
       <c r="A367" s="1">
         <v>367</v>
       </c>
@@ -16840,14 +16958,14 @@
       <c r="F367" s="2" t="s">
         <v>1731</v>
       </c>
-      <c r="G367" s="2" t="s">
+      <c r="H367" s="2" t="s">
         <v>1732</v>
       </c>
-      <c r="K367" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="368" spans="1:11" ht="75">
+      <c r="L367" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12" ht="75">
       <c r="A368" s="1">
         <v>368</v>
       </c>
@@ -16866,14 +16984,14 @@
       <c r="F368" s="2" t="s">
         <v>1734</v>
       </c>
-      <c r="G368" s="2" t="s">
+      <c r="H368" s="2" t="s">
         <v>1735</v>
       </c>
-      <c r="I368" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="369" spans="1:11" ht="120">
+      <c r="J368" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12" ht="120">
       <c r="A369" s="1">
         <v>369</v>
       </c>
@@ -16892,14 +17010,14 @@
       <c r="F369" s="2" t="s">
         <v>1737</v>
       </c>
-      <c r="G369" s="2" t="s">
+      <c r="H369" s="2" t="s">
         <v>2045</v>
       </c>
-      <c r="K369" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="370" spans="1:11" ht="105">
+      <c r="L369" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" ht="105">
       <c r="A370" s="1">
         <v>370</v>
       </c>
@@ -16918,14 +17036,14 @@
       <c r="F370" s="2" t="s">
         <v>1739</v>
       </c>
-      <c r="G370" s="2" t="s">
+      <c r="H370" s="2" t="s">
         <v>1740</v>
       </c>
-      <c r="K370" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="371" spans="1:11" ht="30">
+      <c r="L370" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" ht="30">
       <c r="A371" s="1">
         <v>371</v>
       </c>
@@ -16944,11 +17062,11 @@
       <c r="F371" s="2" t="s">
         <v>1742</v>
       </c>
-      <c r="I371" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="372" spans="1:11" ht="45">
+      <c r="J371" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12" ht="45">
       <c r="A372" s="1">
         <v>372</v>
       </c>
@@ -16967,11 +17085,11 @@
       <c r="F372" s="2" t="s">
         <v>1744</v>
       </c>
-      <c r="G372" s="2" t="s">
+      <c r="H372" s="2" t="s">
         <v>2046</v>
       </c>
     </row>
-    <row r="373" spans="1:11" ht="45">
+    <row r="373" spans="1:12" ht="45">
       <c r="A373" s="1">
         <v>373</v>
       </c>
@@ -16991,7 +17109,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="374" spans="1:11" ht="90">
+    <row r="374" spans="1:12" ht="90">
       <c r="A374" s="1">
         <v>374</v>
       </c>
@@ -17010,11 +17128,11 @@
       <c r="F374" s="2" t="s">
         <v>1748</v>
       </c>
-      <c r="G374" s="2" t="s">
+      <c r="H374" s="2" t="s">
         <v>2033</v>
       </c>
     </row>
-    <row r="375" spans="1:11" ht="45">
+    <row r="375" spans="1:12" ht="45">
       <c r="A375" s="1">
         <v>375</v>
       </c>
@@ -17033,11 +17151,11 @@
       <c r="F375" s="2" t="s">
         <v>1750</v>
       </c>
-      <c r="G375" s="2" t="s">
+      <c r="H375" s="2" t="s">
         <v>1751</v>
       </c>
     </row>
-    <row r="376" spans="1:11" ht="60">
+    <row r="376" spans="1:12" ht="60">
       <c r="A376" s="1">
         <v>376</v>
       </c>
@@ -17056,17 +17174,17 @@
       <c r="F376" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="G376" s="2" t="s">
+      <c r="H376" s="2" t="s">
         <v>1922</v>
       </c>
-      <c r="H376" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K376" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="377" spans="1:11" ht="225">
+      <c r="I376" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L376" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12" ht="225">
       <c r="A377" s="1">
         <v>377</v>
       </c>
@@ -17085,14 +17203,14 @@
       <c r="F377" s="2" t="s">
         <v>1754</v>
       </c>
-      <c r="G377" s="2" t="s">
+      <c r="H377" s="2" t="s">
         <v>2050</v>
       </c>
-      <c r="I377" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="378" spans="1:11" ht="30">
+      <c r="J377" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12" ht="30">
       <c r="A378" s="1">
         <v>378</v>
       </c>
@@ -17111,14 +17229,14 @@
       <c r="F378" s="2" t="s">
         <v>1756</v>
       </c>
-      <c r="G378" s="2" t="s">
+      <c r="H378" s="2" t="s">
         <v>1757</v>
       </c>
-      <c r="H378" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="379" spans="1:11" ht="30">
+      <c r="I378" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12" ht="30">
       <c r="A379" s="1">
         <v>379</v>
       </c>
@@ -17137,11 +17255,11 @@
       <c r="F379" s="2" t="s">
         <v>1759</v>
       </c>
-      <c r="I379" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="380" spans="1:11" ht="75">
+      <c r="J379" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12" ht="75">
       <c r="A380" s="1">
         <v>380</v>
       </c>
@@ -17160,14 +17278,14 @@
       <c r="F380" s="2" t="s">
         <v>1761</v>
       </c>
-      <c r="G380" s="2" t="s">
+      <c r="H380" s="2" t="s">
         <v>1762</v>
       </c>
-      <c r="I380" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="381" spans="1:11" ht="30">
+      <c r="J380" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12" ht="30">
       <c r="A381" s="1">
         <v>381</v>
       </c>
@@ -17187,7 +17305,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="382" spans="1:11" ht="375">
+    <row r="382" spans="1:12" ht="375">
       <c r="A382" s="1">
         <v>382</v>
       </c>
@@ -17206,14 +17324,14 @@
       <c r="F382" s="2" t="s">
         <v>1766</v>
       </c>
-      <c r="G382" s="2" t="s">
+      <c r="H382" s="2" t="s">
         <v>1767</v>
       </c>
-      <c r="I382" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="383" spans="1:11" ht="105">
+      <c r="J382" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12" ht="105">
       <c r="A383" s="1">
         <v>383</v>
       </c>
@@ -17232,11 +17350,11 @@
       <c r="F383" s="2" t="s">
         <v>1769</v>
       </c>
-      <c r="G383" s="2" t="s">
+      <c r="H383" s="2" t="s">
         <v>1770</v>
       </c>
     </row>
-    <row r="384" spans="1:11" ht="45">
+    <row r="384" spans="1:12" ht="45">
       <c r="A384" s="1">
         <v>384</v>
       </c>
@@ -17255,11 +17373,11 @@
       <c r="F384" s="2" t="s">
         <v>1772</v>
       </c>
-      <c r="G384" s="2" t="s">
+      <c r="H384" s="2" t="s">
         <v>1773</v>
       </c>
     </row>
-    <row r="385" spans="1:11" ht="375">
+    <row r="385" spans="1:12" ht="375">
       <c r="A385" s="1">
         <v>385</v>
       </c>
@@ -17278,14 +17396,14 @@
       <c r="F385" s="2" t="s">
         <v>1766</v>
       </c>
-      <c r="G385" s="2" t="s">
+      <c r="H385" s="2" t="s">
         <v>1767</v>
       </c>
-      <c r="I385" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="386" spans="1:11" ht="105">
+      <c r="J385" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" ht="105">
       <c r="A386" s="1">
         <v>386</v>
       </c>
@@ -17304,14 +17422,14 @@
       <c r="F386" s="2" t="s">
         <v>1776</v>
       </c>
-      <c r="G386" s="2" t="s">
+      <c r="H386" s="2" t="s">
         <v>1777</v>
       </c>
-      <c r="I386" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="387" spans="1:11" ht="45">
+      <c r="J386" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" ht="45">
       <c r="A387" s="1">
         <v>387</v>
       </c>
@@ -17330,14 +17448,14 @@
       <c r="F387" s="2" t="s">
         <v>1779</v>
       </c>
-      <c r="H387" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K387" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="388" spans="1:11" ht="225">
+      <c r="I387" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L387" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" ht="225">
       <c r="A388" s="1">
         <v>388</v>
       </c>
@@ -17356,11 +17474,11 @@
       <c r="F388" s="2" t="s">
         <v>1781</v>
       </c>
-      <c r="G388" s="2" t="s">
+      <c r="H388" s="2" t="s">
         <v>1882</v>
       </c>
     </row>
-    <row r="389" spans="1:11" ht="30">
+    <row r="389" spans="1:12" ht="30">
       <c r="A389" s="1">
         <v>389</v>
       </c>
@@ -17379,14 +17497,14 @@
       <c r="F389" s="2" t="s">
         <v>1783</v>
       </c>
-      <c r="G389" s="2" t="s">
+      <c r="H389" s="2" t="s">
         <v>1784</v>
       </c>
-      <c r="K389" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="390" spans="1:11" ht="30">
+      <c r="L389" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" ht="30">
       <c r="A390" s="1">
         <v>390</v>
       </c>
@@ -17405,11 +17523,11 @@
       <c r="F390" s="2" t="s">
         <v>1786</v>
       </c>
-      <c r="G390" s="2" t="s">
+      <c r="H390" s="2" t="s">
         <v>1787</v>
       </c>
     </row>
-    <row r="391" spans="1:11" ht="60">
+    <row r="391" spans="1:12" ht="60">
       <c r="A391" s="1">
         <v>391</v>
       </c>
@@ -17428,14 +17546,14 @@
       <c r="F391" s="2" t="s">
         <v>1789</v>
       </c>
-      <c r="G391" s="2" t="s">
+      <c r="H391" s="2" t="s">
         <v>1790</v>
       </c>
-      <c r="K391" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="392" spans="1:11" ht="30">
+      <c r="L391" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" ht="30">
       <c r="A392" s="1">
         <v>392</v>
       </c>
@@ -17454,14 +17572,14 @@
       <c r="F392" s="2" t="s">
         <v>1792</v>
       </c>
-      <c r="G392" s="2" t="s">
+      <c r="H392" s="2" t="s">
         <v>1793</v>
       </c>
-      <c r="I392" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="393" spans="1:11" ht="75">
+      <c r="J392" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" ht="75">
       <c r="A393" s="1">
         <v>393</v>
       </c>
@@ -17481,7 +17599,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="394" spans="1:11" ht="60">
+    <row r="394" spans="1:12" ht="60">
       <c r="A394" s="1">
         <v>394</v>
       </c>
@@ -17500,11 +17618,11 @@
       <c r="F394" s="2" t="s">
         <v>1797</v>
       </c>
-      <c r="H394" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="395" spans="1:11" ht="75">
+      <c r="I394" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" ht="75">
       <c r="A395" s="1">
         <v>395</v>
       </c>
@@ -17523,17 +17641,17 @@
       <c r="F395" s="2" t="s">
         <v>1799</v>
       </c>
-      <c r="G395" s="2" t="s">
+      <c r="H395" s="2" t="s">
         <v>1800</v>
       </c>
-      <c r="H395" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K395" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="396" spans="1:11" ht="60">
+      <c r="I395" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L395" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" ht="60">
       <c r="A396" s="1">
         <v>396</v>
       </c>
@@ -17552,11 +17670,11 @@
       <c r="F396" s="2" t="s">
         <v>1802</v>
       </c>
-      <c r="G396" s="2" t="s">
+      <c r="H396" s="2" t="s">
         <v>1922</v>
       </c>
     </row>
-    <row r="397" spans="1:11" ht="105">
+    <row r="397" spans="1:12" ht="105">
       <c r="A397" s="1">
         <v>397</v>
       </c>
@@ -17575,11 +17693,11 @@
       <c r="F397" s="2" t="s">
         <v>1804</v>
       </c>
-      <c r="G397" s="2" t="s">
+      <c r="H397" s="2" t="s">
         <v>1805</v>
       </c>
     </row>
-    <row r="398" spans="1:11" ht="45">
+    <row r="398" spans="1:12" ht="45">
       <c r="A398" s="1">
         <v>398</v>
       </c>
@@ -17598,11 +17716,11 @@
       <c r="F398" s="2" t="s">
         <v>1807</v>
       </c>
-      <c r="K398" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="399" spans="1:11">
+      <c r="L398" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12">
       <c r="A399" s="1">
         <v>399</v>
       </c>
@@ -17621,14 +17739,14 @@
       <c r="F399" s="2" t="s">
         <v>1809</v>
       </c>
-      <c r="G399" s="2" t="s">
+      <c r="H399" s="2" t="s">
         <v>1810</v>
       </c>
-      <c r="K399" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="400" spans="1:11" ht="30">
+      <c r="L399" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" ht="30">
       <c r="A400" s="1">
         <v>400</v>
       </c>
@@ -17647,11 +17765,11 @@
       <c r="F400" s="2" t="s">
         <v>1812</v>
       </c>
-      <c r="G400" s="2" t="s">
+      <c r="H400" s="2" t="s">
         <v>1813</v>
       </c>
     </row>
-    <row r="401" spans="1:11" ht="120">
+    <row r="401" spans="1:12" ht="120">
       <c r="A401" s="1">
         <v>401</v>
       </c>
@@ -17670,14 +17788,14 @@
       <c r="F401" s="2" t="s">
         <v>1815</v>
       </c>
-      <c r="G401" s="2" t="s">
+      <c r="H401" s="2" t="s">
         <v>2034</v>
       </c>
-      <c r="I401" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="402" spans="1:11" ht="45">
+      <c r="J401" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" ht="45">
       <c r="A402" s="1">
         <v>402</v>
       </c>
@@ -17696,14 +17814,14 @@
       <c r="F402" s="2" t="s">
         <v>1817</v>
       </c>
-      <c r="H402" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="I402" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="403" spans="1:11" ht="30">
+      <c r="J402" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" ht="30">
       <c r="A403" s="1">
         <v>403</v>
       </c>
@@ -17722,14 +17840,14 @@
       <c r="F403" s="2" t="s">
         <v>1819</v>
       </c>
-      <c r="G403" s="2" t="s">
+      <c r="H403" s="2" t="s">
         <v>1820</v>
       </c>
-      <c r="K403" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="404" spans="1:11" ht="105">
+      <c r="L403" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" ht="105">
       <c r="A404" s="1">
         <v>404</v>
       </c>
@@ -17748,14 +17866,14 @@
       <c r="F404" s="2" t="s">
         <v>1822</v>
       </c>
-      <c r="G404" s="2" t="s">
+      <c r="H404" s="2" t="s">
         <v>1805</v>
       </c>
-      <c r="I404" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="405" spans="1:11" ht="120">
+      <c r="J404" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" ht="120">
       <c r="A405" s="1">
         <v>405</v>
       </c>
@@ -17774,14 +17892,14 @@
       <c r="F405" s="2" t="s">
         <v>1824</v>
       </c>
-      <c r="G405" s="2" t="s">
+      <c r="H405" s="2" t="s">
         <v>2034</v>
       </c>
-      <c r="H405" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="406" spans="1:11" ht="45">
+      <c r="I405" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" ht="45">
       <c r="A406" s="1">
         <v>406</v>
       </c>
@@ -17801,7 +17919,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="407" spans="1:11" ht="45">
+    <row r="407" spans="1:12" ht="45">
       <c r="A407" s="1">
         <v>407</v>
       </c>
@@ -17821,7 +17939,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="408" spans="1:11" ht="30">
+    <row r="408" spans="1:12" ht="30">
       <c r="A408" s="1">
         <v>408</v>
       </c>
@@ -17841,7 +17959,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="409" spans="1:11" ht="45">
+    <row r="409" spans="1:12" ht="45">
       <c r="A409" s="1">
         <v>409</v>
       </c>
@@ -17860,11 +17978,11 @@
       <c r="F409" s="2" t="s">
         <v>1831</v>
       </c>
-      <c r="G409" s="2" t="s">
+      <c r="H409" s="2" t="s">
         <v>1832</v>
       </c>
     </row>
-    <row r="410" spans="1:11" ht="90">
+    <row r="410" spans="1:12" ht="90">
       <c r="A410" s="1">
         <v>410</v>
       </c>
@@ -17883,17 +18001,17 @@
       <c r="F410" s="2" t="s">
         <v>1834</v>
       </c>
-      <c r="G410" s="2" t="s">
+      <c r="H410" s="2" t="s">
         <v>1835</v>
       </c>
-      <c r="H410" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K410" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="411" spans="1:11" ht="75">
+      <c r="I410" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L410" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" ht="75">
       <c r="A411" s="1">
         <v>411</v>
       </c>
@@ -17912,11 +18030,11 @@
       <c r="F411" s="2" t="s">
         <v>1837</v>
       </c>
-      <c r="G411" s="2" t="s">
+      <c r="H411" s="2" t="s">
         <v>1838</v>
       </c>
     </row>
-    <row r="412" spans="1:11" ht="105">
+    <row r="412" spans="1:12" ht="105">
       <c r="A412" s="1">
         <v>412</v>
       </c>
@@ -17935,11 +18053,11 @@
       <c r="F412" s="2" t="s">
         <v>1840</v>
       </c>
-      <c r="G412" s="2" t="s">
+      <c r="H412" s="2" t="s">
         <v>1777</v>
       </c>
     </row>
-    <row r="413" spans="1:11" ht="135">
+    <row r="413" spans="1:12" ht="135">
       <c r="A413" s="1">
         <v>413</v>
       </c>
@@ -17958,14 +18076,14 @@
       <c r="F413" s="2" t="s">
         <v>1842</v>
       </c>
-      <c r="G413" s="2" t="s">
+      <c r="H413" s="2" t="s">
         <v>1843</v>
       </c>
-      <c r="I413" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="414" spans="1:11" ht="75">
+      <c r="J413" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" ht="75">
       <c r="A414" s="1">
         <v>414</v>
       </c>
@@ -17984,11 +18102,11 @@
       <c r="F414" s="2" t="s">
         <v>1878</v>
       </c>
-      <c r="G414" s="2" t="s">
+      <c r="H414" s="2" t="s">
         <v>1880</v>
       </c>
     </row>
-    <row r="415" spans="1:11" ht="225">
+    <row r="415" spans="1:12" ht="225">
       <c r="A415" s="1">
         <v>415</v>
       </c>
@@ -18007,14 +18125,14 @@
       <c r="F415" s="2" t="s">
         <v>1881</v>
       </c>
-      <c r="G415" s="2" t="s">
+      <c r="H415" s="2" t="s">
         <v>1882</v>
       </c>
-      <c r="K415" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="416" spans="1:11" ht="30">
+      <c r="L415" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" ht="30">
       <c r="A416" s="1">
         <v>416</v>
       </c>
@@ -18033,11 +18151,11 @@
       <c r="F416" s="2" t="s">
         <v>1883</v>
       </c>
-      <c r="K416" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="417" spans="1:11" ht="45">
+      <c r="L416" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" ht="45">
       <c r="A417" s="1">
         <v>417</v>
       </c>
@@ -18056,11 +18174,11 @@
       <c r="F417" s="2" t="s">
         <v>1884</v>
       </c>
-      <c r="K417" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="418" spans="1:11" ht="75">
+      <c r="L417" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" ht="75">
       <c r="A418" s="1">
         <v>418</v>
       </c>
@@ -18079,17 +18197,17 @@
       <c r="F418" s="2" t="s">
         <v>1885</v>
       </c>
-      <c r="G418" s="2" t="s">
+      <c r="H418" s="2" t="s">
         <v>1800</v>
       </c>
-      <c r="H418" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K418" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="419" spans="1:11" ht="30">
+      <c r="I418" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L418" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" ht="30">
       <c r="A419" s="1">
         <v>419</v>
       </c>
@@ -18108,17 +18226,17 @@
       <c r="F419" s="2" t="s">
         <v>1886</v>
       </c>
-      <c r="G419" s="2" t="s">
+      <c r="H419" s="2" t="s">
         <v>1914</v>
       </c>
-      <c r="H419" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K419" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="420" spans="1:11" ht="75">
+      <c r="I419" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L419" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" ht="75">
       <c r="A420" s="1">
         <v>420</v>
       </c>
@@ -18137,11 +18255,11 @@
       <c r="F420" s="2" t="s">
         <v>1887</v>
       </c>
-      <c r="I420" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="421" spans="1:11" ht="165">
+      <c r="J420" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" ht="165">
       <c r="A421" s="1">
         <v>421</v>
       </c>
@@ -18160,11 +18278,11 @@
       <c r="F421" s="2" t="s">
         <v>1888</v>
       </c>
-      <c r="G421" s="2" t="s">
+      <c r="H421" s="2" t="s">
         <v>2035</v>
       </c>
     </row>
-    <row r="422" spans="1:11" ht="45">
+    <row r="422" spans="1:12" ht="45">
       <c r="A422" s="1">
         <v>422</v>
       </c>
@@ -18183,11 +18301,11 @@
       <c r="F422" s="2" t="s">
         <v>1889</v>
       </c>
-      <c r="G422" s="2" t="s">
+      <c r="H422" s="2" t="s">
         <v>1915</v>
       </c>
     </row>
-    <row r="423" spans="1:11" ht="60">
+    <row r="423" spans="1:12" ht="60">
       <c r="A423" s="1">
         <v>423</v>
       </c>
@@ -18207,7 +18325,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="424" spans="1:11" ht="330">
+    <row r="424" spans="1:12" ht="330">
       <c r="A424" s="1">
         <v>424</v>
       </c>
@@ -18226,11 +18344,11 @@
       <c r="F424" s="2" t="s">
         <v>1891</v>
       </c>
-      <c r="G424" s="2" t="s">
+      <c r="H424" s="2" t="s">
         <v>2051</v>
       </c>
     </row>
-    <row r="425" spans="1:11" ht="45">
+    <row r="425" spans="1:12" ht="45">
       <c r="A425" s="1">
         <v>425</v>
       </c>
@@ -18250,7 +18368,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="426" spans="1:11" ht="45">
+    <row r="426" spans="1:12" ht="45">
       <c r="A426" s="1">
         <v>426</v>
       </c>
@@ -18269,11 +18387,11 @@
       <c r="F426" s="2" t="s">
         <v>1893</v>
       </c>
-      <c r="G426" s="2" t="s">
+      <c r="H426" s="2" t="s">
         <v>1832</v>
       </c>
     </row>
-    <row r="427" spans="1:11" ht="30">
+    <row r="427" spans="1:12" ht="30">
       <c r="A427" s="1">
         <v>427</v>
       </c>
@@ -18293,7 +18411,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="428" spans="1:11" ht="45">
+    <row r="428" spans="1:12" ht="45">
       <c r="A428" s="1">
         <v>428</v>
       </c>
@@ -18313,7 +18431,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="429" spans="1:11" ht="30">
+    <row r="429" spans="1:12" ht="30">
       <c r="A429" s="1">
         <v>429</v>
       </c>
@@ -18333,7 +18451,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="430" spans="1:11" ht="45">
+    <row r="430" spans="1:12" ht="45">
       <c r="A430" s="1">
         <v>430</v>
       </c>
@@ -18352,11 +18470,11 @@
       <c r="F430" s="2" t="s">
         <v>1897</v>
       </c>
-      <c r="G430" s="2" t="s">
+      <c r="H430" s="2" t="s">
         <v>1916</v>
       </c>
     </row>
-    <row r="431" spans="1:11" ht="45">
+    <row r="431" spans="1:12" ht="45">
       <c r="A431" s="1">
         <v>431</v>
       </c>
@@ -18375,11 +18493,11 @@
       <c r="F431" s="2" t="s">
         <v>1898</v>
       </c>
-      <c r="G431" s="2" t="s">
+      <c r="H431" s="2" t="s">
         <v>1917</v>
       </c>
     </row>
-    <row r="432" spans="1:11" ht="225">
+    <row r="432" spans="1:12" ht="225">
       <c r="A432" s="1">
         <v>432</v>
       </c>
@@ -18398,11 +18516,11 @@
       <c r="F432" s="2" t="s">
         <v>1754</v>
       </c>
-      <c r="G432" s="2" t="s">
+      <c r="H432" s="2" t="s">
         <v>2036</v>
       </c>
     </row>
-    <row r="433" spans="1:11" ht="120">
+    <row r="433" spans="1:12" ht="120">
       <c r="A433" s="1">
         <v>433</v>
       </c>
@@ -18421,11 +18539,11 @@
       <c r="F433" s="2" t="s">
         <v>1899</v>
       </c>
-      <c r="G433" s="2" t="s">
+      <c r="H433" s="2" t="s">
         <v>1729</v>
       </c>
     </row>
-    <row r="434" spans="1:11" ht="120">
+    <row r="434" spans="1:12" ht="120">
       <c r="A434" s="1">
         <v>434</v>
       </c>
@@ -18444,17 +18562,17 @@
       <c r="F434" s="2" t="s">
         <v>1900</v>
       </c>
-      <c r="G434" s="2" t="s">
+      <c r="H434" s="2" t="s">
         <v>2034</v>
       </c>
-      <c r="I434" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K434" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="435" spans="1:11" ht="165">
+      <c r="J434" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L434" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" ht="165">
       <c r="A435" s="1">
         <v>435</v>
       </c>
@@ -18473,14 +18591,14 @@
       <c r="F435" s="2" t="s">
         <v>1901</v>
       </c>
-      <c r="G435" s="2" t="s">
+      <c r="H435" s="2" t="s">
         <v>2035</v>
       </c>
-      <c r="I435" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="436" spans="1:11" ht="75">
+      <c r="J435" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" ht="75">
       <c r="A436" s="1">
         <v>436</v>
       </c>
@@ -18499,11 +18617,11 @@
       <c r="F436" s="2" t="s">
         <v>1902</v>
       </c>
-      <c r="G436" s="2" t="s">
+      <c r="H436" s="2" t="s">
         <v>1918</v>
       </c>
     </row>
-    <row r="437" spans="1:11" ht="45">
+    <row r="437" spans="1:12" ht="45">
       <c r="A437" s="1">
         <v>437</v>
       </c>
@@ -18522,11 +18640,11 @@
       <c r="F437" s="2" t="s">
         <v>1903</v>
       </c>
-      <c r="G437" s="2" t="s">
+      <c r="H437" s="2" t="s">
         <v>1919</v>
       </c>
     </row>
-    <row r="438" spans="1:11" ht="75">
+    <row r="438" spans="1:12" ht="75">
       <c r="A438" s="1">
         <v>438</v>
       </c>
@@ -18545,17 +18663,17 @@
       <c r="F438" s="2" t="s">
         <v>1932</v>
       </c>
-      <c r="G438" s="2" t="s">
+      <c r="H438" s="2" t="s">
         <v>1920</v>
       </c>
-      <c r="H438" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K438" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="439" spans="1:11" ht="75">
+      <c r="I438" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L438" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12" ht="75">
       <c r="A439" s="1">
         <v>439</v>
       </c>
@@ -18574,14 +18692,14 @@
       <c r="F439" s="2" t="s">
         <v>1904</v>
       </c>
-      <c r="G439" s="2" t="s">
+      <c r="H439" s="2" t="s">
         <v>1921</v>
       </c>
-      <c r="K439" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="440" spans="1:11" ht="150">
+      <c r="L439" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" ht="150">
       <c r="A440" s="1">
         <v>440</v>
       </c>
@@ -18600,14 +18718,14 @@
       <c r="F440" s="2" t="s">
         <v>1905</v>
       </c>
-      <c r="G440" s="2" t="s">
+      <c r="H440" s="2" t="s">
         <v>2031</v>
       </c>
-      <c r="K440" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="441" spans="1:11" ht="75">
+      <c r="L440" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" ht="75">
       <c r="A441" s="1">
         <v>441</v>
       </c>
@@ -18626,17 +18744,17 @@
       <c r="F441" s="2" t="s">
         <v>1906</v>
       </c>
-      <c r="G441" s="2" t="s">
+      <c r="H441" s="2" t="s">
         <v>1762</v>
       </c>
-      <c r="H441" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K441" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="442" spans="1:11" ht="60">
+      <c r="I441" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L441" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" ht="60">
       <c r="A442" s="1">
         <v>442</v>
       </c>
@@ -18655,17 +18773,17 @@
       <c r="F442" s="2" t="s">
         <v>1907</v>
       </c>
-      <c r="G442" s="2" t="s">
+      <c r="H442" s="2" t="s">
         <v>1922</v>
       </c>
-      <c r="H442" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K442" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="443" spans="1:11" ht="60">
+      <c r="I442" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L442" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" ht="60">
       <c r="A443" s="1">
         <v>443</v>
       </c>
@@ -18684,17 +18802,17 @@
       <c r="F443" s="2" t="s">
         <v>1908</v>
       </c>
-      <c r="G443" s="2" t="s">
+      <c r="H443" s="2" t="s">
         <v>1923</v>
       </c>
-      <c r="H443" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K443" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="444" spans="1:11" ht="225">
+      <c r="I443" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L443" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" ht="225">
       <c r="A444" s="1">
         <v>444</v>
       </c>
@@ -18713,17 +18831,17 @@
       <c r="F444" s="2" t="s">
         <v>1909</v>
       </c>
-      <c r="G444" s="2" t="s">
+      <c r="H444" s="2" t="s">
         <v>1882</v>
       </c>
-      <c r="H444" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K444" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="445" spans="1:11" ht="60">
+      <c r="I444" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L444" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" ht="60">
       <c r="A445" s="1">
         <v>445</v>
       </c>
@@ -18742,11 +18860,11 @@
       <c r="F445" s="2" t="s">
         <v>1910</v>
       </c>
-      <c r="G445" s="2" t="s">
+      <c r="H445" s="2" t="s">
         <v>1922</v>
       </c>
     </row>
-    <row r="446" spans="1:11" ht="60">
+    <row r="446" spans="1:12" ht="60">
       <c r="A446" s="1">
         <v>446</v>
       </c>
@@ -18765,14 +18883,14 @@
       <c r="F446" s="2" t="s">
         <v>1911</v>
       </c>
-      <c r="G446" s="2" t="s">
+      <c r="H446" s="2" t="s">
         <v>2032</v>
       </c>
-      <c r="I446" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="447" spans="1:11" ht="45">
+      <c r="J446" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" ht="45">
       <c r="A447" s="1">
         <v>447</v>
       </c>
@@ -18791,7 +18909,7 @@
       <c r="F447" s="2" t="s">
         <v>1912</v>
       </c>
-      <c r="G447" s="2" t="s">
+      <c r="H447" s="2" t="s">
         <v>1924</v>
       </c>
     </row>
